--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us-analysis\InputData\elec\PMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\elec\PMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -30142,7 +30142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -92283,7 +92283,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -92801,25 +92801,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>20567.8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6732.8000000000011</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>895.5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -94018,7 +94018,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -94673,31 +94673,31 @@
       </c>
       <c r="C6">
         <f>BPMCCS!C6</f>
-        <v>0</v>
+        <v>20567.8</v>
       </c>
       <c r="D6">
         <f>BPMCCS!D6</f>
-        <v>0</v>
+        <v>6732.8000000000011</v>
       </c>
       <c r="E6">
         <f>BPMCCS!E6</f>
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="F6">
         <f>BPMCCS!F6</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G6">
         <f>BPMCCS!G6</f>
-        <v>0</v>
+        <v>895.5</v>
       </c>
       <c r="H6">
         <f>BPMCCS!H6</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I6">
         <f>BPMCCS!I6</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J6">
         <f>BPMCCS!J6</f>

--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\PMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C56EAAB-A6E4-48AC-9BB3-24CC75C1D2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB315B43-BF23-4D11-8C64-9422F0918ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="2805" windowWidth="22215" windowHeight="12960" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="32595" yWindow="2535" windowWidth="18765" windowHeight="12960" firstSheet="2" activeTab="2" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="131">
   <si>
     <t xml:space="preserve">Sources : </t>
   </si>
@@ -324,6 +324,117 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>Map to EPS power plants</t>
+  </si>
+  <si>
+    <t>onshore</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>wind &amp; solar</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>total 2025</t>
+  </si>
+  <si>
+    <t>total 2030</t>
+  </si>
+  <si>
+    <t>annual 2025</t>
+  </si>
+  <si>
+    <t>annual 2030</t>
+  </si>
+  <si>
+    <t>To produce 10 Mt (per report)</t>
+  </si>
+  <si>
+    <t>To produce 2.4 Mt (per EI projection)</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[hard coal es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[natural gas steam turbine es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[natural gas combined cycle es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[nuclear es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[hydro es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[onshore wind es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[solar PV es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[solar thermal es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[biomass es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[geothermal es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[petroleum es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[natural gas peaker es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[lignite es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[offshore wind es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[crude oil es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[heavy or residual fuel oil es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[municipal solid waste es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[hard coal w CCS es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[natural gas combined cycle w CCS es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[biomass w CCS es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[lignite w CCS es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[small modular reactor es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[hydrogen combustion turbine es] : test</t>
+  </si>
+  <si>
+    <t>BAU New Generation Capacity[hydrogen combined cycle es] : test</t>
   </si>
 </sst>
 </file>
@@ -687,88 +798,88 @@
                   <c:v>31.174099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>-790007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16216330</c:v>
+                  <c:v>15795500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33617190</c:v>
+                  <c:v>35498630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52344110</c:v>
+                  <c:v>53646410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72631410</c:v>
+                  <c:v>72999210</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92156800</c:v>
+                  <c:v>93234600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113157100</c:v>
+                  <c:v>115039100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>132872000</c:v>
+                  <c:v>133697600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143059800</c:v>
+                  <c:v>141839500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149113600</c:v>
+                  <c:v>145986600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159003000</c:v>
+                  <c:v>151531700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165077200</c:v>
+                  <c:v>159332700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169833200</c:v>
+                  <c:v>167645800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>170519600</c:v>
+                  <c:v>171861700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169910100</c:v>
+                  <c:v>175663600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>178003600</c:v>
+                  <c:v>177570300</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>167320700</c:v>
+                  <c:v>177810300</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169038000</c:v>
+                  <c:v>178325900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175686300</c:v>
+                  <c:v>178575600</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175098200</c:v>
+                  <c:v>180218400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>184846800</c:v>
+                  <c:v>182952800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>181265600</c:v>
+                  <c:v>186143600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>179036100</c:v>
+                  <c:v>192682100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>182789500</c:v>
+                  <c:v>195681500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196055900</c:v>
+                  <c:v>194133900</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>202569100</c:v>
+                  <c:v>195587100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>207680700</c:v>
+                  <c:v>194975700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>231775000</c:v>
+                  <c:v>198839000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,6 +2008,99 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1767355</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3894715</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC88E0AB-B4DE-4AE2-C5EC-0DAFA42DA784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767355" y="7762502"/>
+          <a:ext cx="2133710" cy="3765743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428464</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>3168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3C65CF-AB36-44E2-A33B-A4298AB284AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153151" y="8745070"/>
+          <a:ext cx="4155913" cy="3564398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2237,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E0EDE-E56C-4DF9-9C8D-7B6714D2C68A}">
   <dimension ref="B11:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2366,7 +2570,7 @@
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3238,10 +3442,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5159,83 +5363,83 @@
       </c>
       <c r="K24" s="7">
         <f>'Hydrogen Results'!L78/'Hydrogen Results'!L77</f>
-        <v>0.98149165593688792</v>
+        <v>0.9899358077263386</v>
       </c>
       <c r="L24" s="7">
         <f>'Hydrogen Results'!M78/'Hydrogen Results'!M77</f>
-        <v>0.99477177132065753</v>
+        <v>1.0160795579868289</v>
       </c>
       <c r="M24" s="7">
         <f>'Hydrogen Results'!N78/'Hydrogen Results'!N77</f>
-        <v>0.97553505279774599</v>
+        <v>1.0236339986946625</v>
       </c>
       <c r="N24" s="7">
         <f>'Hydrogen Results'!O78/'Hydrogen Results'!O77</f>
-        <v>0.9786148541409716</v>
+        <v>1.0138973355751832</v>
       </c>
       <c r="O24" s="7">
         <f>'Hydrogen Results'!P78/'Hydrogen Results'!P77</f>
-        <v>0.98747476936193868</v>
+        <v>1.0003590904156263</v>
       </c>
       <c r="P24" s="7">
         <f>'Hydrogen Results'!Q78/'Hydrogen Results'!Q77</f>
-        <v>0.98697745009957805</v>
+        <v>0.97926995950813944</v>
       </c>
       <c r="Q24" s="7">
         <f>'Hydrogen Results'!R78/'Hydrogen Results'!R77</f>
-        <v>1.0131063427071139</v>
+        <v>0.9799241277077323</v>
       </c>
       <c r="R24" s="7">
         <f>'Hydrogen Results'!S78/'Hydrogen Results'!S77</f>
-        <v>0.98336213424897023</v>
+        <v>0.98576169550876469</v>
       </c>
       <c r="S24" s="7">
         <f>'Hydrogen Results'!T78/'Hydrogen Results'!T77</f>
-        <v>1.0458239775473088</v>
+        <v>0.98412746618165536</v>
       </c>
       <c r="T24" s="7">
         <f>'Hydrogen Results'!U78/'Hydrogen Results'!U77</f>
-        <v>1.0340337675552242</v>
+        <v>0.98017730458671459</v>
       </c>
       <c r="U24" s="7">
         <f>'Hydrogen Results'!V78/'Hydrogen Results'!V77</f>
-        <v>0.99891112739012655</v>
+        <v>0.98274904298235588</v>
       </c>
       <c r="V24" s="7">
         <f>'Hydrogen Results'!W78/'Hydrogen Results'!W77</f>
-        <v>1.019536465823178</v>
+        <v>0.99057033022155339</v>
       </c>
       <c r="W24" s="7">
         <f>'Hydrogen Results'!X78/'Hydrogen Results'!X77</f>
-        <v>0.99511595548313525</v>
+        <v>1.0054177908181783</v>
       </c>
       <c r="X24" s="7">
         <f>'Hydrogen Results'!Y78/'Hydrogen Results'!Y77</f>
-        <v>1.0350998755417464</v>
+        <v>1.0079744885131694</v>
       </c>
       <c r="Y24" s="7">
         <f>'Hydrogen Results'!Z78/'Hydrogen Results'!Z77</f>
-        <v>1.0622103586930234</v>
+        <v>0.98698322262420846</v>
       </c>
       <c r="Z24" s="7">
         <f>'Hydrogen Results'!AA78/'Hydrogen Results'!AA77</f>
-        <v>1.0572051458097975</v>
+        <v>0.98755375444280624</v>
       </c>
       <c r="AA24" s="7">
         <f>'Hydrogen Results'!AB78/'Hydrogen Results'!AB77</f>
-        <v>1.0027191224543612</v>
+        <v>1.0126464259977264</v>
       </c>
       <c r="AB24" s="7">
         <f>'Hydrogen Results'!AC78/'Hydrogen Results'!AC77</f>
-        <v>0.98671021394674707</v>
+        <v>1.0219334506212321</v>
       </c>
       <c r="AC24" s="7">
         <f>'Hydrogen Results'!AD78/'Hydrogen Results'!AD77</f>
-        <v>0.97925806297840867</v>
+        <v>1.0430684439137801</v>
       </c>
       <c r="AD24" s="7">
         <f>'Hydrogen Results'!AE78/'Hydrogen Results'!AE77</f>
-        <v>0.89374608995793337</v>
+        <v>1.0417875768838105</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -5790,511 +5994,1114 @@
         <v>0.57503800000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="23"/>
+      <c r="K33">
+        <v>2800</v>
+      </c>
+      <c r="L33">
+        <v>8000</v>
+      </c>
+      <c r="M33">
+        <v>5000</v>
+      </c>
+      <c r="N33">
+        <v>5000</v>
+      </c>
+      <c r="O33">
+        <v>5000</v>
+      </c>
+      <c r="P33">
+        <v>4000</v>
+      </c>
+      <c r="Q33">
+        <v>4000</v>
+      </c>
+      <c r="R33">
+        <v>5000</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>4000</v>
+      </c>
+      <c r="U33">
+        <v>10000</v>
+      </c>
+      <c r="V33">
+        <v>9000</v>
+      </c>
+      <c r="W33">
+        <v>7000</v>
+      </c>
+      <c r="X33">
+        <v>4000</v>
+      </c>
+      <c r="Y33">
+        <v>4000</v>
+      </c>
+      <c r="Z33">
+        <v>8000</v>
+      </c>
+      <c r="AA33">
+        <v>20000</v>
+      </c>
+      <c r="AB33">
+        <v>15000</v>
+      </c>
+      <c r="AC33">
+        <v>16000</v>
+      </c>
+      <c r="AD33">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="8">
-        <f t="shared" ref="B34:C38" si="2">IFERROR(B$13*B16/SUM(B$16:B$20)*$B$22/$B$23*B27,0)*$J$24</f>
+        <f t="shared" ref="B34:C34" si="2">IFERROR(B$13*B16/SUM(B$16:B$20)*$B$22/$B$23*B27,0)*$J$24</f>
         <v>0</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
+        <v>950.23749999999995</v>
+      </c>
+      <c r="E34">
+        <v>950.23749999999995</v>
+      </c>
+      <c r="F34" s="8">
+        <v>621.12239999999997</v>
+      </c>
+      <c r="G34" s="8">
+        <v>621.12239999999997</v>
+      </c>
+      <c r="H34" s="8">
+        <v>621.12239999999997</v>
+      </c>
+      <c r="I34" s="8">
+        <v>621.12239999999997</v>
+      </c>
+      <c r="J34" s="8">
+        <v>500</v>
+      </c>
+      <c r="K34" s="8">
+        <f>R42*K$33</f>
+        <v>1697.3398886465015</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" ref="L34:AD34" si="3">S42*L$33</f>
+        <v>3558.3443515675772</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="3"/>
+        <v>3016.6345849972708</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="3"/>
+        <v>2595.7575616457498</v>
+      </c>
+      <c r="O34" s="8">
+        <f t="shared" si="3"/>
+        <v>3074.7250377399182</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="3"/>
+        <v>2494.0549186883495</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" si="3"/>
+        <v>2510.4864132558682</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="3"/>
+        <v>2490.8394403730845</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="3"/>
+        <v>2596.7776128895484</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="3"/>
+        <v>4290.966863368134</v>
+      </c>
+      <c r="V34" s="8">
+        <f t="shared" si="3"/>
+        <v>6281.3203300825207</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" si="3"/>
+        <v>4901.4386560629082</v>
+      </c>
+      <c r="X34" s="8">
+        <f t="shared" si="3"/>
+        <v>3210.1276330808346</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" si="3"/>
+        <v>3214.6141114448601</v>
+      </c>
+      <c r="Z34" s="8">
+        <f t="shared" si="3"/>
+        <v>6844.5262189512423</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="3"/>
+        <v>12742.382271468145</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="3"/>
+        <v>10444.790792470927</v>
+      </c>
+      <c r="AC34" s="8">
+        <f t="shared" si="3"/>
+        <v>10653.799758745476</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="3"/>
+        <v>4345.2380952380954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="8">
+        <f>IFERROR(B$13*B20/SUM(B$16:B$20)*$B$22/$B$23*B31,0)*$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
+        <f>IFERROR(C$13*C20/SUM(C$16:C$20)*$B$22/$B$23*C31,0)*$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1128.4875</v>
+      </c>
+      <c r="E35">
+        <v>1128.4875</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" ref="K35:AD35" si="4">R43*K$33</f>
+        <v>766.89349786735261</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="4"/>
+        <v>1613.8762521569595</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="4"/>
+        <v>1383.342431120177</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="4"/>
+        <v>1213.1231517917433</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="4"/>
+        <v>1356.7500539141686</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" si="4"/>
+        <v>1051.8794988003199</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="4"/>
+        <v>1041.9195998228383</v>
+      </c>
+      <c r="R35" s="8">
+        <f t="shared" si="4"/>
+        <v>825.0749500333111</v>
+      </c>
+      <c r="S35" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <f t="shared" si="4"/>
+        <v>642.14543141827426</v>
+      </c>
+      <c r="U35" s="8">
+        <f t="shared" si="4"/>
+        <v>806.17339990921471</v>
+      </c>
+      <c r="V35" s="8">
+        <f t="shared" si="4"/>
+        <v>879.9699924981245</v>
+      </c>
+      <c r="W35" s="8">
+        <f t="shared" si="4"/>
+        <v>679.29586274685016</v>
+      </c>
+      <c r="X35" s="8">
+        <f t="shared" si="4"/>
+        <v>370.6547680813531</v>
+      </c>
+      <c r="Y35" s="8">
+        <f t="shared" si="4"/>
+        <v>200.5762275485809</v>
+      </c>
+      <c r="Z35" s="8">
+        <f t="shared" si="4"/>
+        <v>585.09659613615452</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="4"/>
+        <v>716.52816251154206</v>
+      </c>
+      <c r="AB35" s="8">
+        <f t="shared" si="4"/>
+        <v>46.756983575110894</v>
+      </c>
+      <c r="AC35" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="8">
+        <f>IFERROR(B$13*B17/SUM(B$16:B$20)*$B$22/$B$23*B28,0)*$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <f>IFERROR(C$13*C17/SUM(C$16:C$20)*$B$22/$B$23*C28,0)*$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5353.6750000000002</v>
+      </c>
+      <c r="E36">
+        <v>5353.6750000000002</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="H36" s="8">
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="I36" s="8">
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="J36" s="8">
         <v>3600</v>
       </c>
-      <c r="E34" s="8">
-        <v>3600</v>
-      </c>
-      <c r="F34" s="8">
-        <v>3600</v>
-      </c>
-      <c r="G34" s="8">
-        <v>3600</v>
-      </c>
-      <c r="H34" s="8">
-        <v>2900</v>
-      </c>
-      <c r="I34" s="8">
-        <v>2900</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2600</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>700</v>
-      </c>
-      <c r="M34" s="8">
-        <v>1500</v>
-      </c>
-      <c r="N34" s="8">
-        <v>2000</v>
-      </c>
-      <c r="O34" s="8">
-        <v>2000</v>
-      </c>
-      <c r="P34" s="8">
-        <v>2000</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>6000</v>
-      </c>
-      <c r="R34" s="8">
-        <v>6000</v>
-      </c>
-      <c r="S34" s="8">
-        <v>9000</v>
-      </c>
-      <c r="T34" s="8">
-        <v>10000</v>
-      </c>
-      <c r="U34" s="8">
-        <v>15000</v>
-      </c>
-      <c r="V34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="W34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="X34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>20000</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>10000</v>
-      </c>
-      <c r="AC34" s="8">
-        <v>10000</v>
-      </c>
-      <c r="AD34" s="8">
-        <v>5000</v>
+      <c r="K36" s="8">
+        <f t="shared" ref="K36:AD36" si="5">R44*K$33</f>
+        <v>211.05069514537817</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="5"/>
+        <v>449.99215651121619</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="5"/>
+        <v>387.85301807107766</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="5"/>
+        <v>342.28234801033835</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="5"/>
+        <v>408.39982747466036</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="5"/>
+        <v>336.97680618501738</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="5"/>
+        <v>344.42331240392883</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" si="5"/>
+        <v>340.3980679546969</v>
+      </c>
+      <c r="S36" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <f t="shared" si="5"/>
+        <v>363.57854568581729</v>
+      </c>
+      <c r="U36" s="8">
+        <f t="shared" si="5"/>
+        <v>537.90285973672269</v>
+      </c>
+      <c r="V36" s="8">
+        <f t="shared" si="5"/>
+        <v>752.06301575393854</v>
+      </c>
+      <c r="W36" s="8">
+        <f t="shared" si="5"/>
+        <v>603.61004378518453</v>
+      </c>
+      <c r="X36" s="8">
+        <f t="shared" si="5"/>
+        <v>419.2175988378126</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" si="5"/>
+        <v>420.52350885796602</v>
+      </c>
+      <c r="Z36" s="8">
+        <f t="shared" si="5"/>
+        <v>570.37718491260352</v>
+      </c>
+      <c r="AA36" s="8">
+        <f t="shared" si="5"/>
+        <v>821.79132040627894</v>
+      </c>
+      <c r="AB36" s="8">
+        <f t="shared" si="5"/>
+        <v>404.62774247692124</v>
+      </c>
+      <c r="AC36" s="8">
+        <f t="shared" si="5"/>
+        <v>627.26176115802173</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="5"/>
+        <v>396.82539682539681</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1400</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1400</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1400</v>
-      </c>
-      <c r="G35" s="8">
-        <v>1300</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1100</v>
-      </c>
-      <c r="I35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="8">
-        <v>800</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>400</v>
-      </c>
-      <c r="M35" s="8">
-        <v>800</v>
-      </c>
-      <c r="N35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="P35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>4000</v>
-      </c>
-      <c r="R35" s="8">
-        <v>4000</v>
-      </c>
-      <c r="S35" s="8">
-        <v>6000</v>
-      </c>
-      <c r="T35" s="8">
-        <v>6000</v>
-      </c>
-      <c r="U35" s="8">
-        <v>9000</v>
-      </c>
-      <c r="V35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="W35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="X35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>13000</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC35" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AD35" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0</v>
-      </c>
-      <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>0</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="8">
-        <f t="shared" si="2"/>
+        <f>IFERROR(B$13*B19/SUM(B$16:B$20)*$B$22/$B$23*B30,0)*$J$24</f>
         <v>0</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
+        <f>IFERROR(C$13*C19/SUM(C$16:C$20)*$B$22/$B$23*C30,0)*$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>218.35000000000002</v>
+      </c>
+      <c r="E37">
+        <v>218.35000000000002</v>
       </c>
       <c r="F37" s="8">
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="G37" s="8">
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="H37" s="8">
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="I37" s="8">
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="J37" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" s="8">
+        <f t="shared" ref="K37:AD37" si="6">R45*K$33</f>
         <v>0</v>
       </c>
       <c r="L37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD37" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>800</v>
-      </c>
-      <c r="E38" s="8">
-        <v>800</v>
-      </c>
-      <c r="F38" s="8">
-        <v>800</v>
-      </c>
-      <c r="G38" s="8">
-        <v>800</v>
-      </c>
-      <c r="H38" s="8">
-        <v>800</v>
-      </c>
-      <c r="I38" s="8">
-        <v>800</v>
-      </c>
-      <c r="J38" s="8">
-        <v>500</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <v>80</v>
-      </c>
-      <c r="M38" s="8">
-        <v>160</v>
-      </c>
-      <c r="N38" s="8">
-        <v>200</v>
-      </c>
-      <c r="O38" s="8">
-        <v>200</v>
-      </c>
-      <c r="P38" s="8">
-        <v>200</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>800</v>
-      </c>
-      <c r="R38" s="8">
-        <v>800</v>
-      </c>
-      <c r="S38" s="8">
-        <v>1000</v>
-      </c>
-      <c r="T38" s="8">
-        <v>2000</v>
-      </c>
-      <c r="U38" s="8">
-        <v>3000</v>
-      </c>
-      <c r="V38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="W38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="X38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="Z38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="AB38" s="8">
-        <v>2000</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>2000</v>
-      </c>
-      <c r="AD38" s="8">
-        <v>1000</v>
-      </c>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="K39" s="8"/>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="D39" s="8"/>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D40" s="8"/>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="D40" s="8">
+        <v>2025</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2030</v>
+      </c>
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" t="s">
+        <v>97</v>
+      </c>
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D41" s="8"/>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="8">
+        <v>567</v>
+      </c>
+      <c r="E41" s="8">
+        <v>6270</v>
+      </c>
+      <c r="K41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41">
+        <f>SUMPRODUCT($D41:$D46,G41:G46)</f>
+        <v>3800.95</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:O41" si="7">SUMPRODUCT($D41:$D46,H41:H46)</f>
+        <v>4513.95</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>21414.7</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>873.40000000000009</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D42" s="8"/>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="8">
+        <v>853</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2043</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42">
+        <f>SUMPRODUCT($E41:$E46,G41:G46)</f>
+        <v>12940.05</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:O42" si="8">SUMPRODUCT($E41:$E46,H41:H46)</f>
+        <v>28958.05</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>87208.3</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>3178.6000000000004</v>
+      </c>
+      <c r="R42" s="10">
+        <f>'Hydrogen Results'!L102/SUM('Hydrogen Results'!L$97:L$120)</f>
+        <v>0.60619281737375053</v>
+      </c>
+      <c r="S42" s="10">
+        <f>'Hydrogen Results'!M102/SUM('Hydrogen Results'!M$97:M$120)</f>
+        <v>0.44479304394594715</v>
+      </c>
+      <c r="T42" s="10">
+        <f>'Hydrogen Results'!N102/SUM('Hydrogen Results'!N$97:N$120)</f>
+        <v>0.60332691699945418</v>
+      </c>
+      <c r="U42" s="10">
+        <f>'Hydrogen Results'!O102/SUM('Hydrogen Results'!O$97:O$120)</f>
+        <v>0.51915151232914991</v>
+      </c>
+      <c r="V42" s="10">
+        <f>'Hydrogen Results'!P102/SUM('Hydrogen Results'!P$97:P$120)</f>
+        <v>0.61494500754798365</v>
+      </c>
+      <c r="W42" s="10">
+        <f>'Hydrogen Results'!Q102/SUM('Hydrogen Results'!Q$97:Q$120)</f>
+        <v>0.6235137296720874</v>
+      </c>
+      <c r="X42" s="10">
+        <f>'Hydrogen Results'!R102/SUM('Hydrogen Results'!R$97:R$120)</f>
+        <v>0.6276216033139671</v>
+      </c>
+      <c r="Y42" s="10">
+        <f>'Hydrogen Results'!S102/SUM('Hydrogen Results'!S$97:S$120)</f>
+        <v>0.49816788807461693</v>
+      </c>
+      <c r="Z42" s="10">
+        <f>'Hydrogen Results'!T102/SUM('Hydrogen Results'!T$97:T$120)</f>
+        <v>0.64638742327985355</v>
+      </c>
+      <c r="AA42" s="10">
+        <f>'Hydrogen Results'!U102/SUM('Hydrogen Results'!U$97:U$120)</f>
+        <v>0.64919440322238708</v>
+      </c>
+      <c r="AB42" s="10">
+        <f>'Hydrogen Results'!V102/SUM('Hydrogen Results'!V$97:V$120)</f>
+        <v>0.42909668633681342</v>
+      </c>
+      <c r="AC42" s="10">
+        <f>'Hydrogen Results'!W102/SUM('Hydrogen Results'!W$97:W$120)</f>
+        <v>0.69792448112028005</v>
+      </c>
+      <c r="AD42" s="10">
+        <f>'Hydrogen Results'!X102/SUM('Hydrogen Results'!X$97:X$120)</f>
+        <v>0.70020552229470112</v>
+      </c>
+      <c r="AE42" s="10">
+        <f>'Hydrogen Results'!Y102/SUM('Hydrogen Results'!Y$97:Y$120)</f>
+        <v>0.80253190827020859</v>
+      </c>
+      <c r="AF42" s="10">
+        <f>'Hydrogen Results'!Z102/SUM('Hydrogen Results'!Z$97:Z$120)</f>
+        <v>0.80365352786121502</v>
+      </c>
+      <c r="AG42" s="10">
+        <f>'Hydrogen Results'!AA102/SUM('Hydrogen Results'!AA$97:AA$120)</f>
+        <v>0.85556577736890527</v>
+      </c>
+      <c r="AH42" s="10">
+        <f>'Hydrogen Results'!AB102/SUM('Hydrogen Results'!AB$97:AB$120)</f>
+        <v>0.63711911357340723</v>
+      </c>
+      <c r="AI42" s="10">
+        <f>'Hydrogen Results'!AC102/SUM('Hydrogen Results'!AC$97:AC$120)</f>
+        <v>0.69631938616472844</v>
+      </c>
+      <c r="AJ42" s="10">
+        <f>'Hydrogen Results'!AD102/SUM('Hydrogen Results'!AD$97:AD$120)</f>
+        <v>0.66586248492159228</v>
+      </c>
+      <c r="AK42" s="10">
+        <f>'Hydrogen Results'!AE102/SUM('Hydrogen Results'!AE$97:AE$120)</f>
+        <v>0.36210317460317459</v>
+      </c>
+      <c r="AL42" s="10"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D43" s="8"/>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1311</v>
+      </c>
+      <c r="E43" s="8">
+        <v>5445</v>
+      </c>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+      <c r="H43">
+        <v>0.25</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="10">
+        <f>'Hydrogen Results'!L103/SUM('Hydrogen Results'!L$97:L$120)</f>
+        <v>0.27389053495262594</v>
+      </c>
+      <c r="S43" s="10">
+        <f>'Hydrogen Results'!M103/SUM('Hydrogen Results'!M$97:M$120)</f>
+        <v>0.20173453151961993</v>
+      </c>
+      <c r="T43" s="10">
+        <f>'Hydrogen Results'!N103/SUM('Hydrogen Results'!N$97:N$120)</f>
+        <v>0.27666848622403539</v>
+      </c>
+      <c r="U43" s="10">
+        <f>'Hydrogen Results'!O103/SUM('Hydrogen Results'!O$97:O$120)</f>
+        <v>0.24262463035834866</v>
+      </c>
+      <c r="V43" s="10">
+        <f>'Hydrogen Results'!P103/SUM('Hydrogen Results'!P$97:P$120)</f>
+        <v>0.27135001078283372</v>
+      </c>
+      <c r="W43" s="10">
+        <f>'Hydrogen Results'!Q103/SUM('Hydrogen Results'!Q$97:Q$120)</f>
+        <v>0.26296987470007999</v>
+      </c>
+      <c r="X43" s="10">
+        <f>'Hydrogen Results'!R103/SUM('Hydrogen Results'!R$97:R$120)</f>
+        <v>0.26047989995570958</v>
+      </c>
+      <c r="Y43" s="10">
+        <f>'Hydrogen Results'!S103/SUM('Hydrogen Results'!S$97:S$120)</f>
+        <v>0.16501499000666223</v>
+      </c>
+      <c r="Z43" s="10">
+        <f>'Hydrogen Results'!T103/SUM('Hydrogen Results'!T$97:T$120)</f>
+        <v>0.18418219015828577</v>
+      </c>
+      <c r="AA43" s="10">
+        <f>'Hydrogen Results'!U103/SUM('Hydrogen Results'!U$97:U$120)</f>
+        <v>0.16053635785456857</v>
+      </c>
+      <c r="AB43" s="10">
+        <f>'Hydrogen Results'!V103/SUM('Hydrogen Results'!V$97:V$120)</f>
+        <v>8.0617339990921466E-2</v>
+      </c>
+      <c r="AC43" s="10">
+        <f>'Hydrogen Results'!W103/SUM('Hydrogen Results'!W$97:W$120)</f>
+        <v>9.777444361090272E-2</v>
+      </c>
+      <c r="AD43" s="10">
+        <f>'Hydrogen Results'!X103/SUM('Hydrogen Results'!X$97:X$120)</f>
+        <v>9.7042266106692879E-2</v>
+      </c>
+      <c r="AE43" s="10">
+        <f>'Hydrogen Results'!Y103/SUM('Hydrogen Results'!Y$97:Y$120)</f>
+        <v>9.2663692020338279E-2</v>
+      </c>
+      <c r="AF43" s="10">
+        <f>'Hydrogen Results'!Z103/SUM('Hydrogen Results'!Z$97:Z$120)</f>
+        <v>5.0144056887145225E-2</v>
+      </c>
+      <c r="AG43" s="10">
+        <f>'Hydrogen Results'!AA103/SUM('Hydrogen Results'!AA$97:AA$120)</f>
+        <v>7.3137074517019313E-2</v>
+      </c>
+      <c r="AH43" s="10">
+        <f>'Hydrogen Results'!AB103/SUM('Hydrogen Results'!AB$97:AB$120)</f>
+        <v>3.5826408125577101E-2</v>
+      </c>
+      <c r="AI43" s="10">
+        <f>'Hydrogen Results'!AC103/SUM('Hydrogen Results'!AC$97:AC$120)</f>
+        <v>3.1171322383407264E-3</v>
+      </c>
+      <c r="AJ43" s="10">
+        <f>'Hydrogen Results'!AD103/SUM('Hydrogen Results'!AD$97:AD$120)</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="10">
+        <f>'Hydrogen Results'!AE103/SUM('Hydrogen Results'!AE$97:AE$120)</f>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="10"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1566</v>
+      </c>
+      <c r="E44" s="8">
+        <v>18061</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="10">
+        <f>'Hydrogen Results'!L110/SUM('Hydrogen Results'!L$97:L$120)</f>
+        <v>7.5375248266206493E-2</v>
+      </c>
+      <c r="S44" s="10">
+        <f>'Hydrogen Results'!M110/SUM('Hydrogen Results'!M$97:M$120)</f>
+        <v>5.6249019563902027E-2</v>
+      </c>
+      <c r="T44" s="10">
+        <f>'Hydrogen Results'!N110/SUM('Hydrogen Results'!N$97:N$120)</f>
+        <v>7.7570603614215528E-2</v>
+      </c>
+      <c r="U44" s="10">
+        <f>'Hydrogen Results'!O110/SUM('Hydrogen Results'!O$97:O$120)</f>
+        <v>6.8456469602067666E-2</v>
+      </c>
+      <c r="V44" s="10">
+        <f>'Hydrogen Results'!P110/SUM('Hydrogen Results'!P$97:P$120)</f>
+        <v>8.1679965494932075E-2</v>
+      </c>
+      <c r="W44" s="10">
+        <f>'Hydrogen Results'!Q110/SUM('Hydrogen Results'!Q$97:Q$120)</f>
+        <v>8.4244201546254338E-2</v>
+      </c>
+      <c r="X44" s="10">
+        <f>'Hydrogen Results'!R110/SUM('Hydrogen Results'!R$97:R$120)</f>
+        <v>8.6105828100982204E-2</v>
+      </c>
+      <c r="Y44" s="10">
+        <f>'Hydrogen Results'!S110/SUM('Hydrogen Results'!S$97:S$120)</f>
+        <v>6.8079613590939378E-2</v>
+      </c>
+      <c r="Z44" s="10">
+        <f>'Hydrogen Results'!T110/SUM('Hydrogen Results'!T$97:T$120)</f>
+        <v>8.9103047270377947E-2</v>
+      </c>
+      <c r="AA44" s="10">
+        <f>'Hydrogen Results'!U110/SUM('Hydrogen Results'!U$97:U$120)</f>
+        <v>9.0894636421454317E-2</v>
+      </c>
+      <c r="AB44" s="10">
+        <f>'Hydrogen Results'!V110/SUM('Hydrogen Results'!V$97:V$120)</f>
+        <v>5.3790285973672268E-2</v>
+      </c>
+      <c r="AC44" s="10">
+        <f>'Hydrogen Results'!W110/SUM('Hydrogen Results'!W$97:W$120)</f>
+        <v>8.3562557305993171E-2</v>
+      </c>
+      <c r="AD44" s="10">
+        <f>'Hydrogen Results'!X110/SUM('Hydrogen Results'!X$97:X$120)</f>
+        <v>8.6230006255026359E-2</v>
+      </c>
+      <c r="AE44" s="10">
+        <f>'Hydrogen Results'!Y110/SUM('Hydrogen Results'!Y$97:Y$120)</f>
+        <v>0.10480439970945316</v>
+      </c>
+      <c r="AF44" s="10">
+        <f>'Hydrogen Results'!Z110/SUM('Hydrogen Results'!Z$97:Z$120)</f>
+        <v>0.10513087721449151</v>
+      </c>
+      <c r="AG44" s="10">
+        <f>'Hydrogen Results'!AA110/SUM('Hydrogen Results'!AA$97:AA$120)</f>
+        <v>7.1297148114075434E-2</v>
+      </c>
+      <c r="AH44" s="10">
+        <f>'Hydrogen Results'!AB110/SUM('Hydrogen Results'!AB$97:AB$120)</f>
+        <v>4.1089566020313946E-2</v>
+      </c>
+      <c r="AI44" s="10">
+        <f>'Hydrogen Results'!AC110/SUM('Hydrogen Results'!AC$97:AC$120)</f>
+        <v>2.6975182831794748E-2</v>
+      </c>
+      <c r="AJ44" s="10">
+        <f>'Hydrogen Results'!AD110/SUM('Hydrogen Results'!AD$97:AD$120)</f>
+        <v>3.9203860072376355E-2</v>
+      </c>
+      <c r="AK44" s="10">
+        <f>'Hydrogen Results'!AE110/SUM('Hydrogen Results'!AE$97:AE$120)</f>
+        <v>3.3068783068783067E-2</v>
+      </c>
+      <c r="AL44" s="10"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="8">
+        <v>8734</v>
+      </c>
+      <c r="E45" s="8">
+        <v>31786</v>
+      </c>
+      <c r="G45">
+        <v>0.3</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45">
+        <v>0.3</v>
+      </c>
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45">
+        <f>L41/2</f>
+        <v>1900.4749999999999</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:O45" si="9">M41/2</f>
+        <v>2256.9749999999999</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>10707.35</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>436.70000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="8">
+        <v>18139</v>
+      </c>
+      <c r="E46" s="8">
+        <v>74950</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46">
+        <f>L42/5</f>
+        <v>2588.0099999999998</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:O46" si="10">M42/5</f>
+        <v>5791.61</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>17441.66</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>635.72</v>
+      </c>
+      <c r="R46" s="8">
+        <f>R42*1000</f>
+        <v>606.19281737375047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="R47" s="8">
+        <f>R44*1000</f>
+        <v>75.375248266206498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="K48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R48" s="8">
+        <f>R43*1000</f>
+        <v>273.89053495262596</v>
+      </c>
+    </row>
+    <row r="49" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" t="s">
+        <v>97</v>
+      </c>
+      <c r="O49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="8">
+        <f>L45*0.5</f>
+        <v>950.23749999999995</v>
+      </c>
+      <c r="M50" s="8">
+        <f t="shared" ref="M50:O50" si="11">M45*0.5</f>
+        <v>1128.4875</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" si="11"/>
+        <v>5353.6750000000002</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" si="11"/>
+        <v>218.35000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" ref="L51:O51" si="12">L46*0.24</f>
+        <v>621.12239999999997</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" si="12"/>
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" si="12"/>
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" si="12"/>
+        <v>152.5728</v>
+      </c>
+    </row>
+    <row r="53" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="L53">
+        <v>950.23749999999995</v>
+      </c>
+      <c r="M53">
+        <v>1128.4875</v>
+      </c>
+      <c r="N53">
+        <v>5353.6750000000002</v>
+      </c>
+      <c r="O53">
+        <v>218.35000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="11:15" x14ac:dyDescent="0.35">
+      <c r="L54">
+        <v>621.12239999999997</v>
+      </c>
+      <c r="M54">
+        <v>1389.9863999999998</v>
+      </c>
+      <c r="N54">
+        <v>4185.9983999999995</v>
+      </c>
+      <c r="O54">
+        <v>152.5728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC43D32-587F-4742-8451-B08E5A467706}">
-  <dimension ref="A2:BR79"/>
+  <dimension ref="A2:BR120"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8837,49 +9644,49 @@
         <v>63</v>
       </c>
       <c r="C28" s="23">
-        <v>-70177100</v>
+        <v>-49256000</v>
       </c>
       <c r="D28" s="23">
-        <v>-65669200</v>
+        <v>-46913000</v>
       </c>
       <c r="E28" s="23">
-        <v>-33804900</v>
+        <v>-47716800</v>
       </c>
       <c r="F28" s="23">
-        <v>-25112700</v>
+        <v>-28710300</v>
       </c>
       <c r="G28" s="23">
-        <v>-28099000</v>
+        <v>-31203500</v>
       </c>
       <c r="H28" s="23">
-        <v>-41505700</v>
+        <v>-41226200</v>
       </c>
       <c r="I28" s="23">
-        <v>-92847300</v>
+        <v>-78069600</v>
       </c>
       <c r="J28" s="23">
-        <v>-178137000</v>
+        <v>-154590000</v>
       </c>
       <c r="K28" s="23">
-        <v>-131085000</v>
+        <v>-129108000</v>
       </c>
       <c r="L28" s="23">
-        <v>-47208300</v>
+        <v>-47206700</v>
       </c>
       <c r="M28" s="23">
-        <v>-22511600</v>
+        <v>-21919000</v>
       </c>
       <c r="N28" s="23">
-        <v>-9004500</v>
+        <v>-8919100</v>
       </c>
       <c r="O28" s="23">
-        <v>-3325380</v>
+        <v>-3336490</v>
       </c>
       <c r="P28">
-        <v>-862703</v>
+        <v>-895412</v>
       </c>
       <c r="Q28">
-        <v>-12227.1</v>
+        <v>-16330.1</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -8955,91 +9762,91 @@
         <v>64</v>
       </c>
       <c r="C29" s="23">
-        <v>3105290</v>
+        <v>2608440</v>
       </c>
       <c r="D29" s="23">
-        <v>2927600</v>
+        <v>2515070</v>
       </c>
       <c r="E29" s="23">
-        <v>2351560</v>
+        <v>2645090</v>
       </c>
       <c r="F29" s="23">
-        <v>1561270</v>
+        <v>1127760</v>
       </c>
       <c r="G29" s="23">
-        <v>2152120</v>
+        <v>1809070</v>
       </c>
       <c r="H29" s="23">
-        <v>3274370</v>
+        <v>2766920</v>
       </c>
       <c r="I29" s="23">
-        <v>4031250</v>
+        <v>3246710</v>
       </c>
       <c r="J29" s="23">
-        <v>4317430</v>
+        <v>3102760</v>
       </c>
       <c r="K29" s="23">
-        <v>3265230</v>
+        <v>1282130</v>
       </c>
       <c r="L29" s="23">
-        <v>1106800</v>
-      </c>
-      <c r="M29">
-        <v>91288.7</v>
+        <v>-40322.5</v>
+      </c>
+      <c r="M29" s="23">
+        <v>-729672</v>
       </c>
       <c r="N29" s="23">
-        <v>-1770540</v>
+        <v>-802097</v>
       </c>
       <c r="O29" s="23">
-        <v>-1526910</v>
+        <v>-541861</v>
       </c>
       <c r="P29" s="23">
-        <v>-1301600</v>
+        <v>-958829</v>
       </c>
       <c r="Q29" s="23">
-        <v>-1589990</v>
+        <v>-914310</v>
       </c>
       <c r="R29" s="23">
-        <v>-2822230</v>
+        <v>-980760</v>
       </c>
       <c r="S29" s="23">
-        <v>-7426360</v>
+        <v>-1743140</v>
       </c>
       <c r="T29" s="23">
-        <v>-9846570</v>
+        <v>-5692700</v>
       </c>
       <c r="U29" s="23">
-        <v>-6587230</v>
+        <v>-2328050</v>
       </c>
       <c r="V29" s="23">
-        <v>-7263670</v>
+        <v>-952330</v>
       </c>
       <c r="W29" s="23">
-        <v>-8867920</v>
+        <v>-1063610</v>
       </c>
       <c r="X29" s="23">
-        <v>-7922150</v>
+        <v>413242</v>
       </c>
       <c r="Y29" s="23">
-        <v>-7780060</v>
+        <v>1861300</v>
       </c>
       <c r="Z29" s="23">
-        <v>-8915260</v>
+        <v>2538140</v>
       </c>
       <c r="AA29" s="23">
-        <v>-12484800</v>
+        <v>772109</v>
       </c>
       <c r="AB29" s="23">
-        <v>-15251000</v>
+        <v>124183</v>
       </c>
       <c r="AC29" s="23">
-        <v>-15239700</v>
+        <v>577926</v>
       </c>
       <c r="AD29" s="23">
-        <v>-15185500</v>
+        <v>613096</v>
       </c>
       <c r="AE29" s="23">
-        <v>-17379100</v>
+        <v>-640045</v>
       </c>
       <c r="AQ29" s="23"/>
       <c r="AR29" s="23"/>
@@ -9078,91 +9885,91 @@
         <v>65</v>
       </c>
       <c r="C30" s="23">
-        <v>69951900</v>
+        <v>49553900</v>
       </c>
       <c r="D30" s="23">
-        <v>52087400</v>
+        <v>37157800</v>
       </c>
       <c r="E30" s="23">
-        <v>25445600</v>
+        <v>34881100</v>
       </c>
       <c r="F30" s="23">
-        <v>16260400</v>
+        <v>22477600</v>
       </c>
       <c r="G30" s="23">
-        <v>16180700</v>
+        <v>38639200</v>
       </c>
       <c r="H30" s="23">
-        <v>11690900</v>
+        <v>45788200</v>
       </c>
       <c r="I30" s="23">
-        <v>49061700</v>
+        <v>79929500</v>
       </c>
       <c r="J30" s="23">
-        <v>116470000</v>
+        <v>146085000</v>
       </c>
       <c r="K30" s="23">
-        <v>88047700</v>
+        <v>92883400</v>
       </c>
       <c r="L30" s="23">
-        <v>21939400</v>
+        <v>18553000</v>
       </c>
       <c r="M30" s="23">
-        <v>-62039000</v>
+        <v>-30232400</v>
       </c>
       <c r="N30" s="23">
-        <v>-92403900</v>
+        <v>-42278500</v>
       </c>
       <c r="O30" s="23">
-        <v>-89119100</v>
+        <v>-25885100</v>
       </c>
       <c r="P30" s="23">
-        <v>-79690300</v>
+        <v>-10442600</v>
       </c>
       <c r="Q30" s="23">
-        <v>-89766900</v>
+        <v>-25653400</v>
       </c>
       <c r="R30" s="23">
-        <v>-95436900</v>
+        <v>-39292700</v>
       </c>
       <c r="S30" s="23">
-        <v>-83368300</v>
+        <v>-52925800</v>
       </c>
       <c r="T30" s="23">
-        <v>-66932900</v>
+        <v>-47018600</v>
       </c>
       <c r="U30" s="23">
-        <v>-29438900</v>
+        <v>-13077700</v>
       </c>
       <c r="V30" s="23">
-        <v>-24558700</v>
+        <v>-6468760</v>
       </c>
       <c r="W30" s="23">
-        <v>-22585700</v>
+        <v>-7156430</v>
       </c>
       <c r="X30" s="23">
-        <v>-13889700</v>
+        <v>708776</v>
       </c>
       <c r="Y30" s="23">
-        <v>-9995120</v>
+        <v>5576000</v>
       </c>
       <c r="Z30" s="23">
-        <v>-6721040</v>
+        <v>8155980</v>
       </c>
       <c r="AA30" s="23">
-        <v>-13779400</v>
+        <v>4901060</v>
       </c>
       <c r="AB30" s="23">
-        <v>-15917000</v>
+        <v>-15450.8</v>
       </c>
       <c r="AC30" s="23">
-        <v>-14211400</v>
+        <v>2006640</v>
       </c>
       <c r="AD30" s="23">
-        <v>-12369200</v>
+        <v>3726740</v>
       </c>
       <c r="AE30" s="23">
-        <v>-10893000</v>
+        <v>12003600</v>
       </c>
       <c r="AR30" s="23"/>
       <c r="AS30" s="23"/>
@@ -9259,32 +10066,32 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>-90218.9</v>
-      </c>
-      <c r="X31">
-        <v>-224348</v>
+      <c r="W31" s="23">
+        <v>0</v>
+      </c>
+      <c r="X31" s="23">
+        <v>0</v>
       </c>
       <c r="Y31" s="23">
-        <v>-1036700</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="23">
-        <v>-2308250</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="23">
-        <v>-4286790</v>
+        <v>-18318.3</v>
       </c>
       <c r="AB31" s="23">
-        <v>-6048370</v>
+        <v>-248985</v>
       </c>
       <c r="AC31" s="23">
-        <v>-6174970</v>
+        <v>-262096</v>
       </c>
       <c r="AD31" s="23">
-        <v>-6025870</v>
+        <v>-286124</v>
       </c>
       <c r="AE31" s="23">
-        <v>-10912100</v>
+        <v>-838121</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.35">
@@ -9309,77 +10116,77 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>7310.6</v>
+      <c r="H32" s="23">
+        <v>4942.2299999999996</v>
       </c>
       <c r="I32" s="23">
-        <v>7835400</v>
+        <v>5231890</v>
       </c>
       <c r="J32" s="23">
-        <v>-5228500</v>
+        <v>7391680</v>
       </c>
       <c r="K32" s="23">
-        <v>10620300</v>
+        <v>12839200</v>
       </c>
       <c r="L32" s="23">
-        <v>-5813060</v>
+        <v>-12801900</v>
       </c>
       <c r="M32" s="23">
-        <v>-40213600</v>
+        <v>-24725300</v>
       </c>
       <c r="N32" s="23">
-        <v>-26419300</v>
+        <v>-31473400</v>
       </c>
       <c r="O32" s="23">
-        <v>5714730</v>
+        <v>-18963700</v>
       </c>
       <c r="P32" s="23">
-        <v>-16441300</v>
+        <v>-50555700</v>
       </c>
       <c r="Q32" s="23">
-        <v>-43032100</v>
+        <v>8477790</v>
       </c>
       <c r="R32" s="23">
-        <v>-3450690</v>
+        <v>-56707000</v>
       </c>
       <c r="S32" s="23">
-        <v>-107968000</v>
+        <v>-69537800</v>
       </c>
       <c r="T32" s="23">
-        <v>-154604000</v>
+        <v>-135450000</v>
       </c>
       <c r="U32" s="23">
-        <v>-43907600</v>
+        <v>-114999000</v>
       </c>
       <c r="V32" s="23">
-        <v>26099300</v>
+        <v>-22897900</v>
       </c>
       <c r="W32" s="23">
-        <v>-42029700</v>
+        <v>-26430400</v>
       </c>
       <c r="X32" s="23">
-        <v>8754460</v>
+        <v>-23375100</v>
       </c>
       <c r="Y32" s="23">
-        <v>10165100</v>
+        <v>-15201500</v>
       </c>
       <c r="Z32" s="23">
-        <v>-124105000</v>
+        <v>85176600</v>
       </c>
       <c r="AA32" s="23">
-        <v>-127382000</v>
+        <v>-17117300</v>
       </c>
       <c r="AB32" s="23">
-        <v>-37732200</v>
+        <v>-3476860</v>
       </c>
       <c r="AC32" s="23">
-        <v>-102682000</v>
+        <v>-13742000</v>
       </c>
       <c r="AD32" s="23">
-        <v>-123296000</v>
+        <v>-81390000</v>
       </c>
       <c r="AE32" s="23">
-        <v>-131485000</v>
+        <v>5156760</v>
       </c>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
@@ -9415,88 +10222,88 @@
         <v>0</v>
       </c>
       <c r="D33" s="23">
-        <v>3550660</v>
+        <v>2966190</v>
       </c>
       <c r="E33" s="23">
-        <v>18107800</v>
+        <v>9626140</v>
       </c>
       <c r="F33" s="23">
-        <v>32235800</v>
+        <v>16350400</v>
       </c>
       <c r="G33" s="23">
-        <v>49843000</v>
+        <v>24103400</v>
       </c>
       <c r="H33" s="23">
-        <v>71067800</v>
+        <v>34180900</v>
       </c>
       <c r="I33" s="23">
-        <v>94537700</v>
+        <v>47051200</v>
       </c>
       <c r="J33" s="23">
-        <v>121645000</v>
+        <v>62490800</v>
       </c>
       <c r="K33" s="23">
-        <v>151877000</v>
+        <v>79338600</v>
       </c>
       <c r="L33" s="23">
-        <v>178574000</v>
+        <v>99093200</v>
       </c>
       <c r="M33" s="23">
-        <v>206622000</v>
+        <v>121081000</v>
       </c>
       <c r="N33" s="23">
-        <v>236468000</v>
+        <v>142825000</v>
       </c>
       <c r="O33" s="23">
-        <v>267842000</v>
+        <v>166700000</v>
       </c>
       <c r="P33" s="23">
-        <v>305269000</v>
+        <v>197125000</v>
       </c>
       <c r="Q33" s="23">
-        <v>342503000</v>
+        <v>228051000</v>
       </c>
       <c r="R33" s="23">
-        <v>377542000</v>
+        <v>258041000</v>
       </c>
       <c r="S33" s="23">
-        <v>409726000</v>
+        <v>276787000</v>
       </c>
       <c r="T33" s="23">
-        <v>420170000</v>
+        <v>285113000</v>
       </c>
       <c r="U33" s="23">
-        <v>430715000</v>
+        <v>289361000</v>
       </c>
       <c r="V33" s="23">
-        <v>454794000</v>
+        <v>308099000</v>
       </c>
       <c r="W33" s="23">
-        <v>469693000</v>
+        <v>330045000</v>
       </c>
       <c r="X33" s="23">
-        <v>483161000</v>
+        <v>348181000</v>
       </c>
       <c r="Y33" s="23">
-        <v>484459000</v>
+        <v>362270000</v>
       </c>
       <c r="Z33" s="23">
-        <v>488110000</v>
+        <v>380847000</v>
       </c>
       <c r="AA33" s="23">
-        <v>500252000</v>
+        <v>403318000</v>
       </c>
       <c r="AB33" s="23">
-        <v>518350000</v>
+        <v>427799000</v>
       </c>
       <c r="AC33" s="23">
-        <v>535167000</v>
+        <v>450015000</v>
       </c>
       <c r="AD33" s="23">
-        <v>554991000</v>
+        <v>472933000</v>
       </c>
       <c r="AE33" s="23">
-        <v>604975000</v>
+        <v>492532000</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.35">
@@ -9510,88 +10317,88 @@
         <v>31.174099999999999</v>
       </c>
       <c r="D34">
-        <v>766876</v>
+        <v>634665</v>
       </c>
       <c r="E34" s="23">
-        <v>4516180</v>
+        <v>11200400</v>
       </c>
       <c r="F34" s="23">
-        <v>8084360</v>
+        <v>22511600</v>
       </c>
       <c r="G34" s="23">
-        <v>12596400</v>
+        <v>33095800</v>
       </c>
       <c r="H34" s="23">
-        <v>17896700</v>
+        <v>45125500</v>
       </c>
       <c r="I34" s="23">
-        <v>23655500</v>
+        <v>58470200</v>
       </c>
       <c r="J34" s="23">
-        <v>29879100</v>
+        <v>73007700</v>
       </c>
       <c r="K34" s="23">
-        <v>36503800</v>
+        <v>87672200</v>
       </c>
       <c r="L34" s="23">
-        <v>42339600</v>
+        <v>93846700</v>
       </c>
       <c r="M34" s="23">
-        <v>43918700</v>
+        <v>92048500</v>
       </c>
       <c r="N34" s="23">
-        <v>42879400</v>
+        <v>87607200</v>
       </c>
       <c r="O34" s="23">
-        <v>41897500</v>
+        <v>87206000</v>
       </c>
       <c r="P34" s="23">
-        <v>44172800</v>
+        <v>89691400</v>
       </c>
       <c r="Q34" s="23">
-        <v>44558300</v>
+        <v>89634400</v>
       </c>
       <c r="R34" s="23">
-        <v>47504000</v>
+        <v>89562500</v>
       </c>
       <c r="S34" s="23">
-        <v>52549600</v>
+        <v>90503300</v>
       </c>
       <c r="T34" s="23">
-        <v>53600000</v>
+        <v>88212600</v>
       </c>
       <c r="U34" s="23">
-        <v>60932500</v>
+        <v>91442400</v>
       </c>
       <c r="V34" s="23">
-        <v>71191800</v>
+        <v>95547100</v>
       </c>
       <c r="W34" s="23">
-        <v>83778700</v>
+        <v>96860900</v>
       </c>
       <c r="X34" s="23">
-        <v>100765000</v>
+        <v>100788000</v>
       </c>
       <c r="Y34" s="23">
-        <v>113799000</v>
+        <v>104496000</v>
       </c>
       <c r="Z34" s="23">
-        <v>127914000</v>
+        <v>109125000</v>
       </c>
       <c r="AA34" s="23">
-        <v>140637000</v>
+        <v>111395000</v>
       </c>
       <c r="AB34" s="23">
-        <v>155896000</v>
+        <v>112826000</v>
       </c>
       <c r="AC34" s="23">
-        <v>166808000</v>
+        <v>116429000</v>
       </c>
       <c r="AD34" s="23">
-        <v>177655000</v>
+        <v>119958000</v>
       </c>
       <c r="AE34" s="23">
-        <v>182473000</v>
+        <v>123916000</v>
       </c>
       <c r="AY34" s="23"/>
       <c r="AZ34" s="23"/>
@@ -9716,88 +10523,88 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>100072</v>
+        <v>50035.9</v>
       </c>
       <c r="E36">
+        <v>139058</v>
+      </c>
+      <c r="F36">
         <v>278116</v>
       </c>
-      <c r="F36">
-        <v>417173</v>
-      </c>
       <c r="G36">
-        <v>625760</v>
+        <v>486702</v>
       </c>
       <c r="H36">
-        <v>903876</v>
+        <v>695289</v>
       </c>
       <c r="I36" s="23">
-        <v>1181990</v>
+        <v>973405</v>
       </c>
       <c r="J36" s="23">
-        <v>1529640</v>
+        <v>1251520</v>
       </c>
       <c r="K36" s="23">
+        <v>1599160</v>
+      </c>
+      <c r="L36" s="23">
         <v>1946810</v>
       </c>
-      <c r="L36" s="23">
+      <c r="M36" s="23">
+        <v>2155400</v>
+      </c>
+      <c r="N36" s="23">
+        <v>2294450</v>
+      </c>
+      <c r="O36" s="23">
         <v>2433510</v>
       </c>
-      <c r="M36" s="23">
-        <v>2920210</v>
-      </c>
-      <c r="N36" s="23">
-        <v>3337390</v>
-      </c>
-      <c r="O36" s="23">
-        <v>3545970</v>
-      </c>
       <c r="P36" s="23">
-        <v>3824090</v>
+        <v>2572570</v>
       </c>
       <c r="Q36" s="23">
-        <v>4102210</v>
+        <v>2781160</v>
       </c>
       <c r="R36" s="23">
-        <v>3915620</v>
+        <v>2989740</v>
       </c>
       <c r="S36" s="23">
-        <v>-5024.76</v>
+        <v>2430050</v>
       </c>
       <c r="T36" s="23">
-        <v>-6405450</v>
+        <v>77759.600000000006</v>
       </c>
       <c r="U36" s="23">
-        <v>-6865920</v>
+        <v>998144</v>
       </c>
       <c r="V36" s="23">
-        <v>-11214900</v>
+        <v>871231</v>
       </c>
       <c r="W36" s="23">
-        <v>-16556500</v>
+        <v>-590353</v>
       </c>
       <c r="X36" s="23">
-        <v>-15467100</v>
+        <v>2002280</v>
       </c>
       <c r="Y36" s="23">
-        <v>-15639100</v>
+        <v>4221490</v>
       </c>
       <c r="Z36" s="23">
-        <v>-17380400</v>
+        <v>5824580</v>
       </c>
       <c r="AA36" s="23">
-        <v>-23749500</v>
+        <v>3507780</v>
       </c>
       <c r="AB36" s="23">
-        <v>-29743000</v>
+        <v>1025390</v>
       </c>
       <c r="AC36" s="23">
-        <v>-29196900</v>
+        <v>2059610</v>
       </c>
       <c r="AD36" s="23">
-        <v>-28173800</v>
+        <v>2889570</v>
       </c>
       <c r="AE36" s="23">
-        <v>-34621100</v>
+        <v>-761958</v>
       </c>
       <c r="AT36" s="23"/>
       <c r="AU36" s="23"/>
@@ -9893,31 +10700,31 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>-846.37</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-2086.4699999999998</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>-9587.66</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-21185.8</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-39303.699999999997</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="AB37">
-        <v>-55468.6</v>
+        <v>-2319.09</v>
       </c>
       <c r="AC37">
-        <v>-56653.9</v>
+        <v>-2441.16</v>
       </c>
       <c r="AD37">
-        <v>-55268</v>
+        <v>-2664.84</v>
       </c>
       <c r="AE37">
-        <v>-97695.5</v>
+        <v>-7660</v>
       </c>
       <c r="AR37" s="23"/>
       <c r="AS37" s="23"/>
@@ -9973,73 +10780,73 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>38535.199999999997</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>134873</v>
       </c>
       <c r="K38">
-        <v>500957</v>
+        <v>578028</v>
       </c>
       <c r="L38" s="23">
-        <v>963380</v>
+        <v>1040450</v>
       </c>
       <c r="M38" s="23">
-        <v>1310200</v>
+        <v>1387270</v>
       </c>
       <c r="N38" s="23">
-        <v>1310200</v>
-      </c>
-      <c r="O38">
-        <v>867042</v>
-      </c>
-      <c r="P38">
-        <v>867042</v>
-      </c>
-      <c r="Q38">
-        <v>867042</v>
-      </c>
-      <c r="R38">
-        <v>867042</v>
+        <v>1387270</v>
+      </c>
+      <c r="O38" s="23">
+        <v>1078990</v>
+      </c>
+      <c r="P38" s="23">
+        <v>1078990</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>1078990</v>
+      </c>
+      <c r="R38" s="23">
+        <v>1078990</v>
       </c>
       <c r="S38" s="23">
-        <v>1368000</v>
+        <v>1579940</v>
       </c>
       <c r="T38" s="23">
-        <v>1175320</v>
+        <v>1579940</v>
       </c>
       <c r="U38" s="23">
-        <v>924844</v>
+        <v>1579940</v>
       </c>
       <c r="V38" s="23">
-        <v>655098</v>
+        <v>1425800</v>
       </c>
       <c r="W38" s="23">
-        <v>654805</v>
+        <v>1425800</v>
       </c>
       <c r="X38" s="23">
-        <v>654361</v>
+        <v>1425800</v>
       </c>
       <c r="Y38" s="23">
-        <v>651664</v>
+        <v>1425800</v>
       </c>
       <c r="Z38" s="23">
-        <v>744008</v>
+        <v>1541410</v>
       </c>
       <c r="AA38" s="23">
-        <v>988433</v>
+        <v>1811090</v>
       </c>
       <c r="AB38" s="23">
-        <v>1272610</v>
+        <v>2137850</v>
       </c>
       <c r="AC38" s="23">
-        <v>1350300</v>
+        <v>2291970</v>
       </c>
       <c r="AD38" s="23">
-        <v>1293760</v>
+        <v>2291920</v>
       </c>
       <c r="AE38" s="23">
-        <v>1159930</v>
+        <v>2231040</v>
       </c>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -10148,91 +10955,91 @@
         <v>71</v>
       </c>
       <c r="C40">
-        <v>-3644.04</v>
+        <v>-1082.82</v>
       </c>
       <c r="D40">
-        <v>-6024</v>
+        <v>-1870.4</v>
       </c>
       <c r="E40">
-        <v>-3978.44</v>
-      </c>
-      <c r="F40">
-        <v>-2540.38</v>
+        <v>-12470.4</v>
+      </c>
+      <c r="F40" s="23">
+        <v>-7463.07</v>
       </c>
       <c r="G40" s="23">
-        <v>-1510710</v>
+        <v>-1922580</v>
       </c>
       <c r="H40" s="23">
-        <v>-4138970</v>
+        <v>-5641800</v>
       </c>
       <c r="I40" s="23">
-        <v>-12045500</v>
+        <v>-15993300</v>
       </c>
       <c r="J40" s="23">
-        <v>-19616700</v>
+        <v>-21479300</v>
       </c>
       <c r="K40" s="23">
-        <v>-67858300</v>
+        <v>-47199800</v>
       </c>
       <c r="L40" s="23">
-        <v>-142631000</v>
+        <v>-109663000</v>
       </c>
       <c r="M40" s="23">
-        <v>-149259000</v>
+        <v>-128513000</v>
       </c>
       <c r="N40" s="23">
-        <v>-145967000</v>
+        <v>-137224000</v>
       </c>
       <c r="O40" s="23">
-        <v>-115038000</v>
+        <v>-110470000</v>
       </c>
       <c r="P40" s="23">
-        <v>-105529000</v>
+        <v>-103308000</v>
       </c>
       <c r="Q40" s="23">
-        <v>-90513200</v>
+        <v>-89557800</v>
       </c>
       <c r="R40" s="23">
-        <v>-79341200</v>
+        <v>-78769200</v>
       </c>
       <c r="S40" s="23">
-        <v>-68245300</v>
+        <v>-68174900</v>
       </c>
       <c r="T40" s="23">
-        <v>-52234800</v>
+        <v>-52373100</v>
       </c>
       <c r="U40" s="23">
-        <v>-29657600</v>
+        <v>-29786100</v>
       </c>
       <c r="V40" s="23">
-        <v>-21805400</v>
+        <v>-21840600</v>
       </c>
       <c r="W40" s="23">
-        <v>-18315400</v>
+        <v>-18347300</v>
       </c>
       <c r="X40" s="23">
-        <v>-15367100</v>
+        <v>-15386300</v>
       </c>
       <c r="Y40" s="23">
-        <v>-12108200</v>
+        <v>-12167200</v>
       </c>
       <c r="Z40" s="23">
-        <v>-9892490</v>
+        <v>-9859140</v>
       </c>
       <c r="AA40" s="23">
-        <v>-8428930</v>
+        <v>-8444770</v>
       </c>
       <c r="AB40" s="23">
-        <v>-7104090</v>
+        <v>-7237620</v>
       </c>
       <c r="AC40" s="23">
-        <v>-5856120</v>
+        <v>-5929950</v>
       </c>
       <c r="AD40" s="23">
-        <v>-4670140</v>
+        <v>-4695600</v>
       </c>
       <c r="AE40" s="23">
-        <v>-4411590</v>
+        <v>-4550480</v>
       </c>
       <c r="BB40" s="23"/>
       <c r="BC40" s="23"/>
@@ -10263,88 +11070,88 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>562591</v>
+        <v>489210</v>
       </c>
       <c r="E41" s="23">
-        <v>5700560</v>
+        <v>7077170</v>
       </c>
       <c r="F41" s="23">
-        <v>11038400</v>
+        <v>14378000</v>
       </c>
       <c r="G41" s="23">
-        <v>17544300</v>
+        <v>24086800</v>
       </c>
       <c r="H41" s="23">
-        <v>25553300</v>
+        <v>35579200</v>
       </c>
       <c r="I41" s="23">
-        <v>35321800</v>
+        <v>49071400</v>
       </c>
       <c r="J41" s="23">
-        <v>46974600</v>
+        <v>64882200</v>
       </c>
       <c r="K41" s="23">
-        <v>59318800</v>
+        <v>81514400</v>
       </c>
       <c r="L41" s="23">
-        <v>71377100</v>
+        <v>98130500</v>
       </c>
       <c r="M41" s="23">
-        <v>84760800</v>
+        <v>119045000</v>
       </c>
       <c r="N41" s="23">
-        <v>98811100</v>
+        <v>140255000</v>
       </c>
       <c r="O41" s="23">
-        <v>112162000</v>
+        <v>162251000</v>
       </c>
       <c r="P41" s="23">
-        <v>127999000</v>
+        <v>188437000</v>
       </c>
       <c r="Q41" s="23">
-        <v>146026000</v>
+        <v>216744000</v>
       </c>
       <c r="R41" s="23">
-        <v>164105000</v>
+        <v>247301000</v>
       </c>
       <c r="S41" s="23">
-        <v>179908000</v>
+        <v>274460000</v>
       </c>
       <c r="T41" s="23">
-        <v>183173000</v>
+        <v>294107000</v>
       </c>
       <c r="U41" s="23">
-        <v>183307000</v>
+        <v>303439000</v>
       </c>
       <c r="V41" s="23">
-        <v>193005000</v>
+        <v>318234000</v>
       </c>
       <c r="W41" s="23">
-        <v>203667000</v>
+        <v>335353000</v>
       </c>
       <c r="X41" s="23">
-        <v>214691000</v>
+        <v>347754000</v>
       </c>
       <c r="Y41" s="23">
-        <v>224622000</v>
+        <v>360992000</v>
       </c>
       <c r="Z41" s="23">
-        <v>235867000</v>
+        <v>375565000</v>
       </c>
       <c r="AA41" s="23">
-        <v>251992000</v>
+        <v>391060000</v>
       </c>
       <c r="AB41" s="23">
-        <v>269356000</v>
+        <v>401055000</v>
       </c>
       <c r="AC41" s="23">
-        <v>278752000</v>
+        <v>407301000</v>
       </c>
       <c r="AD41" s="23">
-        <v>287881000</v>
+        <v>414931000</v>
       </c>
       <c r="AE41" s="23">
-        <v>285508000</v>
+        <v>423572000</v>
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.35">
@@ -10358,88 +11165,88 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>173031</v>
+        <v>173042</v>
       </c>
       <c r="E42">
-        <v>432653</v>
+        <v>346078</v>
       </c>
       <c r="F42">
-        <v>519284</v>
+        <v>432717</v>
       </c>
       <c r="G42">
-        <v>692338</v>
+        <v>519121</v>
       </c>
       <c r="H42">
-        <v>864974</v>
+        <v>691543</v>
       </c>
       <c r="I42" s="23">
-        <v>950699</v>
+        <v>860740</v>
       </c>
       <c r="J42" s="23">
-        <v>925995</v>
+        <v>842055</v>
       </c>
       <c r="K42">
-        <v>857744</v>
+        <v>758668</v>
       </c>
       <c r="L42">
-        <v>620946</v>
+        <v>530026</v>
       </c>
       <c r="M42">
-        <v>416272</v>
+        <v>381916</v>
       </c>
       <c r="N42">
-        <v>35168.6</v>
+        <v>260363</v>
       </c>
       <c r="O42">
-        <v>2576.0300000000002</v>
+        <v>280485</v>
       </c>
       <c r="P42">
-        <v>-70527.7</v>
+        <v>121082</v>
       </c>
       <c r="Q42">
-        <v>-240073</v>
+        <v>-65044.3</v>
       </c>
       <c r="R42">
-        <v>-495009</v>
+        <v>-191476</v>
       </c>
       <c r="S42" s="23">
-        <v>-1198460</v>
+        <v>-443784</v>
       </c>
       <c r="T42" s="23">
-        <v>-1348290</v>
+        <v>-1189770</v>
       </c>
       <c r="U42" s="23">
-        <v>-1107830</v>
+        <v>-968928</v>
       </c>
       <c r="V42" s="23">
-        <v>-1069410</v>
+        <v>-951365</v>
       </c>
       <c r="W42" s="23">
-        <v>-1087360</v>
+        <v>-966404</v>
       </c>
       <c r="X42" s="23">
-        <v>-1027050</v>
-      </c>
-      <c r="Y42">
-        <v>-987758</v>
+        <v>-937584</v>
+      </c>
+      <c r="Y42" s="23">
+        <v>-867004</v>
       </c>
       <c r="Z42">
-        <v>-789526</v>
+        <v>-673836</v>
       </c>
       <c r="AA42">
-        <v>-775998</v>
+        <v>-694020</v>
       </c>
       <c r="AB42">
-        <v>-764834</v>
+        <v>-655813</v>
       </c>
       <c r="AC42">
-        <v>-735261</v>
+        <v>-646953</v>
       </c>
       <c r="AD42">
-        <v>-687758</v>
+        <v>-606645</v>
       </c>
       <c r="AE42">
-        <v>-752479</v>
+        <v>-772423</v>
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.35">
@@ -10569,67 +11376,67 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>-250256</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>-450462</v>
-      </c>
-      <c r="M44">
-        <v>-700718</v>
+        <v>0</v>
+      </c>
+      <c r="M44" s="23">
+        <v>150154</v>
       </c>
       <c r="N44" s="23">
-        <v>-1401440</v>
+        <v>-500513</v>
       </c>
       <c r="O44" s="23">
-        <v>-2502560</v>
+        <v>-1451490</v>
       </c>
       <c r="P44" s="23">
-        <v>-3453540</v>
+        <v>-2152200</v>
       </c>
       <c r="Q44" s="23">
-        <v>-4354460</v>
+        <v>-2802870</v>
       </c>
       <c r="R44" s="23">
-        <v>-5268420</v>
+        <v>-3403490</v>
       </c>
       <c r="S44" s="23">
-        <v>-6072430</v>
+        <v>-3833520</v>
       </c>
       <c r="T44" s="23">
-        <v>-7231080</v>
+        <v>-4664500</v>
       </c>
       <c r="U44" s="23">
-        <v>-8258440</v>
+        <v>-5507660</v>
       </c>
       <c r="V44" s="23">
-        <v>-9334570</v>
+        <v>-6460200</v>
       </c>
       <c r="W44" s="23">
-        <v>-10161700</v>
+        <v>-7323520</v>
       </c>
       <c r="X44" s="23">
-        <v>-9447200</v>
+        <v>-8020340</v>
       </c>
       <c r="Y44" s="23">
-        <v>-8727220</v>
+        <v>-8722640</v>
       </c>
       <c r="Z44" s="23">
-        <v>-7856890</v>
+        <v>-7849620</v>
       </c>
       <c r="AA44" s="23">
-        <v>-6919590</v>
+        <v>-6910400</v>
       </c>
       <c r="AB44" s="23">
-        <v>-5940260</v>
+        <v>-5930560</v>
       </c>
       <c r="AC44" s="23">
-        <v>-4977720</v>
+        <v>-5007690</v>
       </c>
       <c r="AD44" s="23">
-        <v>-4066350</v>
+        <v>-4094390</v>
       </c>
       <c r="AE44" s="23">
-        <v>-2938800</v>
+        <v>-2973280</v>
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.35">
@@ -11038,73 +11845,73 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>239202</v>
       </c>
       <c r="J49">
-        <v>119601</v>
+        <v>239202</v>
       </c>
       <c r="K49">
-        <v>119601</v>
+        <v>239202</v>
       </c>
       <c r="L49">
-        <v>117086</v>
+        <v>224275</v>
       </c>
       <c r="M49">
-        <v>-125901</v>
+        <v>-21926.799999999999</v>
       </c>
       <c r="N49">
-        <v>-131920</v>
+        <v>-29301.1</v>
       </c>
       <c r="O49">
-        <v>-124361</v>
+        <v>-21742.9</v>
       </c>
       <c r="P49">
-        <v>-120592</v>
+        <v>-14377.9</v>
       </c>
       <c r="Q49">
-        <v>-128015</v>
+        <v>-16705.400000000001</v>
       </c>
       <c r="R49">
-        <v>-123484</v>
+        <v>-27336.6</v>
       </c>
       <c r="S49">
-        <v>-130068</v>
+        <v>-36105.4</v>
       </c>
       <c r="T49">
-        <v>-136549</v>
+        <v>-47152.2</v>
       </c>
       <c r="U49">
-        <v>-113478</v>
+        <v>-27808.3</v>
       </c>
       <c r="V49">
-        <v>-118280</v>
+        <v>-22167.1</v>
       </c>
       <c r="W49">
-        <v>-133175</v>
+        <v>-29417.7</v>
       </c>
       <c r="X49">
-        <v>-130341</v>
+        <v>-27858</v>
       </c>
       <c r="Y49">
-        <v>-124901</v>
+        <v>-21421</v>
       </c>
       <c r="Z49">
-        <v>-106827</v>
+        <v>-13510.5</v>
       </c>
       <c r="AA49">
-        <v>-103154</v>
+        <v>-19799.2</v>
       </c>
       <c r="AB49">
-        <v>-97466.4</v>
+        <v>-19219.7</v>
       </c>
       <c r="AC49">
-        <v>-97470.6</v>
+        <v>-19194.099999999999</v>
       </c>
       <c r="AD49">
-        <v>-97468.3</v>
+        <v>-13314.3</v>
       </c>
       <c r="AE49">
-        <v>-120194</v>
+        <v>-16814.7</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
@@ -11306,63 +12113,63 @@
       </c>
       <c r="C53" s="23">
         <f>C28-C3</f>
-        <v>0</v>
+        <v>20921100</v>
       </c>
       <c r="D53" s="23">
         <f t="shared" ref="D53:AE53" si="0">D28-D3</f>
-        <v>-100</v>
+        <v>18756100</v>
       </c>
       <c r="E53" s="23">
         <f t="shared" si="0"/>
-        <v>-3252500</v>
+        <v>-17164400</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="0"/>
-        <v>-3847800</v>
+        <v>-7445400</v>
       </c>
       <c r="G53" s="23">
         <f t="shared" si="0"/>
-        <v>-7159300</v>
+        <v>-10263800</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
-        <v>-9750500</v>
+        <v>-9471000</v>
       </c>
       <c r="I53" s="23">
         <f t="shared" si="0"/>
-        <v>-18107100</v>
+        <v>-3329400</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
-        <v>-12636000</v>
+        <v>10911000</v>
       </c>
       <c r="K53" s="23">
         <f t="shared" si="0"/>
-        <v>-37000</v>
+        <v>1940000</v>
       </c>
       <c r="L53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="M53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>592600</v>
       </c>
       <c r="N53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85400</v>
       </c>
       <c r="O53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-11110</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-32709</v>
       </c>
       <c r="Q53" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4103</v>
       </c>
       <c r="R53" s="23">
         <f t="shared" si="0"/>
@@ -11430,119 +12237,119 @@
       </c>
       <c r="C54" s="23">
         <f t="shared" ref="C54:AE62" si="1">C29-C4</f>
-        <v>0</v>
+        <v>-496850</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-412540</v>
       </c>
       <c r="E54" s="23">
         <f t="shared" si="1"/>
-        <v>-205880</v>
+        <v>87650</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="1"/>
-        <v>-844690</v>
+        <v>-1278200</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="1"/>
-        <v>-976100</v>
+        <v>-1319150</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="1"/>
-        <v>-1355800</v>
+        <v>-1863250</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="1"/>
-        <v>-1400100</v>
+        <v>-2184640</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>-1307950</v>
+        <v>-2522620</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="1"/>
-        <v>-1069280</v>
+        <v>-3052380</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="1"/>
-        <v>-1014510</v>
+        <v>-2161632.5</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="1"/>
-        <v>-1393861.3</v>
+        <v>-2214822</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="1"/>
-        <v>-2964430</v>
+        <v>-1995987</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="1"/>
-        <v>-2961820</v>
+        <v>-1976771</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="1"/>
-        <v>-2189041</v>
+        <v>-1846270</v>
       </c>
       <c r="Q54" s="23">
         <f t="shared" si="1"/>
-        <v>-2578054</v>
+        <v>-1902374</v>
       </c>
       <c r="R54" s="23">
         <f t="shared" si="1"/>
-        <v>-3767420</v>
+        <v>-1925950</v>
       </c>
       <c r="S54" s="23">
         <f t="shared" si="1"/>
-        <v>-7231489</v>
+        <v>-1548269</v>
       </c>
       <c r="T54" s="23">
         <f t="shared" si="1"/>
-        <v>-5486030</v>
+        <v>-1332160</v>
       </c>
       <c r="U54" s="23">
         <f t="shared" si="1"/>
-        <v>-5655562</v>
+        <v>-1396382</v>
       </c>
       <c r="V54" s="23">
         <f t="shared" si="1"/>
-        <v>-8234040</v>
+        <v>-1922700</v>
       </c>
       <c r="W54" s="23">
         <f t="shared" si="1"/>
-        <v>-10089190</v>
+        <v>-2284880</v>
       </c>
       <c r="X54" s="23">
         <f t="shared" si="1"/>
-        <v>-10522430</v>
+        <v>-2187038</v>
       </c>
       <c r="Y54" s="23">
         <f t="shared" si="1"/>
-        <v>-11551420</v>
+        <v>-1910060</v>
       </c>
       <c r="Z54" s="23">
         <f t="shared" si="1"/>
-        <v>-13127270</v>
+        <v>-1673870</v>
       </c>
       <c r="AA54" s="23">
         <f t="shared" si="1"/>
-        <v>-15584010</v>
+        <v>-2327101</v>
       </c>
       <c r="AB54" s="23">
         <f t="shared" si="1"/>
-        <v>-18478360</v>
+        <v>-3103177</v>
       </c>
       <c r="AC54" s="23">
         <f t="shared" si="1"/>
-        <v>-19208650</v>
+        <v>-3391024</v>
       </c>
       <c r="AD54" s="23">
         <f t="shared" si="1"/>
-        <v>-18810760</v>
+        <v>-3012164</v>
       </c>
       <c r="AE54" s="23">
         <f t="shared" si="1"/>
-        <v>-18690570</v>
+        <v>-1951515</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
@@ -11554,119 +12361,119 @@
       </c>
       <c r="C55" s="23">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>-20398100</v>
       </c>
       <c r="D55" s="23">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>-14929800</v>
       </c>
       <c r="E55" s="23">
         <f t="shared" si="1"/>
-        <v>-12846600</v>
+        <v>-3411100</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
-        <v>-28709900</v>
+        <v>-22492700</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="1"/>
-        <v>-43151200</v>
+        <v>-20692700</v>
       </c>
       <c r="H55" s="23">
         <f t="shared" si="1"/>
-        <v>-56606300</v>
+        <v>-22509000</v>
       </c>
       <c r="I55" s="23">
         <f t="shared" si="1"/>
-        <v>-62303300</v>
+        <v>-31435500</v>
       </c>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>-81876000</v>
+        <v>-52261000</v>
       </c>
       <c r="K55" s="23">
         <f t="shared" si="1"/>
-        <v>-68786300</v>
+        <v>-63950600</v>
       </c>
       <c r="L55" s="23">
         <f t="shared" si="1"/>
-        <v>-59175900</v>
+        <v>-62562300</v>
       </c>
       <c r="M55" s="23">
         <f t="shared" si="1"/>
-        <v>-76586400</v>
+        <v>-44779800</v>
       </c>
       <c r="N55" s="23">
         <f t="shared" si="1"/>
-        <v>-76121200</v>
+        <v>-25995800</v>
       </c>
       <c r="O55" s="23">
         <f t="shared" si="1"/>
-        <v>-78742200</v>
+        <v>-15508200</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="1"/>
-        <v>-85623670</v>
+        <v>-16375970</v>
       </c>
       <c r="Q55" s="23">
         <f t="shared" si="1"/>
-        <v>-83889060</v>
+        <v>-19775560</v>
       </c>
       <c r="R55" s="23">
         <f t="shared" si="1"/>
-        <v>-80680800</v>
+        <v>-24536600</v>
       </c>
       <c r="S55" s="23">
         <f t="shared" si="1"/>
-        <v>-49387500</v>
+        <v>-18945000</v>
       </c>
       <c r="T55" s="23">
         <f t="shared" si="1"/>
-        <v>-17620500</v>
+        <v>2293800</v>
       </c>
       <c r="U55" s="23">
         <f t="shared" si="1"/>
-        <v>-16134800</v>
+        <v>226400</v>
       </c>
       <c r="V55" s="23">
         <f t="shared" si="1"/>
-        <v>-21277780</v>
+        <v>-3187840</v>
       </c>
       <c r="W55" s="23">
         <f t="shared" si="1"/>
-        <v>-19060780</v>
+        <v>-3631510</v>
       </c>
       <c r="X55" s="23">
         <f t="shared" si="1"/>
-        <v>-21481330</v>
+        <v>-6882854</v>
       </c>
       <c r="Y55" s="23">
         <f t="shared" si="1"/>
-        <v>-20150620</v>
+        <v>-4579500</v>
       </c>
       <c r="Z55" s="23">
         <f t="shared" si="1"/>
-        <v>-15967250</v>
+        <v>-1090230</v>
       </c>
       <c r="AA55" s="23">
         <f t="shared" si="1"/>
-        <v>-16914170</v>
+        <v>1766290</v>
       </c>
       <c r="AB55" s="23">
         <f t="shared" si="1"/>
-        <v>-16179130</v>
+        <v>-277580.79999999999</v>
       </c>
       <c r="AC55" s="23">
         <f t="shared" si="1"/>
-        <v>-16525630</v>
+        <v>-307590</v>
       </c>
       <c r="AD55" s="23">
         <f t="shared" si="1"/>
-        <v>-13813910</v>
+        <v>2282030</v>
       </c>
       <c r="AE55" s="23">
         <f t="shared" si="1"/>
-        <v>-16857450</v>
+        <v>6039150</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
@@ -11758,39 +12565,39 @@
       </c>
       <c r="W56" s="23">
         <f t="shared" si="1"/>
-        <v>-90218.9</v>
+        <v>0</v>
       </c>
       <c r="X56" s="23">
         <f t="shared" si="1"/>
-        <v>-224348</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="23">
         <f t="shared" si="1"/>
-        <v>-1036700</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="23">
         <f t="shared" si="1"/>
-        <v>-2308250</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="23">
         <f t="shared" si="1"/>
-        <v>-4286789.9999998808</v>
+        <v>-18318.29999988079</v>
       </c>
       <c r="AB56" s="23">
         <f t="shared" si="1"/>
-        <v>-6048370</v>
+        <v>-248985</v>
       </c>
       <c r="AC56" s="23">
         <f t="shared" si="1"/>
-        <v>-6174970</v>
+        <v>-262096</v>
       </c>
       <c r="AD56" s="23">
         <f t="shared" si="1"/>
-        <v>-6015558.4000000004</v>
+        <v>-275812.40000000002</v>
       </c>
       <c r="AE56" s="23">
         <f t="shared" si="1"/>
-        <v>-10237750</v>
+        <v>-163771</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
@@ -11822,99 +12629,99 @@
       </c>
       <c r="H57" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2368.3700000000008</v>
       </c>
       <c r="I57" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2603510</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="1"/>
-        <v>-7835400</v>
+        <v>4784780</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="1"/>
-        <v>2546860</v>
+        <v>4765760</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="1"/>
-        <v>-590930</v>
+        <v>-7579770</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="1"/>
-        <v>-16144500</v>
+        <v>-656200</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="1"/>
-        <v>-4773000</v>
+        <v>-9827100</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" si="1"/>
-        <v>13710190</v>
+        <v>-10968240</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" si="1"/>
-        <v>19787100</v>
+        <v>-14327300</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" si="1"/>
-        <v>-60679700</v>
+        <v>-9169810</v>
       </c>
       <c r="R57" s="23">
         <f t="shared" si="1"/>
-        <v>-22340090</v>
+        <v>-75596400</v>
       </c>
       <c r="S57" s="23">
         <f t="shared" si="1"/>
-        <v>-121365600</v>
+        <v>-82935400</v>
       </c>
       <c r="T57" s="23">
         <f t="shared" si="1"/>
-        <v>-132137700</v>
+        <v>-112983700</v>
       </c>
       <c r="U57" s="23">
         <f t="shared" si="1"/>
-        <v>-35093780</v>
+        <v>-106185180</v>
       </c>
       <c r="V57" s="23">
         <f t="shared" si="1"/>
-        <v>37693700</v>
+        <v>-11303500</v>
       </c>
       <c r="W57" s="23">
         <f t="shared" si="1"/>
-        <v>-132750000</v>
+        <v>-117150700</v>
       </c>
       <c r="X57" s="23">
         <f t="shared" si="1"/>
-        <v>6967030</v>
+        <v>-25162530</v>
       </c>
       <c r="Y57" s="23">
         <f t="shared" si="1"/>
-        <v>-2702000</v>
+        <v>-28068600</v>
       </c>
       <c r="Z57" s="23">
         <f t="shared" si="1"/>
-        <v>-133296280</v>
+        <v>75985320</v>
       </c>
       <c r="AA57" s="23">
         <f t="shared" si="1"/>
-        <v>-135649300</v>
+        <v>-25384600</v>
       </c>
       <c r="AB57" s="23">
         <f t="shared" si="1"/>
-        <v>-122183000</v>
+        <v>-87927660</v>
       </c>
       <c r="AC57" s="23">
         <f t="shared" si="1"/>
-        <v>-110699400</v>
+        <v>-21759400</v>
       </c>
       <c r="AD57" s="23">
         <f t="shared" si="1"/>
-        <v>-49937400</v>
+        <v>-8031400</v>
       </c>
       <c r="AE57" s="23">
         <f t="shared" si="1"/>
-        <v>-121134200</v>
+        <v>15507560</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
@@ -11930,115 +12737,115 @@
       </c>
       <c r="D58" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-584470</v>
       </c>
       <c r="E58" s="23">
         <f t="shared" si="1"/>
-        <v>9781690</v>
+        <v>1300030</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="1"/>
-        <v>20270700</v>
+        <v>4385300</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="1"/>
-        <v>31606100</v>
+        <v>5866500</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="1"/>
-        <v>43949600</v>
+        <v>7062700</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="1"/>
-        <v>55316500</v>
+        <v>7830000</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>67602700</v>
+        <v>8448500</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="1"/>
-        <v>79931400</v>
+        <v>7393000</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="1"/>
-        <v>86055100</v>
+        <v>6574300</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="1"/>
-        <v>91484000</v>
+        <v>5943000</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="1"/>
-        <v>99335000</v>
+        <v>5692000</v>
       </c>
       <c r="O58" s="23">
         <f t="shared" si="1"/>
-        <v>105908000</v>
+        <v>4766000</v>
       </c>
       <c r="P58" s="23">
         <f t="shared" si="1"/>
-        <v>112051000</v>
+        <v>3907000</v>
       </c>
       <c r="Q58" s="23">
         <f t="shared" si="1"/>
-        <v>115641000</v>
+        <v>1189000</v>
       </c>
       <c r="R58" s="23">
         <f t="shared" si="1"/>
-        <v>115459000</v>
+        <v>-4042000</v>
       </c>
       <c r="S58" s="23">
         <f t="shared" si="1"/>
-        <v>122030000</v>
+        <v>-10909000</v>
       </c>
       <c r="T58" s="23">
         <f t="shared" si="1"/>
-        <v>118386000</v>
+        <v>-16671000</v>
       </c>
       <c r="U58" s="23">
         <f t="shared" si="1"/>
-        <v>120794000</v>
+        <v>-20560000</v>
       </c>
       <c r="V58" s="23">
         <f t="shared" si="1"/>
-        <v>124209000</v>
+        <v>-22486000</v>
       </c>
       <c r="W58" s="23">
         <f t="shared" si="1"/>
-        <v>118558000</v>
+        <v>-21090000</v>
       </c>
       <c r="X58" s="23">
         <f t="shared" si="1"/>
-        <v>114303000</v>
+        <v>-20677000</v>
       </c>
       <c r="Y58" s="23">
         <f t="shared" si="1"/>
-        <v>100928000</v>
+        <v>-21261000</v>
       </c>
       <c r="Z58" s="23">
         <f t="shared" si="1"/>
-        <v>86619000</v>
+        <v>-20644000</v>
       </c>
       <c r="AA58" s="23">
         <f t="shared" si="1"/>
-        <v>75527000</v>
+        <v>-21407000</v>
       </c>
       <c r="AB58" s="23">
         <f t="shared" si="1"/>
-        <v>72055000</v>
+        <v>-18496000</v>
       </c>
       <c r="AC58" s="23">
         <f t="shared" si="1"/>
-        <v>71383000</v>
+        <v>-13769000</v>
       </c>
       <c r="AD58" s="23">
         <f t="shared" si="1"/>
-        <v>73110000</v>
+        <v>-8948000</v>
       </c>
       <c r="AE58" s="23">
         <f t="shared" si="1"/>
-        <v>108023000</v>
+        <v>-4420000</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
@@ -12054,115 +12861,115 @@
       </c>
       <c r="D59" s="23">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>-132156</v>
       </c>
       <c r="E59" s="23">
         <f t="shared" si="1"/>
-        <v>2482360</v>
+        <v>9166580</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
-        <v>5079030</v>
+        <v>19506270</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="1"/>
-        <v>7841350</v>
+        <v>28340750</v>
       </c>
       <c r="H59" s="23">
         <f t="shared" si="1"/>
-        <v>10674670</v>
+        <v>37903470</v>
       </c>
       <c r="I59" s="23">
         <f t="shared" si="1"/>
-        <v>13273000</v>
+        <v>48087700</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>15878400</v>
+        <v>59007000</v>
       </c>
       <c r="K59" s="23">
         <f t="shared" si="1"/>
-        <v>18041000</v>
+        <v>69209400</v>
       </c>
       <c r="L59" s="23">
         <f t="shared" si="1"/>
-        <v>18726700</v>
+        <v>70233800</v>
       </c>
       <c r="M59" s="23">
         <f t="shared" si="1"/>
-        <v>15739300</v>
+        <v>63869100</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="1"/>
-        <v>13997900</v>
+        <v>58725700</v>
       </c>
       <c r="O59" s="23">
         <f t="shared" si="1"/>
-        <v>11348000</v>
+        <v>56656500</v>
       </c>
       <c r="P59" s="23">
         <f t="shared" si="1"/>
-        <v>7988700</v>
+        <v>53507300</v>
       </c>
       <c r="Q59" s="23">
         <f t="shared" si="1"/>
-        <v>2755000</v>
+        <v>47831100</v>
       </c>
       <c r="R59" s="23">
         <f t="shared" si="1"/>
-        <v>1004100</v>
+        <v>43062600</v>
       </c>
       <c r="S59" s="23">
         <f t="shared" si="1"/>
-        <v>2711600</v>
+        <v>40665300</v>
       </c>
       <c r="T59" s="23">
         <f t="shared" si="1"/>
-        <v>4886700</v>
+        <v>39499300</v>
       </c>
       <c r="U59" s="23">
         <f t="shared" si="1"/>
-        <v>6165000</v>
+        <v>36674900</v>
       </c>
       <c r="V59" s="23">
         <f t="shared" si="1"/>
-        <v>7443300</v>
+        <v>31798600</v>
       </c>
       <c r="W59" s="23">
         <f t="shared" si="1"/>
-        <v>13069200</v>
+        <v>26151400</v>
       </c>
       <c r="X59" s="23">
         <f t="shared" si="1"/>
-        <v>22237800</v>
+        <v>22260800</v>
       </c>
       <c r="Y59" s="23">
         <f t="shared" si="1"/>
-        <v>30213600</v>
+        <v>20910600</v>
       </c>
       <c r="Z59" s="23">
         <f t="shared" si="1"/>
-        <v>40023100</v>
+        <v>21234100</v>
       </c>
       <c r="AA59" s="23">
         <f t="shared" si="1"/>
-        <v>51799500</v>
+        <v>22557500</v>
       </c>
       <c r="AB59" s="23">
         <f t="shared" si="1"/>
-        <v>64865900</v>
+        <v>21795900</v>
       </c>
       <c r="AC59" s="23">
         <f t="shared" si="1"/>
-        <v>71738100</v>
+        <v>21359100</v>
       </c>
       <c r="AD59" s="23">
         <f t="shared" si="1"/>
-        <v>79865700</v>
+        <v>22168700</v>
       </c>
       <c r="AE59" s="23">
         <f t="shared" si="1"/>
-        <v>82056000</v>
+        <v>23499000</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
@@ -12302,115 +13109,115 @@
       </c>
       <c r="D61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-50036.1</v>
       </c>
       <c r="E61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-139058</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-139057</v>
       </c>
       <c r="G61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-139058</v>
       </c>
       <c r="H61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-208587</v>
       </c>
       <c r="I61" s="23">
         <f t="shared" si="1"/>
-        <v>-69530</v>
+        <v>-278115</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
-        <v>-69520</v>
+        <v>-347640</v>
       </c>
       <c r="K61" s="23">
         <f t="shared" si="1"/>
-        <v>-139060</v>
+        <v>-486710</v>
       </c>
       <c r="L61" s="23">
         <f t="shared" si="1"/>
-        <v>-208590</v>
+        <v>-695290</v>
       </c>
       <c r="M61" s="23">
         <f t="shared" si="1"/>
-        <v>-278120</v>
+        <v>-1042930</v>
       </c>
       <c r="N61" s="23">
         <f t="shared" si="1"/>
-        <v>-347640</v>
+        <v>-1390580</v>
       </c>
       <c r="O61" s="23">
         <f t="shared" si="1"/>
-        <v>-625760</v>
+        <v>-1738220</v>
       </c>
       <c r="P61" s="23">
         <f t="shared" si="1"/>
-        <v>-903880</v>
+        <v>-2155400</v>
       </c>
       <c r="Q61" s="23">
         <f t="shared" si="1"/>
-        <v>-1181990</v>
+        <v>-2503040</v>
       </c>
       <c r="R61" s="23">
         <f t="shared" si="1"/>
-        <v>-1924810</v>
+        <v>-2850690</v>
       </c>
       <c r="S61" s="23">
         <f t="shared" si="1"/>
-        <v>-6471614.7599999998</v>
+        <v>-4036540</v>
       </c>
       <c r="T61" s="23">
         <f t="shared" si="1"/>
-        <v>-11752360</v>
+        <v>-5269150.4000000004</v>
       </c>
       <c r="U61" s="23">
         <f t="shared" si="1"/>
-        <v>-13452880</v>
+        <v>-5588816</v>
       </c>
       <c r="V61" s="23">
         <f t="shared" si="1"/>
-        <v>-18784230</v>
+        <v>-6698099</v>
       </c>
       <c r="W61" s="23">
         <f t="shared" si="1"/>
-        <v>-23926590</v>
+        <v>-7960443</v>
       </c>
       <c r="X61" s="23">
         <f t="shared" si="1"/>
-        <v>-25247750</v>
+        <v>-7778370</v>
       </c>
       <c r="Y61" s="23">
         <f t="shared" si="1"/>
-        <v>-27160000</v>
+        <v>-7299410</v>
       </c>
       <c r="Z61" s="23">
         <f t="shared" si="1"/>
-        <v>-29927800</v>
+        <v>-6722820</v>
       </c>
       <c r="AA61" s="23">
         <f t="shared" si="1"/>
-        <v>-35143800</v>
+        <v>-7886520</v>
       </c>
       <c r="AB61" s="23">
         <f t="shared" si="1"/>
-        <v>-40140900</v>
+        <v>-9372510</v>
       </c>
       <c r="AC61" s="23">
         <f t="shared" si="1"/>
-        <v>-40618300</v>
+        <v>-9361790</v>
       </c>
       <c r="AD61" s="23">
         <f t="shared" si="1"/>
-        <v>-38897400</v>
+        <v>-7834030</v>
       </c>
       <c r="AE61" s="23">
         <f t="shared" si="1"/>
-        <v>-39845400</v>
+        <v>-5986258</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
@@ -12502,39 +13309,39 @@
       </c>
       <c r="W62" s="23">
         <f t="shared" si="1"/>
-        <v>-846.37</v>
+        <v>0</v>
       </c>
       <c r="X62" s="23">
         <f t="shared" si="1"/>
-        <v>-2086.4699999999998</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="23">
         <f t="shared" si="1"/>
-        <v>-9587.66</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="23">
         <f t="shared" ref="Z62:AE62" si="2">Z37-Z12</f>
-        <v>-21185.8</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="23">
         <f t="shared" si="2"/>
-        <v>-39303.699999999997</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="AB62" s="23">
         <f t="shared" si="2"/>
-        <v>-55468.6</v>
+        <v>-2319.09</v>
       </c>
       <c r="AC62" s="23">
         <f t="shared" si="2"/>
-        <v>-56653.9</v>
+        <v>-2441.16</v>
       </c>
       <c r="AD62" s="23">
         <f t="shared" si="2"/>
-        <v>-55171.844700000001</v>
+        <v>-2568.6847000000002</v>
       </c>
       <c r="AE62" s="23">
         <f t="shared" si="2"/>
-        <v>-91501.89</v>
+        <v>-1466.3900000000003</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
@@ -12570,95 +13377,95 @@
       </c>
       <c r="I63" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>38535.199999999997</v>
       </c>
       <c r="J63" s="23">
         <f t="shared" si="3"/>
-        <v>-115606</v>
+        <v>19267</v>
       </c>
       <c r="K63" s="23">
         <f t="shared" si="3"/>
-        <v>-57803</v>
+        <v>19268</v>
       </c>
       <c r="L63" s="23">
         <f t="shared" si="3"/>
-        <v>-57800</v>
+        <v>19270</v>
       </c>
       <c r="M63" s="23">
         <f t="shared" si="3"/>
-        <v>-57800</v>
+        <v>19270</v>
       </c>
       <c r="N63" s="23">
         <f t="shared" si="3"/>
-        <v>-57800</v>
+        <v>19270</v>
       </c>
       <c r="O63" s="23">
         <f t="shared" si="3"/>
-        <v>-96338</v>
+        <v>115610</v>
       </c>
       <c r="P63" s="23">
         <f t="shared" si="3"/>
-        <v>-96338</v>
+        <v>115610</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="3"/>
-        <v>-96338</v>
+        <v>115610</v>
       </c>
       <c r="R63" s="23">
         <f t="shared" si="3"/>
-        <v>-96338</v>
+        <v>115610</v>
       </c>
       <c r="S63" s="23">
         <f t="shared" si="3"/>
-        <v>-96340</v>
+        <v>115600</v>
       </c>
       <c r="T63" s="23">
         <f t="shared" si="3"/>
-        <v>-289020</v>
+        <v>115600</v>
       </c>
       <c r="U63" s="23">
         <f t="shared" si="3"/>
-        <v>-539496</v>
+        <v>115600</v>
       </c>
       <c r="V63" s="23">
         <f t="shared" si="3"/>
-        <v>-404622</v>
+        <v>366080</v>
       </c>
       <c r="W63" s="23">
         <f t="shared" si="3"/>
-        <v>-404915</v>
+        <v>366080</v>
       </c>
       <c r="X63" s="23">
         <f t="shared" si="3"/>
-        <v>-405359</v>
+        <v>366080</v>
       </c>
       <c r="Y63" s="23">
         <f t="shared" si="3"/>
-        <v>-408056</v>
+        <v>366080</v>
       </c>
       <c r="Z63" s="23">
         <f t="shared" si="3"/>
-        <v>-450582</v>
+        <v>346820</v>
       </c>
       <c r="AA63" s="23">
         <f t="shared" si="3"/>
-        <v>-495167</v>
+        <v>327490</v>
       </c>
       <c r="AB63" s="23">
         <f t="shared" si="3"/>
-        <v>-538540</v>
+        <v>326700</v>
       </c>
       <c r="AC63" s="23">
         <f t="shared" si="3"/>
-        <v>-634260</v>
+        <v>307410</v>
       </c>
       <c r="AD63" s="23">
         <f t="shared" si="3"/>
-        <v>-729310</v>
+        <v>268850</v>
       </c>
       <c r="AE63" s="23">
         <f t="shared" si="3"/>
-        <v>-840660</v>
+        <v>230450</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
@@ -12794,119 +13601,119 @@
       </c>
       <c r="C65" s="23">
         <f t="shared" si="3"/>
-        <v>-9.9999999997635314E-3</v>
+        <v>2561.21</v>
       </c>
       <c r="D65" s="23">
         <f t="shared" si="3"/>
-        <v>-1.0000000000218279E-2</v>
+        <v>4153.59</v>
       </c>
       <c r="E65" s="23">
         <f t="shared" si="3"/>
-        <v>-1149.8200000000002</v>
+        <v>-9641.7799999999988</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="3"/>
-        <v>-2175.7629999999999</v>
+        <v>-7098.4529999999995</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="3"/>
-        <v>-65020</v>
+        <v>-476890</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="3"/>
-        <v>-2686620</v>
+        <v>-4189450</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="3"/>
-        <v>-5739400</v>
+        <v>-9687200</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="3"/>
-        <v>-8766200</v>
+        <v>-10628800</v>
       </c>
       <c r="K65" s="23">
         <f t="shared" si="3"/>
-        <v>-10191600</v>
+        <v>10466900</v>
       </c>
       <c r="L65" s="23">
         <f t="shared" si="3"/>
-        <v>-5245000</v>
+        <v>27723000</v>
       </c>
       <c r="M65" s="23">
         <f t="shared" si="3"/>
-        <v>-1806000</v>
+        <v>18940000</v>
       </c>
       <c r="N65" s="23">
         <f t="shared" si="3"/>
-        <v>-323000</v>
+        <v>8420000</v>
       </c>
       <c r="O65" s="23">
         <f t="shared" si="3"/>
-        <v>-174000</v>
+        <v>4394000</v>
       </c>
       <c r="P65" s="23">
         <f t="shared" si="3"/>
-        <v>-112000</v>
+        <v>2109000</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="3"/>
-        <v>-57800</v>
+        <v>897600</v>
       </c>
       <c r="R65" s="23">
         <f t="shared" si="3"/>
-        <v>-60700</v>
+        <v>511300</v>
       </c>
       <c r="S65" s="23">
         <f t="shared" si="3"/>
-        <v>-1300</v>
+        <v>69100</v>
       </c>
       <c r="T65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-138300</v>
       </c>
       <c r="U65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-128500</v>
       </c>
       <c r="V65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-35200</v>
       </c>
       <c r="W65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-31900</v>
       </c>
       <c r="X65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-19200</v>
       </c>
       <c r="Y65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-59000</v>
       </c>
       <c r="Z65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33350</v>
       </c>
       <c r="AA65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-15840</v>
       </c>
       <c r="AB65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-133530</v>
       </c>
       <c r="AC65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-73830</v>
       </c>
       <c r="AD65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-25460</v>
       </c>
       <c r="AE65" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-138890</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
@@ -12922,115 +13729,115 @@
       </c>
       <c r="D66" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-73381</v>
       </c>
       <c r="E66" s="23">
         <f t="shared" si="3"/>
-        <v>3952280</v>
+        <v>5328890</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="3"/>
-        <v>8267460</v>
+        <v>11607060</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" si="3"/>
-        <v>12896660</v>
+        <v>19439160</v>
       </c>
       <c r="H66" s="23">
         <f t="shared" si="3"/>
-        <v>18007140</v>
+        <v>28033040</v>
       </c>
       <c r="I66" s="23">
         <f t="shared" si="3"/>
-        <v>23567300</v>
+        <v>37316900</v>
       </c>
       <c r="J66" s="23">
         <f t="shared" si="3"/>
-        <v>29676000</v>
+        <v>47583600</v>
       </c>
       <c r="K66" s="23">
         <f t="shared" si="3"/>
-        <v>34899600</v>
+        <v>57095200</v>
       </c>
       <c r="L66" s="23">
         <f t="shared" si="3"/>
-        <v>38278000</v>
+        <v>65031400</v>
       </c>
       <c r="M66" s="23">
         <f t="shared" si="3"/>
-        <v>41890300</v>
+        <v>76174500</v>
       </c>
       <c r="N66" s="23">
         <f t="shared" si="3"/>
-        <v>45670100</v>
+        <v>87114000</v>
       </c>
       <c r="O66" s="23">
         <f t="shared" si="3"/>
-        <v>47821200</v>
+        <v>97910200</v>
       </c>
       <c r="P66" s="23">
         <f t="shared" si="3"/>
-        <v>49793500</v>
+        <v>110231500</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="3"/>
-        <v>52123600</v>
+        <v>122841600</v>
       </c>
       <c r="R66" s="23">
         <f t="shared" si="3"/>
-        <v>53447000</v>
+        <v>136643000</v>
       </c>
       <c r="S66" s="23">
         <f t="shared" si="3"/>
-        <v>53262000</v>
+        <v>147814000</v>
       </c>
       <c r="T66" s="23">
         <f t="shared" si="3"/>
-        <v>44048000</v>
+        <v>154982000</v>
       </c>
       <c r="U66" s="23">
         <f t="shared" si="3"/>
-        <v>42079000</v>
+        <v>162211000</v>
       </c>
       <c r="V66" s="23">
         <f t="shared" si="3"/>
-        <v>44034000</v>
+        <v>169263000</v>
       </c>
       <c r="W66" s="23">
         <f t="shared" si="3"/>
-        <v>43471000</v>
+        <v>175157000</v>
       </c>
       <c r="X66" s="23">
         <f t="shared" si="3"/>
-        <v>48306000</v>
+        <v>181369000</v>
       </c>
       <c r="Y66" s="23">
         <f t="shared" si="3"/>
-        <v>50124000</v>
+        <v>186494000</v>
       </c>
       <c r="Z66" s="23">
         <f t="shared" si="3"/>
-        <v>52394000</v>
+        <v>192092000</v>
       </c>
       <c r="AA66" s="23">
         <f t="shared" si="3"/>
-        <v>55463000</v>
+        <v>194531000</v>
       </c>
       <c r="AB66" s="23">
         <f t="shared" si="3"/>
-        <v>59135000</v>
+        <v>190834000</v>
       </c>
       <c r="AC66" s="23">
         <f t="shared" si="3"/>
-        <v>59448000</v>
+        <v>187997000</v>
       </c>
       <c r="AD66" s="23">
         <f t="shared" si="3"/>
-        <v>54705000</v>
+        <v>181755000</v>
       </c>
       <c r="AE66" s="23">
         <f t="shared" si="3"/>
-        <v>41696000</v>
+        <v>179760000</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
@@ -13046,115 +13853,115 @@
       </c>
       <c r="D67" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E67" s="23">
         <f t="shared" si="3"/>
-        <v>-11</v>
+        <v>-86586</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="3"/>
-        <v>-17</v>
+        <v>-86584</v>
       </c>
       <c r="G67" s="23">
         <f t="shared" si="3"/>
-        <v>-69</v>
+        <v>-173286</v>
       </c>
       <c r="H67" s="23">
         <f t="shared" si="3"/>
-        <v>-522</v>
+        <v>-173953</v>
       </c>
       <c r="I67" s="23">
         <f t="shared" si="3"/>
-        <v>-87671</v>
+        <v>-177630</v>
       </c>
       <c r="J67" s="23">
         <f t="shared" si="3"/>
-        <v>-111275</v>
+        <v>-195215</v>
       </c>
       <c r="K67" s="23">
         <f t="shared" si="3"/>
-        <v>-148266</v>
+        <v>-247342</v>
       </c>
       <c r="L67" s="23">
         <f t="shared" si="3"/>
-        <v>-186096</v>
+        <v>-277016</v>
       </c>
       <c r="M67" s="23">
         <f t="shared" si="3"/>
-        <v>-201216</v>
+        <v>-235572</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="3"/>
-        <v>-428104.4</v>
+        <v>-202910</v>
       </c>
       <c r="O67" s="23">
         <f t="shared" si="3"/>
-        <v>-447762.97</v>
+        <v>-169854</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" si="3"/>
-        <v>-321883.7</v>
+        <v>-130274</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="3"/>
-        <v>-366620</v>
+        <v>-191591.3</v>
       </c>
       <c r="R67" s="23">
         <f t="shared" si="3"/>
-        <v>-499768.57</v>
+        <v>-196235.57</v>
       </c>
       <c r="S67" s="23">
         <f t="shared" si="3"/>
-        <v>-886016</v>
+        <v>-131340</v>
       </c>
       <c r="T67" s="23">
         <f t="shared" si="3"/>
-        <v>-290000</v>
+        <v>-131480</v>
       </c>
       <c r="U67" s="23">
         <f t="shared" si="3"/>
-        <v>-254700</v>
+        <v>-115798</v>
       </c>
       <c r="V67" s="23">
         <f t="shared" si="3"/>
-        <v>-255765</v>
+        <v>-137720</v>
       </c>
       <c r="W67" s="23">
         <f t="shared" si="3"/>
-        <v>-260006</v>
+        <v>-139050</v>
       </c>
       <c r="X67" s="23">
         <f t="shared" si="3"/>
-        <v>-239211</v>
+        <v>-149745</v>
       </c>
       <c r="Y67" s="23">
         <f t="shared" si="3"/>
-        <v>-263494</v>
+        <v>-142740</v>
       </c>
       <c r="Z67" s="23">
         <f t="shared" si="3"/>
-        <v>-238515</v>
+        <v>-122825</v>
       </c>
       <c r="AA67" s="23">
         <f t="shared" si="3"/>
-        <v>-222169</v>
+        <v>-140191</v>
       </c>
       <c r="AB67" s="23">
         <f t="shared" si="3"/>
-        <v>-248495</v>
+        <v>-139474</v>
       </c>
       <c r="AC67" s="23">
         <f t="shared" si="3"/>
-        <v>-242921</v>
+        <v>-154613</v>
       </c>
       <c r="AD67" s="23">
         <f t="shared" si="3"/>
-        <v>-214405</v>
+        <v>-133292</v>
       </c>
       <c r="AE67" s="23">
         <f t="shared" si="3"/>
-        <v>-158506</v>
+        <v>-178450</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
@@ -13322,87 +14129,87 @@
       </c>
       <c r="K69" s="23">
         <f t="shared" si="3"/>
-        <v>-250256</v>
+        <v>0</v>
       </c>
       <c r="L69" s="23">
         <f t="shared" si="3"/>
-        <v>-450462</v>
+        <v>0</v>
       </c>
       <c r="M69" s="23">
         <f t="shared" si="3"/>
-        <v>-850872</v>
+        <v>0</v>
       </c>
       <c r="N69" s="23">
         <f t="shared" si="3"/>
-        <v>-800825</v>
+        <v>100102</v>
       </c>
       <c r="O69" s="23">
         <f t="shared" si="3"/>
-        <v>-850870</v>
+        <v>200200</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" si="3"/>
-        <v>-950980</v>
+        <v>350360</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="3"/>
-        <v>-1101130</v>
+        <v>450460</v>
       </c>
       <c r="R69" s="23">
         <f t="shared" si="3"/>
-        <v>-1314370</v>
+        <v>550560</v>
       </c>
       <c r="S69" s="23">
         <f t="shared" si="3"/>
-        <v>-1685490</v>
+        <v>553420</v>
       </c>
       <c r="T69" s="23">
         <f t="shared" si="3"/>
-        <v>-1915520</v>
+        <v>651060</v>
       </c>
       <c r="U69" s="23">
         <f t="shared" si="3"/>
-        <v>-1892300</v>
+        <v>858480</v>
       </c>
       <c r="V69" s="23">
         <f t="shared" si="3"/>
-        <v>-1829190</v>
+        <v>1045180</v>
       </c>
       <c r="W69" s="23">
         <f t="shared" si="3"/>
-        <v>-1701400</v>
+        <v>1136780</v>
       </c>
       <c r="X69" s="23">
         <f t="shared" si="3"/>
-        <v>-247480</v>
+        <v>1179380</v>
       </c>
       <c r="Y69" s="23">
         <f t="shared" si="3"/>
-        <v>-4840</v>
+        <v>-260</v>
       </c>
       <c r="Z69" s="23">
         <f t="shared" si="3"/>
-        <v>-5440</v>
+        <v>1830</v>
       </c>
       <c r="AA69" s="23">
         <f t="shared" si="3"/>
-        <v>-6550</v>
+        <v>2640</v>
       </c>
       <c r="AB69" s="23">
         <f t="shared" si="3"/>
-        <v>-7610</v>
+        <v>2090</v>
       </c>
       <c r="AC69" s="23">
         <f t="shared" si="3"/>
-        <v>-7710</v>
+        <v>-37680</v>
       </c>
       <c r="AD69" s="23">
         <f t="shared" si="3"/>
-        <v>-7340</v>
+        <v>-35380</v>
       </c>
       <c r="AE69" s="23">
         <f t="shared" si="3"/>
-        <v>-7640</v>
+        <v>-42120</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -13934,95 +14741,95 @@
       </c>
       <c r="I74" s="23">
         <f t="shared" si="5"/>
-        <v>-239202</v>
+        <v>0</v>
       </c>
       <c r="J74" s="23">
         <f t="shared" si="5"/>
-        <v>-119601</v>
+        <v>0</v>
       </c>
       <c r="K74" s="23">
         <f t="shared" si="5"/>
-        <v>-119601</v>
+        <v>0</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>-122116</v>
+        <v>-14927</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
-        <v>-118342.75</v>
+        <v>-14368.55</v>
       </c>
       <c r="N74" s="23">
         <f t="shared" si="5"/>
-        <v>-119320.3</v>
+        <v>-16701.399999999998</v>
       </c>
       <c r="O74" s="23">
         <f t="shared" si="5"/>
-        <v>-119319.54</v>
+        <v>-16701.440000000002</v>
       </c>
       <c r="P74" s="23">
         <f t="shared" si="5"/>
-        <v>-118052.34</v>
+        <v>-11838.24</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="5"/>
-        <v>-120840.19</v>
+        <v>-9530.59</v>
       </c>
       <c r="R74" s="23">
         <f t="shared" si="5"/>
-        <v>-108586.6</v>
+        <v>-12439.199999999999</v>
       </c>
       <c r="S74" s="23">
         <f t="shared" si="5"/>
-        <v>-104874.7</v>
+        <v>-10912.100000000002</v>
       </c>
       <c r="T74" s="23">
         <f t="shared" si="5"/>
-        <v>-100313.2</v>
+        <v>-10916.399999999994</v>
       </c>
       <c r="U74" s="23">
         <f t="shared" si="5"/>
-        <v>-99719.4</v>
+        <v>-14049.699999999999</v>
       </c>
       <c r="V74" s="23">
         <f t="shared" si="5"/>
-        <v>-114078.23</v>
+        <v>-17965.329999999998</v>
       </c>
       <c r="W74" s="23">
         <f t="shared" si="5"/>
-        <v>-113941.1</v>
+        <v>-10183.799999999999</v>
       </c>
       <c r="X74" s="23">
         <f t="shared" si="5"/>
-        <v>-114233.3</v>
+        <v>-11750.3</v>
       </c>
       <c r="Y74" s="23">
         <f t="shared" si="5"/>
-        <v>-111508.1</v>
+        <v>-8028.1</v>
       </c>
       <c r="Z74" s="23">
         <f t="shared" si="5"/>
-        <v>-111440.02</v>
+        <v>-18123.52</v>
       </c>
       <c r="AA74" s="23">
         <f t="shared" si="5"/>
-        <v>-111845.28</v>
+        <v>-28490.480000000003</v>
       </c>
       <c r="AB74" s="23">
         <f t="shared" si="5"/>
-        <v>-93927.06</v>
+        <v>-15680.36</v>
       </c>
       <c r="AC74" s="23">
         <f t="shared" si="5"/>
-        <v>-103289.98000000001</v>
+        <v>-25013.48</v>
       </c>
       <c r="AD74" s="23">
         <f t="shared" si="5"/>
-        <v>-96272.83</v>
+        <v>-12118.83</v>
       </c>
       <c r="AE74" s="23">
         <f t="shared" si="5"/>
-        <v>-105497</v>
+        <v>-2117.7000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
@@ -14283,115 +15090,115 @@
       </c>
       <c r="D77" s="23">
         <f t="shared" ref="D77:AE77" si="6">SUM(D58,D59,D66)</f>
-        <v>55</v>
+        <v>-790007</v>
       </c>
       <c r="E77" s="23">
         <f t="shared" si="6"/>
-        <v>16216330</v>
+        <v>15795500</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="6"/>
-        <v>33617190</v>
+        <v>35498630</v>
       </c>
       <c r="G77" s="23">
         <f t="shared" si="6"/>
-        <v>52344110</v>
+        <v>53646410</v>
       </c>
       <c r="H77" s="23">
         <f t="shared" si="6"/>
-        <v>72631410</v>
+        <v>72999210</v>
       </c>
       <c r="I77" s="23">
         <f t="shared" si="6"/>
-        <v>92156800</v>
+        <v>93234600</v>
       </c>
       <c r="J77" s="23">
         <f t="shared" si="6"/>
-        <v>113157100</v>
+        <v>115039100</v>
       </c>
       <c r="K77" s="23">
         <f t="shared" si="6"/>
-        <v>132872000</v>
+        <v>133697600</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="6"/>
-        <v>143059800</v>
+        <v>141839500</v>
       </c>
       <c r="M77" s="23">
         <f t="shared" si="6"/>
-        <v>149113600</v>
+        <v>145986600</v>
       </c>
       <c r="N77" s="23">
         <f t="shared" si="6"/>
-        <v>159003000</v>
+        <v>151531700</v>
       </c>
       <c r="O77" s="23">
         <f t="shared" si="6"/>
-        <v>165077200</v>
+        <v>159332700</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" si="6"/>
-        <v>169833200</v>
+        <v>167645800</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="6"/>
-        <v>170519600</v>
+        <v>171861700</v>
       </c>
       <c r="R77" s="23">
         <f t="shared" si="6"/>
-        <v>169910100</v>
+        <v>175663600</v>
       </c>
       <c r="S77" s="23">
         <f t="shared" si="6"/>
-        <v>178003600</v>
+        <v>177570300</v>
       </c>
       <c r="T77" s="23">
         <f t="shared" si="6"/>
-        <v>167320700</v>
+        <v>177810300</v>
       </c>
       <c r="U77" s="23">
         <f t="shared" si="6"/>
-        <v>169038000</v>
+        <v>178325900</v>
       </c>
       <c r="V77" s="23">
         <f t="shared" si="6"/>
-        <v>175686300</v>
+        <v>178575600</v>
       </c>
       <c r="W77" s="23">
         <f t="shared" si="6"/>
-        <v>175098200</v>
+        <v>180218400</v>
       </c>
       <c r="X77" s="23">
         <f t="shared" si="6"/>
-        <v>184846800</v>
+        <v>182952800</v>
       </c>
       <c r="Y77" s="23">
         <f t="shared" si="6"/>
-        <v>181265600</v>
+        <v>186143600</v>
       </c>
       <c r="Z77" s="23">
         <f t="shared" si="6"/>
-        <v>179036100</v>
+        <v>192682100</v>
       </c>
       <c r="AA77" s="23">
         <f t="shared" si="6"/>
-        <v>182789500</v>
+        <v>195681500</v>
       </c>
       <c r="AB77" s="23">
         <f t="shared" si="6"/>
-        <v>196055900</v>
+        <v>194133900</v>
       </c>
       <c r="AC77" s="23">
         <f t="shared" si="6"/>
-        <v>202569100</v>
+        <v>195587100</v>
       </c>
       <c r="AD77" s="23">
         <f t="shared" si="6"/>
-        <v>207680700</v>
+        <v>194975700</v>
       </c>
       <c r="AE77" s="23">
         <f t="shared" si="6"/>
-        <v>231775000</v>
+        <v>198839000</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
@@ -14522,6 +15329,2306 @@
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23"/>
+    </row>
+    <row r="96" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>2022</v>
+      </c>
+      <c r="D96">
+        <v>2023</v>
+      </c>
+      <c r="E96">
+        <v>2024</v>
+      </c>
+      <c r="F96">
+        <v>2025</v>
+      </c>
+      <c r="G96">
+        <v>2026</v>
+      </c>
+      <c r="H96">
+        <v>2027</v>
+      </c>
+      <c r="I96">
+        <v>2028</v>
+      </c>
+      <c r="J96">
+        <v>2029</v>
+      </c>
+      <c r="K96">
+        <v>2030</v>
+      </c>
+      <c r="L96">
+        <v>2031</v>
+      </c>
+      <c r="M96">
+        <v>2032</v>
+      </c>
+      <c r="N96">
+        <v>2033</v>
+      </c>
+      <c r="O96">
+        <v>2034</v>
+      </c>
+      <c r="P96">
+        <v>2035</v>
+      </c>
+      <c r="Q96">
+        <v>2036</v>
+      </c>
+      <c r="R96">
+        <v>2037</v>
+      </c>
+      <c r="S96">
+        <v>2038</v>
+      </c>
+      <c r="T96">
+        <v>2039</v>
+      </c>
+      <c r="U96">
+        <v>2040</v>
+      </c>
+      <c r="V96">
+        <v>2041</v>
+      </c>
+      <c r="W96">
+        <v>2042</v>
+      </c>
+      <c r="X96">
+        <v>2043</v>
+      </c>
+      <c r="Y96">
+        <v>2044</v>
+      </c>
+      <c r="Z96">
+        <v>2045</v>
+      </c>
+      <c r="AA96">
+        <v>2046</v>
+      </c>
+      <c r="AB96">
+        <v>2047</v>
+      </c>
+      <c r="AC96">
+        <v>2048</v>
+      </c>
+      <c r="AD96">
+        <v>2049</v>
+      </c>
+      <c r="AE96">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>42</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>11573</v>
+      </c>
+      <c r="N99">
+        <v>163</v>
+      </c>
+      <c r="O99">
+        <v>6031</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>12062</v>
+      </c>
+      <c r="T99">
+        <v>2282</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>18908</v>
+      </c>
+      <c r="W99">
+        <v>2771</v>
+      </c>
+      <c r="X99">
+        <v>2608</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>3097</v>
+      </c>
+      <c r="AC99">
+        <v>2282</v>
+      </c>
+      <c r="AD99">
+        <v>2445</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>3192</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>670</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>14122</v>
+      </c>
+      <c r="D102">
+        <v>16578</v>
+      </c>
+      <c r="E102">
+        <v>11316</v>
+      </c>
+      <c r="F102">
+        <v>12972</v>
+      </c>
+      <c r="G102">
+        <v>14538</v>
+      </c>
+      <c r="H102">
+        <v>15342</v>
+      </c>
+      <c r="I102">
+        <v>15612</v>
+      </c>
+      <c r="J102">
+        <v>16236</v>
+      </c>
+      <c r="K102">
+        <v>17442</v>
+      </c>
+      <c r="L102">
+        <v>18618</v>
+      </c>
+      <c r="M102">
+        <v>19848</v>
+      </c>
+      <c r="N102">
+        <v>21000</v>
+      </c>
+      <c r="O102">
+        <v>22296</v>
+      </c>
+      <c r="P102">
+        <v>22812</v>
+      </c>
+      <c r="Q102">
+        <v>23388</v>
+      </c>
+      <c r="R102">
+        <v>24090</v>
+      </c>
+      <c r="S102">
+        <v>23928</v>
+      </c>
+      <c r="T102">
+        <v>24012</v>
+      </c>
+      <c r="U102">
+        <v>24498</v>
+      </c>
+      <c r="V102">
+        <v>18906</v>
+      </c>
+      <c r="W102">
+        <v>16746</v>
+      </c>
+      <c r="X102">
+        <v>15672</v>
+      </c>
+      <c r="Y102">
+        <v>15468</v>
+      </c>
+      <c r="Z102">
+        <v>13110</v>
+      </c>
+      <c r="AA102">
+        <v>7440</v>
+      </c>
+      <c r="AB102">
+        <v>6900</v>
+      </c>
+      <c r="AC102">
+        <v>5808</v>
+      </c>
+      <c r="AD102">
+        <v>5520</v>
+      </c>
+      <c r="AE102">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103">
+        <v>12230.5</v>
+      </c>
+      <c r="D103">
+        <v>12627.9</v>
+      </c>
+      <c r="E103">
+        <v>4116</v>
+      </c>
+      <c r="F103">
+        <v>5022</v>
+      </c>
+      <c r="G103">
+        <v>5860</v>
+      </c>
+      <c r="H103">
+        <v>6454</v>
+      </c>
+      <c r="I103">
+        <v>6792</v>
+      </c>
+      <c r="J103">
+        <v>7226</v>
+      </c>
+      <c r="K103">
+        <v>7796</v>
+      </c>
+      <c r="L103">
+        <v>8412</v>
+      </c>
+      <c r="M103">
+        <v>9002</v>
+      </c>
+      <c r="N103">
+        <v>9630</v>
+      </c>
+      <c r="O103">
+        <v>10420</v>
+      </c>
+      <c r="P103">
+        <v>10066</v>
+      </c>
+      <c r="Q103">
+        <v>9864</v>
+      </c>
+      <c r="R103">
+        <v>9998</v>
+      </c>
+      <c r="S103">
+        <v>7926</v>
+      </c>
+      <c r="T103">
+        <v>6842</v>
+      </c>
+      <c r="U103">
+        <v>6058</v>
+      </c>
+      <c r="V103">
+        <v>3552</v>
+      </c>
+      <c r="W103">
+        <v>2346</v>
+      </c>
+      <c r="X103">
+        <v>2172</v>
+      </c>
+      <c r="Y103">
+        <v>1786</v>
+      </c>
+      <c r="Z103">
+        <v>818</v>
+      </c>
+      <c r="AA103">
+        <v>636</v>
+      </c>
+      <c r="AB103">
+        <v>388</v>
+      </c>
+      <c r="AC103">
+        <v>26</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>990</v>
+      </c>
+      <c r="E105">
+        <v>990</v>
+      </c>
+      <c r="F105">
+        <v>756</v>
+      </c>
+      <c r="G105">
+        <v>882</v>
+      </c>
+      <c r="H105">
+        <v>954</v>
+      </c>
+      <c r="I105">
+        <v>1044</v>
+      </c>
+      <c r="J105">
+        <v>1152</v>
+      </c>
+      <c r="K105">
+        <v>1278</v>
+      </c>
+      <c r="L105">
+        <v>1368</v>
+      </c>
+      <c r="M105">
+        <v>1350</v>
+      </c>
+      <c r="N105">
+        <v>1314</v>
+      </c>
+      <c r="O105">
+        <v>1260</v>
+      </c>
+      <c r="P105">
+        <v>1188</v>
+      </c>
+      <c r="Q105">
+        <v>1098</v>
+      </c>
+      <c r="R105">
+        <v>990</v>
+      </c>
+      <c r="S105">
+        <v>846</v>
+      </c>
+      <c r="T105">
+        <v>702</v>
+      </c>
+      <c r="U105">
+        <v>558</v>
+      </c>
+      <c r="V105">
+        <v>324</v>
+      </c>
+      <c r="W105">
+        <v>126</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>300</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110">
+        <v>963</v>
+      </c>
+      <c r="D110">
+        <v>2972</v>
+      </c>
+      <c r="E110">
+        <v>3427</v>
+      </c>
+      <c r="F110">
+        <v>3667</v>
+      </c>
+      <c r="G110">
+        <v>3607</v>
+      </c>
+      <c r="H110">
+        <v>3747</v>
+      </c>
+      <c r="I110">
+        <v>3862</v>
+      </c>
+      <c r="J110">
+        <v>4062</v>
+      </c>
+      <c r="K110">
+        <v>4412</v>
+      </c>
+      <c r="L110">
+        <v>2315</v>
+      </c>
+      <c r="M110">
+        <v>2510</v>
+      </c>
+      <c r="N110">
+        <v>2700</v>
+      </c>
+      <c r="O110">
+        <v>2940</v>
+      </c>
+      <c r="P110">
+        <v>3030</v>
+      </c>
+      <c r="Q110">
+        <v>3160</v>
+      </c>
+      <c r="R110">
+        <v>3305</v>
+      </c>
+      <c r="S110">
+        <v>3270</v>
+      </c>
+      <c r="T110">
+        <v>3310</v>
+      </c>
+      <c r="U110">
+        <v>3430</v>
+      </c>
+      <c r="V110">
+        <v>2370</v>
+      </c>
+      <c r="W110">
+        <v>2005</v>
+      </c>
+      <c r="X110">
+        <v>1930</v>
+      </c>
+      <c r="Y110">
+        <v>2020</v>
+      </c>
+      <c r="Z110">
+        <v>1715</v>
+      </c>
+      <c r="AA110">
+        <v>620</v>
+      </c>
+      <c r="AB110">
+        <v>445</v>
+      </c>
+      <c r="AC110">
+        <v>225</v>
+      </c>
+      <c r="AD110">
+        <v>325</v>
+      </c>
+      <c r="AE110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>143</v>
+      </c>
+      <c r="E111">
+        <v>78</v>
+      </c>
+      <c r="F111">
+        <v>65</v>
+      </c>
+      <c r="G111">
+        <v>52</v>
+      </c>
+      <c r="H111">
+        <v>13</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>40</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C53:AE76">
@@ -14545,8 +17652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0ECACF-810B-43AB-80AC-A2988B3699A2}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17802,111 +20909,111 @@
       </c>
       <c r="F7" s="18">
         <f>'Hydrogen Calculations'!D34</f>
-        <v>3600</v>
+        <v>950.23749999999995</v>
       </c>
       <c r="G7" s="18">
         <f>'Hydrogen Calculations'!E34</f>
-        <v>3600</v>
+        <v>950.23749999999995</v>
       </c>
       <c r="H7" s="18">
         <f>'Hydrogen Calculations'!F34</f>
-        <v>3600</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="I7" s="18">
         <f>'Hydrogen Calculations'!G34</f>
-        <v>3600</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="J7" s="18">
         <f>'Hydrogen Calculations'!H34</f>
-        <v>2900</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="K7" s="18">
         <f>'Hydrogen Calculations'!I34</f>
-        <v>2900</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="L7" s="18">
         <f>'Hydrogen Calculations'!J34</f>
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="M7" s="18">
         <f>'Hydrogen Calculations'!K34</f>
-        <v>0</v>
+        <v>1697.3398886465015</v>
       </c>
       <c r="N7" s="18">
         <f>'Hydrogen Calculations'!L34</f>
-        <v>700</v>
+        <v>3558.3443515675772</v>
       </c>
       <c r="O7" s="18">
         <f>'Hydrogen Calculations'!M34</f>
-        <v>1500</v>
+        <v>3016.6345849972708</v>
       </c>
       <c r="P7" s="18">
         <f>'Hydrogen Calculations'!N34</f>
-        <v>2000</v>
+        <v>2595.7575616457498</v>
       </c>
       <c r="Q7" s="18">
         <f>'Hydrogen Calculations'!O34</f>
-        <v>2000</v>
+        <v>3074.7250377399182</v>
       </c>
       <c r="R7" s="18">
         <f>'Hydrogen Calculations'!P34</f>
-        <v>2000</v>
+        <v>2494.0549186883495</v>
       </c>
       <c r="S7" s="18">
         <f>'Hydrogen Calculations'!Q34</f>
-        <v>6000</v>
+        <v>2510.4864132558682</v>
       </c>
       <c r="T7" s="18">
         <f>'Hydrogen Calculations'!R34</f>
-        <v>6000</v>
+        <v>2490.8394403730845</v>
       </c>
       <c r="U7" s="18">
         <f>'Hydrogen Calculations'!S34</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="V7" s="18">
         <f>'Hydrogen Calculations'!T34</f>
-        <v>10000</v>
+        <v>2596.7776128895484</v>
       </c>
       <c r="W7" s="18">
         <f>'Hydrogen Calculations'!U34</f>
-        <v>15000</v>
+        <v>4290.966863368134</v>
       </c>
       <c r="X7" s="18">
         <f>'Hydrogen Calculations'!V34</f>
-        <v>20000</v>
+        <v>6281.3203300825207</v>
       </c>
       <c r="Y7" s="18">
         <f>'Hydrogen Calculations'!W34</f>
-        <v>20000</v>
+        <v>4901.4386560629082</v>
       </c>
       <c r="Z7" s="18">
         <f>'Hydrogen Calculations'!X34</f>
-        <v>20000</v>
+        <v>3210.1276330808346</v>
       </c>
       <c r="AA7" s="18">
         <f>'Hydrogen Calculations'!Y34</f>
-        <v>20000</v>
+        <v>3214.6141114448601</v>
       </c>
       <c r="AB7" s="18">
         <f>'Hydrogen Calculations'!Z34</f>
-        <v>20000</v>
+        <v>6844.5262189512423</v>
       </c>
       <c r="AC7" s="18">
         <f>'Hydrogen Calculations'!AA34</f>
-        <v>20000</v>
+        <v>12742.382271468145</v>
       </c>
       <c r="AD7" s="18">
         <f>'Hydrogen Calculations'!AB34</f>
-        <v>10000</v>
+        <v>10444.790792470927</v>
       </c>
       <c r="AE7" s="18">
         <f>'Hydrogen Calculations'!AC34</f>
-        <v>10000</v>
+        <v>10653.799758745476</v>
       </c>
       <c r="AF7" s="18">
         <f>'Hydrogen Calculations'!AD34</f>
-        <v>5000</v>
+        <v>4345.2380952380954</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -17930,112 +21037,112 @@
         <v>10011.8825</v>
       </c>
       <c r="F8" s="18">
-        <f>'Hydrogen Calculations'!D35</f>
-        <v>1400</v>
+        <f>'Hydrogen Calculations'!D36</f>
+        <v>5353.6750000000002</v>
       </c>
       <c r="G8" s="18">
-        <f>'Hydrogen Calculations'!E35</f>
-        <v>1400</v>
+        <f>'Hydrogen Calculations'!E36</f>
+        <v>5353.6750000000002</v>
       </c>
       <c r="H8" s="18">
-        <f>'Hydrogen Calculations'!F35</f>
-        <v>1400</v>
+        <f>'Hydrogen Calculations'!F36</f>
+        <v>4185.9983999999995</v>
       </c>
       <c r="I8" s="18">
-        <f>'Hydrogen Calculations'!G35</f>
-        <v>1300</v>
+        <f>'Hydrogen Calculations'!G36</f>
+        <v>4185.9983999999995</v>
       </c>
       <c r="J8" s="18">
-        <f>'Hydrogen Calculations'!H35</f>
-        <v>1100</v>
+        <f>'Hydrogen Calculations'!H36</f>
+        <v>4185.9983999999995</v>
       </c>
       <c r="K8" s="18">
-        <f>'Hydrogen Calculations'!I35</f>
-        <v>1000</v>
+        <f>'Hydrogen Calculations'!I36</f>
+        <v>4185.9983999999995</v>
       </c>
       <c r="L8" s="18">
-        <f>'Hydrogen Calculations'!J35</f>
-        <v>800</v>
+        <f>'Hydrogen Calculations'!J36</f>
+        <v>3600</v>
       </c>
       <c r="M8" s="18">
-        <f>'Hydrogen Calculations'!K35</f>
-        <v>0</v>
+        <f>'Hydrogen Calculations'!K36</f>
+        <v>211.05069514537817</v>
       </c>
       <c r="N8" s="18">
-        <f>'Hydrogen Calculations'!L35</f>
-        <v>400</v>
+        <f>'Hydrogen Calculations'!L36</f>
+        <v>449.99215651121619</v>
       </c>
       <c r="O8" s="18">
-        <f>'Hydrogen Calculations'!M35</f>
-        <v>800</v>
+        <f>'Hydrogen Calculations'!M36</f>
+        <v>387.85301807107766</v>
       </c>
       <c r="P8" s="18">
-        <f>'Hydrogen Calculations'!N35</f>
-        <v>1000</v>
+        <f>'Hydrogen Calculations'!N36</f>
+        <v>342.28234801033835</v>
       </c>
       <c r="Q8" s="18">
-        <f>'Hydrogen Calculations'!O35</f>
-        <v>1000</v>
+        <f>'Hydrogen Calculations'!O36</f>
+        <v>408.39982747466036</v>
       </c>
       <c r="R8" s="18">
-        <f>'Hydrogen Calculations'!P35</f>
-        <v>1000</v>
+        <f>'Hydrogen Calculations'!P36</f>
+        <v>336.97680618501738</v>
       </c>
       <c r="S8" s="18">
-        <f>'Hydrogen Calculations'!Q35</f>
-        <v>4000</v>
+        <f>'Hydrogen Calculations'!Q36</f>
+        <v>344.42331240392883</v>
       </c>
       <c r="T8" s="18">
-        <f>'Hydrogen Calculations'!R35</f>
-        <v>4000</v>
+        <f>'Hydrogen Calculations'!R36</f>
+        <v>340.3980679546969</v>
       </c>
       <c r="U8" s="18">
-        <f>'Hydrogen Calculations'!S35</f>
-        <v>6000</v>
+        <f>'Hydrogen Calculations'!S36</f>
+        <v>0</v>
       </c>
       <c r="V8" s="18">
-        <f>'Hydrogen Calculations'!T35</f>
-        <v>6000</v>
+        <f>'Hydrogen Calculations'!T36</f>
+        <v>363.57854568581729</v>
       </c>
       <c r="W8" s="18">
-        <f>'Hydrogen Calculations'!U35</f>
-        <v>9000</v>
+        <f>'Hydrogen Calculations'!U36</f>
+        <v>537.90285973672269</v>
       </c>
       <c r="X8" s="18">
-        <f>'Hydrogen Calculations'!V35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!V36</f>
+        <v>752.06301575393854</v>
       </c>
       <c r="Y8" s="18">
-        <f>'Hydrogen Calculations'!W35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!W36</f>
+        <v>603.61004378518453</v>
       </c>
       <c r="Z8" s="18">
-        <f>'Hydrogen Calculations'!X35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!X36</f>
+        <v>419.2175988378126</v>
       </c>
       <c r="AA8" s="18">
-        <f>'Hydrogen Calculations'!Y35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!Y36</f>
+        <v>420.52350885796602</v>
       </c>
       <c r="AB8" s="18">
-        <f>'Hydrogen Calculations'!Z35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!Z36</f>
+        <v>570.37718491260352</v>
       </c>
       <c r="AC8" s="18">
-        <f>'Hydrogen Calculations'!AA35</f>
-        <v>13000</v>
+        <f>'Hydrogen Calculations'!AA36</f>
+        <v>821.79132040627894</v>
       </c>
       <c r="AD8" s="18">
-        <f>'Hydrogen Calculations'!AB35</f>
-        <v>6000</v>
+        <f>'Hydrogen Calculations'!AB36</f>
+        <v>404.62774247692124</v>
       </c>
       <c r="AE8" s="18">
-        <f>'Hydrogen Calculations'!AC35</f>
-        <v>6000</v>
+        <f>'Hydrogen Calculations'!AC36</f>
+        <v>627.26176115802173</v>
       </c>
       <c r="AF8" s="18">
-        <f>'Hydrogen Calculations'!AD35</f>
-        <v>5000</v>
+        <f>'Hydrogen Calculations'!AD36</f>
+        <v>396.82539682539681</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -18833,112 +21940,112 @@
         <v>2457</v>
       </c>
       <c r="F15" s="26">
-        <f>BPMCCS!F15+'Hydrogen Calculations'!D38</f>
-        <v>3257</v>
+        <f>BPMCCS!F15+'Hydrogen Calculations'!D35</f>
+        <v>3585.4875000000002</v>
       </c>
       <c r="G15" s="26">
-        <f>BPMCCS!G15+'Hydrogen Calculations'!E38</f>
-        <v>3257</v>
+        <f>BPMCCS!G15+'Hydrogen Calculations'!E35</f>
+        <v>3585.4875000000002</v>
       </c>
       <c r="H15" s="26">
-        <f>BPMCCS!H15+'Hydrogen Calculations'!F38</f>
-        <v>3257</v>
+        <f>BPMCCS!H15+'Hydrogen Calculations'!F35</f>
+        <v>3846.9863999999998</v>
       </c>
       <c r="I15" s="26">
-        <f>BPMCCS!I15+'Hydrogen Calculations'!G38</f>
-        <v>3257</v>
+        <f>BPMCCS!I15+'Hydrogen Calculations'!G35</f>
+        <v>3846.9863999999998</v>
       </c>
       <c r="J15" s="26">
-        <f>BPMCCS!J15+'Hydrogen Calculations'!H38</f>
-        <v>3257</v>
+        <f>BPMCCS!J15+'Hydrogen Calculations'!H35</f>
+        <v>3846.9863999999998</v>
       </c>
       <c r="K15" s="26">
-        <f>BPMCCS!K15+'Hydrogen Calculations'!I38</f>
-        <v>3257</v>
+        <f>BPMCCS!K15+'Hydrogen Calculations'!I35</f>
+        <v>3846.9863999999998</v>
       </c>
       <c r="L15" s="26">
-        <f>BPMCCS!L15+'Hydrogen Calculations'!J38</f>
-        <v>2957</v>
+        <f>BPMCCS!L15+'Hydrogen Calculations'!J35</f>
+        <v>3557</v>
       </c>
       <c r="M15" s="18">
-        <f>BPMCCS!M15+'Hydrogen Calculations'!K38</f>
-        <v>0</v>
+        <f>BPMCCS!M15+'Hydrogen Calculations'!K35</f>
+        <v>766.89349786735261</v>
       </c>
       <c r="N15" s="18">
-        <f>BPMCCS!N15+'Hydrogen Calculations'!L38</f>
-        <v>80</v>
+        <f>BPMCCS!N15+'Hydrogen Calculations'!L35</f>
+        <v>1613.8762521569595</v>
       </c>
       <c r="O15" s="18">
-        <f>BPMCCS!O15+'Hydrogen Calculations'!M38</f>
-        <v>160</v>
+        <f>BPMCCS!O15+'Hydrogen Calculations'!M35</f>
+        <v>1383.342431120177</v>
       </c>
       <c r="P15" s="18">
-        <f>BPMCCS!P15+'Hydrogen Calculations'!N38</f>
-        <v>200</v>
+        <f>BPMCCS!P15+'Hydrogen Calculations'!N35</f>
+        <v>1213.1231517917433</v>
       </c>
       <c r="Q15" s="18">
-        <f>BPMCCS!Q15+'Hydrogen Calculations'!O38</f>
-        <v>200</v>
+        <f>BPMCCS!Q15+'Hydrogen Calculations'!O35</f>
+        <v>1356.7500539141686</v>
       </c>
       <c r="R15" s="18">
-        <f>BPMCCS!R15+'Hydrogen Calculations'!P38</f>
-        <v>200</v>
+        <f>BPMCCS!R15+'Hydrogen Calculations'!P35</f>
+        <v>1051.8794988003199</v>
       </c>
       <c r="S15" s="18">
-        <f>BPMCCS!S15+'Hydrogen Calculations'!Q38</f>
-        <v>800</v>
+        <f>BPMCCS!S15+'Hydrogen Calculations'!Q35</f>
+        <v>1041.9195998228383</v>
       </c>
       <c r="T15" s="18">
-        <f>BPMCCS!T15+'Hydrogen Calculations'!R38</f>
-        <v>800</v>
+        <f>BPMCCS!T15+'Hydrogen Calculations'!R35</f>
+        <v>825.0749500333111</v>
       </c>
       <c r="U15" s="18">
-        <f>BPMCCS!U15+'Hydrogen Calculations'!S38</f>
-        <v>1000</v>
+        <f>BPMCCS!U15+'Hydrogen Calculations'!S35</f>
+        <v>0</v>
       </c>
       <c r="V15" s="18">
-        <f>BPMCCS!V15+'Hydrogen Calculations'!T38</f>
-        <v>2000</v>
+        <f>BPMCCS!V15+'Hydrogen Calculations'!T35</f>
+        <v>642.14543141827426</v>
       </c>
       <c r="W15" s="18">
-        <f>BPMCCS!W15+'Hydrogen Calculations'!U38</f>
-        <v>3000</v>
+        <f>BPMCCS!W15+'Hydrogen Calculations'!U35</f>
+        <v>806.17339990921471</v>
       </c>
       <c r="X15" s="18">
-        <f>BPMCCS!X15+'Hydrogen Calculations'!V38</f>
-        <v>4000</v>
+        <f>BPMCCS!X15+'Hydrogen Calculations'!V35</f>
+        <v>879.9699924981245</v>
       </c>
       <c r="Y15" s="18">
-        <f>BPMCCS!Y15+'Hydrogen Calculations'!W38</f>
-        <v>4000</v>
+        <f>BPMCCS!Y15+'Hydrogen Calculations'!W35</f>
+        <v>679.29586274685016</v>
       </c>
       <c r="Z15" s="18">
-        <f>BPMCCS!Z15+'Hydrogen Calculations'!X38</f>
-        <v>4000</v>
+        <f>BPMCCS!Z15+'Hydrogen Calculations'!X35</f>
+        <v>370.6547680813531</v>
       </c>
       <c r="AA15" s="18">
-        <f>BPMCCS!AA15+'Hydrogen Calculations'!Y38</f>
-        <v>4000</v>
+        <f>BPMCCS!AA15+'Hydrogen Calculations'!Y35</f>
+        <v>200.5762275485809</v>
       </c>
       <c r="AB15" s="18">
-        <f>BPMCCS!AB15+'Hydrogen Calculations'!Z38</f>
-        <v>4000</v>
+        <f>BPMCCS!AB15+'Hydrogen Calculations'!Z35</f>
+        <v>585.09659613615452</v>
       </c>
       <c r="AC15" s="18">
-        <f>BPMCCS!AC15+'Hydrogen Calculations'!AA38</f>
-        <v>4000</v>
+        <f>BPMCCS!AC15+'Hydrogen Calculations'!AA35</f>
+        <v>716.52816251154206</v>
       </c>
       <c r="AD15" s="18">
-        <f>BPMCCS!AD15+'Hydrogen Calculations'!AB38</f>
-        <v>2000</v>
+        <f>BPMCCS!AD15+'Hydrogen Calculations'!AB35</f>
+        <v>46.756983575110894</v>
       </c>
       <c r="AE15" s="18">
-        <f>BPMCCS!AE15+'Hydrogen Calculations'!AC38</f>
-        <v>2000</v>
+        <f>BPMCCS!AE15+'Hydrogen Calculations'!AC35</f>
+        <v>0</v>
       </c>
       <c r="AF15" s="18">
-        <f>BPMCCS!AF15+'Hydrogen Calculations'!AD38</f>
-        <v>1000</v>
+        <f>BPMCCS!AF15+'Hydrogen Calculations'!AD35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
@@ -20245,39 +23352,39 @@
       </c>
       <c r="D29" s="7">
         <f>'Hydrogen Results'!E$78/'Hydrogen Results'!E$77</f>
-        <v>1.1737612641084636</v>
+        <v>1.2050330790414991</v>
       </c>
       <c r="E29" s="7">
         <f>'Hydrogen Results'!F$78/'Hydrogen Results'!F$77</f>
-        <v>1.1452860872666633</v>
+        <v>1.0845855178073069</v>
       </c>
       <c r="F29" s="7">
         <f>'Hydrogen Results'!G$78/'Hydrogen Results'!G$77</f>
-        <v>1.1153461201269828</v>
+        <v>1.0882703987088791</v>
       </c>
       <c r="G29" s="7">
         <f>'Hydrogen Results'!H$78/'Hydrogen Results'!H$77</f>
-        <v>1.0562757903226716</v>
+        <v>1.0509538390894915</v>
       </c>
       <c r="H29" s="7">
         <f>'Hydrogen Results'!I$78/'Hydrogen Results'!I$77</f>
-        <v>1.0454562224382791</v>
+        <v>1.0333706585323474</v>
       </c>
       <c r="I29" s="7">
         <f>'Hydrogen Results'!J$78/'Hydrogen Results'!J$77</f>
-        <v>1.0031628594228732</v>
+        <v>0.98675146102499067</v>
       </c>
       <c r="J29" s="7">
         <f>'Hydrogen Results'!K$78/'Hydrogen Results'!K$77</f>
-        <v>0.9793184418086579</v>
+        <v>0.97327102356362416</v>
       </c>
       <c r="K29" s="7">
         <f>'Hydrogen Results'!L$78/'Hydrogen Results'!L$77</f>
-        <v>0.98149165593688792</v>
+        <v>0.9899358077263386</v>
       </c>
       <c r="L29" s="7">
         <f>'Hydrogen Results'!M$78/'Hydrogen Results'!M$77</f>
-        <v>0.99477177132065753</v>
+        <v>1.0160795579868289</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
@@ -20300,8 +23407,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21074,111 +24181,111 @@
       </c>
       <c r="F7" s="25">
         <f>Calculations!F7</f>
-        <v>3600</v>
+        <v>950.23749999999995</v>
       </c>
       <c r="G7" s="25">
         <f>Calculations!G7</f>
-        <v>3600</v>
+        <v>950.23749999999995</v>
       </c>
       <c r="H7" s="25">
         <f>Calculations!H7</f>
-        <v>3600</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="I7" s="25">
         <f>Calculations!I7</f>
-        <v>3600</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="J7" s="25">
         <f>Calculations!J7</f>
-        <v>2900</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="K7" s="25">
         <f>Calculations!K7</f>
-        <v>2900</v>
+        <v>621.12239999999997</v>
       </c>
       <c r="L7" s="25">
         <f>Calculations!L7</f>
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="M7" s="25">
         <f>Calculations!M7</f>
-        <v>0</v>
+        <v>1697.3398886465015</v>
       </c>
       <c r="N7" s="25">
         <f>Calculations!N7</f>
-        <v>700</v>
+        <v>3558.3443515675772</v>
       </c>
       <c r="O7" s="25">
         <f>Calculations!O7</f>
-        <v>1500</v>
+        <v>3016.6345849972708</v>
       </c>
       <c r="P7" s="25">
         <f>Calculations!P7</f>
-        <v>2000</v>
+        <v>2595.7575616457498</v>
       </c>
       <c r="Q7" s="25">
         <f>Calculations!Q7</f>
-        <v>2000</v>
+        <v>3074.7250377399182</v>
       </c>
       <c r="R7" s="25">
         <f>Calculations!R7</f>
-        <v>2000</v>
+        <v>2494.0549186883495</v>
       </c>
       <c r="S7" s="25">
         <f>Calculations!S7</f>
-        <v>6000</v>
+        <v>2510.4864132558682</v>
       </c>
       <c r="T7" s="25">
         <f>Calculations!T7</f>
-        <v>6000</v>
+        <v>2490.8394403730845</v>
       </c>
       <c r="U7" s="25">
         <f>Calculations!U7</f>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="V7" s="25">
         <f>Calculations!V7</f>
-        <v>10000</v>
+        <v>2596.7776128895484</v>
       </c>
       <c r="W7" s="25">
         <f>Calculations!W7</f>
-        <v>15000</v>
+        <v>4290.966863368134</v>
       </c>
       <c r="X7" s="25">
         <f>Calculations!X7</f>
-        <v>20000</v>
+        <v>6281.3203300825207</v>
       </c>
       <c r="Y7" s="25">
         <f>Calculations!Y7</f>
-        <v>20000</v>
+        <v>4901.4386560629082</v>
       </c>
       <c r="Z7" s="25">
         <f>Calculations!Z7</f>
-        <v>20000</v>
+        <v>3210.1276330808346</v>
       </c>
       <c r="AA7" s="25">
         <f>Calculations!AA7</f>
-        <v>20000</v>
+        <v>3214.6141114448601</v>
       </c>
       <c r="AB7" s="25">
         <f>Calculations!AB7</f>
-        <v>20000</v>
+        <v>6844.5262189512423</v>
       </c>
       <c r="AC7" s="25">
         <f>Calculations!AC7</f>
-        <v>20000</v>
+        <v>12742.382271468145</v>
       </c>
       <c r="AD7" s="25">
         <f>Calculations!AD7</f>
-        <v>10000</v>
+        <v>10444.790792470927</v>
       </c>
       <c r="AE7" s="25">
         <f>Calculations!AE7</f>
-        <v>10000</v>
+        <v>10653.799758745476</v>
       </c>
       <c r="AF7" s="25">
         <f>Calculations!AF7</f>
-        <v>5000</v>
+        <v>4345.2380952380954</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -21203,111 +24310,111 @@
       </c>
       <c r="F8" s="25">
         <f>Calculations!F8</f>
-        <v>1400</v>
+        <v>5353.6750000000002</v>
       </c>
       <c r="G8" s="25">
         <f>Calculations!G8</f>
-        <v>1400</v>
+        <v>5353.6750000000002</v>
       </c>
       <c r="H8" s="25">
         <f>Calculations!H8</f>
-        <v>1400</v>
+        <v>4185.9983999999995</v>
       </c>
       <c r="I8" s="25">
         <f>Calculations!I8</f>
-        <v>1300</v>
+        <v>4185.9983999999995</v>
       </c>
       <c r="J8" s="25">
         <f>Calculations!J8</f>
-        <v>1100</v>
+        <v>4185.9983999999995</v>
       </c>
       <c r="K8" s="25">
         <f>Calculations!K8</f>
-        <v>1000</v>
+        <v>4185.9983999999995</v>
       </c>
       <c r="L8" s="25">
         <f>Calculations!L8</f>
-        <v>800</v>
+        <v>3600</v>
       </c>
       <c r="M8" s="25">
         <f>Calculations!M8</f>
-        <v>0</v>
+        <v>211.05069514537817</v>
       </c>
       <c r="N8" s="25">
         <f>Calculations!N8</f>
-        <v>400</v>
+        <v>449.99215651121619</v>
       </c>
       <c r="O8" s="25">
         <f>Calculations!O8</f>
-        <v>800</v>
+        <v>387.85301807107766</v>
       </c>
       <c r="P8" s="25">
         <f>Calculations!P8</f>
-        <v>1000</v>
+        <v>342.28234801033835</v>
       </c>
       <c r="Q8" s="25">
         <f>Calculations!Q8</f>
-        <v>1000</v>
+        <v>408.39982747466036</v>
       </c>
       <c r="R8" s="25">
         <f>Calculations!R8</f>
-        <v>1000</v>
+        <v>336.97680618501738</v>
       </c>
       <c r="S8" s="25">
         <f>Calculations!S8</f>
-        <v>4000</v>
+        <v>344.42331240392883</v>
       </c>
       <c r="T8" s="25">
         <f>Calculations!T8</f>
-        <v>4000</v>
+        <v>340.3980679546969</v>
       </c>
       <c r="U8" s="25">
         <f>Calculations!U8</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="V8" s="25">
         <f>Calculations!V8</f>
-        <v>6000</v>
+        <v>363.57854568581729</v>
       </c>
       <c r="W8" s="25">
         <f>Calculations!W8</f>
-        <v>9000</v>
+        <v>537.90285973672269</v>
       </c>
       <c r="X8" s="25">
         <f>Calculations!X8</f>
-        <v>13000</v>
+        <v>752.06301575393854</v>
       </c>
       <c r="Y8" s="25">
         <f>Calculations!Y8</f>
-        <v>13000</v>
+        <v>603.61004378518453</v>
       </c>
       <c r="Z8" s="25">
         <f>Calculations!Z8</f>
-        <v>13000</v>
+        <v>419.2175988378126</v>
       </c>
       <c r="AA8" s="25">
         <f>Calculations!AA8</f>
-        <v>13000</v>
+        <v>420.52350885796602</v>
       </c>
       <c r="AB8" s="25">
         <f>Calculations!AB8</f>
-        <v>13000</v>
+        <v>570.37718491260352</v>
       </c>
       <c r="AC8" s="25">
         <f>Calculations!AC8</f>
-        <v>13000</v>
+        <v>821.79132040627894</v>
       </c>
       <c r="AD8" s="25">
         <f>Calculations!AD8</f>
-        <v>6000</v>
+        <v>404.62774247692124</v>
       </c>
       <c r="AE8" s="25">
         <f>Calculations!AE8</f>
-        <v>6000</v>
+        <v>627.26176115802173</v>
       </c>
       <c r="AF8" s="25">
         <f>Calculations!AF8</f>
-        <v>5000</v>
+        <v>396.82539682539681</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -22106,111 +25213,111 @@
       </c>
       <c r="F15" s="25">
         <f>Calculations!F15</f>
-        <v>3257</v>
+        <v>3585.4875000000002</v>
       </c>
       <c r="G15" s="25">
         <f>Calculations!G15</f>
-        <v>3257</v>
+        <v>3585.4875000000002</v>
       </c>
       <c r="H15" s="25">
         <f>Calculations!H15</f>
-        <v>3257</v>
+        <v>3846.9863999999998</v>
       </c>
       <c r="I15" s="25">
         <f>Calculations!I15</f>
-        <v>3257</v>
+        <v>3846.9863999999998</v>
       </c>
       <c r="J15" s="25">
         <f>Calculations!J15</f>
-        <v>3257</v>
+        <v>3846.9863999999998</v>
       </c>
       <c r="K15" s="25">
         <f>Calculations!K15</f>
-        <v>3257</v>
+        <v>3846.9863999999998</v>
       </c>
       <c r="L15" s="25">
         <f>Calculations!L15</f>
-        <v>2957</v>
+        <v>3557</v>
       </c>
       <c r="M15" s="25">
         <f>Calculations!M15</f>
-        <v>0</v>
+        <v>766.89349786735261</v>
       </c>
       <c r="N15" s="25">
         <f>Calculations!N15</f>
-        <v>80</v>
+        <v>1613.8762521569595</v>
       </c>
       <c r="O15" s="25">
         <f>Calculations!O15</f>
-        <v>160</v>
+        <v>1383.342431120177</v>
       </c>
       <c r="P15" s="25">
         <f>Calculations!P15</f>
-        <v>200</v>
+        <v>1213.1231517917433</v>
       </c>
       <c r="Q15" s="25">
         <f>Calculations!Q15</f>
-        <v>200</v>
+        <v>1356.7500539141686</v>
       </c>
       <c r="R15" s="25">
         <f>Calculations!R15</f>
-        <v>200</v>
+        <v>1051.8794988003199</v>
       </c>
       <c r="S15" s="25">
         <f>Calculations!S15</f>
-        <v>800</v>
+        <v>1041.9195998228383</v>
       </c>
       <c r="T15" s="25">
         <f>Calculations!T15</f>
-        <v>800</v>
+        <v>825.0749500333111</v>
       </c>
       <c r="U15" s="25">
         <f>Calculations!U15</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V15" s="25">
         <f>Calculations!V15</f>
-        <v>2000</v>
+        <v>642.14543141827426</v>
       </c>
       <c r="W15" s="25">
         <f>Calculations!W15</f>
-        <v>3000</v>
+        <v>806.17339990921471</v>
       </c>
       <c r="X15" s="25">
         <f>Calculations!X15</f>
-        <v>4000</v>
+        <v>879.9699924981245</v>
       </c>
       <c r="Y15" s="25">
         <f>Calculations!Y15</f>
-        <v>4000</v>
+        <v>679.29586274685016</v>
       </c>
       <c r="Z15" s="25">
         <f>Calculations!Z15</f>
-        <v>4000</v>
+        <v>370.6547680813531</v>
       </c>
       <c r="AA15" s="25">
         <f>Calculations!AA15</f>
-        <v>4000</v>
+        <v>200.5762275485809</v>
       </c>
       <c r="AB15" s="25">
         <f>Calculations!AB15</f>
-        <v>4000</v>
+        <v>585.09659613615452</v>
       </c>
       <c r="AC15" s="25">
         <f>Calculations!AC15</f>
-        <v>4000</v>
+        <v>716.52816251154206</v>
       </c>
       <c r="AD15" s="25">
         <f>Calculations!AD15</f>
-        <v>2000</v>
+        <v>46.756983575110894</v>
       </c>
       <c r="AE15" s="25">
         <f>Calculations!AE15</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="25">
         <f>Calculations!AF15</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
@@ -23509,26 +26616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -23751,26 +26838,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8E4B59-49AD-4EDF-A9EB-8EA8346AF5F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23787,4 +26875,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7B5808-2083-4055-B860-939EA66F8007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9018DBB-89A9-42C8-9D08-D8AEBFC4B055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\PMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB315B43-BF23-4D11-8C64-9422F0918ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B9329-5CD6-4CC7-BAAC-ABFF4CB57A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="2535" windowWidth="18765" windowHeight="12960" firstSheet="2" activeTab="2" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="32595" yWindow="2535" windowWidth="18765" windowHeight="12960" tabRatio="750" firstSheet="1" activeTab="3" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -798,88 +798,88 @@
                   <c:v>31.174099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-790007</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15795500</c:v>
+                  <c:v>17649570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35498630</c:v>
+                  <c:v>36516100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53646410</c:v>
+                  <c:v>54957020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72999210</c:v>
+                  <c:v>75009690</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93234600</c:v>
+                  <c:v>96592100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115039100</c:v>
+                  <c:v>111667600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>133697600</c:v>
+                  <c:v>126819900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141839500</c:v>
+                  <c:v>140355200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>145986600</c:v>
+                  <c:v>151514600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151531700</c:v>
+                  <c:v>155141500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159332700</c:v>
+                  <c:v>163115800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>167645800</c:v>
+                  <c:v>164808100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>171861700</c:v>
+                  <c:v>169444300</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175663600</c:v>
+                  <c:v>172543000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>177570300</c:v>
+                  <c:v>169258700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>177810300</c:v>
+                  <c:v>175245100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>178325900</c:v>
+                  <c:v>176869400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>178575600</c:v>
+                  <c:v>176449800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>180218400</c:v>
+                  <c:v>183155756.29899999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182952800</c:v>
+                  <c:v>190869204.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>186143600</c:v>
+                  <c:v>188936348.08000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192682100</c:v>
+                  <c:v>187333543.24000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>195681500</c:v>
+                  <c:v>189943241.30000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>194133900</c:v>
+                  <c:v>193353408.19999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195587100</c:v>
+                  <c:v>203823751.90000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>194975700</c:v>
+                  <c:v>213791802.90709999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>198839000</c:v>
+                  <c:v>218073785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,8 +3444,8 @@
   </sheetPr>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5363,83 +5363,83 @@
       </c>
       <c r="K24" s="7">
         <f>'Hydrogen Results'!L78/'Hydrogen Results'!L77</f>
-        <v>0.9899358077263386</v>
+        <v>1.0004046875356238</v>
       </c>
       <c r="L24" s="7">
         <f>'Hydrogen Results'!M78/'Hydrogen Results'!M77</f>
-        <v>1.0160795579868289</v>
+        <v>0.97900796358898745</v>
       </c>
       <c r="M24" s="7">
         <f>'Hydrogen Results'!N78/'Hydrogen Results'!N77</f>
-        <v>1.0236339986946625</v>
+        <v>0.99981629673556072</v>
       </c>
       <c r="N24" s="7">
         <f>'Hydrogen Results'!O78/'Hydrogen Results'!O77</f>
-        <v>1.0138973355751832</v>
+        <v>0.99038229282509727</v>
       </c>
       <c r="O24" s="7">
         <f>'Hydrogen Results'!P78/'Hydrogen Results'!P77</f>
-        <v>1.0003590904156263</v>
+        <v>1.0175834804235957</v>
       </c>
       <c r="P24" s="7">
         <f>'Hydrogen Results'!Q78/'Hydrogen Results'!Q77</f>
-        <v>0.97926995950813944</v>
+        <v>0.99324084669711521</v>
       </c>
       <c r="Q24" s="7">
         <f>'Hydrogen Results'!R78/'Hydrogen Results'!R77</f>
-        <v>0.9799241277077323</v>
+        <v>0.99764696336565373</v>
       </c>
       <c r="R24" s="7">
         <f>'Hydrogen Results'!S78/'Hydrogen Results'!S77</f>
-        <v>0.98576169550876469</v>
+        <v>1.0341684061144272</v>
       </c>
       <c r="S24" s="7">
         <f>'Hydrogen Results'!T78/'Hydrogen Results'!T77</f>
-        <v>0.98412746618165536</v>
+        <v>0.99853291190452687</v>
       </c>
       <c r="T24" s="7">
         <f>'Hydrogen Results'!U78/'Hydrogen Results'!U77</f>
-        <v>0.98017730458671459</v>
+        <v>0.98824895657473821</v>
       </c>
       <c r="U24" s="7">
         <f>'Hydrogen Results'!V78/'Hydrogen Results'!V77</f>
-        <v>0.98274904298235588</v>
+        <v>0.99458882923075009</v>
       </c>
       <c r="V24" s="7">
         <f>'Hydrogen Results'!W78/'Hydrogen Results'!W77</f>
-        <v>0.99057033022155339</v>
+        <v>0.97468408095549819</v>
       </c>
       <c r="W24" s="7">
         <f>'Hydrogen Results'!X78/'Hydrogen Results'!X77</f>
-        <v>1.0054177908181783</v>
+        <v>0.96371754039951707</v>
       </c>
       <c r="X24" s="7">
         <f>'Hydrogen Results'!Y78/'Hydrogen Results'!Y77</f>
-        <v>1.0079744885131694</v>
+        <v>0.99307519123082644</v>
       </c>
       <c r="Y24" s="7">
         <f>'Hydrogen Results'!Z78/'Hydrogen Results'!Z77</f>
-        <v>0.98698322262420846</v>
+        <v>1.0151625635797694</v>
       </c>
       <c r="Z24" s="7">
         <f>'Hydrogen Results'!AA78/'Hydrogen Results'!AA77</f>
-        <v>0.98755375444280624</v>
+        <v>1.0173881348838496</v>
       </c>
       <c r="AA24" s="7">
         <f>'Hydrogen Results'!AB78/'Hydrogen Results'!AB77</f>
-        <v>1.0126464259977264</v>
+        <v>1.0167340820631059</v>
       </c>
       <c r="AB24" s="7">
         <f>'Hydrogen Results'!AC78/'Hydrogen Results'!AC77</f>
-        <v>1.0219334506212321</v>
+        <v>0.98063644760137492</v>
       </c>
       <c r="AC24" s="7">
         <f>'Hydrogen Results'!AD78/'Hydrogen Results'!AD77</f>
-        <v>1.0430684439137801</v>
+        <v>0.95126659317416706</v>
       </c>
       <c r="AD24" s="7">
         <f>'Hydrogen Results'!AE78/'Hydrogen Results'!AE77</f>
-        <v>1.0417875768838105</v>
+        <v>0.94989867764252356</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -6012,52 +6012,52 @@
         <v>5000</v>
       </c>
       <c r="O33">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P33">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q33">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="R33">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="T33">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="U33">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="V33">
-        <v>9000</v>
+        <v>37000</v>
       </c>
       <c r="W33">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="X33">
-        <v>4000</v>
+        <v>33000</v>
       </c>
       <c r="Y33">
-        <v>4000</v>
+        <v>39000</v>
       </c>
       <c r="Z33">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="AA33">
-        <v>20000</v>
+        <v>52000</v>
       </c>
       <c r="AB33">
         <v>15000</v>
       </c>
       <c r="AC33">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="AD33">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
@@ -6088,10 +6088,10 @@
         <v>621.12239999999997</v>
       </c>
       <c r="I34" s="8">
-        <v>621.12239999999997</v>
+        <v>300</v>
       </c>
       <c r="J34" s="8">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K34" s="8">
         <f>R42*K$33</f>
@@ -6111,55 +6111,55 @@
       </c>
       <c r="O34" s="8">
         <f t="shared" si="3"/>
-        <v>3074.7250377399182</v>
+        <v>1229.8900150959673</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="3"/>
-        <v>2494.0549186883495</v>
+        <v>3741.0823780325245</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="3"/>
-        <v>2510.4864132558682</v>
+        <v>3765.7296198838026</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="3"/>
-        <v>2490.8394403730845</v>
+        <v>7472.5183211192543</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9695.8113491978038</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="3"/>
-        <v>2596.7776128895484</v>
+        <v>14282.276870892516</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>4290.966863368134</v>
+        <v>19309.350885156604</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>6281.3203300825207</v>
+        <v>25823.20580145036</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="3"/>
-        <v>4901.4386560629082</v>
+        <v>28008.220891788045</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="3"/>
-        <v>3210.1276330808346</v>
+        <v>26483.552972916885</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="3"/>
-        <v>3214.6141114448601</v>
+        <v>31342.487586587387</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" si="3"/>
-        <v>6844.5262189512423</v>
+        <v>34222.631094756209</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" si="3"/>
-        <v>12742.382271468145</v>
+        <v>33130.193905817177</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="3"/>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="AC34" s="8">
         <f t="shared" si="3"/>
-        <v>10653.799758745476</v>
+        <v>13317.249698431846</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="3"/>
-        <v>4345.2380952380954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
@@ -6202,10 +6202,10 @@
         <v>1389.9863999999998</v>
       </c>
       <c r="I35" s="8">
-        <v>1389.9863999999998</v>
+        <v>700</v>
       </c>
       <c r="J35" s="8">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" ref="K35:AD35" si="4">R43*K$33</f>
@@ -6225,55 +6225,55 @@
       </c>
       <c r="O35" s="8">
         <f t="shared" si="4"/>
-        <v>1356.7500539141686</v>
+        <v>542.70002156566738</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="4"/>
-        <v>1051.8794988003199</v>
+        <v>1577.8192482004799</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="4"/>
-        <v>1041.9195998228383</v>
+        <v>1562.8793997342575</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="4"/>
-        <v>825.0749500333111</v>
+        <v>2475.2248500999335</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2762.7328523742867</v>
       </c>
       <c r="T35" s="8">
         <f t="shared" si="4"/>
-        <v>642.14543141827426</v>
+        <v>3531.7998728005086</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="4"/>
-        <v>806.17339990921471</v>
+        <v>3627.7802995914658</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="4"/>
-        <v>879.9699924981245</v>
+        <v>3617.6544136034008</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="4"/>
-        <v>679.29586274685016</v>
+        <v>3881.690644267715</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="4"/>
-        <v>370.6547680813531</v>
+        <v>3057.901836671163</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" si="4"/>
-        <v>200.5762275485809</v>
+        <v>1955.6182185986638</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" si="4"/>
-        <v>585.09659613615452</v>
+        <v>2925.4829806807725</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="4"/>
-        <v>716.52816251154206</v>
+        <v>1862.9732225300093</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="4"/>
@@ -6316,10 +6316,10 @@
         <v>4185.9983999999995</v>
       </c>
       <c r="I36" s="8">
-        <v>4185.9983999999995</v>
+        <v>2000</v>
       </c>
       <c r="J36" s="8">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" ref="K36:AD36" si="5">R44*K$33</f>
@@ -6339,55 +6339,55 @@
       </c>
       <c r="O36" s="8">
         <f t="shared" si="5"/>
-        <v>408.39982747466036</v>
+        <v>163.35993098986415</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>336.97680618501738</v>
+        <v>505.46520927752601</v>
       </c>
       <c r="Q36" s="8">
         <f t="shared" si="5"/>
-        <v>344.42331240392883</v>
+        <v>516.63496860589328</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="5"/>
-        <v>340.3980679546969</v>
+        <v>1021.1942038640907</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1336.5457090556692</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" si="5"/>
-        <v>363.57854568581729</v>
+        <v>1999.682001271995</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="5"/>
-        <v>537.90285973672269</v>
+        <v>2420.5628688152519</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="5"/>
-        <v>752.06301575393854</v>
+        <v>3091.8146203217475</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="5"/>
-        <v>603.61004378518453</v>
+        <v>3449.2002502010546</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="5"/>
-        <v>419.2175988378126</v>
+        <v>3458.5451904119541</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="5"/>
-        <v>420.52350885796602</v>
+        <v>4100.1042113651683</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" si="5"/>
-        <v>570.37718491260352</v>
+        <v>2851.8859245630174</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="5"/>
-        <v>821.79132040627894</v>
+        <v>2136.6574330563253</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="5"/>
@@ -6395,11 +6395,11 @@
       </c>
       <c r="AC36" s="8">
         <f t="shared" si="5"/>
-        <v>627.26176115802173</v>
+        <v>784.07720144752705</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="5"/>
-        <v>396.82539682539681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
@@ -6430,90 +6430,70 @@
         <v>152.5728</v>
       </c>
       <c r="I37" s="8">
-        <v>152.5728</v>
+        <v>100</v>
       </c>
       <c r="J37" s="8">
         <v>100</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" ref="K37:AD37" si="6">R45*K$33</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AC37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD37" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.35">
@@ -6578,15 +6558,15 @@
         <v>3800.95</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:O41" si="7">SUMPRODUCT($D41:$D46,H41:H46)</f>
+        <f t="shared" ref="M41:O41" si="6">SUMPRODUCT($D41:$D46,H41:H46)</f>
         <v>4513.95</v>
       </c>
       <c r="N41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21414.7</v>
       </c>
       <c r="O41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>873.40000000000009</v>
       </c>
     </row>
@@ -6611,15 +6591,15 @@
         <v>12940.05</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42:O42" si="8">SUMPRODUCT($E41:$E46,H41:H46)</f>
+        <f t="shared" ref="M42:O42" si="7">SUMPRODUCT($E41:$E46,H41:H46)</f>
         <v>28958.05</v>
       </c>
       <c r="N42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>87208.3</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3178.6000000000004</v>
       </c>
       <c r="R42" s="10">
@@ -6942,15 +6922,15 @@
         <v>1900.4749999999999</v>
       </c>
       <c r="M45">
-        <f t="shared" ref="M45:O45" si="9">M41/2</f>
+        <f t="shared" ref="M45:O45" si="8">M41/2</f>
         <v>2256.9749999999999</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10707.35</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>436.70000000000005</v>
       </c>
     </row>
@@ -6975,15 +6955,15 @@
         <v>2588.0099999999998</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:O46" si="10">M42/5</f>
+        <f t="shared" ref="M46:O46" si="9">M42/5</f>
         <v>5791.61</v>
       </c>
       <c r="N46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17441.66</v>
       </c>
       <c r="O46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>635.72</v>
       </c>
       <c r="R46" s="8">
@@ -7029,15 +7009,15 @@
         <v>950.23749999999995</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" ref="M50:O50" si="11">M45*0.5</f>
+        <f t="shared" ref="M50:O50" si="10">M45*0.5</f>
         <v>1128.4875</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5353.6750000000002</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>218.35000000000002</v>
       </c>
     </row>
@@ -7046,19 +7026,19 @@
         <v>104</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" ref="L51:O51" si="12">L46*0.24</f>
+        <f t="shared" ref="L51:O51" si="11">L46*0.24</f>
         <v>621.12239999999997</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1389.9863999999998</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4185.9983999999995</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>152.5728</v>
       </c>
     </row>
@@ -7100,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC43D32-587F-4742-8451-B08E5A467706}">
   <dimension ref="A2:BR120"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:AE51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7210,49 +7190,49 @@
         <v>63</v>
       </c>
       <c r="C3" s="23">
-        <v>-70177100</v>
+        <v>-49255900</v>
       </c>
       <c r="D3" s="23">
-        <v>-65669100</v>
+        <v>-46632300</v>
       </c>
       <c r="E3" s="23">
-        <v>-30552400</v>
+        <v>-42282700</v>
       </c>
       <c r="F3" s="23">
-        <v>-21264900</v>
+        <v>-20575500</v>
       </c>
       <c r="G3" s="23">
-        <v>-20939700</v>
+        <v>-18048900</v>
       </c>
       <c r="H3" s="23">
-        <v>-31755200</v>
+        <v>-24811600</v>
       </c>
       <c r="I3" s="23">
-        <v>-74740200</v>
+        <v>-59023600</v>
       </c>
       <c r="J3" s="23">
-        <v>-165501000</v>
+        <v>-140176000</v>
       </c>
       <c r="K3" s="23">
-        <v>-131048000</v>
+        <v>-128322000</v>
       </c>
       <c r="L3" s="23">
-        <v>-47208300</v>
+        <v>-47206700</v>
       </c>
       <c r="M3" s="23">
-        <v>-22511600</v>
+        <v>-21919000</v>
       </c>
       <c r="N3" s="23">
-        <v>-9004500</v>
+        <v>-8919100</v>
       </c>
       <c r="O3" s="23">
-        <v>-3325380</v>
+        <v>-3336490</v>
       </c>
       <c r="P3">
-        <v>-862703</v>
+        <v>-895412</v>
       </c>
       <c r="Q3">
-        <v>-12227.1</v>
+        <v>-16330.1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -7305,91 +7285,91 @@
         <v>64</v>
       </c>
       <c r="C4" s="23">
-        <v>3105290</v>
+        <v>2608450</v>
       </c>
       <c r="D4" s="23">
-        <v>2927610</v>
+        <v>2525980</v>
       </c>
       <c r="E4" s="23">
-        <v>2557440</v>
+        <v>2908770</v>
       </c>
       <c r="F4" s="23">
-        <v>2405960</v>
+        <v>2592230</v>
       </c>
       <c r="G4" s="23">
-        <v>3128220</v>
+        <v>3336230</v>
       </c>
       <c r="H4" s="23">
-        <v>4630170</v>
+        <v>4615880</v>
       </c>
       <c r="I4" s="23">
-        <v>5431350</v>
+        <v>5545080</v>
       </c>
       <c r="J4" s="23">
-        <v>5625380</v>
+        <v>5214870</v>
       </c>
       <c r="K4" s="23">
-        <v>4334510</v>
+        <v>4135350</v>
       </c>
       <c r="L4" s="23">
-        <v>2121310</v>
+        <v>2477040</v>
       </c>
       <c r="M4" s="23">
-        <v>1485150</v>
+        <v>1605990</v>
       </c>
       <c r="N4" s="23">
-        <v>1193890</v>
+        <v>1765840</v>
       </c>
       <c r="O4" s="23">
-        <v>1434910</v>
+        <v>1988960</v>
       </c>
       <c r="P4" s="23">
-        <v>887441</v>
-      </c>
-      <c r="Q4">
-        <v>988064</v>
-      </c>
-      <c r="R4">
-        <v>945190</v>
+        <v>2874100</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>1732190</v>
+      </c>
+      <c r="R4" s="23">
+        <v>2131520</v>
       </c>
       <c r="S4" s="23">
-        <v>-194871</v>
+        <v>2176220</v>
       </c>
       <c r="T4" s="23">
-        <v>-4360540</v>
+        <v>990478</v>
       </c>
       <c r="U4" s="23">
-        <v>-931668</v>
-      </c>
-      <c r="V4">
-        <v>970370</v>
+        <v>2155190</v>
+      </c>
+      <c r="V4" s="23">
+        <v>1400360</v>
       </c>
       <c r="W4" s="23">
-        <v>1221270</v>
+        <v>1462160</v>
       </c>
       <c r="X4" s="23">
-        <v>2600280</v>
+        <v>2412820</v>
       </c>
       <c r="Y4" s="23">
-        <v>3771360</v>
+        <v>3811900</v>
       </c>
       <c r="Z4" s="23">
-        <v>4212010</v>
+        <v>4476730</v>
       </c>
       <c r="AA4" s="23">
-        <v>3099210</v>
+        <v>3855200</v>
       </c>
       <c r="AB4" s="23">
-        <v>3227360</v>
+        <v>2964580</v>
       </c>
       <c r="AC4" s="23">
-        <v>3968950</v>
+        <v>4019090</v>
       </c>
       <c r="AD4" s="23">
-        <v>3625260</v>
+        <v>3885050</v>
       </c>
       <c r="AE4" s="23">
-        <v>1311470</v>
+        <v>1786900</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -7400,91 +7380,91 @@
         <v>65</v>
       </c>
       <c r="C5" s="23">
-        <v>69952000</v>
+        <v>49554000</v>
       </c>
       <c r="D5" s="23">
-        <v>52087600</v>
+        <v>38193700</v>
       </c>
       <c r="E5" s="23">
-        <v>38292200</v>
+        <v>49740500</v>
       </c>
       <c r="F5" s="23">
-        <v>44970300</v>
+        <v>53579100</v>
       </c>
       <c r="G5" s="23">
-        <v>59331900</v>
+        <v>83652000</v>
       </c>
       <c r="H5" s="23">
-        <v>68297200</v>
+        <v>102623000</v>
       </c>
       <c r="I5" s="23">
-        <v>111365000</v>
+        <v>149615000</v>
       </c>
       <c r="J5" s="23">
-        <v>198346000</v>
+        <v>196487000</v>
       </c>
       <c r="K5" s="23">
-        <v>156834000</v>
+        <v>165225000</v>
       </c>
       <c r="L5" s="23">
-        <v>81115300</v>
+        <v>103312000</v>
       </c>
       <c r="M5" s="23">
-        <v>14547400</v>
+        <v>52782600</v>
       </c>
       <c r="N5" s="23">
-        <v>-16282700</v>
+        <v>53129000</v>
       </c>
       <c r="O5" s="23">
-        <v>-10376900</v>
+        <v>85117800</v>
       </c>
       <c r="P5" s="23">
-        <v>5933370</v>
+        <v>110044000</v>
       </c>
       <c r="Q5" s="23">
-        <v>-5877840</v>
+        <v>71499300</v>
       </c>
       <c r="R5" s="23">
-        <v>-14756100</v>
+        <v>51532400</v>
       </c>
       <c r="S5" s="23">
-        <v>-33980800</v>
+        <v>37366500</v>
       </c>
       <c r="T5" s="23">
-        <v>-49312400</v>
+        <v>1299120</v>
       </c>
       <c r="U5" s="23">
-        <v>-13304100</v>
+        <v>3193410</v>
       </c>
       <c r="V5" s="23">
-        <v>-3280920</v>
+        <v>4737980</v>
       </c>
       <c r="W5" s="23">
-        <v>-3524920</v>
+        <v>4274820</v>
       </c>
       <c r="X5" s="23">
-        <v>7591630</v>
+        <v>11094900</v>
       </c>
       <c r="Y5" s="23">
-        <v>10155500</v>
+        <v>15028900</v>
       </c>
       <c r="Z5" s="23">
-        <v>9246210</v>
+        <v>16979600</v>
       </c>
       <c r="AA5" s="23">
-        <v>3134770</v>
+        <v>10324200</v>
       </c>
       <c r="AB5" s="23">
-        <v>262130</v>
+        <v>3533270</v>
       </c>
       <c r="AC5" s="23">
-        <v>2314230</v>
+        <v>7471880</v>
       </c>
       <c r="AD5" s="23">
-        <v>1444710</v>
+        <v>8771210</v>
       </c>
       <c r="AE5" s="23">
-        <v>5964450</v>
+        <v>15022900</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -7564,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="23">
-        <v>0</v>
+        <v>-1.1920900000000001E-7</v>
       </c>
       <c r="AA6" s="23">
         <v>-1.1920900000000001E-7</v>
@@ -7572,14 +7552,14 @@
       <c r="AB6" s="23">
         <v>0</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
+      <c r="AC6" s="23">
+        <v>-1.1920900000000001E-7</v>
       </c>
       <c r="AD6">
-        <v>-10311.6</v>
+        <v>-5963.87</v>
       </c>
       <c r="AE6">
-        <v>-674350</v>
+        <v>-589539</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -7605,76 +7585,76 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7310.6</v>
+        <v>4942.2299999999996</v>
       </c>
       <c r="I7" s="23">
         <v>7835400</v>
       </c>
       <c r="J7" s="23">
-        <v>2606900</v>
+        <v>7836120</v>
       </c>
       <c r="K7" s="23">
-        <v>8073440</v>
+        <v>13161500</v>
       </c>
       <c r="L7" s="23">
-        <v>-5222130</v>
+        <v>8304820</v>
       </c>
       <c r="M7" s="23">
-        <v>-24069100</v>
+        <v>-17030200</v>
       </c>
       <c r="N7" s="23">
-        <v>-21646300</v>
+        <v>-31473400</v>
       </c>
       <c r="O7" s="23">
-        <v>-7995460</v>
+        <v>-2542480</v>
       </c>
       <c r="P7" s="23">
-        <v>-36228400</v>
+        <v>-7822880</v>
       </c>
       <c r="Q7" s="23">
-        <v>17647600</v>
+        <v>30077000</v>
       </c>
       <c r="R7" s="23">
-        <v>18889400</v>
+        <v>-31899600</v>
       </c>
       <c r="S7" s="23">
-        <v>13397600</v>
+        <v>-41595900</v>
       </c>
       <c r="T7" s="23">
-        <v>-22466300</v>
+        <v>-63293200</v>
       </c>
       <c r="U7" s="23">
-        <v>-8813820</v>
+        <v>2098420</v>
       </c>
       <c r="V7" s="23">
-        <v>-11594400</v>
+        <v>-9801340</v>
       </c>
       <c r="W7" s="23">
-        <v>90720300</v>
+        <v>-105182000</v>
       </c>
       <c r="X7" s="23">
-        <v>1787430</v>
+        <v>-11358100</v>
       </c>
       <c r="Y7" s="23">
-        <v>12867100</v>
+        <v>-91425900</v>
       </c>
       <c r="Z7" s="23">
-        <v>9191280</v>
+        <v>16382000</v>
       </c>
       <c r="AA7" s="23">
-        <v>8267300</v>
+        <v>-75265000</v>
       </c>
       <c r="AB7" s="23">
-        <v>84450800</v>
+        <v>11072400</v>
       </c>
       <c r="AC7" s="23">
-        <v>8017400</v>
+        <v>5792820</v>
       </c>
       <c r="AD7" s="23">
-        <v>-73358600</v>
+        <v>7932950</v>
       </c>
       <c r="AE7" s="23">
-        <v>-10350800</v>
+        <v>7395240</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -7688,88 +7668,88 @@
         <v>0</v>
       </c>
       <c r="D8" s="23">
-        <v>3550660</v>
+        <v>2966190</v>
       </c>
       <c r="E8" s="23">
-        <v>8326110</v>
+        <v>7044310</v>
       </c>
       <c r="F8" s="23">
-        <v>11965100</v>
+        <v>11210300</v>
       </c>
       <c r="G8" s="23">
-        <v>18236900</v>
+        <v>17366100</v>
       </c>
       <c r="H8" s="23">
-        <v>27118200</v>
+        <v>25946400</v>
       </c>
       <c r="I8" s="23">
-        <v>39221200</v>
+        <v>37274000</v>
       </c>
       <c r="J8" s="23">
-        <v>54042300</v>
+        <v>51265100</v>
       </c>
       <c r="K8" s="23">
-        <v>71945600</v>
+        <v>67508200</v>
       </c>
       <c r="L8" s="23">
-        <v>92518900</v>
+        <v>85103400</v>
       </c>
       <c r="M8" s="23">
-        <v>115138000</v>
+        <v>104376000</v>
       </c>
       <c r="N8" s="23">
-        <v>137133000</v>
+        <v>125884000</v>
       </c>
       <c r="O8" s="23">
-        <v>161934000</v>
+        <v>149473000</v>
       </c>
       <c r="P8" s="23">
-        <v>193218000</v>
+        <v>179051000</v>
       </c>
       <c r="Q8" s="23">
-        <v>226862000</v>
+        <v>214363000</v>
       </c>
       <c r="R8" s="23">
-        <v>262083000</v>
+        <v>250968000</v>
       </c>
       <c r="S8" s="23">
-        <v>287696000</v>
+        <v>290571000</v>
       </c>
       <c r="T8" s="23">
-        <v>301784000</v>
+        <v>317334000</v>
       </c>
       <c r="U8" s="23">
-        <v>309921000</v>
+        <v>344367000</v>
       </c>
       <c r="V8" s="23">
-        <v>330585000</v>
+        <v>386777000</v>
       </c>
       <c r="W8" s="23">
-        <v>351135000</v>
+        <v>411516000</v>
       </c>
       <c r="X8" s="23">
-        <v>368858000</v>
+        <v>435080000</v>
       </c>
       <c r="Y8" s="23">
-        <v>383531000</v>
+        <v>454120000</v>
       </c>
       <c r="Z8" s="23">
-        <v>401491000</v>
+        <v>479364000</v>
       </c>
       <c r="AA8" s="23">
-        <v>424725000</v>
+        <v>507637000</v>
       </c>
       <c r="AB8" s="23">
-        <v>446295000</v>
+        <v>531796000</v>
       </c>
       <c r="AC8" s="23">
-        <v>463784000</v>
+        <v>547982000</v>
       </c>
       <c r="AD8" s="23">
-        <v>481881000</v>
+        <v>567510000</v>
       </c>
       <c r="AE8" s="23">
-        <v>496952000</v>
+        <v>585482000</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
@@ -7783,88 +7763,88 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>766821</v>
+        <v>634610</v>
       </c>
       <c r="E9" s="23">
-        <v>2033820</v>
+        <v>1714950</v>
       </c>
       <c r="F9" s="23">
-        <v>3005330</v>
+        <v>2865050</v>
       </c>
       <c r="G9" s="23">
-        <v>4755050</v>
+        <v>4600460</v>
       </c>
       <c r="H9" s="23">
-        <v>7222030</v>
+        <v>6977670</v>
       </c>
       <c r="I9" s="23">
-        <v>10382500</v>
+        <v>9979600</v>
       </c>
       <c r="J9" s="23">
-        <v>14000700</v>
+        <v>13471600</v>
       </c>
       <c r="K9" s="23">
-        <v>18462800</v>
+        <v>17522200</v>
       </c>
       <c r="L9" s="23">
-        <v>23612900</v>
+        <v>22195100</v>
       </c>
       <c r="M9" s="23">
-        <v>28179400</v>
+        <v>27035500</v>
       </c>
       <c r="N9" s="23">
-        <v>28881500</v>
+        <v>31291000</v>
       </c>
       <c r="O9" s="23">
-        <v>30549500</v>
+        <v>34910100</v>
       </c>
       <c r="P9" s="23">
-        <v>36184100</v>
+        <v>42621500</v>
       </c>
       <c r="Q9" s="23">
-        <v>41803300</v>
+        <v>51224100</v>
       </c>
       <c r="R9" s="23">
-        <v>46499900</v>
+        <v>60218100</v>
       </c>
       <c r="S9" s="23">
-        <v>49838000</v>
+        <v>70687100</v>
       </c>
       <c r="T9" s="23">
-        <v>48713300</v>
+        <v>74122600</v>
       </c>
       <c r="U9" s="23">
-        <v>54767500</v>
+        <v>79864700</v>
       </c>
       <c r="V9" s="23">
-        <v>63748500</v>
+        <v>91081500</v>
       </c>
       <c r="W9" s="23">
-        <v>70709500</v>
+        <v>99188500</v>
       </c>
       <c r="X9" s="23">
-        <v>78527200</v>
+        <v>106783000</v>
       </c>
       <c r="Y9" s="23">
-        <v>83585400</v>
+        <v>113282000</v>
       </c>
       <c r="Z9" s="23">
-        <v>87890900</v>
+        <v>119956000</v>
       </c>
       <c r="AA9" s="23">
-        <v>88837500</v>
+        <v>123316000</v>
       </c>
       <c r="AB9" s="23">
-        <v>91030100</v>
+        <v>124914000</v>
       </c>
       <c r="AC9" s="23">
-        <v>95069900</v>
+        <v>129836000</v>
       </c>
       <c r="AD9" s="23">
-        <v>97789300</v>
+        <v>134785000</v>
       </c>
       <c r="AE9" s="23">
-        <v>100417000</v>
+        <v>139483000</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -7973,88 +7953,88 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>100072</v>
+        <v>50035.9</v>
       </c>
       <c r="E11">
+        <v>139058</v>
+      </c>
+      <c r="F11">
         <v>278116</v>
       </c>
-      <c r="F11">
-        <v>417173</v>
-      </c>
       <c r="G11">
-        <v>625760</v>
+        <v>486702</v>
       </c>
       <c r="H11">
-        <v>903876</v>
+        <v>764818</v>
       </c>
       <c r="I11" s="23">
-        <v>1251520</v>
+        <v>1042930</v>
       </c>
       <c r="J11" s="23">
-        <v>1599160</v>
+        <v>1390580</v>
       </c>
       <c r="K11" s="23">
-        <v>2085870</v>
+        <v>1807750</v>
       </c>
       <c r="L11" s="23">
-        <v>2642100</v>
+        <v>2294450</v>
       </c>
       <c r="M11" s="23">
-        <v>3198330</v>
+        <v>2781160</v>
       </c>
       <c r="N11" s="23">
-        <v>3685030</v>
+        <v>3267860</v>
       </c>
       <c r="O11" s="23">
-        <v>4171730</v>
+        <v>3754560</v>
       </c>
       <c r="P11" s="23">
-        <v>4727970</v>
+        <v>4310790</v>
       </c>
       <c r="Q11" s="23">
-        <v>5284200</v>
+        <v>4936550</v>
       </c>
       <c r="R11" s="23">
-        <v>5840430</v>
+        <v>5562310</v>
       </c>
       <c r="S11" s="23">
-        <v>6466590</v>
+        <v>6409540</v>
       </c>
       <c r="T11" s="23">
-        <v>5346910</v>
+        <v>7729340</v>
       </c>
       <c r="U11" s="23">
-        <v>6586960</v>
+        <v>8768820</v>
       </c>
       <c r="V11" s="23">
-        <v>7569330</v>
+        <v>9177350</v>
       </c>
       <c r="W11" s="23">
-        <v>7370090</v>
+        <v>9050010</v>
       </c>
       <c r="X11" s="23">
-        <v>9780650</v>
+        <v>10637800</v>
       </c>
       <c r="Y11" s="23">
-        <v>11520900</v>
+        <v>12728600</v>
       </c>
       <c r="Z11" s="23">
-        <v>12547400</v>
+        <v>14228100</v>
       </c>
       <c r="AA11" s="23">
-        <v>11394300</v>
+        <v>13074800</v>
       </c>
       <c r="AB11" s="23">
-        <v>10397900</v>
+        <v>11001400</v>
       </c>
       <c r="AC11" s="23">
-        <v>11421400</v>
+        <v>12340400</v>
       </c>
       <c r="AD11" s="23">
-        <v>10723600</v>
+        <v>12597400</v>
       </c>
       <c r="AE11" s="23">
-        <v>5224300</v>
+        <v>7487720</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -8146,10 +8126,10 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>-96.155299999999997</v>
+        <v>-55.607100000000003</v>
       </c>
       <c r="AE12">
-        <v>-6193.61</v>
+        <v>-5435.1</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
@@ -8175,76 +8155,76 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>19267.599999999999</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>96338</v>
       </c>
       <c r="J13">
-        <v>115606</v>
+        <v>96338</v>
       </c>
       <c r="K13">
-        <v>558760</v>
+        <v>597295</v>
       </c>
       <c r="L13" s="23">
-        <v>1021180</v>
+        <v>1059720</v>
       </c>
       <c r="M13" s="23">
-        <v>1368000</v>
+        <v>1406530</v>
       </c>
       <c r="N13" s="23">
-        <v>1368000</v>
+        <v>1406530</v>
       </c>
       <c r="O13" s="23">
-        <v>963380</v>
+        <v>1233130</v>
       </c>
       <c r="P13" s="23">
-        <v>963380</v>
+        <v>1233130</v>
       </c>
       <c r="Q13" s="23">
-        <v>963380</v>
+        <v>1233130</v>
       </c>
       <c r="R13" s="23">
-        <v>963380</v>
+        <v>1233130</v>
       </c>
       <c r="S13" s="23">
-        <v>1464340</v>
+        <v>1734080</v>
       </c>
       <c r="T13" s="23">
-        <v>1464340</v>
+        <v>1734080</v>
       </c>
       <c r="U13" s="23">
-        <v>1464340</v>
+        <v>1734080</v>
       </c>
       <c r="V13" s="23">
-        <v>1059720</v>
+        <v>1734080</v>
       </c>
       <c r="W13" s="23">
-        <v>1059720</v>
+        <v>1734080</v>
       </c>
       <c r="X13" s="23">
-        <v>1059720</v>
+        <v>1734080</v>
       </c>
       <c r="Y13" s="23">
-        <v>1059720</v>
+        <v>1734080</v>
       </c>
       <c r="Z13" s="23">
-        <v>1194590</v>
+        <v>1868960</v>
       </c>
       <c r="AA13" s="23">
-        <v>1483600</v>
+        <v>2157970</v>
       </c>
       <c r="AB13" s="23">
-        <v>1811150</v>
+        <v>2485520</v>
       </c>
       <c r="AC13" s="23">
-        <v>1984560</v>
+        <v>2639660</v>
       </c>
       <c r="AD13" s="23">
-        <v>2023070</v>
+        <v>2639640</v>
       </c>
       <c r="AE13" s="23">
-        <v>2000590</v>
+        <v>2597540</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
@@ -8350,91 +8330,91 @@
         <v>71</v>
       </c>
       <c r="C15">
-        <v>-3644.03</v>
+        <v>-1082.82</v>
       </c>
       <c r="D15">
-        <v>-6023.99</v>
+        <v>-1848.86</v>
       </c>
       <c r="E15">
-        <v>-2828.62</v>
+        <v>-6830.24</v>
       </c>
       <c r="F15">
-        <v>-364.61700000000002</v>
+        <v>-154.67099999999999</v>
       </c>
       <c r="G15" s="23">
-        <v>-1445690</v>
+        <v>-1441320</v>
       </c>
       <c r="H15" s="23">
-        <v>-1452350</v>
+        <v>-1397290</v>
       </c>
       <c r="I15" s="23">
-        <v>-6306100</v>
+        <v>-5122600</v>
       </c>
       <c r="J15" s="23">
-        <v>-10850500</v>
+        <v>-7091040</v>
       </c>
       <c r="K15" s="23">
-        <v>-57666700</v>
+        <v>-34058500</v>
       </c>
       <c r="L15" s="23">
-        <v>-137386000</v>
+        <v>-94901600</v>
       </c>
       <c r="M15" s="23">
-        <v>-147453000</v>
+        <v>-115799000</v>
       </c>
       <c r="N15" s="23">
-        <v>-145644000</v>
+        <v>-127035000</v>
       </c>
       <c r="O15" s="23">
-        <v>-114864000</v>
+        <v>-105232000</v>
       </c>
       <c r="P15" s="23">
-        <v>-105417000</v>
+        <v>-101147000</v>
       </c>
       <c r="Q15" s="23">
-        <v>-90455400</v>
+        <v>-88883300</v>
       </c>
       <c r="R15" s="23">
-        <v>-79280500</v>
+        <v>-78189700</v>
       </c>
       <c r="S15" s="23">
-        <v>-68244000</v>
+        <v>-67933700</v>
       </c>
       <c r="T15" s="23">
-        <v>-52234800</v>
+        <v>-52353900</v>
       </c>
       <c r="U15" s="23">
-        <v>-29657600</v>
+        <v>-29786100</v>
       </c>
       <c r="V15" s="23">
-        <v>-21805400</v>
+        <v>-21840600</v>
       </c>
       <c r="W15" s="23">
-        <v>-18315400</v>
+        <v>-18347300</v>
       </c>
       <c r="X15" s="23">
-        <v>-15367100</v>
+        <v>-15386300</v>
       </c>
       <c r="Y15" s="23">
-        <v>-12108200</v>
+        <v>-12167200</v>
       </c>
       <c r="Z15" s="23">
-        <v>-9892490</v>
+        <v>-9859140</v>
       </c>
       <c r="AA15" s="23">
-        <v>-8428930</v>
+        <v>-8444770</v>
       </c>
       <c r="AB15" s="23">
-        <v>-7104090</v>
+        <v>-7237620</v>
       </c>
       <c r="AC15" s="23">
-        <v>-5856120</v>
+        <v>-5929950</v>
       </c>
       <c r="AD15" s="23">
-        <v>-4670140</v>
+        <v>-4695600</v>
       </c>
       <c r="AE15" s="23">
-        <v>-4411590</v>
+        <v>-4550480</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
@@ -8448,88 +8428,88 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>562591</v>
+        <v>489210</v>
       </c>
       <c r="E16" s="23">
-        <v>1748280</v>
+        <v>1501980</v>
       </c>
       <c r="F16" s="23">
-        <v>2770940</v>
+        <v>2699250</v>
       </c>
       <c r="G16" s="23">
-        <v>4647640</v>
+        <v>4550920</v>
       </c>
       <c r="H16" s="23">
-        <v>7546160</v>
+        <v>7347740</v>
       </c>
       <c r="I16" s="23">
-        <v>11754500</v>
+        <v>11301000</v>
       </c>
       <c r="J16" s="23">
-        <v>17298600</v>
+        <v>16537100</v>
       </c>
       <c r="K16" s="23">
-        <v>24419200</v>
+        <v>22982100</v>
       </c>
       <c r="L16" s="23">
-        <v>33099100</v>
+        <v>30310600</v>
       </c>
       <c r="M16" s="23">
-        <v>42870500</v>
+        <v>38470800</v>
       </c>
       <c r="N16" s="23">
-        <v>53141000</v>
+        <v>47802900</v>
       </c>
       <c r="O16" s="23">
-        <v>64340800</v>
+        <v>58189600</v>
       </c>
       <c r="P16" s="23">
-        <v>78205500</v>
+        <v>70870300</v>
       </c>
       <c r="Q16" s="23">
-        <v>93902400</v>
+        <v>86937800</v>
       </c>
       <c r="R16" s="23">
-        <v>110658000</v>
+        <v>103905000</v>
       </c>
       <c r="S16" s="23">
-        <v>126646000</v>
+        <v>122858000</v>
       </c>
       <c r="T16" s="23">
-        <v>139125000</v>
+        <v>141231000</v>
       </c>
       <c r="U16" s="23">
-        <v>141228000</v>
+        <v>155051000</v>
       </c>
       <c r="V16" s="23">
-        <v>148971000</v>
+        <v>174555000</v>
       </c>
       <c r="W16" s="23">
-        <v>160196000</v>
+        <v>188085000</v>
       </c>
       <c r="X16" s="23">
-        <v>166385000</v>
+        <v>198078000</v>
       </c>
       <c r="Y16" s="23">
-        <v>174498000</v>
+        <v>207700000</v>
       </c>
       <c r="Z16" s="23">
-        <v>183473000</v>
+        <v>219783000</v>
       </c>
       <c r="AA16" s="23">
-        <v>196529000</v>
+        <v>236111000</v>
       </c>
       <c r="AB16" s="23">
-        <v>210221000</v>
+        <v>253436000</v>
       </c>
       <c r="AC16" s="23">
-        <v>219304000</v>
+        <v>261976000</v>
       </c>
       <c r="AD16" s="23">
-        <v>233176000</v>
+        <v>276479000</v>
       </c>
       <c r="AE16" s="23">
-        <v>243812000</v>
+        <v>292318000</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
@@ -8543,88 +8523,88 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>173031</v>
+        <v>173043</v>
       </c>
       <c r="E17">
-        <v>432664</v>
+        <v>346098</v>
       </c>
       <c r="F17">
-        <v>519301</v>
+        <v>519304</v>
       </c>
       <c r="G17">
-        <v>692407</v>
+        <v>692426</v>
       </c>
       <c r="H17">
-        <v>865496</v>
+        <v>952099</v>
       </c>
       <c r="I17" s="23">
-        <v>1038370</v>
+        <v>1125200</v>
       </c>
       <c r="J17" s="23">
-        <v>1037270</v>
+        <v>1210920</v>
       </c>
       <c r="K17" s="23">
-        <v>1006010</v>
-      </c>
-      <c r="L17">
-        <v>807042</v>
+        <v>1205140</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1122320</v>
       </c>
       <c r="M17">
-        <v>617488</v>
+        <v>988638</v>
       </c>
       <c r="N17">
-        <v>463273</v>
+        <v>863862</v>
       </c>
       <c r="O17">
-        <v>450339</v>
+        <v>853852</v>
       </c>
       <c r="P17">
-        <v>251356</v>
+        <v>864971</v>
       </c>
       <c r="Q17">
-        <v>126547</v>
+        <v>518648</v>
       </c>
       <c r="R17">
-        <v>4759.57</v>
+        <v>413754</v>
       </c>
       <c r="S17">
-        <v>-312444</v>
+        <v>211695</v>
       </c>
       <c r="T17" s="23">
-        <v>-1058290</v>
+        <v>-205774</v>
       </c>
       <c r="U17">
-        <v>-853130</v>
+        <v>-257961</v>
       </c>
       <c r="V17">
-        <v>-813645</v>
+        <v>-736325</v>
       </c>
       <c r="W17">
-        <v>-827354</v>
+        <v>-805783</v>
       </c>
       <c r="X17">
-        <v>-787839</v>
+        <v>-796322</v>
       </c>
       <c r="Y17">
-        <v>-724264</v>
+        <v>-739265</v>
       </c>
       <c r="Z17">
-        <v>-551011</v>
+        <v>-557957</v>
       </c>
       <c r="AA17">
-        <v>-553829</v>
+        <v>-558048</v>
       </c>
       <c r="AB17">
-        <v>-516339</v>
+        <v>-586154</v>
       </c>
       <c r="AC17">
-        <v>-492340</v>
+        <v>-562050</v>
       </c>
       <c r="AD17">
-        <v>-473353</v>
+        <v>-530920</v>
       </c>
       <c r="AE17">
-        <v>-593973</v>
+        <v>-710447</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.35">
@@ -8763,58 +8743,58 @@
         <v>150154</v>
       </c>
       <c r="N19">
-        <v>-600615</v>
+        <v>-400410</v>
       </c>
       <c r="O19" s="23">
-        <v>-1651690</v>
+        <v>-1251280</v>
       </c>
       <c r="P19" s="23">
-        <v>-2502560</v>
+        <v>-1251280</v>
       </c>
       <c r="Q19" s="23">
-        <v>-3253330</v>
+        <v>-1251280</v>
       </c>
       <c r="R19" s="23">
-        <v>-3954050</v>
+        <v>-1251280</v>
       </c>
       <c r="S19" s="23">
-        <v>-4386940</v>
+        <v>-1583020</v>
       </c>
       <c r="T19" s="23">
-        <v>-5315560</v>
+        <v>-2217940</v>
       </c>
       <c r="U19" s="23">
-        <v>-6366140</v>
+        <v>-2985590</v>
       </c>
       <c r="V19" s="23">
-        <v>-7505380</v>
+        <v>-3898380</v>
       </c>
       <c r="W19" s="23">
-        <v>-8460300</v>
+        <v>-4753150</v>
       </c>
       <c r="X19" s="23">
-        <v>-9199720</v>
+        <v>-5462260</v>
       </c>
       <c r="Y19" s="23">
-        <v>-8722380</v>
+        <v>-6263920</v>
       </c>
       <c r="Z19" s="23">
-        <v>-7851450</v>
+        <v>-7038070</v>
       </c>
       <c r="AA19" s="23">
-        <v>-6913040</v>
+        <v>-6909440</v>
       </c>
       <c r="AB19" s="23">
-        <v>-5932650</v>
+        <v>-5929480</v>
       </c>
       <c r="AC19" s="23">
-        <v>-4970010</v>
+        <v>-5006550</v>
       </c>
       <c r="AD19" s="23">
-        <v>-4059010</v>
+        <v>-4093370</v>
       </c>
       <c r="AE19" s="23">
-        <v>-2931160</v>
+        <v>-2972460</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
@@ -9220,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>239202</v>
       </c>
       <c r="I24">
         <v>239202</v>
@@ -9235,61 +9215,61 @@
         <v>239202</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>-7558.25</v>
       </c>
-      <c r="N24">
-        <v>-12599.7</v>
-      </c>
       <c r="O24">
-        <v>-5041.46</v>
+        <v>231644</v>
       </c>
       <c r="P24">
-        <v>-2539.66</v>
+        <v>236686</v>
       </c>
       <c r="Q24">
-        <v>-7174.81</v>
+        <v>229142</v>
       </c>
       <c r="R24">
-        <v>-14897.4</v>
+        <v>219211</v>
       </c>
       <c r="S24">
-        <v>-25193.3</v>
+        <v>189656</v>
       </c>
       <c r="T24">
-        <v>-36235.800000000003</v>
+        <v>156971</v>
       </c>
       <c r="U24">
-        <v>-13758.6</v>
+        <v>178461</v>
       </c>
       <c r="V24">
-        <v>-4201.7700000000004</v>
+        <v>165172</v>
       </c>
       <c r="W24">
-        <v>-19233.900000000001</v>
+        <v>143376</v>
       </c>
       <c r="X24">
-        <v>-16107.7</v>
+        <v>134125</v>
       </c>
       <c r="Y24">
-        <v>-13392.9</v>
+        <v>136835</v>
       </c>
       <c r="Z24">
-        <v>4613.0200000000004</v>
+        <v>150667</v>
       </c>
       <c r="AA24">
-        <v>8691.2800000000007</v>
+        <v>147602</v>
       </c>
       <c r="AB24">
-        <v>-3539.34</v>
+        <v>103319</v>
       </c>
       <c r="AC24">
-        <v>5819.38</v>
+        <v>122091</v>
       </c>
       <c r="AD24">
-        <v>-1195.47</v>
+        <v>128042</v>
       </c>
       <c r="AE24">
-        <v>-14697</v>
+        <v>126485</v>
       </c>
       <c r="AP24" s="23"/>
       <c r="AQ24" s="23"/>
@@ -9647,28 +9627,28 @@
         <v>-49256000</v>
       </c>
       <c r="D28" s="23">
-        <v>-46913000</v>
+        <v>-46632300</v>
       </c>
       <c r="E28" s="23">
-        <v>-47716800</v>
+        <v>-47101100</v>
       </c>
       <c r="F28" s="23">
-        <v>-28710300</v>
+        <v>-28282500</v>
       </c>
       <c r="G28" s="23">
-        <v>-31203500</v>
+        <v>-30720400</v>
       </c>
       <c r="H28" s="23">
-        <v>-41226200</v>
+        <v>-40727100</v>
       </c>
       <c r="I28" s="23">
-        <v>-78069600</v>
+        <v>-77151000</v>
       </c>
       <c r="J28" s="23">
-        <v>-154590000</v>
+        <v>-154799000</v>
       </c>
       <c r="K28" s="23">
-        <v>-129108000</v>
+        <v>-129440000</v>
       </c>
       <c r="L28" s="23">
         <v>-47206700</v>
@@ -9765,88 +9745,88 @@
         <v>2608440</v>
       </c>
       <c r="D29" s="23">
-        <v>2515070</v>
+        <v>2525980</v>
       </c>
       <c r="E29" s="23">
-        <v>2645090</v>
+        <v>2676610</v>
       </c>
       <c r="F29" s="23">
-        <v>1127760</v>
+        <v>1178740</v>
       </c>
       <c r="G29" s="23">
-        <v>1809070</v>
+        <v>1879900</v>
       </c>
       <c r="H29" s="23">
-        <v>2766920</v>
+        <v>2841940</v>
       </c>
       <c r="I29" s="23">
-        <v>3246710</v>
+        <v>3383350</v>
       </c>
       <c r="J29" s="23">
-        <v>3102760</v>
+        <v>3090710</v>
       </c>
       <c r="K29" s="23">
-        <v>1282130</v>
+        <v>1390200</v>
       </c>
       <c r="L29" s="23">
-        <v>-40322.5</v>
+        <v>68970</v>
       </c>
       <c r="M29" s="23">
-        <v>-729672</v>
+        <v>-732686</v>
       </c>
       <c r="N29" s="23">
-        <v>-802097</v>
+        <v>-704121</v>
       </c>
       <c r="O29" s="23">
-        <v>-541861</v>
+        <v>-343150</v>
       </c>
       <c r="P29" s="23">
-        <v>-958829</v>
+        <v>-749580</v>
       </c>
       <c r="Q29" s="23">
-        <v>-914310</v>
+        <v>-650986</v>
       </c>
       <c r="R29" s="23">
-        <v>-980760</v>
+        <v>-1140760</v>
       </c>
       <c r="S29" s="23">
-        <v>-1743140</v>
+        <v>-2358140</v>
       </c>
       <c r="T29" s="23">
-        <v>-5692700</v>
+        <v>-8086960</v>
       </c>
       <c r="U29" s="23">
-        <v>-2328050</v>
+        <v>-5742320</v>
       </c>
       <c r="V29" s="23">
-        <v>-952330</v>
+        <v>-6145410</v>
       </c>
       <c r="W29" s="23">
-        <v>-1063610</v>
+        <v>-7365030</v>
       </c>
       <c r="X29" s="23">
-        <v>413242</v>
+        <v>-6933710</v>
       </c>
       <c r="Y29" s="23">
-        <v>1861300</v>
+        <v>-6021600</v>
       </c>
       <c r="Z29" s="23">
-        <v>2538140</v>
+        <v>-6576710</v>
       </c>
       <c r="AA29" s="23">
-        <v>772109</v>
+        <v>-10289000</v>
       </c>
       <c r="AB29" s="23">
-        <v>124183</v>
+        <v>-13238600</v>
       </c>
       <c r="AC29" s="23">
-        <v>577926</v>
+        <v>-11395400</v>
       </c>
       <c r="AD29" s="23">
-        <v>613096</v>
+        <v>-11251500</v>
       </c>
       <c r="AE29" s="23">
-        <v>-640045</v>
+        <v>-12455500</v>
       </c>
       <c r="AQ29" s="23"/>
       <c r="AR29" s="23"/>
@@ -9888,88 +9868,88 @@
         <v>49553900</v>
       </c>
       <c r="D30" s="23">
-        <v>37157800</v>
+        <v>38193600</v>
       </c>
       <c r="E30" s="23">
-        <v>34881100</v>
+        <v>37179600</v>
       </c>
       <c r="F30" s="23">
-        <v>22477600</v>
+        <v>26312200</v>
       </c>
       <c r="G30" s="23">
-        <v>38639200</v>
+        <v>43948600</v>
       </c>
       <c r="H30" s="23">
-        <v>45788200</v>
+        <v>52217100</v>
       </c>
       <c r="I30" s="23">
-        <v>79929500</v>
+        <v>87229500</v>
       </c>
       <c r="J30" s="23">
-        <v>146085000</v>
+        <v>132767000</v>
       </c>
       <c r="K30" s="23">
-        <v>92883400</v>
+        <v>89032900</v>
       </c>
       <c r="L30" s="23">
-        <v>18553000</v>
+        <v>23109600</v>
       </c>
       <c r="M30" s="23">
-        <v>-30232400</v>
+        <v>-31976100</v>
       </c>
       <c r="N30" s="23">
-        <v>-42278500</v>
+        <v>-38632900</v>
       </c>
       <c r="O30" s="23">
-        <v>-25885100</v>
+        <v>-16908100</v>
       </c>
       <c r="P30" s="23">
-        <v>-10442600</v>
+        <v>6515730</v>
       </c>
       <c r="Q30" s="23">
-        <v>-25653400</v>
+        <v>-15221600</v>
       </c>
       <c r="R30" s="23">
-        <v>-39292700</v>
+        <v>-37147900</v>
       </c>
       <c r="S30" s="23">
-        <v>-52925800</v>
+        <v>-60920700</v>
       </c>
       <c r="T30" s="23">
-        <v>-47018600</v>
+        <v>-58493100</v>
       </c>
       <c r="U30" s="23">
-        <v>-13077700</v>
+        <v>-25955500</v>
       </c>
       <c r="V30" s="23">
-        <v>-6468760</v>
+        <v>-18559200</v>
       </c>
       <c r="W30" s="23">
-        <v>-7156430</v>
+        <v>-17611800</v>
       </c>
       <c r="X30" s="23">
-        <v>708776</v>
+        <v>-10749400</v>
       </c>
       <c r="Y30" s="23">
-        <v>5576000</v>
+        <v>-5715850</v>
       </c>
       <c r="Z30" s="23">
-        <v>8155980</v>
+        <v>-2968710</v>
       </c>
       <c r="AA30" s="23">
-        <v>4901060</v>
+        <v>-8880980</v>
       </c>
       <c r="AB30" s="23">
-        <v>-15450.8</v>
+        <v>-15599900</v>
       </c>
       <c r="AC30" s="23">
-        <v>2006640</v>
+        <v>-9433530</v>
       </c>
       <c r="AD30" s="23">
-        <v>3726740</v>
+        <v>-3778160</v>
       </c>
       <c r="AE30" s="23">
-        <v>12003600</v>
+        <v>4755790</v>
       </c>
       <c r="AR30" s="23"/>
       <c r="AS30" s="23"/>
@@ -10067,31 +10047,31 @@
         <v>0</v>
       </c>
       <c r="W31" s="23">
-        <v>0</v>
+        <v>-68606.8</v>
       </c>
       <c r="X31" s="23">
-        <v>0</v>
+        <v>-234242</v>
       </c>
       <c r="Y31" s="23">
-        <v>0</v>
+        <v>-464561</v>
       </c>
       <c r="Z31" s="23">
-        <v>0</v>
+        <v>-909483</v>
       </c>
       <c r="AA31" s="23">
-        <v>-18318.3</v>
+        <v>-2010860</v>
       </c>
       <c r="AB31" s="23">
-        <v>-248985</v>
+        <v>-3904800</v>
       </c>
       <c r="AC31" s="23">
-        <v>-262096</v>
+        <v>-2662960</v>
       </c>
       <c r="AD31" s="23">
-        <v>-286124</v>
+        <v>-2074700</v>
       </c>
       <c r="AE31" s="23">
-        <v>-838121</v>
+        <v>-4420150</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.35">
@@ -10120,19 +10100,19 @@
         <v>4942.2299999999996</v>
       </c>
       <c r="I32" s="23">
-        <v>5231890</v>
+        <v>7835400</v>
       </c>
       <c r="J32" s="23">
-        <v>7391680</v>
+        <v>7836120</v>
       </c>
       <c r="K32" s="23">
-        <v>12839200</v>
+        <v>13113500</v>
       </c>
       <c r="L32" s="23">
-        <v>-12801900</v>
+        <v>-15685700</v>
       </c>
       <c r="M32" s="23">
-        <v>-24725300</v>
+        <v>-44041100</v>
       </c>
       <c r="N32" s="23">
         <v>-31473400</v>
@@ -10141,52 +10121,52 @@
         <v>-18963700</v>
       </c>
       <c r="P32" s="23">
-        <v>-50555700</v>
+        <v>-48427000</v>
       </c>
       <c r="Q32" s="23">
-        <v>8477790</v>
+        <v>-28539600</v>
       </c>
       <c r="R32" s="23">
         <v>-56707000</v>
       </c>
       <c r="S32" s="23">
-        <v>-69537800</v>
+        <v>-38344600</v>
       </c>
       <c r="T32" s="23">
-        <v>-135450000</v>
+        <v>-51657100</v>
       </c>
       <c r="U32" s="23">
-        <v>-114999000</v>
+        <v>-129661000</v>
       </c>
       <c r="V32" s="23">
-        <v>-22897900</v>
+        <v>-47925800</v>
       </c>
       <c r="W32" s="23">
-        <v>-26430400</v>
+        <v>-136726000</v>
       </c>
       <c r="X32" s="23">
-        <v>-23375100</v>
+        <v>-92521400</v>
       </c>
       <c r="Y32" s="23">
-        <v>-15201500</v>
+        <v>-90266000</v>
       </c>
       <c r="Z32" s="23">
-        <v>85176600</v>
+        <v>-21048500</v>
       </c>
       <c r="AA32" s="23">
-        <v>-17117300</v>
+        <v>-118946000</v>
       </c>
       <c r="AB32" s="23">
-        <v>-3476860</v>
+        <v>-33846600</v>
       </c>
       <c r="AC32" s="23">
-        <v>-13742000</v>
+        <v>-106962000</v>
       </c>
       <c r="AD32" s="23">
-        <v>-81390000</v>
+        <v>-102454000</v>
       </c>
       <c r="AE32" s="23">
-        <v>5156760</v>
+        <v>30846000</v>
       </c>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
@@ -10228,82 +10208,82 @@
         <v>9626140</v>
       </c>
       <c r="F33" s="23">
-        <v>16350400</v>
+        <v>16383300</v>
       </c>
       <c r="G33" s="23">
-        <v>24103400</v>
+        <v>24202600</v>
       </c>
       <c r="H33" s="23">
-        <v>34180900</v>
+        <v>34397100</v>
       </c>
       <c r="I33" s="23">
-        <v>47051200</v>
+        <v>47334800</v>
       </c>
       <c r="J33" s="23">
-        <v>62490800</v>
+        <v>62037300</v>
       </c>
       <c r="K33" s="23">
-        <v>79338600</v>
+        <v>78280400</v>
       </c>
       <c r="L33" s="23">
-        <v>99093200</v>
+        <v>98485700</v>
       </c>
       <c r="M33" s="23">
-        <v>121081000</v>
+        <v>121430000</v>
       </c>
       <c r="N33" s="23">
-        <v>142825000</v>
+        <v>143502000</v>
       </c>
       <c r="O33" s="23">
-        <v>166700000</v>
+        <v>167852000</v>
       </c>
       <c r="P33" s="23">
-        <v>197125000</v>
+        <v>194214000</v>
       </c>
       <c r="Q33" s="23">
-        <v>228051000</v>
+        <v>228811000</v>
       </c>
       <c r="R33" s="23">
-        <v>258041000</v>
+        <v>262540000</v>
       </c>
       <c r="S33" s="23">
-        <v>276787000</v>
+        <v>293308000</v>
       </c>
       <c r="T33" s="23">
-        <v>285113000</v>
+        <v>320567000</v>
       </c>
       <c r="U33" s="23">
-        <v>289361000</v>
+        <v>347232000</v>
       </c>
       <c r="V33" s="23">
-        <v>308099000</v>
+        <v>393522000</v>
       </c>
       <c r="W33" s="23">
-        <v>330045000</v>
+        <v>431791000</v>
       </c>
       <c r="X33" s="23">
-        <v>348181000</v>
+        <v>467290000</v>
       </c>
       <c r="Y33" s="23">
-        <v>362270000</v>
+        <v>491918000</v>
       </c>
       <c r="Z33" s="23">
-        <v>380847000</v>
+        <v>529851000</v>
       </c>
       <c r="AA33" s="23">
-        <v>403318000</v>
+        <v>573202000</v>
       </c>
       <c r="AB33" s="23">
-        <v>427799000</v>
+        <v>619641000</v>
       </c>
       <c r="AC33" s="23">
-        <v>450015000</v>
+        <v>650937000</v>
       </c>
       <c r="AD33" s="23">
-        <v>472933000</v>
+        <v>694235000</v>
       </c>
       <c r="AE33" s="23">
-        <v>492532000</v>
+        <v>738078000</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.35">
@@ -10320,85 +10300,85 @@
         <v>634665</v>
       </c>
       <c r="E34" s="23">
-        <v>11200400</v>
+        <v>11207500</v>
       </c>
       <c r="F34" s="23">
-        <v>22511600</v>
+        <v>22529400</v>
       </c>
       <c r="G34" s="23">
-        <v>33095800</v>
+        <v>33135100</v>
       </c>
       <c r="H34" s="23">
-        <v>45125500</v>
+        <v>45204300</v>
       </c>
       <c r="I34" s="23">
-        <v>58470200</v>
+        <v>58588600</v>
       </c>
       <c r="J34" s="23">
-        <v>73007700</v>
+        <v>69335000</v>
       </c>
       <c r="K34" s="23">
-        <v>87672200</v>
+        <v>80793600</v>
       </c>
       <c r="L34" s="23">
-        <v>93846700</v>
+        <v>87753800</v>
       </c>
       <c r="M34" s="23">
-        <v>92048500</v>
+        <v>87301900</v>
       </c>
       <c r="N34" s="23">
-        <v>87607200</v>
+        <v>83446400</v>
       </c>
       <c r="O34" s="23">
-        <v>87206000</v>
+        <v>83298500</v>
       </c>
       <c r="P34" s="23">
-        <v>89691400</v>
+        <v>87011900</v>
       </c>
       <c r="Q34" s="23">
-        <v>89634400</v>
+        <v>86974200</v>
       </c>
       <c r="R34" s="23">
-        <v>89562500</v>
+        <v>86363100</v>
       </c>
       <c r="S34" s="23">
-        <v>90503300</v>
+        <v>86419800</v>
       </c>
       <c r="T34" s="23">
-        <v>88212600</v>
+        <v>82083700</v>
       </c>
       <c r="U34" s="23">
-        <v>91442400</v>
+        <v>84242100</v>
       </c>
       <c r="V34" s="23">
-        <v>95547100</v>
+        <v>88063300</v>
       </c>
       <c r="W34" s="23">
-        <v>96860900</v>
+        <v>90187900</v>
       </c>
       <c r="X34" s="23">
-        <v>100788000</v>
+        <v>93294400</v>
       </c>
       <c r="Y34" s="23">
-        <v>104496000</v>
+        <v>96583700</v>
       </c>
       <c r="Z34" s="23">
-        <v>109125000</v>
+        <v>100293000</v>
       </c>
       <c r="AA34" s="23">
-        <v>111395000</v>
+        <v>96429900</v>
       </c>
       <c r="AB34" s="23">
-        <v>112826000</v>
+        <v>91126500</v>
       </c>
       <c r="AC34" s="23">
-        <v>116429000</v>
+        <v>99400400</v>
       </c>
       <c r="AD34" s="23">
-        <v>119958000</v>
+        <v>106121000</v>
       </c>
       <c r="AE34" s="23">
-        <v>123916000</v>
+        <v>109500000</v>
       </c>
       <c r="AY34" s="23"/>
       <c r="AZ34" s="23"/>
@@ -10550,61 +10530,61 @@
         <v>1946810</v>
       </c>
       <c r="M36" s="23">
-        <v>2155400</v>
+        <v>2224920</v>
       </c>
       <c r="N36" s="23">
-        <v>2294450</v>
+        <v>2363980</v>
       </c>
       <c r="O36" s="23">
-        <v>2433510</v>
+        <v>2503040</v>
       </c>
       <c r="P36" s="23">
-        <v>2572570</v>
+        <v>2711630</v>
       </c>
       <c r="Q36" s="23">
-        <v>2781160</v>
+        <v>2920210</v>
       </c>
       <c r="R36" s="23">
-        <v>2989740</v>
+        <v>3128800</v>
       </c>
       <c r="S36" s="23">
-        <v>2430050</v>
+        <v>2000230</v>
       </c>
       <c r="T36" s="23">
-        <v>77759.600000000006</v>
+        <v>-3696120</v>
       </c>
       <c r="U36" s="23">
-        <v>998144</v>
+        <v>-5477900</v>
       </c>
       <c r="V36" s="23">
-        <v>871231</v>
+        <v>-8264020</v>
       </c>
       <c r="W36" s="23">
-        <v>-590353</v>
+        <v>-13258200</v>
       </c>
       <c r="X36" s="23">
-        <v>2002280</v>
+        <v>-12668600</v>
       </c>
       <c r="Y36" s="23">
-        <v>4221490</v>
+        <v>-11621800</v>
       </c>
       <c r="Z36" s="23">
-        <v>5824580</v>
+        <v>-12193700</v>
       </c>
       <c r="AA36" s="23">
-        <v>3507780</v>
+        <v>-18786200</v>
       </c>
       <c r="AB36" s="23">
-        <v>1025390</v>
+        <v>-24962000</v>
       </c>
       <c r="AC36" s="23">
-        <v>2059610</v>
+        <v>-18805400</v>
       </c>
       <c r="AD36" s="23">
-        <v>2889570</v>
+        <v>-15917700</v>
       </c>
       <c r="AE36" s="23">
-        <v>-761958</v>
+        <v>-17148000</v>
       </c>
       <c r="AT36" s="23"/>
       <c r="AU36" s="23"/>
@@ -10700,31 +10680,31 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-643.70100000000002</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>-2195.81</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>-4351.92</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-8456.76</v>
       </c>
       <c r="AA37">
-        <v>-170.83799999999999</v>
+        <v>-18658.7</v>
       </c>
       <c r="AB37">
-        <v>-2319.09</v>
+        <v>-36091.800000000003</v>
       </c>
       <c r="AC37">
-        <v>-2441.16</v>
+        <v>-24648.1</v>
       </c>
       <c r="AD37">
-        <v>-2664.84</v>
+        <v>-19252.7</v>
       </c>
       <c r="AE37">
-        <v>-7660</v>
+        <v>-39650.1</v>
       </c>
       <c r="AR37" s="23"/>
       <c r="AS37" s="23"/>
@@ -10783,70 +10763,70 @@
         <v>38535.199999999997</v>
       </c>
       <c r="J38">
-        <v>134873</v>
+        <v>57802.8</v>
       </c>
       <c r="K38">
-        <v>578028</v>
+        <v>520225</v>
       </c>
       <c r="L38" s="23">
+        <v>982647</v>
+      </c>
+      <c r="M38" s="23">
+        <v>1329460</v>
+      </c>
+      <c r="N38" s="23">
+        <v>1329460</v>
+      </c>
+      <c r="O38" s="23">
         <v>1040450</v>
       </c>
-      <c r="M38" s="23">
-        <v>1387270</v>
-      </c>
-      <c r="N38" s="23">
-        <v>1387270</v>
-      </c>
-      <c r="O38" s="23">
-        <v>1078990</v>
-      </c>
       <c r="P38" s="23">
-        <v>1078990</v>
+        <v>1040450</v>
       </c>
       <c r="Q38" s="23">
-        <v>1078990</v>
+        <v>1040450</v>
       </c>
       <c r="R38" s="23">
-        <v>1078990</v>
+        <v>1040450</v>
       </c>
       <c r="S38" s="23">
-        <v>1579940</v>
+        <v>1541410</v>
       </c>
       <c r="T38" s="23">
-        <v>1579940</v>
+        <v>1541410</v>
       </c>
       <c r="U38" s="23">
-        <v>1579940</v>
+        <v>1541410</v>
       </c>
       <c r="V38" s="23">
-        <v>1425800</v>
+        <v>1117520</v>
       </c>
       <c r="W38" s="23">
-        <v>1425800</v>
+        <v>1117280</v>
       </c>
       <c r="X38" s="23">
-        <v>1425800</v>
+        <v>1116700</v>
       </c>
       <c r="Y38" s="23">
-        <v>1425800</v>
+        <v>1115880</v>
       </c>
       <c r="Z38" s="23">
-        <v>1541410</v>
+        <v>1191460</v>
       </c>
       <c r="AA38" s="23">
-        <v>1811090</v>
+        <v>1438220</v>
       </c>
       <c r="AB38" s="23">
-        <v>2137850</v>
+        <v>1586560</v>
       </c>
       <c r="AC38" s="23">
-        <v>2291970</v>
+        <v>1456560</v>
       </c>
       <c r="AD38" s="23">
-        <v>2291920</v>
+        <v>1169850</v>
       </c>
       <c r="AE38" s="23">
-        <v>2231040</v>
+        <v>971304</v>
       </c>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -10958,55 +10938,55 @@
         <v>-1082.82</v>
       </c>
       <c r="D40">
-        <v>-1870.4</v>
+        <v>-1848.87</v>
       </c>
       <c r="E40">
-        <v>-12470.4</v>
+        <v>-12009.3</v>
       </c>
       <c r="F40" s="23">
-        <v>-7463.07</v>
+        <v>-6506.67</v>
       </c>
       <c r="G40" s="23">
-        <v>-1922580</v>
+        <v>-1809260</v>
       </c>
       <c r="H40" s="23">
-        <v>-5641800</v>
+        <v>-5275470</v>
       </c>
       <c r="I40" s="23">
-        <v>-15993300</v>
+        <v>-14582700</v>
       </c>
       <c r="J40" s="23">
-        <v>-21479300</v>
+        <v>-21532100</v>
       </c>
       <c r="K40" s="23">
-        <v>-47199800</v>
+        <v>-47194400</v>
       </c>
       <c r="L40" s="23">
-        <v>-109663000</v>
+        <v>-108393000</v>
       </c>
       <c r="M40" s="23">
-        <v>-128513000</v>
+        <v>-128405000</v>
       </c>
       <c r="N40" s="23">
-        <v>-137224000</v>
+        <v>-136649000</v>
       </c>
       <c r="O40" s="23">
-        <v>-110470000</v>
+        <v>-110266000</v>
       </c>
       <c r="P40" s="23">
-        <v>-103308000</v>
+        <v>-103381000</v>
       </c>
       <c r="Q40" s="23">
-        <v>-89557800</v>
+        <v>-89637400</v>
       </c>
       <c r="R40" s="23">
-        <v>-78769200</v>
+        <v>-78830500</v>
       </c>
       <c r="S40" s="23">
-        <v>-68174900</v>
+        <v>-68237100</v>
       </c>
       <c r="T40" s="23">
-        <v>-52373100</v>
+        <v>-52374600</v>
       </c>
       <c r="U40" s="23">
         <v>-29786100</v>
@@ -11079,79 +11059,79 @@
         <v>14378000</v>
       </c>
       <c r="G41" s="23">
-        <v>24086800</v>
+        <v>24136800</v>
       </c>
       <c r="H41" s="23">
-        <v>35579200</v>
+        <v>35680100</v>
       </c>
       <c r="I41" s="23">
-        <v>49071400</v>
+        <v>49223300</v>
       </c>
       <c r="J41" s="23">
-        <v>64882200</v>
+        <v>61569100</v>
       </c>
       <c r="K41" s="23">
-        <v>81514400</v>
+        <v>75758400</v>
       </c>
       <c r="L41" s="23">
-        <v>98130500</v>
+        <v>91724800</v>
       </c>
       <c r="M41" s="23">
-        <v>119045000</v>
+        <v>112665000</v>
       </c>
       <c r="N41" s="23">
-        <v>140255000</v>
+        <v>133171000</v>
       </c>
       <c r="O41" s="23">
-        <v>162251000</v>
+        <v>154538000</v>
       </c>
       <c r="P41" s="23">
-        <v>188437000</v>
+        <v>176125000</v>
       </c>
       <c r="Q41" s="23">
-        <v>216744000</v>
+        <v>206184000</v>
       </c>
       <c r="R41" s="23">
-        <v>247301000</v>
+        <v>238731000</v>
       </c>
       <c r="S41" s="23">
-        <v>274460000</v>
+        <v>273647000</v>
       </c>
       <c r="T41" s="23">
-        <v>294107000</v>
+        <v>305282000</v>
       </c>
       <c r="U41" s="23">
-        <v>303439000</v>
+        <v>324678000</v>
       </c>
       <c r="V41" s="23">
-        <v>318234000</v>
+        <v>347278000</v>
       </c>
       <c r="W41" s="23">
-        <v>335353000</v>
+        <v>359967000</v>
       </c>
       <c r="X41" s="23">
-        <v>347754000</v>
+        <v>370228000</v>
       </c>
       <c r="Y41" s="23">
-        <v>360992000</v>
+        <v>375541000</v>
       </c>
       <c r="Z41" s="23">
-        <v>375565000</v>
+        <v>376301000</v>
       </c>
       <c r="AA41" s="23">
-        <v>391060000</v>
+        <v>387394000</v>
       </c>
       <c r="AB41" s="23">
-        <v>401055000</v>
+        <v>392768000</v>
       </c>
       <c r="AC41" s="23">
-        <v>407301000</v>
+        <v>393305000</v>
       </c>
       <c r="AD41" s="23">
-        <v>414931000</v>
+        <v>392229000</v>
       </c>
       <c r="AE41" s="23">
-        <v>423572000</v>
+        <v>387813000</v>
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.35">
@@ -11165,88 +11145,88 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>173042</v>
+        <v>173043</v>
       </c>
       <c r="E42">
-        <v>346078</v>
+        <v>346080</v>
       </c>
       <c r="F42">
-        <v>432717</v>
+        <v>432720</v>
       </c>
       <c r="G42">
-        <v>519121</v>
+        <v>519149</v>
       </c>
       <c r="H42">
-        <v>691543</v>
+        <v>691618</v>
       </c>
       <c r="I42" s="23">
-        <v>860740</v>
+        <v>863448</v>
       </c>
       <c r="J42" s="23">
-        <v>842055</v>
+        <v>842116</v>
       </c>
       <c r="K42">
-        <v>758668</v>
+        <v>766941</v>
       </c>
       <c r="L42">
-        <v>530026</v>
+        <v>593029</v>
       </c>
       <c r="M42">
-        <v>381916</v>
+        <v>381854</v>
       </c>
       <c r="N42">
-        <v>260363</v>
+        <v>269743</v>
       </c>
       <c r="O42">
-        <v>280485</v>
+        <v>300839</v>
       </c>
       <c r="P42">
-        <v>121082</v>
+        <v>142873</v>
       </c>
       <c r="Q42">
-        <v>-65044.3</v>
+        <v>-20120.900000000001</v>
       </c>
       <c r="R42">
-        <v>-191476</v>
+        <v>-205743</v>
       </c>
       <c r="S42" s="23">
-        <v>-443784</v>
+        <v>-493578</v>
       </c>
       <c r="T42" s="23">
-        <v>-1189770</v>
+        <v>-1304820</v>
       </c>
       <c r="U42" s="23">
-        <v>-968928</v>
+        <v>-1083530</v>
       </c>
       <c r="V42" s="23">
-        <v>-951365</v>
+        <v>-1096590</v>
       </c>
       <c r="W42" s="23">
-        <v>-966404</v>
+        <v>-1085380</v>
       </c>
       <c r="X42" s="23">
-        <v>-937584</v>
+        <v>-1082820</v>
       </c>
       <c r="Y42" s="23">
-        <v>-867004</v>
+        <v>-1016370</v>
       </c>
       <c r="Z42">
-        <v>-673836</v>
+        <v>-795104</v>
       </c>
       <c r="AA42">
-        <v>-694020</v>
+        <v>-799670</v>
       </c>
       <c r="AB42">
-        <v>-655813</v>
+        <v>-786707</v>
       </c>
       <c r="AC42">
-        <v>-646953</v>
+        <v>-732202</v>
       </c>
       <c r="AD42">
-        <v>-606645</v>
+        <v>-654991</v>
       </c>
       <c r="AE42">
-        <v>-772423</v>
+        <v>-832635</v>
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.35">
@@ -11391,52 +11371,52 @@
         <v>-1451490</v>
       </c>
       <c r="P44" s="23">
-        <v>-2152200</v>
+        <v>-2102150</v>
       </c>
       <c r="Q44" s="23">
-        <v>-2802870</v>
+        <v>-2702770</v>
       </c>
       <c r="R44" s="23">
-        <v>-3403490</v>
+        <v>-3253330</v>
       </c>
       <c r="S44" s="23">
-        <v>-3833520</v>
+        <v>-3717560</v>
       </c>
       <c r="T44" s="23">
-        <v>-4664500</v>
+        <v>-4804280</v>
       </c>
       <c r="U44" s="23">
-        <v>-5507660</v>
+        <v>-5851120</v>
       </c>
       <c r="V44" s="23">
-        <v>-6460200</v>
+        <v>-6948320</v>
       </c>
       <c r="W44" s="23">
-        <v>-7323520</v>
+        <v>-7912190</v>
       </c>
       <c r="X44" s="23">
-        <v>-8020340</v>
+        <v>-8590880</v>
       </c>
       <c r="Y44" s="23">
-        <v>-8722640</v>
+        <v>-8725910</v>
       </c>
       <c r="Z44" s="23">
-        <v>-7849620</v>
+        <v>-7853370</v>
       </c>
       <c r="AA44" s="23">
-        <v>-6910400</v>
+        <v>-6915080</v>
       </c>
       <c r="AB44" s="23">
-        <v>-5930560</v>
+        <v>-5936060</v>
       </c>
       <c r="AC44" s="23">
-        <v>-5007690</v>
+        <v>-5012070</v>
       </c>
       <c r="AD44" s="23">
-        <v>-4094390</v>
+        <v>-4098320</v>
       </c>
       <c r="AE44" s="23">
-        <v>-2973280</v>
+        <v>-2976700</v>
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.35">
@@ -11842,76 +11822,76 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>119601</v>
       </c>
       <c r="I49">
-        <v>239202</v>
+        <v>119601</v>
       </c>
       <c r="J49">
-        <v>239202</v>
+        <v>119601</v>
       </c>
       <c r="K49">
-        <v>239202</v>
+        <v>119601</v>
       </c>
       <c r="L49">
-        <v>224275</v>
+        <v>114569</v>
       </c>
       <c r="M49">
-        <v>-21926.799999999999</v>
+        <v>-130563</v>
       </c>
       <c r="N49">
-        <v>-29301.1</v>
+        <v>-134252</v>
       </c>
       <c r="O49">
-        <v>-21742.9</v>
+        <v>-125532</v>
       </c>
       <c r="P49">
-        <v>-14377.9</v>
+        <v>-120490</v>
       </c>
       <c r="Q49">
-        <v>-16705.400000000001</v>
+        <v>-120384</v>
       </c>
       <c r="R49">
-        <v>-27336.6</v>
+        <v>-120951</v>
       </c>
       <c r="S49">
-        <v>-36105.4</v>
+        <v>-124943</v>
       </c>
       <c r="T49">
-        <v>-47152.2</v>
+        <v>-131653</v>
       </c>
       <c r="U49">
-        <v>-27808.3</v>
+        <v>-109980</v>
       </c>
       <c r="V49">
-        <v>-22167.1</v>
+        <v>-114074</v>
       </c>
       <c r="W49">
-        <v>-29417.7</v>
+        <v>-125507</v>
       </c>
       <c r="X49">
-        <v>-27858</v>
+        <v>-130058</v>
       </c>
       <c r="Y49">
-        <v>-21421</v>
+        <v>-124619</v>
       </c>
       <c r="Z49">
-        <v>-13510.5</v>
+        <v>-105652</v>
       </c>
       <c r="AA49">
-        <v>-19799.2</v>
+        <v>-102764</v>
       </c>
       <c r="AB49">
-        <v>-19219.7</v>
+        <v>-102212</v>
       </c>
       <c r="AC49">
-        <v>-19194.099999999999</v>
+        <v>-97864</v>
       </c>
       <c r="AD49">
-        <v>-13314.3</v>
+        <v>-90017.2</v>
       </c>
       <c r="AE49">
-        <v>-16814.7</v>
+        <v>-111134</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
@@ -12113,63 +12093,63 @@
       </c>
       <c r="C53" s="23">
         <f>C28-C3</f>
-        <v>20921100</v>
+        <v>-100</v>
       </c>
       <c r="D53" s="23">
         <f t="shared" ref="D53:AE53" si="0">D28-D3</f>
-        <v>18756100</v>
+        <v>0</v>
       </c>
       <c r="E53" s="23">
         <f t="shared" si="0"/>
-        <v>-17164400</v>
+        <v>-4818400</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="0"/>
-        <v>-7445400</v>
+        <v>-7707000</v>
       </c>
       <c r="G53" s="23">
         <f t="shared" si="0"/>
-        <v>-10263800</v>
+        <v>-12671500</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
-        <v>-9471000</v>
+        <v>-15915500</v>
       </c>
       <c r="I53" s="23">
         <f t="shared" si="0"/>
-        <v>-3329400</v>
+        <v>-18127400</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
-        <v>10911000</v>
+        <v>-14623000</v>
       </c>
       <c r="K53" s="23">
         <f t="shared" si="0"/>
-        <v>1940000</v>
+        <v>-1118000</v>
       </c>
       <c r="L53" s="23">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M53" s="23">
         <f t="shared" si="0"/>
-        <v>592600</v>
+        <v>0</v>
       </c>
       <c r="N53" s="23">
         <f t="shared" si="0"/>
-        <v>85400</v>
+        <v>0</v>
       </c>
       <c r="O53" s="23">
         <f t="shared" si="0"/>
-        <v>-11110</v>
+        <v>0</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="0"/>
-        <v>-32709</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="23">
         <f t="shared" si="0"/>
-        <v>-4103</v>
+        <v>0</v>
       </c>
       <c r="R53" s="23">
         <f t="shared" si="0"/>
@@ -12237,119 +12217,119 @@
       </c>
       <c r="C54" s="23">
         <f t="shared" ref="C54:AE62" si="1">C29-C4</f>
-        <v>-496850</v>
+        <v>-10</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" si="1"/>
-        <v>-412540</v>
+        <v>0</v>
       </c>
       <c r="E54" s="23">
         <f t="shared" si="1"/>
-        <v>87650</v>
+        <v>-232160</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="1"/>
-        <v>-1278200</v>
+        <v>-1413490</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="1"/>
-        <v>-1319150</v>
+        <v>-1456330</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="1"/>
-        <v>-1863250</v>
+        <v>-1773940</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="1"/>
-        <v>-2184640</v>
+        <v>-2161730</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>-2522620</v>
+        <v>-2124160</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="1"/>
-        <v>-3052380</v>
+        <v>-2745150</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="1"/>
-        <v>-2161632.5</v>
+        <v>-2408070</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="1"/>
-        <v>-2214822</v>
+        <v>-2338676</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="1"/>
-        <v>-1995987</v>
+        <v>-2469961</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="1"/>
-        <v>-1976771</v>
+        <v>-2332110</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="1"/>
-        <v>-1846270</v>
+        <v>-3623680</v>
       </c>
       <c r="Q54" s="23">
         <f t="shared" si="1"/>
-        <v>-1902374</v>
+        <v>-2383176</v>
       </c>
       <c r="R54" s="23">
         <f t="shared" si="1"/>
-        <v>-1925950</v>
+        <v>-3272280</v>
       </c>
       <c r="S54" s="23">
         <f t="shared" si="1"/>
-        <v>-1548269</v>
+        <v>-4534360</v>
       </c>
       <c r="T54" s="23">
         <f t="shared" si="1"/>
-        <v>-1332160</v>
+        <v>-9077438</v>
       </c>
       <c r="U54" s="23">
         <f t="shared" si="1"/>
-        <v>-1396382</v>
+        <v>-7897510</v>
       </c>
       <c r="V54" s="23">
         <f t="shared" si="1"/>
-        <v>-1922700</v>
+        <v>-7545770</v>
       </c>
       <c r="W54" s="23">
         <f t="shared" si="1"/>
-        <v>-2284880</v>
+        <v>-8827190</v>
       </c>
       <c r="X54" s="23">
         <f t="shared" si="1"/>
-        <v>-2187038</v>
+        <v>-9346530</v>
       </c>
       <c r="Y54" s="23">
         <f t="shared" si="1"/>
-        <v>-1910060</v>
+        <v>-9833500</v>
       </c>
       <c r="Z54" s="23">
         <f t="shared" si="1"/>
-        <v>-1673870</v>
+        <v>-11053440</v>
       </c>
       <c r="AA54" s="23">
         <f t="shared" si="1"/>
-        <v>-2327101</v>
+        <v>-14144200</v>
       </c>
       <c r="AB54" s="23">
         <f t="shared" si="1"/>
-        <v>-3103177</v>
+        <v>-16203180</v>
       </c>
       <c r="AC54" s="23">
         <f t="shared" si="1"/>
-        <v>-3391024</v>
+        <v>-15414490</v>
       </c>
       <c r="AD54" s="23">
         <f t="shared" si="1"/>
-        <v>-3012164</v>
+        <v>-15136550</v>
       </c>
       <c r="AE54" s="23">
         <f t="shared" si="1"/>
-        <v>-1951515</v>
+        <v>-14242400</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
@@ -12361,119 +12341,119 @@
       </c>
       <c r="C55" s="23">
         <f t="shared" si="1"/>
-        <v>-20398100</v>
+        <v>-100</v>
       </c>
       <c r="D55" s="23">
         <f t="shared" si="1"/>
-        <v>-14929800</v>
+        <v>-100</v>
       </c>
       <c r="E55" s="23">
         <f t="shared" si="1"/>
-        <v>-3411100</v>
+        <v>-12560900</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
-        <v>-22492700</v>
+        <v>-27266900</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="1"/>
-        <v>-20692700</v>
+        <v>-39703400</v>
       </c>
       <c r="H55" s="23">
         <f t="shared" si="1"/>
-        <v>-22509000</v>
+        <v>-50405900</v>
       </c>
       <c r="I55" s="23">
         <f t="shared" si="1"/>
-        <v>-31435500</v>
+        <v>-62385500</v>
       </c>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>-52261000</v>
+        <v>-63720000</v>
       </c>
       <c r="K55" s="23">
         <f t="shared" si="1"/>
-        <v>-63950600</v>
+        <v>-76192100</v>
       </c>
       <c r="L55" s="23">
         <f t="shared" si="1"/>
-        <v>-62562300</v>
+        <v>-80202400</v>
       </c>
       <c r="M55" s="23">
         <f t="shared" si="1"/>
-        <v>-44779800</v>
+        <v>-84758700</v>
       </c>
       <c r="N55" s="23">
         <f t="shared" si="1"/>
-        <v>-25995800</v>
+        <v>-91761900</v>
       </c>
       <c r="O55" s="23">
         <f t="shared" si="1"/>
-        <v>-15508200</v>
+        <v>-102025900</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="1"/>
-        <v>-16375970</v>
+        <v>-103528270</v>
       </c>
       <c r="Q55" s="23">
         <f t="shared" si="1"/>
-        <v>-19775560</v>
+        <v>-86720900</v>
       </c>
       <c r="R55" s="23">
         <f t="shared" si="1"/>
-        <v>-24536600</v>
+        <v>-88680300</v>
       </c>
       <c r="S55" s="23">
         <f t="shared" si="1"/>
-        <v>-18945000</v>
+        <v>-98287200</v>
       </c>
       <c r="T55" s="23">
         <f t="shared" si="1"/>
-        <v>2293800</v>
+        <v>-59792220</v>
       </c>
       <c r="U55" s="23">
         <f t="shared" si="1"/>
-        <v>226400</v>
+        <v>-29148910</v>
       </c>
       <c r="V55" s="23">
         <f t="shared" si="1"/>
-        <v>-3187840</v>
+        <v>-23297180</v>
       </c>
       <c r="W55" s="23">
         <f t="shared" si="1"/>
-        <v>-3631510</v>
+        <v>-21886620</v>
       </c>
       <c r="X55" s="23">
         <f t="shared" si="1"/>
-        <v>-6882854</v>
+        <v>-21844300</v>
       </c>
       <c r="Y55" s="23">
         <f t="shared" si="1"/>
-        <v>-4579500</v>
+        <v>-20744750</v>
       </c>
       <c r="Z55" s="23">
         <f t="shared" si="1"/>
-        <v>-1090230</v>
+        <v>-19948310</v>
       </c>
       <c r="AA55" s="23">
         <f t="shared" si="1"/>
-        <v>1766290</v>
+        <v>-19205180</v>
       </c>
       <c r="AB55" s="23">
         <f t="shared" si="1"/>
-        <v>-277580.79999999999</v>
+        <v>-19133170</v>
       </c>
       <c r="AC55" s="23">
         <f t="shared" si="1"/>
-        <v>-307590</v>
+        <v>-16905410</v>
       </c>
       <c r="AD55" s="23">
         <f t="shared" si="1"/>
-        <v>2282030</v>
+        <v>-12549370</v>
       </c>
       <c r="AE55" s="23">
         <f t="shared" si="1"/>
-        <v>6039150</v>
+        <v>-10267110</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
@@ -12565,39 +12545,39 @@
       </c>
       <c r="W56" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-68606.8</v>
       </c>
       <c r="X56" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-234242</v>
       </c>
       <c r="Y56" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-464561</v>
       </c>
       <c r="Z56" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-909482.99999988079</v>
       </c>
       <c r="AA56" s="23">
         <f t="shared" si="1"/>
-        <v>-18318.29999988079</v>
+        <v>-2010859.9999998808</v>
       </c>
       <c r="AB56" s="23">
         <f t="shared" si="1"/>
-        <v>-248985</v>
+        <v>-3904800</v>
       </c>
       <c r="AC56" s="23">
         <f t="shared" si="1"/>
-        <v>-262096</v>
+        <v>-2662959.9999998808</v>
       </c>
       <c r="AD56" s="23">
         <f t="shared" si="1"/>
-        <v>-275812.40000000002</v>
+        <v>-2068736.13</v>
       </c>
       <c r="AE56" s="23">
         <f t="shared" si="1"/>
-        <v>-163771</v>
+        <v>-3830611</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
@@ -12629,99 +12609,99 @@
       </c>
       <c r="H57" s="23">
         <f t="shared" si="1"/>
-        <v>-2368.3700000000008</v>
+        <v>0</v>
       </c>
       <c r="I57" s="23">
         <f t="shared" si="1"/>
-        <v>-2603510</v>
+        <v>0</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="1"/>
-        <v>4784780</v>
+        <v>0</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="1"/>
-        <v>4765760</v>
+        <v>-48000</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="1"/>
-        <v>-7579770</v>
+        <v>-23990520</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="1"/>
-        <v>-656200</v>
+        <v>-27010900</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="1"/>
-        <v>-9827100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" si="1"/>
-        <v>-10968240</v>
+        <v>-16421220</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" si="1"/>
-        <v>-14327300</v>
+        <v>-40604120</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" si="1"/>
-        <v>-9169810</v>
+        <v>-58616600</v>
       </c>
       <c r="R57" s="23">
         <f t="shared" si="1"/>
-        <v>-75596400</v>
+        <v>-24807400</v>
       </c>
       <c r="S57" s="23">
         <f t="shared" si="1"/>
-        <v>-82935400</v>
+        <v>3251300</v>
       </c>
       <c r="T57" s="23">
         <f t="shared" si="1"/>
-        <v>-112983700</v>
+        <v>11636100</v>
       </c>
       <c r="U57" s="23">
         <f t="shared" si="1"/>
-        <v>-106185180</v>
+        <v>-131759420</v>
       </c>
       <c r="V57" s="23">
         <f t="shared" si="1"/>
-        <v>-11303500</v>
+        <v>-38124460</v>
       </c>
       <c r="W57" s="23">
         <f t="shared" si="1"/>
-        <v>-117150700</v>
+        <v>-31544000</v>
       </c>
       <c r="X57" s="23">
         <f t="shared" si="1"/>
-        <v>-25162530</v>
+        <v>-81163300</v>
       </c>
       <c r="Y57" s="23">
         <f t="shared" si="1"/>
-        <v>-28068600</v>
+        <v>1159900</v>
       </c>
       <c r="Z57" s="23">
         <f t="shared" si="1"/>
-        <v>75985320</v>
+        <v>-37430500</v>
       </c>
       <c r="AA57" s="23">
         <f t="shared" si="1"/>
-        <v>-25384600</v>
+        <v>-43681000</v>
       </c>
       <c r="AB57" s="23">
         <f t="shared" si="1"/>
-        <v>-87927660</v>
+        <v>-44919000</v>
       </c>
       <c r="AC57" s="23">
         <f t="shared" si="1"/>
-        <v>-21759400</v>
+        <v>-112754820</v>
       </c>
       <c r="AD57" s="23">
         <f t="shared" si="1"/>
-        <v>-8031400</v>
+        <v>-110386950</v>
       </c>
       <c r="AE57" s="23">
         <f t="shared" si="1"/>
-        <v>15507560</v>
+        <v>23450760</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
@@ -12737,115 +12717,115 @@
       </c>
       <c r="D58" s="23">
         <f t="shared" si="1"/>
-        <v>-584470</v>
+        <v>0</v>
       </c>
       <c r="E58" s="23">
         <f t="shared" si="1"/>
-        <v>1300030</v>
+        <v>2581830</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="1"/>
-        <v>4385300</v>
+        <v>5173000</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="1"/>
-        <v>5866500</v>
+        <v>6836500</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="1"/>
-        <v>7062700</v>
+        <v>8450700</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="1"/>
-        <v>7830000</v>
+        <v>10060800</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>8448500</v>
+        <v>10772200</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="1"/>
-        <v>7393000</v>
+        <v>10772200</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="1"/>
-        <v>6574300</v>
+        <v>13382300</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="1"/>
-        <v>5943000</v>
+        <v>17054000</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="1"/>
-        <v>5692000</v>
+        <v>17618000</v>
       </c>
       <c r="O58" s="23">
         <f t="shared" si="1"/>
-        <v>4766000</v>
+        <v>18379000</v>
       </c>
       <c r="P58" s="23">
         <f t="shared" si="1"/>
-        <v>3907000</v>
+        <v>15163000</v>
       </c>
       <c r="Q58" s="23">
         <f t="shared" si="1"/>
-        <v>1189000</v>
+        <v>14448000</v>
       </c>
       <c r="R58" s="23">
         <f t="shared" si="1"/>
-        <v>-4042000</v>
+        <v>11572000</v>
       </c>
       <c r="S58" s="23">
         <f t="shared" si="1"/>
-        <v>-10909000</v>
+        <v>2737000</v>
       </c>
       <c r="T58" s="23">
         <f t="shared" si="1"/>
-        <v>-16671000</v>
+        <v>3233000</v>
       </c>
       <c r="U58" s="23">
         <f t="shared" si="1"/>
-        <v>-20560000</v>
+        <v>2865000</v>
       </c>
       <c r="V58" s="23">
         <f t="shared" si="1"/>
-        <v>-22486000</v>
+        <v>6745000</v>
       </c>
       <c r="W58" s="23">
         <f t="shared" si="1"/>
-        <v>-21090000</v>
+        <v>20275000</v>
       </c>
       <c r="X58" s="23">
         <f t="shared" si="1"/>
-        <v>-20677000</v>
+        <v>32210000</v>
       </c>
       <c r="Y58" s="23">
         <f t="shared" si="1"/>
-        <v>-21261000</v>
+        <v>37798000</v>
       </c>
       <c r="Z58" s="23">
         <f t="shared" si="1"/>
-        <v>-20644000</v>
+        <v>50487000</v>
       </c>
       <c r="AA58" s="23">
         <f t="shared" si="1"/>
-        <v>-21407000</v>
+        <v>65565000</v>
       </c>
       <c r="AB58" s="23">
         <f t="shared" si="1"/>
-        <v>-18496000</v>
+        <v>87845000</v>
       </c>
       <c r="AC58" s="23">
         <f t="shared" si="1"/>
-        <v>-13769000</v>
+        <v>102955000</v>
       </c>
       <c r="AD58" s="23">
         <f t="shared" si="1"/>
-        <v>-8948000</v>
+        <v>126725000</v>
       </c>
       <c r="AE58" s="23">
         <f t="shared" si="1"/>
-        <v>-4420000</v>
+        <v>152596000</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
@@ -12861,115 +12841,115 @@
       </c>
       <c r="D59" s="23">
         <f t="shared" si="1"/>
-        <v>-132156</v>
+        <v>55</v>
       </c>
       <c r="E59" s="23">
         <f t="shared" si="1"/>
-        <v>9166580</v>
+        <v>9492550</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
-        <v>19506270</v>
+        <v>19664350</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="1"/>
-        <v>28340750</v>
+        <v>28534640</v>
       </c>
       <c r="H59" s="23">
         <f t="shared" si="1"/>
-        <v>37903470</v>
+        <v>38226630</v>
       </c>
       <c r="I59" s="23">
         <f t="shared" si="1"/>
-        <v>48087700</v>
+        <v>48609000</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>59007000</v>
+        <v>55863400</v>
       </c>
       <c r="K59" s="23">
         <f t="shared" si="1"/>
-        <v>69209400</v>
+        <v>63271400</v>
       </c>
       <c r="L59" s="23">
         <f t="shared" si="1"/>
-        <v>70233800</v>
+        <v>65558700</v>
       </c>
       <c r="M59" s="23">
         <f t="shared" si="1"/>
-        <v>63869100</v>
+        <v>60266400</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="1"/>
-        <v>58725700</v>
+        <v>52155400</v>
       </c>
       <c r="O59" s="23">
         <f t="shared" si="1"/>
-        <v>56656500</v>
+        <v>48388400</v>
       </c>
       <c r="P59" s="23">
         <f t="shared" si="1"/>
-        <v>53507300</v>
+        <v>44390400</v>
       </c>
       <c r="Q59" s="23">
         <f t="shared" si="1"/>
-        <v>47831100</v>
+        <v>35750100</v>
       </c>
       <c r="R59" s="23">
         <f t="shared" si="1"/>
-        <v>43062600</v>
+        <v>26145000</v>
       </c>
       <c r="S59" s="23">
         <f t="shared" si="1"/>
-        <v>40665300</v>
+        <v>15732700</v>
       </c>
       <c r="T59" s="23">
         <f t="shared" si="1"/>
-        <v>39499300</v>
+        <v>7961100</v>
       </c>
       <c r="U59" s="23">
         <f t="shared" si="1"/>
-        <v>36674900</v>
+        <v>4377400</v>
       </c>
       <c r="V59" s="23">
         <f t="shared" si="1"/>
-        <v>31798600</v>
+        <v>-3018200</v>
       </c>
       <c r="W59" s="23">
         <f t="shared" si="1"/>
-        <v>26151400</v>
+        <v>-9000600</v>
       </c>
       <c r="X59" s="23">
         <f t="shared" si="1"/>
-        <v>22260800</v>
+        <v>-13488600</v>
       </c>
       <c r="Y59" s="23">
         <f t="shared" si="1"/>
-        <v>20910600</v>
+        <v>-16698300</v>
       </c>
       <c r="Z59" s="23">
         <f t="shared" si="1"/>
-        <v>21234100</v>
+        <v>-19663000</v>
       </c>
       <c r="AA59" s="23">
         <f t="shared" si="1"/>
-        <v>22557500</v>
+        <v>-26886100</v>
       </c>
       <c r="AB59" s="23">
         <f t="shared" si="1"/>
-        <v>21795900</v>
+        <v>-33787500</v>
       </c>
       <c r="AC59" s="23">
         <f t="shared" si="1"/>
-        <v>21359100</v>
+        <v>-30435600</v>
       </c>
       <c r="AD59" s="23">
         <f t="shared" si="1"/>
-        <v>22168700</v>
+        <v>-28664000</v>
       </c>
       <c r="AE59" s="23">
         <f t="shared" si="1"/>
-        <v>23499000</v>
+        <v>-29983000</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
@@ -13109,115 +13089,115 @@
       </c>
       <c r="D61" s="23">
         <f t="shared" si="1"/>
-        <v>-50036.1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="23">
         <f t="shared" si="1"/>
-        <v>-139058</v>
+        <v>0</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
-        <v>-139057</v>
+        <v>0</v>
       </c>
       <c r="G61" s="23">
         <f t="shared" si="1"/>
-        <v>-139058</v>
+        <v>0</v>
       </c>
       <c r="H61" s="23">
         <f t="shared" si="1"/>
-        <v>-208587</v>
+        <v>-69529</v>
       </c>
       <c r="I61" s="23">
         <f t="shared" si="1"/>
-        <v>-278115</v>
+        <v>-69525</v>
       </c>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
+        <v>-139060</v>
+      </c>
+      <c r="K61" s="23">
+        <f t="shared" si="1"/>
+        <v>-208590</v>
+      </c>
+      <c r="L61" s="23">
+        <f t="shared" si="1"/>
         <v>-347640</v>
       </c>
-      <c r="K61" s="23">
-        <f t="shared" si="1"/>
-        <v>-486710</v>
-      </c>
-      <c r="L61" s="23">
-        <f t="shared" si="1"/>
-        <v>-695290</v>
-      </c>
       <c r="M61" s="23">
         <f t="shared" si="1"/>
-        <v>-1042930</v>
+        <v>-556240</v>
       </c>
       <c r="N61" s="23">
         <f t="shared" si="1"/>
-        <v>-1390580</v>
+        <v>-903880</v>
       </c>
       <c r="O61" s="23">
         <f t="shared" si="1"/>
-        <v>-1738220</v>
+        <v>-1251520</v>
       </c>
       <c r="P61" s="23">
         <f t="shared" si="1"/>
-        <v>-2155400</v>
+        <v>-1599160</v>
       </c>
       <c r="Q61" s="23">
         <f t="shared" si="1"/>
-        <v>-2503040</v>
+        <v>-2016340</v>
       </c>
       <c r="R61" s="23">
         <f t="shared" si="1"/>
-        <v>-2850690</v>
+        <v>-2433510</v>
       </c>
       <c r="S61" s="23">
         <f t="shared" si="1"/>
-        <v>-4036540</v>
+        <v>-4409310</v>
       </c>
       <c r="T61" s="23">
         <f t="shared" si="1"/>
-        <v>-5269150.4000000004</v>
+        <v>-11425460</v>
       </c>
       <c r="U61" s="23">
         <f t="shared" si="1"/>
-        <v>-5588816</v>
+        <v>-14246720</v>
       </c>
       <c r="V61" s="23">
         <f t="shared" si="1"/>
-        <v>-6698099</v>
+        <v>-17441370</v>
       </c>
       <c r="W61" s="23">
         <f t="shared" si="1"/>
-        <v>-7960443</v>
+        <v>-22308210</v>
       </c>
       <c r="X61" s="23">
         <f t="shared" si="1"/>
-        <v>-7778370</v>
+        <v>-23306400</v>
       </c>
       <c r="Y61" s="23">
         <f t="shared" si="1"/>
-        <v>-7299410</v>
+        <v>-24350400</v>
       </c>
       <c r="Z61" s="23">
         <f t="shared" si="1"/>
-        <v>-6722820</v>
+        <v>-26421800</v>
       </c>
       <c r="AA61" s="23">
         <f t="shared" si="1"/>
-        <v>-7886520</v>
+        <v>-31861000</v>
       </c>
       <c r="AB61" s="23">
         <f t="shared" si="1"/>
-        <v>-9372510</v>
+        <v>-35963400</v>
       </c>
       <c r="AC61" s="23">
         <f t="shared" si="1"/>
-        <v>-9361790</v>
+        <v>-31145800</v>
       </c>
       <c r="AD61" s="23">
         <f t="shared" si="1"/>
-        <v>-7834030</v>
+        <v>-28515100</v>
       </c>
       <c r="AE61" s="23">
         <f t="shared" si="1"/>
-        <v>-5986258</v>
+        <v>-24635720</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
@@ -13309,39 +13289,39 @@
       </c>
       <c r="W62" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-643.70100000000002</v>
       </c>
       <c r="X62" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2195.81</v>
       </c>
       <c r="Y62" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4351.92</v>
       </c>
       <c r="Z62" s="23">
         <f t="shared" ref="Z62:AE62" si="2">Z37-Z12</f>
-        <v>0</v>
+        <v>-8456.76</v>
       </c>
       <c r="AA62" s="23">
         <f t="shared" si="2"/>
-        <v>-170.83799999999999</v>
+        <v>-18658.7</v>
       </c>
       <c r="AB62" s="23">
         <f t="shared" si="2"/>
-        <v>-2319.09</v>
+        <v>-36091.800000000003</v>
       </c>
       <c r="AC62" s="23">
         <f t="shared" si="2"/>
-        <v>-2441.16</v>
+        <v>-24648.1</v>
       </c>
       <c r="AD62" s="23">
         <f t="shared" si="2"/>
-        <v>-2568.6847000000002</v>
+        <v>-19197.0929</v>
       </c>
       <c r="AE62" s="23">
         <f t="shared" si="2"/>
-        <v>-1466.3900000000003</v>
+        <v>-34215</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
@@ -13373,99 +13353,99 @@
       </c>
       <c r="H63" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-19267.599999999999</v>
       </c>
       <c r="I63" s="23">
         <f t="shared" si="3"/>
-        <v>38535.199999999997</v>
+        <v>-57802.8</v>
       </c>
       <c r="J63" s="23">
         <f t="shared" si="3"/>
-        <v>19267</v>
+        <v>-38535.199999999997</v>
       </c>
       <c r="K63" s="23">
         <f t="shared" si="3"/>
-        <v>19268</v>
+        <v>-77070</v>
       </c>
       <c r="L63" s="23">
         <f t="shared" si="3"/>
-        <v>19270</v>
+        <v>-77073</v>
       </c>
       <c r="M63" s="23">
         <f t="shared" si="3"/>
-        <v>19270</v>
+        <v>-77070</v>
       </c>
       <c r="N63" s="23">
         <f t="shared" si="3"/>
-        <v>19270</v>
+        <v>-77070</v>
       </c>
       <c r="O63" s="23">
         <f t="shared" si="3"/>
-        <v>115610</v>
+        <v>-192680</v>
       </c>
       <c r="P63" s="23">
         <f t="shared" si="3"/>
-        <v>115610</v>
+        <v>-192680</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="3"/>
-        <v>115610</v>
+        <v>-192680</v>
       </c>
       <c r="R63" s="23">
         <f t="shared" si="3"/>
-        <v>115610</v>
+        <v>-192680</v>
       </c>
       <c r="S63" s="23">
         <f t="shared" si="3"/>
-        <v>115600</v>
+        <v>-192670</v>
       </c>
       <c r="T63" s="23">
         <f t="shared" si="3"/>
-        <v>115600</v>
+        <v>-192670</v>
       </c>
       <c r="U63" s="23">
         <f t="shared" si="3"/>
-        <v>115600</v>
+        <v>-192670</v>
       </c>
       <c r="V63" s="23">
         <f t="shared" si="3"/>
-        <v>366080</v>
+        <v>-616560</v>
       </c>
       <c r="W63" s="23">
         <f t="shared" si="3"/>
-        <v>366080</v>
+        <v>-616800</v>
       </c>
       <c r="X63" s="23">
         <f t="shared" si="3"/>
-        <v>366080</v>
+        <v>-617380</v>
       </c>
       <c r="Y63" s="23">
         <f t="shared" si="3"/>
-        <v>366080</v>
+        <v>-618200</v>
       </c>
       <c r="Z63" s="23">
         <f t="shared" si="3"/>
-        <v>346820</v>
+        <v>-677500</v>
       </c>
       <c r="AA63" s="23">
         <f t="shared" si="3"/>
-        <v>327490</v>
+        <v>-719750</v>
       </c>
       <c r="AB63" s="23">
         <f t="shared" si="3"/>
-        <v>326700</v>
+        <v>-898960</v>
       </c>
       <c r="AC63" s="23">
         <f t="shared" si="3"/>
-        <v>307410</v>
+        <v>-1183100</v>
       </c>
       <c r="AD63" s="23">
         <f t="shared" si="3"/>
-        <v>268850</v>
+        <v>-1469790</v>
       </c>
       <c r="AE63" s="23">
         <f t="shared" si="3"/>
-        <v>230450</v>
+        <v>-1626236</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
@@ -13601,119 +13581,119 @@
       </c>
       <c r="C65" s="23">
         <f t="shared" si="3"/>
-        <v>2561.21</v>
+        <v>0</v>
       </c>
       <c r="D65" s="23">
         <f t="shared" si="3"/>
-        <v>4153.59</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="E65" s="23">
         <f t="shared" si="3"/>
-        <v>-9641.7799999999988</v>
+        <v>-5179.0599999999995</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="3"/>
-        <v>-7098.4529999999995</v>
+        <v>-6351.9989999999998</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="3"/>
-        <v>-476890</v>
+        <v>-367940</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="3"/>
-        <v>-4189450</v>
+        <v>-3878180</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="3"/>
-        <v>-9687200</v>
+        <v>-9460100</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="3"/>
-        <v>-10628800</v>
+        <v>-14441060</v>
       </c>
       <c r="K65" s="23">
         <f t="shared" si="3"/>
-        <v>10466900</v>
+        <v>-13135900</v>
       </c>
       <c r="L65" s="23">
         <f t="shared" si="3"/>
-        <v>27723000</v>
+        <v>-13491400</v>
       </c>
       <c r="M65" s="23">
         <f t="shared" si="3"/>
-        <v>18940000</v>
+        <v>-12606000</v>
       </c>
       <c r="N65" s="23">
         <f t="shared" si="3"/>
-        <v>8420000</v>
+        <v>-9614000</v>
       </c>
       <c r="O65" s="23">
         <f t="shared" si="3"/>
-        <v>4394000</v>
+        <v>-5034000</v>
       </c>
       <c r="P65" s="23">
         <f t="shared" si="3"/>
-        <v>2109000</v>
+        <v>-2234000</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="3"/>
-        <v>897600</v>
+        <v>-754100</v>
       </c>
       <c r="R65" s="23">
         <f t="shared" si="3"/>
-        <v>511300</v>
+        <v>-640800</v>
       </c>
       <c r="S65" s="23">
         <f t="shared" si="3"/>
-        <v>69100</v>
+        <v>-303400</v>
       </c>
       <c r="T65" s="23">
         <f t="shared" si="3"/>
-        <v>-138300</v>
+        <v>-20700</v>
       </c>
       <c r="U65" s="23">
         <f t="shared" si="3"/>
-        <v>-128500</v>
+        <v>0</v>
       </c>
       <c r="V65" s="23">
         <f t="shared" si="3"/>
-        <v>-35200</v>
+        <v>0</v>
       </c>
       <c r="W65" s="23">
         <f t="shared" si="3"/>
-        <v>-31900</v>
+        <v>0</v>
       </c>
       <c r="X65" s="23">
         <f t="shared" si="3"/>
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="23">
         <f t="shared" si="3"/>
-        <v>-59000</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="23">
         <f t="shared" si="3"/>
-        <v>33350</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="23">
         <f t="shared" si="3"/>
-        <v>-15840</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="23">
         <f t="shared" si="3"/>
-        <v>-133530</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="23">
         <f t="shared" si="3"/>
-        <v>-73830</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="23">
         <f t="shared" si="3"/>
-        <v>-25460</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="23">
         <f t="shared" si="3"/>
-        <v>-138890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
@@ -13729,115 +13709,115 @@
       </c>
       <c r="D66" s="23">
         <f t="shared" si="3"/>
-        <v>-73381</v>
+        <v>0</v>
       </c>
       <c r="E66" s="23">
         <f t="shared" si="3"/>
-        <v>5328890</v>
+        <v>5575190</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="3"/>
-        <v>11607060</v>
+        <v>11678750</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" si="3"/>
-        <v>19439160</v>
+        <v>19585880</v>
       </c>
       <c r="H66" s="23">
         <f t="shared" si="3"/>
-        <v>28033040</v>
+        <v>28332360</v>
       </c>
       <c r="I66" s="23">
         <f t="shared" si="3"/>
-        <v>37316900</v>
+        <v>37922300</v>
       </c>
       <c r="J66" s="23">
         <f t="shared" si="3"/>
-        <v>47583600</v>
+        <v>45032000</v>
       </c>
       <c r="K66" s="23">
         <f t="shared" si="3"/>
-        <v>57095200</v>
+        <v>52776300</v>
       </c>
       <c r="L66" s="23">
         <f t="shared" si="3"/>
-        <v>65031400</v>
+        <v>61414200</v>
       </c>
       <c r="M66" s="23">
         <f t="shared" si="3"/>
-        <v>76174500</v>
+        <v>74194200</v>
       </c>
       <c r="N66" s="23">
         <f t="shared" si="3"/>
-        <v>87114000</v>
+        <v>85368100</v>
       </c>
       <c r="O66" s="23">
         <f t="shared" si="3"/>
-        <v>97910200</v>
+        <v>96348400</v>
       </c>
       <c r="P66" s="23">
         <f t="shared" si="3"/>
-        <v>110231500</v>
+        <v>105254700</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="3"/>
-        <v>122841600</v>
+        <v>119246200</v>
       </c>
       <c r="R66" s="23">
         <f t="shared" si="3"/>
-        <v>136643000</v>
+        <v>134826000</v>
       </c>
       <c r="S66" s="23">
         <f t="shared" si="3"/>
-        <v>147814000</v>
+        <v>150789000</v>
       </c>
       <c r="T66" s="23">
         <f t="shared" si="3"/>
-        <v>154982000</v>
+        <v>164051000</v>
       </c>
       <c r="U66" s="23">
         <f t="shared" si="3"/>
-        <v>162211000</v>
+        <v>169627000</v>
       </c>
       <c r="V66" s="23">
         <f t="shared" si="3"/>
-        <v>169263000</v>
+        <v>172723000</v>
       </c>
       <c r="W66" s="23">
         <f t="shared" si="3"/>
-        <v>175157000</v>
+        <v>171882000</v>
       </c>
       <c r="X66" s="23">
         <f t="shared" si="3"/>
-        <v>181369000</v>
+        <v>172150000</v>
       </c>
       <c r="Y66" s="23">
         <f t="shared" si="3"/>
-        <v>186494000</v>
+        <v>167841000</v>
       </c>
       <c r="Z66" s="23">
         <f t="shared" si="3"/>
-        <v>192092000</v>
+        <v>156518000</v>
       </c>
       <c r="AA66" s="23">
         <f t="shared" si="3"/>
-        <v>194531000</v>
+        <v>151283000</v>
       </c>
       <c r="AB66" s="23">
         <f t="shared" si="3"/>
-        <v>190834000</v>
+        <v>139332000</v>
       </c>
       <c r="AC66" s="23">
         <f t="shared" si="3"/>
-        <v>187997000</v>
+        <v>131329000</v>
       </c>
       <c r="AD66" s="23">
         <f t="shared" si="3"/>
-        <v>181755000</v>
+        <v>115750000</v>
       </c>
       <c r="AE66" s="23">
         <f t="shared" si="3"/>
-        <v>179760000</v>
+        <v>95495000</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
@@ -13853,11 +13833,11 @@
       </c>
       <c r="D67" s="23">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E67" s="23">
         <f t="shared" si="3"/>
-        <v>-86586</v>
+        <v>-18</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="3"/>
@@ -13865,103 +13845,103 @@
       </c>
       <c r="G67" s="23">
         <f t="shared" si="3"/>
-        <v>-173286</v>
+        <v>-173277</v>
       </c>
       <c r="H67" s="23">
         <f t="shared" si="3"/>
-        <v>-173953</v>
+        <v>-260481</v>
       </c>
       <c r="I67" s="23">
         <f t="shared" si="3"/>
-        <v>-177630</v>
+        <v>-261752</v>
       </c>
       <c r="J67" s="23">
         <f t="shared" si="3"/>
-        <v>-195215</v>
+        <v>-368804</v>
       </c>
       <c r="K67" s="23">
         <f t="shared" si="3"/>
-        <v>-247342</v>
+        <v>-438199</v>
       </c>
       <c r="L67" s="23">
         <f t="shared" si="3"/>
-        <v>-277016</v>
+        <v>-529291</v>
       </c>
       <c r="M67" s="23">
         <f t="shared" si="3"/>
-        <v>-235572</v>
+        <v>-606784</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="3"/>
-        <v>-202910</v>
+        <v>-594119</v>
       </c>
       <c r="O67" s="23">
         <f t="shared" si="3"/>
-        <v>-169854</v>
+        <v>-553013</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" si="3"/>
-        <v>-130274</v>
+        <v>-722098</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="3"/>
-        <v>-191591.3</v>
+        <v>-538768.9</v>
       </c>
       <c r="R67" s="23">
         <f t="shared" si="3"/>
-        <v>-196235.57</v>
+        <v>-619497</v>
       </c>
       <c r="S67" s="23">
         <f t="shared" si="3"/>
-        <v>-131340</v>
+        <v>-705273</v>
       </c>
       <c r="T67" s="23">
         <f t="shared" si="3"/>
-        <v>-131480</v>
+        <v>-1099046</v>
       </c>
       <c r="U67" s="23">
         <f t="shared" si="3"/>
-        <v>-115798</v>
+        <v>-825569</v>
       </c>
       <c r="V67" s="23">
         <f t="shared" si="3"/>
-        <v>-137720</v>
+        <v>-360265</v>
       </c>
       <c r="W67" s="23">
         <f t="shared" si="3"/>
-        <v>-139050</v>
+        <v>-279597</v>
       </c>
       <c r="X67" s="23">
         <f t="shared" si="3"/>
-        <v>-149745</v>
+        <v>-286498</v>
       </c>
       <c r="Y67" s="23">
         <f t="shared" si="3"/>
-        <v>-142740</v>
+        <v>-277105</v>
       </c>
       <c r="Z67" s="23">
         <f t="shared" si="3"/>
-        <v>-122825</v>
+        <v>-237147</v>
       </c>
       <c r="AA67" s="23">
         <f t="shared" si="3"/>
-        <v>-140191</v>
+        <v>-241622</v>
       </c>
       <c r="AB67" s="23">
         <f t="shared" si="3"/>
-        <v>-139474</v>
+        <v>-200553</v>
       </c>
       <c r="AC67" s="23">
         <f t="shared" si="3"/>
-        <v>-154613</v>
+        <v>-170152</v>
       </c>
       <c r="AD67" s="23">
         <f t="shared" si="3"/>
-        <v>-133292</v>
+        <v>-124071</v>
       </c>
       <c r="AE67" s="23">
         <f t="shared" si="3"/>
-        <v>-178450</v>
+        <v>-122188</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
@@ -14141,75 +14121,75 @@
       </c>
       <c r="N69" s="23">
         <f t="shared" si="3"/>
-        <v>100102</v>
+        <v>-100103</v>
       </c>
       <c r="O69" s="23">
         <f t="shared" si="3"/>
-        <v>200200</v>
+        <v>-200210</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" si="3"/>
-        <v>350360</v>
+        <v>-850870</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="3"/>
-        <v>450460</v>
+        <v>-1451490</v>
       </c>
       <c r="R69" s="23">
         <f t="shared" si="3"/>
-        <v>550560</v>
+        <v>-2002050</v>
       </c>
       <c r="S69" s="23">
         <f t="shared" si="3"/>
-        <v>553420</v>
+        <v>-2134540</v>
       </c>
       <c r="T69" s="23">
         <f t="shared" si="3"/>
-        <v>651060</v>
+        <v>-2586340</v>
       </c>
       <c r="U69" s="23">
         <f t="shared" si="3"/>
-        <v>858480</v>
+        <v>-2865530</v>
       </c>
       <c r="V69" s="23">
         <f t="shared" si="3"/>
-        <v>1045180</v>
+        <v>-3049940</v>
       </c>
       <c r="W69" s="23">
         <f t="shared" si="3"/>
-        <v>1136780</v>
+        <v>-3159040</v>
       </c>
       <c r="X69" s="23">
         <f t="shared" si="3"/>
-        <v>1179380</v>
+        <v>-3128620</v>
       </c>
       <c r="Y69" s="23">
         <f t="shared" si="3"/>
-        <v>-260</v>
+        <v>-2461990</v>
       </c>
       <c r="Z69" s="23">
         <f t="shared" si="3"/>
-        <v>1830</v>
+        <v>-815300</v>
       </c>
       <c r="AA69" s="23">
         <f t="shared" si="3"/>
-        <v>2640</v>
+        <v>-5640</v>
       </c>
       <c r="AB69" s="23">
         <f t="shared" si="3"/>
-        <v>2090</v>
+        <v>-6580</v>
       </c>
       <c r="AC69" s="23">
         <f t="shared" si="3"/>
-        <v>-37680</v>
+        <v>-5520</v>
       </c>
       <c r="AD69" s="23">
         <f t="shared" si="3"/>
-        <v>-35380</v>
+        <v>-4950</v>
       </c>
       <c r="AE69" s="23">
         <f t="shared" si="3"/>
-        <v>-42120</v>
+        <v>-4240</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -14737,99 +14717,99 @@
       </c>
       <c r="H74" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-119601</v>
       </c>
       <c r="I74" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-119601</v>
       </c>
       <c r="J74" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-119601</v>
       </c>
       <c r="K74" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-119601</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>-14927</v>
+        <v>-124633</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
-        <v>-14368.55</v>
+        <v>-130563</v>
       </c>
       <c r="N74" s="23">
         <f t="shared" si="5"/>
-        <v>-16701.399999999998</v>
+        <v>-126693.75</v>
       </c>
       <c r="O74" s="23">
         <f t="shared" si="5"/>
-        <v>-16701.440000000002</v>
+        <v>-357176</v>
       </c>
       <c r="P74" s="23">
         <f t="shared" si="5"/>
-        <v>-11838.24</v>
+        <v>-357176</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="5"/>
-        <v>-9530.59</v>
+        <v>-349526</v>
       </c>
       <c r="R74" s="23">
         <f t="shared" si="5"/>
-        <v>-12439.199999999999</v>
+        <v>-340162</v>
       </c>
       <c r="S74" s="23">
         <f t="shared" si="5"/>
-        <v>-10912.100000000002</v>
+        <v>-314599</v>
       </c>
       <c r="T74" s="23">
         <f t="shared" si="5"/>
-        <v>-10916.399999999994</v>
+        <v>-288624</v>
       </c>
       <c r="U74" s="23">
         <f t="shared" si="5"/>
-        <v>-14049.699999999999</v>
+        <v>-288441</v>
       </c>
       <c r="V74" s="23">
         <f t="shared" si="5"/>
-        <v>-17965.329999999998</v>
+        <v>-279246</v>
       </c>
       <c r="W74" s="23">
         <f t="shared" si="5"/>
-        <v>-10183.799999999999</v>
+        <v>-268883</v>
       </c>
       <c r="X74" s="23">
         <f t="shared" si="5"/>
-        <v>-11750.3</v>
+        <v>-264183</v>
       </c>
       <c r="Y74" s="23">
         <f t="shared" si="5"/>
-        <v>-8028.1</v>
+        <v>-261454</v>
       </c>
       <c r="Z74" s="23">
         <f t="shared" si="5"/>
-        <v>-18123.52</v>
+        <v>-256319</v>
       </c>
       <c r="AA74" s="23">
         <f t="shared" si="5"/>
-        <v>-28490.480000000003</v>
+        <v>-250366</v>
       </c>
       <c r="AB74" s="23">
         <f t="shared" si="5"/>
-        <v>-15680.36</v>
+        <v>-205531</v>
       </c>
       <c r="AC74" s="23">
         <f t="shared" si="5"/>
-        <v>-25013.48</v>
+        <v>-219955</v>
       </c>
       <c r="AD74" s="23">
         <f t="shared" si="5"/>
-        <v>-12118.83</v>
+        <v>-218059.2</v>
       </c>
       <c r="AE74" s="23">
         <f t="shared" si="5"/>
-        <v>-2117.7000000000007</v>
+        <v>-237619</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
@@ -15085,120 +15065,120 @@
         <v>89</v>
       </c>
       <c r="C77" s="23">
-        <f>SUM(C58,C59,C66)</f>
+        <f>SUM(C58,C59,C66,C62)</f>
         <v>31.174099999999999</v>
       </c>
       <c r="D77" s="23">
-        <f t="shared" ref="D77:AE77" si="6">SUM(D58,D59,D66)</f>
-        <v>-790007</v>
+        <f t="shared" ref="D77:AE77" si="6">SUM(D58,D59,D66,D62)</f>
+        <v>55</v>
       </c>
       <c r="E77" s="23">
         <f t="shared" si="6"/>
-        <v>15795500</v>
+        <v>17649570</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="6"/>
-        <v>35498630</v>
+        <v>36516100</v>
       </c>
       <c r="G77" s="23">
         <f t="shared" si="6"/>
-        <v>53646410</v>
+        <v>54957020</v>
       </c>
       <c r="H77" s="23">
         <f t="shared" si="6"/>
-        <v>72999210</v>
+        <v>75009690</v>
       </c>
       <c r="I77" s="23">
         <f t="shared" si="6"/>
-        <v>93234600</v>
+        <v>96592100</v>
       </c>
       <c r="J77" s="23">
         <f t="shared" si="6"/>
-        <v>115039100</v>
+        <v>111667600</v>
       </c>
       <c r="K77" s="23">
         <f t="shared" si="6"/>
-        <v>133697600</v>
+        <v>126819900</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="6"/>
-        <v>141839500</v>
+        <v>140355200</v>
       </c>
       <c r="M77" s="23">
         <f t="shared" si="6"/>
-        <v>145986600</v>
+        <v>151514600</v>
       </c>
       <c r="N77" s="23">
         <f t="shared" si="6"/>
-        <v>151531700</v>
+        <v>155141500</v>
       </c>
       <c r="O77" s="23">
         <f t="shared" si="6"/>
-        <v>159332700</v>
+        <v>163115800</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" si="6"/>
-        <v>167645800</v>
+        <v>164808100</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="6"/>
-        <v>171861700</v>
+        <v>169444300</v>
       </c>
       <c r="R77" s="23">
         <f t="shared" si="6"/>
-        <v>175663600</v>
+        <v>172543000</v>
       </c>
       <c r="S77" s="23">
         <f t="shared" si="6"/>
-        <v>177570300</v>
+        <v>169258700</v>
       </c>
       <c r="T77" s="23">
         <f t="shared" si="6"/>
-        <v>177810300</v>
+        <v>175245100</v>
       </c>
       <c r="U77" s="23">
         <f t="shared" si="6"/>
-        <v>178325900</v>
+        <v>176869400</v>
       </c>
       <c r="V77" s="23">
         <f t="shared" si="6"/>
-        <v>178575600</v>
+        <v>176449800</v>
       </c>
       <c r="W77" s="23">
         <f t="shared" si="6"/>
-        <v>180218400</v>
+        <v>183155756.29899999</v>
       </c>
       <c r="X77" s="23">
         <f t="shared" si="6"/>
-        <v>182952800</v>
+        <v>190869204.19</v>
       </c>
       <c r="Y77" s="23">
         <f t="shared" si="6"/>
-        <v>186143600</v>
+        <v>188936348.08000001</v>
       </c>
       <c r="Z77" s="23">
         <f t="shared" si="6"/>
-        <v>192682100</v>
+        <v>187333543.24000001</v>
       </c>
       <c r="AA77" s="23">
         <f t="shared" si="6"/>
-        <v>195681500</v>
+        <v>189943241.30000001</v>
       </c>
       <c r="AB77" s="23">
         <f t="shared" si="6"/>
-        <v>194133900</v>
+        <v>193353408.19999999</v>
       </c>
       <c r="AC77" s="23">
         <f t="shared" si="6"/>
-        <v>195587100</v>
+        <v>203823751.90000001</v>
       </c>
       <c r="AD77" s="23">
         <f t="shared" si="6"/>
-        <v>194975700</v>
+        <v>213791802.90709999</v>
       </c>
       <c r="AE77" s="23">
         <f t="shared" si="6"/>
-        <v>198839000</v>
+        <v>218073785</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
@@ -20136,7 +20116,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20929,11 +20909,11 @@
       </c>
       <c r="K7" s="18">
         <f>'Hydrogen Calculations'!I34</f>
-        <v>621.12239999999997</v>
+        <v>300</v>
       </c>
       <c r="L7" s="18">
         <f>'Hydrogen Calculations'!J34</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M7" s="18">
         <f>'Hydrogen Calculations'!K34</f>
@@ -20953,55 +20933,55 @@
       </c>
       <c r="Q7" s="18">
         <f>'Hydrogen Calculations'!O34</f>
-        <v>3074.7250377399182</v>
+        <v>1229.8900150959673</v>
       </c>
       <c r="R7" s="18">
         <f>'Hydrogen Calculations'!P34</f>
-        <v>2494.0549186883495</v>
+        <v>3741.0823780325245</v>
       </c>
       <c r="S7" s="18">
         <f>'Hydrogen Calculations'!Q34</f>
-        <v>2510.4864132558682</v>
+        <v>3765.7296198838026</v>
       </c>
       <c r="T7" s="18">
         <f>'Hydrogen Calculations'!R34</f>
-        <v>2490.8394403730845</v>
+        <v>7472.5183211192543</v>
       </c>
       <c r="U7" s="18">
         <f>'Hydrogen Calculations'!S34</f>
-        <v>0</v>
+        <v>9695.8113491978038</v>
       </c>
       <c r="V7" s="18">
         <f>'Hydrogen Calculations'!T34</f>
-        <v>2596.7776128895484</v>
+        <v>14282.276870892516</v>
       </c>
       <c r="W7" s="18">
         <f>'Hydrogen Calculations'!U34</f>
-        <v>4290.966863368134</v>
+        <v>19309.350885156604</v>
       </c>
       <c r="X7" s="18">
         <f>'Hydrogen Calculations'!V34</f>
-        <v>6281.3203300825207</v>
+        <v>25823.20580145036</v>
       </c>
       <c r="Y7" s="18">
         <f>'Hydrogen Calculations'!W34</f>
-        <v>4901.4386560629082</v>
+        <v>28008.220891788045</v>
       </c>
       <c r="Z7" s="18">
         <f>'Hydrogen Calculations'!X34</f>
-        <v>3210.1276330808346</v>
+        <v>26483.552972916885</v>
       </c>
       <c r="AA7" s="18">
         <f>'Hydrogen Calculations'!Y34</f>
-        <v>3214.6141114448601</v>
+        <v>31342.487586587387</v>
       </c>
       <c r="AB7" s="18">
         <f>'Hydrogen Calculations'!Z34</f>
-        <v>6844.5262189512423</v>
+        <v>34222.631094756209</v>
       </c>
       <c r="AC7" s="18">
         <f>'Hydrogen Calculations'!AA34</f>
-        <v>12742.382271468145</v>
+        <v>33130.193905817177</v>
       </c>
       <c r="AD7" s="18">
         <f>'Hydrogen Calculations'!AB34</f>
@@ -21009,11 +20989,11 @@
       </c>
       <c r="AE7" s="18">
         <f>'Hydrogen Calculations'!AC34</f>
-        <v>10653.799758745476</v>
+        <v>13317.249698431846</v>
       </c>
       <c r="AF7" s="18">
         <f>'Hydrogen Calculations'!AD34</f>
-        <v>4345.2380952380954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -21058,11 +21038,11 @@
       </c>
       <c r="K8" s="18">
         <f>'Hydrogen Calculations'!I36</f>
-        <v>4185.9983999999995</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="18">
         <f>'Hydrogen Calculations'!J36</f>
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="18">
         <f>'Hydrogen Calculations'!K36</f>
@@ -21082,55 +21062,55 @@
       </c>
       <c r="Q8" s="18">
         <f>'Hydrogen Calculations'!O36</f>
-        <v>408.39982747466036</v>
+        <v>163.35993098986415</v>
       </c>
       <c r="R8" s="18">
         <f>'Hydrogen Calculations'!P36</f>
-        <v>336.97680618501738</v>
+        <v>505.46520927752601</v>
       </c>
       <c r="S8" s="18">
         <f>'Hydrogen Calculations'!Q36</f>
-        <v>344.42331240392883</v>
+        <v>516.63496860589328</v>
       </c>
       <c r="T8" s="18">
         <f>'Hydrogen Calculations'!R36</f>
-        <v>340.3980679546969</v>
+        <v>1021.1942038640907</v>
       </c>
       <c r="U8" s="18">
         <f>'Hydrogen Calculations'!S36</f>
-        <v>0</v>
+        <v>1336.5457090556692</v>
       </c>
       <c r="V8" s="18">
         <f>'Hydrogen Calculations'!T36</f>
-        <v>363.57854568581729</v>
+        <v>1999.682001271995</v>
       </c>
       <c r="W8" s="18">
         <f>'Hydrogen Calculations'!U36</f>
-        <v>537.90285973672269</v>
+        <v>2420.5628688152519</v>
       </c>
       <c r="X8" s="18">
         <f>'Hydrogen Calculations'!V36</f>
-        <v>752.06301575393854</v>
+        <v>3091.8146203217475</v>
       </c>
       <c r="Y8" s="18">
         <f>'Hydrogen Calculations'!W36</f>
-        <v>603.61004378518453</v>
+        <v>3449.2002502010546</v>
       </c>
       <c r="Z8" s="18">
         <f>'Hydrogen Calculations'!X36</f>
-        <v>419.2175988378126</v>
+        <v>3458.5451904119541</v>
       </c>
       <c r="AA8" s="18">
         <f>'Hydrogen Calculations'!Y36</f>
-        <v>420.52350885796602</v>
+        <v>4100.1042113651683</v>
       </c>
       <c r="AB8" s="18">
         <f>'Hydrogen Calculations'!Z36</f>
-        <v>570.37718491260352</v>
+        <v>2851.8859245630174</v>
       </c>
       <c r="AC8" s="18">
         <f>'Hydrogen Calculations'!AA36</f>
-        <v>821.79132040627894</v>
+        <v>2136.6574330563253</v>
       </c>
       <c r="AD8" s="18">
         <f>'Hydrogen Calculations'!AB36</f>
@@ -21138,11 +21118,11 @@
       </c>
       <c r="AE8" s="18">
         <f>'Hydrogen Calculations'!AC36</f>
-        <v>627.26176115802173</v>
+        <v>784.07720144752705</v>
       </c>
       <c r="AF8" s="18">
         <f>'Hydrogen Calculations'!AD36</f>
-        <v>396.82539682539681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -21424,112 +21404,112 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>BPMCCS!F11</f>
-        <v>0</v>
+        <f>BPMCCS!F11+'Hydrogen Calculations'!D37</f>
+        <v>218.35000000000002</v>
       </c>
       <c r="G11">
-        <f>BPMCCS!G11</f>
-        <v>0</v>
+        <f>BPMCCS!G11+'Hydrogen Calculations'!E37</f>
+        <v>218.35000000000002</v>
       </c>
       <c r="H11">
-        <f>BPMCCS!H11</f>
-        <v>0</v>
+        <f>BPMCCS!H11+'Hydrogen Calculations'!F37</f>
+        <v>152.5728</v>
       </c>
       <c r="I11">
-        <f>BPMCCS!I11</f>
-        <v>0</v>
+        <f>BPMCCS!I11+'Hydrogen Calculations'!G37</f>
+        <v>152.5728</v>
       </c>
       <c r="J11">
-        <f>BPMCCS!J11</f>
-        <v>0</v>
+        <f>BPMCCS!J11+'Hydrogen Calculations'!H37</f>
+        <v>152.5728</v>
       </c>
       <c r="K11">
-        <f>BPMCCS!K11</f>
-        <v>0</v>
+        <f>BPMCCS!K11+'Hydrogen Calculations'!I37</f>
+        <v>100</v>
       </c>
       <c r="L11">
-        <f>BPMCCS!L11</f>
-        <v>0</v>
+        <f>BPMCCS!L11+'Hydrogen Calculations'!J37</f>
+        <v>100</v>
       </c>
       <c r="M11">
-        <f>BPMCCS!M11</f>
-        <v>0</v>
+        <f>BPMCCS!M11+'Hydrogen Calculations'!K37</f>
+        <v>100</v>
       </c>
       <c r="N11">
-        <f>BPMCCS!N11</f>
-        <v>0</v>
+        <f>BPMCCS!N11+'Hydrogen Calculations'!L37</f>
+        <v>100</v>
       </c>
       <c r="O11">
-        <f>BPMCCS!O11</f>
-        <v>0</v>
+        <f>BPMCCS!O11+'Hydrogen Calculations'!M37</f>
+        <v>100</v>
       </c>
       <c r="P11">
-        <f>BPMCCS!P11</f>
-        <v>0</v>
+        <f>BPMCCS!P11+'Hydrogen Calculations'!N37</f>
+        <v>100</v>
       </c>
       <c r="Q11">
-        <f>BPMCCS!Q11</f>
-        <v>0</v>
+        <f>BPMCCS!Q11+'Hydrogen Calculations'!O37</f>
+        <v>200</v>
       </c>
       <c r="R11">
-        <f>BPMCCS!R11</f>
-        <v>0</v>
+        <f>BPMCCS!R11+'Hydrogen Calculations'!P37</f>
+        <v>200</v>
       </c>
       <c r="S11">
-        <f>BPMCCS!S11</f>
-        <v>0</v>
+        <f>BPMCCS!S11+'Hydrogen Calculations'!Q37</f>
+        <v>200</v>
       </c>
       <c r="T11">
-        <f>BPMCCS!T11</f>
-        <v>0</v>
+        <f>BPMCCS!T11+'Hydrogen Calculations'!R37</f>
+        <v>200</v>
       </c>
       <c r="U11">
-        <f>BPMCCS!U11</f>
-        <v>0</v>
+        <f>BPMCCS!U11+'Hydrogen Calculations'!S37</f>
+        <v>200</v>
       </c>
       <c r="V11">
-        <f>BPMCCS!V11</f>
-        <v>0</v>
+        <f>BPMCCS!V11+'Hydrogen Calculations'!T37</f>
+        <v>300</v>
       </c>
       <c r="W11">
-        <f>BPMCCS!W11</f>
-        <v>0</v>
+        <f>BPMCCS!W11+'Hydrogen Calculations'!U37</f>
+        <v>300</v>
       </c>
       <c r="X11">
-        <f>BPMCCS!X11</f>
-        <v>0</v>
+        <f>BPMCCS!X11+'Hydrogen Calculations'!V37</f>
+        <v>300</v>
       </c>
       <c r="Y11">
-        <f>BPMCCS!Y11</f>
-        <v>0</v>
+        <f>BPMCCS!Y11+'Hydrogen Calculations'!W37</f>
+        <v>300</v>
       </c>
       <c r="Z11">
-        <f>BPMCCS!Z11</f>
-        <v>0</v>
+        <f>BPMCCS!Z11+'Hydrogen Calculations'!X37</f>
+        <v>300</v>
       </c>
       <c r="AA11">
-        <f>BPMCCS!AA11</f>
-        <v>0</v>
+        <f>BPMCCS!AA11+'Hydrogen Calculations'!Y37</f>
+        <v>300</v>
       </c>
       <c r="AB11">
-        <f>BPMCCS!AB11</f>
-        <v>0</v>
+        <f>BPMCCS!AB11+'Hydrogen Calculations'!Z37</f>
+        <v>300</v>
       </c>
       <c r="AC11">
-        <f>BPMCCS!AC11</f>
-        <v>0</v>
+        <f>BPMCCS!AC11+'Hydrogen Calculations'!AA37</f>
+        <v>300</v>
       </c>
       <c r="AD11">
-        <f>BPMCCS!AD11</f>
-        <v>0</v>
+        <f>BPMCCS!AD11+'Hydrogen Calculations'!AB37</f>
+        <v>300</v>
       </c>
       <c r="AE11">
-        <f>BPMCCS!AE11</f>
-        <v>0</v>
+        <f>BPMCCS!AE11+'Hydrogen Calculations'!AC37</f>
+        <v>300</v>
       </c>
       <c r="AF11">
-        <f>BPMCCS!AF11</f>
-        <v>0</v>
+        <f>BPMCCS!AF11+'Hydrogen Calculations'!AD37</f>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -21961,11 +21941,11 @@
       </c>
       <c r="K15" s="26">
         <f>BPMCCS!K15+'Hydrogen Calculations'!I35</f>
-        <v>3846.9863999999998</v>
+        <v>3157</v>
       </c>
       <c r="L15" s="26">
         <f>BPMCCS!L15+'Hydrogen Calculations'!J35</f>
-        <v>3557</v>
+        <v>3157</v>
       </c>
       <c r="M15" s="18">
         <f>BPMCCS!M15+'Hydrogen Calculations'!K35</f>
@@ -21985,55 +21965,55 @@
       </c>
       <c r="Q15" s="18">
         <f>BPMCCS!Q15+'Hydrogen Calculations'!O35</f>
-        <v>1356.7500539141686</v>
+        <v>542.70002156566738</v>
       </c>
       <c r="R15" s="18">
         <f>BPMCCS!R15+'Hydrogen Calculations'!P35</f>
-        <v>1051.8794988003199</v>
+        <v>1577.8192482004799</v>
       </c>
       <c r="S15" s="18">
         <f>BPMCCS!S15+'Hydrogen Calculations'!Q35</f>
-        <v>1041.9195998228383</v>
+        <v>1562.8793997342575</v>
       </c>
       <c r="T15" s="18">
         <f>BPMCCS!T15+'Hydrogen Calculations'!R35</f>
-        <v>825.0749500333111</v>
+        <v>2475.2248500999335</v>
       </c>
       <c r="U15" s="18">
         <f>BPMCCS!U15+'Hydrogen Calculations'!S35</f>
-        <v>0</v>
+        <v>2762.7328523742867</v>
       </c>
       <c r="V15" s="18">
         <f>BPMCCS!V15+'Hydrogen Calculations'!T35</f>
-        <v>642.14543141827426</v>
+        <v>3531.7998728005086</v>
       </c>
       <c r="W15" s="18">
         <f>BPMCCS!W15+'Hydrogen Calculations'!U35</f>
-        <v>806.17339990921471</v>
+        <v>3627.7802995914658</v>
       </c>
       <c r="X15" s="18">
         <f>BPMCCS!X15+'Hydrogen Calculations'!V35</f>
-        <v>879.9699924981245</v>
+        <v>3617.6544136034008</v>
       </c>
       <c r="Y15" s="18">
         <f>BPMCCS!Y15+'Hydrogen Calculations'!W35</f>
-        <v>679.29586274685016</v>
+        <v>3881.690644267715</v>
       </c>
       <c r="Z15" s="18">
         <f>BPMCCS!Z15+'Hydrogen Calculations'!X35</f>
-        <v>370.6547680813531</v>
+        <v>3057.901836671163</v>
       </c>
       <c r="AA15" s="18">
         <f>BPMCCS!AA15+'Hydrogen Calculations'!Y35</f>
-        <v>200.5762275485809</v>
+        <v>1955.6182185986638</v>
       </c>
       <c r="AB15" s="18">
         <f>BPMCCS!AB15+'Hydrogen Calculations'!Z35</f>
-        <v>585.09659613615452</v>
+        <v>2925.4829806807725</v>
       </c>
       <c r="AC15" s="18">
         <f>BPMCCS!AC15+'Hydrogen Calculations'!AA35</f>
-        <v>716.52816251154206</v>
+        <v>1862.9732225300093</v>
       </c>
       <c r="AD15" s="18">
         <f>BPMCCS!AD15+'Hydrogen Calculations'!AB35</f>
@@ -23352,39 +23332,39 @@
       </c>
       <c r="D29" s="7">
         <f>'Hydrogen Results'!E$78/'Hydrogen Results'!E$77</f>
-        <v>1.2050330790414991</v>
+        <v>1.0784455372000565</v>
       </c>
       <c r="E29" s="7">
         <f>'Hydrogen Results'!F$78/'Hydrogen Results'!F$77</f>
-        <v>1.0845855178073069</v>
+        <v>1.0543650608909494</v>
       </c>
       <c r="F29" s="7">
         <f>'Hydrogen Results'!G$78/'Hydrogen Results'!G$77</f>
-        <v>1.0882703987088791</v>
+        <v>1.0623174255081516</v>
       </c>
       <c r="G29" s="7">
         <f>'Hydrogen Results'!H$78/'Hydrogen Results'!H$77</f>
-        <v>1.0509538390894915</v>
+        <v>1.0227851894868516</v>
       </c>
       <c r="H29" s="7">
         <f>'Hydrogen Results'!I$78/'Hydrogen Results'!I$77</f>
-        <v>1.0333706585323474</v>
+        <v>0.99745113730833057</v>
       </c>
       <c r="I29" s="7">
         <f>'Hydrogen Results'!J$78/'Hydrogen Results'!J$77</f>
-        <v>0.98675146102499067</v>
+        <v>1.0165437423209598</v>
       </c>
       <c r="J29" s="7">
         <f>'Hydrogen Results'!K$78/'Hydrogen Results'!K$77</f>
-        <v>0.97327102356362416</v>
+        <v>1.0260534821427867</v>
       </c>
       <c r="K29" s="7">
         <f>'Hydrogen Results'!L$78/'Hydrogen Results'!L$77</f>
-        <v>0.9899358077263386</v>
+        <v>1.0004046875356238</v>
       </c>
       <c r="L29" s="7">
         <f>'Hydrogen Results'!M$78/'Hydrogen Results'!M$77</f>
-        <v>1.0160795579868289</v>
+        <v>0.97900796358898745</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
@@ -23408,7 +23388,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24201,11 +24181,11 @@
       </c>
       <c r="K7" s="25">
         <f>Calculations!K7</f>
-        <v>621.12239999999997</v>
+        <v>300</v>
       </c>
       <c r="L7" s="25">
         <f>Calculations!L7</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M7" s="25">
         <f>Calculations!M7</f>
@@ -24225,55 +24205,55 @@
       </c>
       <c r="Q7" s="25">
         <f>Calculations!Q7</f>
-        <v>3074.7250377399182</v>
+        <v>1229.8900150959673</v>
       </c>
       <c r="R7" s="25">
         <f>Calculations!R7</f>
-        <v>2494.0549186883495</v>
+        <v>3741.0823780325245</v>
       </c>
       <c r="S7" s="25">
         <f>Calculations!S7</f>
-        <v>2510.4864132558682</v>
+        <v>3765.7296198838026</v>
       </c>
       <c r="T7" s="25">
         <f>Calculations!T7</f>
-        <v>2490.8394403730845</v>
+        <v>7472.5183211192543</v>
       </c>
       <c r="U7" s="25">
         <f>Calculations!U7</f>
-        <v>0</v>
+        <v>9695.8113491978038</v>
       </c>
       <c r="V7" s="25">
         <f>Calculations!V7</f>
-        <v>2596.7776128895484</v>
+        <v>14282.276870892516</v>
       </c>
       <c r="W7" s="25">
         <f>Calculations!W7</f>
-        <v>4290.966863368134</v>
+        <v>19309.350885156604</v>
       </c>
       <c r="X7" s="25">
         <f>Calculations!X7</f>
-        <v>6281.3203300825207</v>
+        <v>25823.20580145036</v>
       </c>
       <c r="Y7" s="25">
         <f>Calculations!Y7</f>
-        <v>4901.4386560629082</v>
+        <v>28008.220891788045</v>
       </c>
       <c r="Z7" s="25">
         <f>Calculations!Z7</f>
-        <v>3210.1276330808346</v>
+        <v>26483.552972916885</v>
       </c>
       <c r="AA7" s="25">
         <f>Calculations!AA7</f>
-        <v>3214.6141114448601</v>
+        <v>31342.487586587387</v>
       </c>
       <c r="AB7" s="25">
         <f>Calculations!AB7</f>
-        <v>6844.5262189512423</v>
+        <v>34222.631094756209</v>
       </c>
       <c r="AC7" s="25">
         <f>Calculations!AC7</f>
-        <v>12742.382271468145</v>
+        <v>33130.193905817177</v>
       </c>
       <c r="AD7" s="25">
         <f>Calculations!AD7</f>
@@ -24281,11 +24261,11 @@
       </c>
       <c r="AE7" s="25">
         <f>Calculations!AE7</f>
-        <v>10653.799758745476</v>
+        <v>13317.249698431846</v>
       </c>
       <c r="AF7" s="25">
         <f>Calculations!AF7</f>
-        <v>4345.2380952380954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -24330,11 +24310,11 @@
       </c>
       <c r="K8" s="25">
         <f>Calculations!K8</f>
-        <v>4185.9983999999995</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="25">
         <f>Calculations!L8</f>
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="25">
         <f>Calculations!M8</f>
@@ -24354,55 +24334,55 @@
       </c>
       <c r="Q8" s="25">
         <f>Calculations!Q8</f>
-        <v>408.39982747466036</v>
+        <v>163.35993098986415</v>
       </c>
       <c r="R8" s="25">
         <f>Calculations!R8</f>
-        <v>336.97680618501738</v>
+        <v>505.46520927752601</v>
       </c>
       <c r="S8" s="25">
         <f>Calculations!S8</f>
-        <v>344.42331240392883</v>
+        <v>516.63496860589328</v>
       </c>
       <c r="T8" s="25">
         <f>Calculations!T8</f>
-        <v>340.3980679546969</v>
+        <v>1021.1942038640907</v>
       </c>
       <c r="U8" s="25">
         <f>Calculations!U8</f>
-        <v>0</v>
+        <v>1336.5457090556692</v>
       </c>
       <c r="V8" s="25">
         <f>Calculations!V8</f>
-        <v>363.57854568581729</v>
+        <v>1999.682001271995</v>
       </c>
       <c r="W8" s="25">
         <f>Calculations!W8</f>
-        <v>537.90285973672269</v>
+        <v>2420.5628688152519</v>
       </c>
       <c r="X8" s="25">
         <f>Calculations!X8</f>
-        <v>752.06301575393854</v>
+        <v>3091.8146203217475</v>
       </c>
       <c r="Y8" s="25">
         <f>Calculations!Y8</f>
-        <v>603.61004378518453</v>
+        <v>3449.2002502010546</v>
       </c>
       <c r="Z8" s="25">
         <f>Calculations!Z8</f>
-        <v>419.2175988378126</v>
+        <v>3458.5451904119541</v>
       </c>
       <c r="AA8" s="25">
         <f>Calculations!AA8</f>
-        <v>420.52350885796602</v>
+        <v>4100.1042113651683</v>
       </c>
       <c r="AB8" s="25">
         <f>Calculations!AB8</f>
-        <v>570.37718491260352</v>
+        <v>2851.8859245630174</v>
       </c>
       <c r="AC8" s="25">
         <f>Calculations!AC8</f>
-        <v>821.79132040627894</v>
+        <v>2136.6574330563253</v>
       </c>
       <c r="AD8" s="25">
         <f>Calculations!AD8</f>
@@ -24410,11 +24390,11 @@
       </c>
       <c r="AE8" s="25">
         <f>Calculations!AE8</f>
-        <v>627.26176115802173</v>
+        <v>784.07720144752705</v>
       </c>
       <c r="AF8" s="25">
         <f>Calculations!AF8</f>
-        <v>396.82539682539681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -24697,111 +24677,111 @@
       </c>
       <c r="F11" s="25">
         <f>Calculations!F11</f>
-        <v>0</v>
+        <v>218.35000000000002</v>
       </c>
       <c r="G11" s="25">
         <f>Calculations!G11</f>
-        <v>0</v>
+        <v>218.35000000000002</v>
       </c>
       <c r="H11" s="25">
         <f>Calculations!H11</f>
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="I11" s="25">
         <f>Calculations!I11</f>
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="J11" s="25">
         <f>Calculations!J11</f>
-        <v>0</v>
+        <v>152.5728</v>
       </c>
       <c r="K11" s="25">
         <f>Calculations!K11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" s="25">
         <f>Calculations!L11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="25">
         <f>Calculations!M11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" s="25">
         <f>Calculations!N11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O11" s="25">
         <f>Calculations!O11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P11" s="25">
         <f>Calculations!P11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="25">
         <f>Calculations!Q11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R11" s="25">
         <f>Calculations!R11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S11" s="25">
         <f>Calculations!S11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T11" s="25">
         <f>Calculations!T11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U11" s="25">
         <f>Calculations!U11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V11" s="25">
         <f>Calculations!V11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W11" s="25">
         <f>Calculations!W11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X11" s="25">
         <f>Calculations!X11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y11" s="25">
         <f>Calculations!Y11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z11" s="25">
         <f>Calculations!Z11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA11" s="25">
         <f>Calculations!AA11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="25">
         <f>Calculations!AB11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AC11" s="25">
         <f>Calculations!AC11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD11" s="25">
         <f>Calculations!AD11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE11" s="25">
         <f>Calculations!AE11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AF11" s="25">
         <f>Calculations!AF11</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -25233,11 +25213,11 @@
       </c>
       <c r="K15" s="25">
         <f>Calculations!K15</f>
-        <v>3846.9863999999998</v>
+        <v>3157</v>
       </c>
       <c r="L15" s="25">
         <f>Calculations!L15</f>
-        <v>3557</v>
+        <v>3157</v>
       </c>
       <c r="M15" s="25">
         <f>Calculations!M15</f>
@@ -25257,55 +25237,55 @@
       </c>
       <c r="Q15" s="25">
         <f>Calculations!Q15</f>
-        <v>1356.7500539141686</v>
+        <v>542.70002156566738</v>
       </c>
       <c r="R15" s="25">
         <f>Calculations!R15</f>
-        <v>1051.8794988003199</v>
+        <v>1577.8192482004799</v>
       </c>
       <c r="S15" s="25">
         <f>Calculations!S15</f>
-        <v>1041.9195998228383</v>
+        <v>1562.8793997342575</v>
       </c>
       <c r="T15" s="25">
         <f>Calculations!T15</f>
-        <v>825.0749500333111</v>
+        <v>2475.2248500999335</v>
       </c>
       <c r="U15" s="25">
         <f>Calculations!U15</f>
-        <v>0</v>
+        <v>2762.7328523742867</v>
       </c>
       <c r="V15" s="25">
         <f>Calculations!V15</f>
-        <v>642.14543141827426</v>
+        <v>3531.7998728005086</v>
       </c>
       <c r="W15" s="25">
         <f>Calculations!W15</f>
-        <v>806.17339990921471</v>
+        <v>3627.7802995914658</v>
       </c>
       <c r="X15" s="25">
         <f>Calculations!X15</f>
-        <v>879.9699924981245</v>
+        <v>3617.6544136034008</v>
       </c>
       <c r="Y15" s="25">
         <f>Calculations!Y15</f>
-        <v>679.29586274685016</v>
+        <v>3881.690644267715</v>
       </c>
       <c r="Z15" s="25">
         <f>Calculations!Z15</f>
-        <v>370.6547680813531</v>
+        <v>3057.901836671163</v>
       </c>
       <c r="AA15" s="25">
         <f>Calculations!AA15</f>
-        <v>200.5762275485809</v>
+        <v>1955.6182185986638</v>
       </c>
       <c r="AB15" s="25">
         <f>Calculations!AB15</f>
-        <v>585.09659613615452</v>
+        <v>2925.4829806807725</v>
       </c>
       <c r="AC15" s="25">
         <f>Calculations!AC15</f>
-        <v>716.52816251154206</v>
+        <v>1862.9732225300093</v>
       </c>
       <c r="AD15" s="25">
         <f>Calculations!AD15</f>

--- a/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/PMCCS/Pol Mandated Cap Const Sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\PMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B9329-5CD6-4CC7-BAAC-ABFF4CB57A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37ACEF2-E125-45A8-9E21-8B0D36A858C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="2535" windowWidth="18765" windowHeight="12960" tabRatio="750" firstSheet="1" activeTab="3" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
+    <workbookView xWindow="30165" yWindow="2055" windowWidth="23265" windowHeight="13860" tabRatio="750" firstSheet="1" activeTab="3" xr2:uid="{64B443A8-007C-42B1-80D5-84B0C57A7564}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -801,85 +801,85 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17649570</c:v>
+                  <c:v>17649610</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36516100</c:v>
+                  <c:v>36557680</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54957020</c:v>
+                  <c:v>55038630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75009690</c:v>
+                  <c:v>75309480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96592100</c:v>
+                  <c:v>97068000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111667600</c:v>
+                  <c:v>111976900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126819900</c:v>
+                  <c:v>126579800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140355200</c:v>
+                  <c:v>140099300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151514600</c:v>
+                  <c:v>151071700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155141500</c:v>
+                  <c:v>155343800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>163115800</c:v>
+                  <c:v>163957100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164808100</c:v>
+                  <c:v>165912700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>169444300</c:v>
+                  <c:v>170121700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172543000</c:v>
+                  <c:v>173085100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169258700</c:v>
+                  <c:v>170375000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175245100</c:v>
+                  <c:v>174044800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>176869400</c:v>
+                  <c:v>176290200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176449800</c:v>
+                  <c:v>179040400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183155756.29899999</c:v>
+                  <c:v>179264200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>190869204.19</c:v>
+                  <c:v>177721800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188936348.08000001</c:v>
+                  <c:v>187099759.449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>187333543.24000001</c:v>
+                  <c:v>197357748.66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189943241.30000001</c:v>
+                  <c:v>199351045.30000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>193353408.19999999</c:v>
+                  <c:v>204235881.40000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>203823751.90000001</c:v>
+                  <c:v>195683112.028</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>213791802.90709999</c:v>
+                  <c:v>200534314.014</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>218073785</c:v>
+                  <c:v>203621929.59999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,85 +1026,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19034100</c:v>
+                  <c:v>14757700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38501300</c:v>
+                  <c:v>29909400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58381800</c:v>
+                  <c:v>51620600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76718800</c:v>
+                  <c:v>71941400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96345900</c:v>
+                  <c:v>93471700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113515000</c:v>
+                  <c:v>112416000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130124000</c:v>
+                  <c:v>130345000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140412000</c:v>
+                  <c:v>139764000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148334000</c:v>
+                  <c:v>147362000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155113000</c:v>
+                  <c:v>154622000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161547000</c:v>
+                  <c:v>161710000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>167706000</c:v>
+                  <c:v>168263000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168299000</c:v>
+                  <c:v>169011000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172137000</c:v>
+                  <c:v>172458000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>175042000</c:v>
+                  <c:v>174410000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174988000</c:v>
+                  <c:v>173547000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174791000</c:v>
+                  <c:v>173383000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175495000</c:v>
+                  <c:v>174658000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>178519000</c:v>
+                  <c:v>178441000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183944000</c:v>
+                  <c:v>184482000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187628000</c:v>
+                  <c:v>188330000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>190174000</c:v>
+                  <c:v>190846000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>193246000</c:v>
+                  <c:v>194011000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196589000</c:v>
+                  <c:v>197585000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>199877000</c:v>
+                  <c:v>201042000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>203373000</c:v>
+                  <c:v>204704000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>207148000</c:v>
+                  <c:v>209278000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,9 +2017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3894715</xdr:colOff>
+      <xdr:colOff>3897890</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>47071</xdr:rowOff>
+      <xdr:rowOff>50246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2061,7 +2061,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428464</xdr:colOff>
+      <xdr:colOff>431639</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>3168</xdr:rowOff>
     </xdr:to>
@@ -2569,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E706D0-7842-4D0E-B980-D5F83B9D388B}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3444,8 +3444,8 @@
   </sheetPr>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4679,85 +4679,85 @@
         <v>0</v>
       </c>
       <c r="D13" s="23">
-        <v>19034100</v>
+        <v>14757700</v>
       </c>
       <c r="E13" s="23">
-        <v>38501300</v>
+        <v>29909400</v>
       </c>
       <c r="F13" s="23">
-        <v>58381800</v>
+        <v>51620600</v>
       </c>
       <c r="G13" s="23">
-        <v>76718800</v>
+        <v>71941400</v>
       </c>
       <c r="H13" s="23">
-        <v>96345900</v>
+        <v>93471700</v>
       </c>
       <c r="I13" s="23">
-        <v>113515000</v>
+        <v>112416000</v>
       </c>
       <c r="J13" s="23">
-        <v>130124000</v>
+        <v>130345000</v>
       </c>
       <c r="K13" s="23">
-        <v>140412000</v>
+        <v>139764000</v>
       </c>
       <c r="L13" s="23">
-        <v>148334000</v>
+        <v>147362000</v>
       </c>
       <c r="M13" s="23">
-        <v>155113000</v>
+        <v>154622000</v>
       </c>
       <c r="N13" s="23">
-        <v>161547000</v>
+        <v>161710000</v>
       </c>
       <c r="O13" s="23">
-        <v>167706000</v>
+        <v>168263000</v>
       </c>
       <c r="P13" s="23">
-        <v>168299000</v>
+        <v>169011000</v>
       </c>
       <c r="Q13" s="23">
-        <v>172137000</v>
+        <v>172458000</v>
       </c>
       <c r="R13" s="23">
-        <v>175042000</v>
+        <v>174410000</v>
       </c>
       <c r="S13" s="23">
-        <v>174988000</v>
+        <v>173547000</v>
       </c>
       <c r="T13" s="23">
-        <v>174791000</v>
+        <v>173383000</v>
       </c>
       <c r="U13" s="23">
-        <v>175495000</v>
+        <v>174658000</v>
       </c>
       <c r="V13" s="23">
-        <v>178519000</v>
+        <v>178441000</v>
       </c>
       <c r="W13" s="23">
-        <v>183944000</v>
+        <v>184482000</v>
       </c>
       <c r="X13" s="23">
-        <v>187628000</v>
+        <v>188330000</v>
       </c>
       <c r="Y13" s="23">
-        <v>190174000</v>
+        <v>190846000</v>
       </c>
       <c r="Z13" s="23">
-        <v>193246000</v>
+        <v>194011000</v>
       </c>
       <c r="AA13" s="23">
-        <v>196589000</v>
+        <v>197585000</v>
       </c>
       <c r="AB13" s="23">
-        <v>199877000</v>
+        <v>201042000</v>
       </c>
       <c r="AC13" s="23">
-        <v>203373000</v>
+        <v>204704000</v>
       </c>
       <c r="AD13" s="23">
-        <v>207148000</v>
+        <v>209278000</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -5363,83 +5363,83 @@
       </c>
       <c r="K24" s="7">
         <f>'Hydrogen Results'!L78/'Hydrogen Results'!L77</f>
-        <v>1.0004046875356238</v>
+        <v>0.99760669753524822</v>
       </c>
       <c r="L24" s="7">
         <f>'Hydrogen Results'!M78/'Hydrogen Results'!M77</f>
-        <v>0.97900796358898745</v>
+        <v>0.97544411031318246</v>
       </c>
       <c r="M24" s="7">
         <f>'Hydrogen Results'!N78/'Hydrogen Results'!N77</f>
-        <v>0.99981629673556072</v>
+        <v>0.99535353197230914</v>
       </c>
       <c r="N24" s="7">
         <f>'Hydrogen Results'!O78/'Hydrogen Results'!O77</f>
-        <v>0.99038229282509727</v>
+        <v>0.98629458559586625</v>
       </c>
       <c r="O24" s="7">
         <f>'Hydrogen Results'!P78/'Hydrogen Results'!P77</f>
-        <v>1.0175834804235957</v>
+        <v>1.0141658836243397</v>
       </c>
       <c r="P24" s="7">
         <f>'Hydrogen Results'!Q78/'Hydrogen Results'!Q77</f>
-        <v>0.99324084669711521</v>
+        <v>0.99347114448068652</v>
       </c>
       <c r="Q24" s="7">
         <f>'Hydrogen Results'!R78/'Hydrogen Results'!R77</f>
-        <v>0.99764696336565373</v>
+        <v>0.9963769267256396</v>
       </c>
       <c r="R24" s="7">
         <f>'Hydrogen Results'!S78/'Hydrogen Results'!S77</f>
-        <v>1.0341684061144272</v>
+        <v>1.0236830520909759</v>
       </c>
       <c r="S24" s="7">
         <f>'Hydrogen Results'!T78/'Hydrogen Results'!T77</f>
-        <v>0.99853291190452687</v>
+        <v>0.99713981687473574</v>
       </c>
       <c r="T24" s="7">
         <f>'Hydrogen Results'!U78/'Hydrogen Results'!U77</f>
-        <v>0.98824895657473821</v>
+        <v>0.98350900957625553</v>
       </c>
       <c r="U24" s="7">
         <f>'Hydrogen Results'!V78/'Hydrogen Results'!V77</f>
-        <v>0.99458882923075009</v>
+        <v>0.97552284288909097</v>
       </c>
       <c r="V24" s="7">
         <f>'Hydrogen Results'!W78/'Hydrogen Results'!W77</f>
-        <v>0.97468408095549819</v>
+        <v>0.9954078951625589</v>
       </c>
       <c r="W24" s="7">
         <f>'Hydrogen Results'!X78/'Hydrogen Results'!X77</f>
-        <v>0.96371754039951707</v>
+        <v>1.0380381022474452</v>
       </c>
       <c r="X24" s="7">
         <f>'Hydrogen Results'!Y78/'Hydrogen Results'!Y77</f>
-        <v>0.99307519123082644</v>
+        <v>1.006575318721002</v>
       </c>
       <c r="Y24" s="7">
         <f>'Hydrogen Results'!Z78/'Hydrogen Results'!Z77</f>
-        <v>1.0151625635797694</v>
+        <v>0.96700535598823545</v>
       </c>
       <c r="Z24" s="7">
         <f>'Hydrogen Results'!AA78/'Hydrogen Results'!AA77</f>
-        <v>1.0173881348838496</v>
+        <v>0.97321285528268053</v>
       </c>
       <c r="AA24" s="7">
         <f>'Hydrogen Results'!AB78/'Hydrogen Results'!AB77</f>
-        <v>1.0167340820631059</v>
+        <v>0.9674352941588451</v>
       </c>
       <c r="AB24" s="7">
         <f>'Hydrogen Results'!AC78/'Hydrogen Results'!AC77</f>
-        <v>0.98063644760137492</v>
+        <v>1.0273855414320741</v>
       </c>
       <c r="AC24" s="7">
         <f>'Hydrogen Results'!AD78/'Hydrogen Results'!AD77</f>
-        <v>0.95126659317416706</v>
+        <v>1.0207928802933393</v>
       </c>
       <c r="AD24" s="7">
         <f>'Hydrogen Results'!AE78/'Hydrogen Results'!AE77</f>
-        <v>0.94989867764252356</v>
+        <v>1.0277773146100271</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -6033,13 +6033,13 @@
         <v>45000</v>
       </c>
       <c r="V33">
-        <v>37000</v>
+        <v>15000</v>
       </c>
       <c r="W33">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="X33">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="Y33">
         <v>39000</v>
@@ -6057,7 +6057,7 @@
         <v>20000</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
@@ -6139,15 +6139,15 @@
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>25823.20580145036</v>
+        <v>10468.867216804201</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="3"/>
-        <v>28008.220891788045</v>
+        <v>14004.110445894023</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="3"/>
-        <v>26483.552972916885</v>
+        <v>18458.233890214797</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="3"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7242.063492063492</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
@@ -6253,15 +6253,15 @@
       </c>
       <c r="V35" s="8">
         <f t="shared" si="4"/>
-        <v>3617.6544136034008</v>
+        <v>1466.6166541635407</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" si="4"/>
-        <v>3881.690644267715</v>
+        <v>1940.8453221338575</v>
       </c>
       <c r="X35" s="8">
         <f t="shared" si="4"/>
-        <v>3057.901836671163</v>
+        <v>2131.2649164677805</v>
       </c>
       <c r="Y35" s="8">
         <f t="shared" si="4"/>
@@ -6367,15 +6367,15 @@
       </c>
       <c r="V36" s="8">
         <f t="shared" si="5"/>
-        <v>3091.8146203217475</v>
+        <v>1253.4383595898976</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="5"/>
-        <v>3449.2002502010546</v>
+        <v>1724.6001251005273</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="5"/>
-        <v>3458.5451904119541</v>
+        <v>2410.5011933174223</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="5"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>661.37566137566137</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
@@ -7080,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC43D32-587F-4742-8451-B08E5A467706}">
   <dimension ref="A2:BR120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:AE51"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7193,28 +7193,28 @@
         <v>-49255900</v>
       </c>
       <c r="D3" s="23">
-        <v>-46632300</v>
+        <v>-46211400</v>
       </c>
       <c r="E3" s="23">
-        <v>-42282700</v>
+        <v>-41364200</v>
       </c>
       <c r="F3" s="23">
-        <v>-20575500</v>
+        <v>-20231300</v>
       </c>
       <c r="G3" s="23">
-        <v>-18048900</v>
+        <v>-17512300</v>
       </c>
       <c r="H3" s="23">
-        <v>-24811600</v>
+        <v>-23207300</v>
       </c>
       <c r="I3" s="23">
-        <v>-59023600</v>
+        <v>-61287100</v>
       </c>
       <c r="J3" s="23">
-        <v>-140176000</v>
+        <v>-143107000</v>
       </c>
       <c r="K3" s="23">
-        <v>-128322000</v>
+        <v>-129023000</v>
       </c>
       <c r="L3" s="23">
         <v>-47206700</v>
@@ -7288,88 +7288,88 @@
         <v>2608450</v>
       </c>
       <c r="D4" s="23">
-        <v>2525980</v>
+        <v>2542160</v>
       </c>
       <c r="E4" s="23">
-        <v>2908770</v>
+        <v>2955130</v>
       </c>
       <c r="F4" s="23">
-        <v>2592230</v>
+        <v>2700390</v>
       </c>
       <c r="G4" s="23">
-        <v>3336230</v>
+        <v>3395380</v>
       </c>
       <c r="H4" s="23">
-        <v>4615880</v>
+        <v>4723210</v>
       </c>
       <c r="I4" s="23">
-        <v>5545080</v>
+        <v>5419840</v>
       </c>
       <c r="J4" s="23">
-        <v>5214870</v>
+        <v>5068630</v>
       </c>
       <c r="K4" s="23">
-        <v>4135350</v>
+        <v>4065960</v>
       </c>
       <c r="L4" s="23">
-        <v>2477040</v>
+        <v>2335230</v>
       </c>
       <c r="M4" s="23">
-        <v>1605990</v>
+        <v>1442740</v>
       </c>
       <c r="N4" s="23">
-        <v>1765840</v>
+        <v>1642160</v>
       </c>
       <c r="O4" s="23">
-        <v>1988960</v>
+        <v>1912580</v>
       </c>
       <c r="P4" s="23">
-        <v>2874100</v>
+        <v>2733710</v>
       </c>
       <c r="Q4" s="23">
-        <v>1732190</v>
+        <v>1777800</v>
       </c>
       <c r="R4" s="23">
-        <v>2131520</v>
+        <v>2022160</v>
       </c>
       <c r="S4" s="23">
-        <v>2176220</v>
+        <v>2198230</v>
       </c>
       <c r="T4" s="23">
-        <v>990478</v>
+        <v>997198</v>
       </c>
       <c r="U4" s="23">
-        <v>2155190</v>
+        <v>3317400</v>
       </c>
       <c r="V4" s="23">
-        <v>1400360</v>
+        <v>1055100</v>
       </c>
       <c r="W4" s="23">
-        <v>1462160</v>
+        <v>1306010</v>
       </c>
       <c r="X4" s="23">
-        <v>2412820</v>
+        <v>2950110</v>
       </c>
       <c r="Y4" s="23">
-        <v>3811900</v>
+        <v>4007870</v>
       </c>
       <c r="Z4" s="23">
-        <v>4476730</v>
+        <v>4955650</v>
       </c>
       <c r="AA4" s="23">
-        <v>3855200</v>
+        <v>4305820</v>
       </c>
       <c r="AB4" s="23">
-        <v>2964580</v>
+        <v>3750370</v>
       </c>
       <c r="AC4" s="23">
-        <v>4019090</v>
+        <v>3701290</v>
       </c>
       <c r="AD4" s="23">
-        <v>3885050</v>
+        <v>3777270</v>
       </c>
       <c r="AE4" s="23">
-        <v>1786900</v>
+        <v>1949800</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -7383,88 +7383,88 @@
         <v>49554000</v>
       </c>
       <c r="D5" s="23">
-        <v>38193700</v>
+        <v>39820300</v>
       </c>
       <c r="E5" s="23">
-        <v>49740500</v>
+        <v>53369600</v>
       </c>
       <c r="F5" s="23">
-        <v>53579100</v>
+        <v>60306000</v>
       </c>
       <c r="G5" s="23">
-        <v>83652000</v>
+        <v>92507200</v>
       </c>
       <c r="H5" s="23">
-        <v>102623000</v>
+        <v>113629000</v>
       </c>
       <c r="I5" s="23">
-        <v>149615000</v>
+        <v>130513000</v>
       </c>
       <c r="J5" s="23">
-        <v>196487000</v>
+        <v>183751000</v>
       </c>
       <c r="K5" s="23">
-        <v>165225000</v>
+        <v>168241000</v>
       </c>
       <c r="L5" s="23">
-        <v>103312000</v>
+        <v>100346000</v>
       </c>
       <c r="M5" s="23">
-        <v>52782600</v>
+        <v>46174400</v>
       </c>
       <c r="N5" s="23">
-        <v>53129000</v>
+        <v>52137100</v>
       </c>
       <c r="O5" s="23">
-        <v>85117800</v>
+        <v>88207700</v>
       </c>
       <c r="P5" s="23">
-        <v>110044000</v>
+        <v>116049000</v>
       </c>
       <c r="Q5" s="23">
-        <v>71499300</v>
+        <v>77221300</v>
       </c>
       <c r="R5" s="23">
-        <v>51532400</v>
+        <v>54869200</v>
       </c>
       <c r="S5" s="23">
-        <v>37366500</v>
+        <v>44735000</v>
       </c>
       <c r="T5" s="23">
-        <v>1299120</v>
+        <v>8101540</v>
       </c>
       <c r="U5" s="23">
-        <v>3193410</v>
+        <v>7509230</v>
       </c>
       <c r="V5" s="23">
-        <v>4737980</v>
+        <v>-454758</v>
       </c>
       <c r="W5" s="23">
-        <v>4274820</v>
+        <v>534937</v>
       </c>
       <c r="X5" s="23">
-        <v>11094900</v>
+        <v>11291700</v>
       </c>
       <c r="Y5" s="23">
-        <v>15028900</v>
+        <v>14692300</v>
       </c>
       <c r="Z5" s="23">
-        <v>16979600</v>
+        <v>15706900</v>
       </c>
       <c r="AA5" s="23">
-        <v>10324200</v>
+        <v>10168000</v>
       </c>
       <c r="AB5" s="23">
-        <v>3533270</v>
+        <v>3517260</v>
       </c>
       <c r="AC5" s="23">
-        <v>7471880</v>
+        <v>2157880</v>
       </c>
       <c r="AD5" s="23">
-        <v>8771210</v>
+        <v>3613280</v>
       </c>
       <c r="AE5" s="23">
-        <v>15022900</v>
+        <v>10611700</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -7544,22 +7544,22 @@
         <v>0</v>
       </c>
       <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
         <v>-1.1920900000000001E-7</v>
       </c>
-      <c r="AA6" s="23">
-        <v>-1.1920900000000001E-7</v>
-      </c>
-      <c r="AB6" s="23">
-        <v>0</v>
-      </c>
       <c r="AC6" s="23">
-        <v>-1.1920900000000001E-7</v>
+        <v>-15669</v>
       </c>
       <c r="AD6">
-        <v>-5963.87</v>
+        <v>-41600.699999999997</v>
       </c>
       <c r="AE6">
-        <v>-589539</v>
+        <v>-661216</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -7597,64 +7597,64 @@
         <v>13161500</v>
       </c>
       <c r="L7" s="23">
-        <v>8304820</v>
+        <v>5464020</v>
       </c>
       <c r="M7" s="23">
-        <v>-17030200</v>
+        <v>-24054600</v>
       </c>
       <c r="N7" s="23">
-        <v>-31473400</v>
+        <v>-7616060</v>
       </c>
       <c r="O7" s="23">
-        <v>-2542480</v>
+        <v>3067890</v>
       </c>
       <c r="P7" s="23">
-        <v>-7822880</v>
+        <v>8305770</v>
       </c>
       <c r="Q7" s="23">
-        <v>30077000</v>
+        <v>-8151860</v>
       </c>
       <c r="R7" s="23">
-        <v>-31899600</v>
+        <v>2709740</v>
       </c>
       <c r="S7" s="23">
-        <v>-41595900</v>
+        <v>-33404600</v>
       </c>
       <c r="T7" s="23">
-        <v>-63293200</v>
+        <v>-20771200</v>
       </c>
       <c r="U7" s="23">
-        <v>2098420</v>
+        <v>2176040</v>
       </c>
       <c r="V7" s="23">
-        <v>-9801340</v>
+        <v>-11567100</v>
       </c>
       <c r="W7" s="23">
-        <v>-105182000</v>
+        <v>-18612200</v>
       </c>
       <c r="X7" s="23">
-        <v>-11358100</v>
+        <v>-11014800</v>
       </c>
       <c r="Y7" s="23">
-        <v>-91425900</v>
+        <v>-91147700</v>
       </c>
       <c r="Z7" s="23">
-        <v>16382000</v>
+        <v>106339000</v>
       </c>
       <c r="AA7" s="23">
-        <v>-75265000</v>
+        <v>-74815000</v>
       </c>
       <c r="AB7" s="23">
-        <v>11072400</v>
+        <v>11793700</v>
       </c>
       <c r="AC7" s="23">
-        <v>5792820</v>
+        <v>-73334300</v>
       </c>
       <c r="AD7" s="23">
-        <v>7932950</v>
+        <v>-70219900</v>
       </c>
       <c r="AE7" s="23">
-        <v>7395240</v>
+        <v>14849300</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -7671,85 +7671,85 @@
         <v>2966190</v>
       </c>
       <c r="E8" s="23">
-        <v>7044310</v>
+        <v>7076920</v>
       </c>
       <c r="F8" s="23">
-        <v>11210300</v>
+        <v>11308700</v>
       </c>
       <c r="G8" s="23">
-        <v>17366100</v>
+        <v>17563900</v>
       </c>
       <c r="H8" s="23">
-        <v>25946400</v>
+        <v>26211100</v>
       </c>
       <c r="I8" s="23">
-        <v>37274000</v>
+        <v>37572400</v>
       </c>
       <c r="J8" s="23">
-        <v>51265100</v>
+        <v>51478800</v>
       </c>
       <c r="K8" s="23">
-        <v>67508200</v>
+        <v>67567800</v>
       </c>
       <c r="L8" s="23">
-        <v>85103400</v>
+        <v>85026100</v>
       </c>
       <c r="M8" s="23">
-        <v>104376000</v>
+        <v>103973000</v>
       </c>
       <c r="N8" s="23">
-        <v>125884000</v>
+        <v>125144000</v>
       </c>
       <c r="O8" s="23">
-        <v>149473000</v>
+        <v>148488000</v>
       </c>
       <c r="P8" s="23">
-        <v>179051000</v>
+        <v>177871000</v>
       </c>
       <c r="Q8" s="23">
-        <v>214363000</v>
+        <v>212980000</v>
       </c>
       <c r="R8" s="23">
-        <v>250968000</v>
+        <v>249546000</v>
       </c>
       <c r="S8" s="23">
-        <v>290571000</v>
+        <v>288986000</v>
       </c>
       <c r="T8" s="23">
-        <v>317334000</v>
+        <v>316464000</v>
       </c>
       <c r="U8" s="23">
-        <v>344367000</v>
+        <v>343451000</v>
       </c>
       <c r="V8" s="23">
-        <v>386777000</v>
+        <v>385603000</v>
       </c>
       <c r="W8" s="23">
-        <v>411516000</v>
+        <v>407055000</v>
       </c>
       <c r="X8" s="23">
-        <v>435080000</v>
+        <v>426157000</v>
       </c>
       <c r="Y8" s="23">
-        <v>454120000</v>
+        <v>446877000</v>
       </c>
       <c r="Z8" s="23">
-        <v>479364000</v>
+        <v>472641000</v>
       </c>
       <c r="AA8" s="23">
-        <v>507637000</v>
+        <v>503366000</v>
       </c>
       <c r="AB8" s="23">
-        <v>531796000</v>
+        <v>529127000</v>
       </c>
       <c r="AC8" s="23">
-        <v>547982000</v>
+        <v>557097000</v>
       </c>
       <c r="AD8" s="23">
-        <v>567510000</v>
+        <v>576577000</v>
       </c>
       <c r="AE8" s="23">
-        <v>585482000</v>
+        <v>595789000</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
@@ -7766,85 +7766,85 @@
         <v>634610</v>
       </c>
       <c r="E9" s="23">
-        <v>1714950</v>
+        <v>1718500</v>
       </c>
       <c r="F9" s="23">
-        <v>2865050</v>
+        <v>2890030</v>
       </c>
       <c r="G9" s="23">
-        <v>4600460</v>
+        <v>4654060</v>
       </c>
       <c r="H9" s="23">
-        <v>6977670</v>
+        <v>7042040</v>
       </c>
       <c r="I9" s="23">
-        <v>9979600</v>
+        <v>10065600</v>
       </c>
       <c r="J9" s="23">
-        <v>13471600</v>
+        <v>13521600</v>
       </c>
       <c r="K9" s="23">
-        <v>17522200</v>
+        <v>17510800</v>
       </c>
       <c r="L9" s="23">
-        <v>22195100</v>
+        <v>22140000</v>
       </c>
       <c r="M9" s="23">
-        <v>27035500</v>
+        <v>26863900</v>
       </c>
       <c r="N9" s="23">
-        <v>31291000</v>
+        <v>31077300</v>
       </c>
       <c r="O9" s="23">
-        <v>34910100</v>
+        <v>34705600</v>
       </c>
       <c r="P9" s="23">
-        <v>42621500</v>
+        <v>42390100</v>
       </c>
       <c r="Q9" s="23">
-        <v>51224100</v>
+        <v>51001500</v>
       </c>
       <c r="R9" s="23">
-        <v>60218100</v>
+        <v>59831800</v>
       </c>
       <c r="S9" s="23">
-        <v>70687100</v>
+        <v>69522700</v>
       </c>
       <c r="T9" s="23">
-        <v>74122600</v>
+        <v>73949800</v>
       </c>
       <c r="U9" s="23">
-        <v>79864700</v>
+        <v>80115200</v>
       </c>
       <c r="V9" s="23">
-        <v>91081500</v>
+        <v>89305800</v>
       </c>
       <c r="W9" s="23">
-        <v>99188500</v>
+        <v>95082600</v>
       </c>
       <c r="X9" s="23">
-        <v>106783000</v>
+        <v>101881000</v>
       </c>
       <c r="Y9" s="23">
-        <v>113282000</v>
+        <v>108198000</v>
       </c>
       <c r="Z9" s="23">
-        <v>119956000</v>
+        <v>116131000</v>
       </c>
       <c r="AA9" s="23">
-        <v>123316000</v>
+        <v>120131000</v>
       </c>
       <c r="AB9" s="23">
-        <v>124914000</v>
+        <v>121772000</v>
       </c>
       <c r="AC9" s="23">
-        <v>129836000</v>
+        <v>125637000</v>
       </c>
       <c r="AD9" s="23">
-        <v>134785000</v>
+        <v>130471000</v>
       </c>
       <c r="AE9" s="23">
-        <v>139483000</v>
+        <v>134509000</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -8001,40 +8001,40 @@
         <v>6409540</v>
       </c>
       <c r="T11" s="23">
-        <v>7729340</v>
+        <v>7798870</v>
       </c>
       <c r="U11" s="23">
-        <v>8768820</v>
+        <v>8978520</v>
       </c>
       <c r="V11" s="23">
-        <v>9177350</v>
+        <v>8844130</v>
       </c>
       <c r="W11" s="23">
-        <v>9050010</v>
+        <v>8954790</v>
       </c>
       <c r="X11" s="23">
-        <v>10637800</v>
+        <v>11223200</v>
       </c>
       <c r="Y11" s="23">
-        <v>12728600</v>
+        <v>13204500</v>
       </c>
       <c r="Z11" s="23">
-        <v>14228100</v>
+        <v>14764500</v>
       </c>
       <c r="AA11" s="23">
-        <v>13074800</v>
+        <v>13782600</v>
       </c>
       <c r="AB11" s="23">
-        <v>11001400</v>
+        <v>12122000</v>
       </c>
       <c r="AC11" s="23">
-        <v>12340400</v>
+        <v>11245700</v>
       </c>
       <c r="AD11" s="23">
-        <v>12597400</v>
+        <v>11703800</v>
       </c>
       <c r="AE11" s="23">
-        <v>7487720</v>
+        <v>6819730</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -8123,13 +8123,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-146.12799999999999</v>
       </c>
       <c r="AD12">
-        <v>-55.607100000000003</v>
+        <v>-388.01400000000001</v>
       </c>
       <c r="AE12">
-        <v>-5435.1</v>
+        <v>-6076.4</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
@@ -8155,76 +8155,76 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19267.599999999999</v>
+        <v>38535.199999999997</v>
       </c>
       <c r="I13">
-        <v>96338</v>
+        <v>38535.199999999997</v>
       </c>
       <c r="J13">
-        <v>96338</v>
+        <v>77070.399999999994</v>
       </c>
       <c r="K13">
-        <v>597295</v>
+        <v>635830</v>
       </c>
       <c r="L13" s="23">
-        <v>1059720</v>
+        <v>1098250</v>
       </c>
       <c r="M13" s="23">
-        <v>1406530</v>
+        <v>1445070</v>
       </c>
       <c r="N13" s="23">
-        <v>1406530</v>
+        <v>1445070</v>
       </c>
       <c r="O13" s="23">
-        <v>1233130</v>
+        <v>1271660</v>
       </c>
       <c r="P13" s="23">
-        <v>1233130</v>
+        <v>1271660</v>
       </c>
       <c r="Q13" s="23">
-        <v>1233130</v>
+        <v>1271660</v>
       </c>
       <c r="R13" s="23">
-        <v>1233130</v>
+        <v>1271660</v>
       </c>
       <c r="S13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="T13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="U13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="V13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="W13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="X13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="Y13" s="23">
-        <v>1734080</v>
+        <v>1772620</v>
       </c>
       <c r="Z13" s="23">
-        <v>1868960</v>
+        <v>1907490</v>
       </c>
       <c r="AA13" s="23">
-        <v>2157970</v>
+        <v>2196510</v>
       </c>
       <c r="AB13" s="23">
-        <v>2485520</v>
+        <v>2524050</v>
       </c>
       <c r="AC13" s="23">
-        <v>2639660</v>
+        <v>2678140</v>
       </c>
       <c r="AD13" s="23">
-        <v>2639640</v>
+        <v>2678050</v>
       </c>
       <c r="AE13" s="23">
-        <v>2597540</v>
+        <v>2616540</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
@@ -8333,55 +8333,55 @@
         <v>-1082.82</v>
       </c>
       <c r="D15">
-        <v>-1848.86</v>
+        <v>-1807.09</v>
       </c>
       <c r="E15">
-        <v>-6830.24</v>
+        <v>-6437.15</v>
       </c>
       <c r="F15">
-        <v>-154.67099999999999</v>
+        <v>-76.673500000000004</v>
       </c>
       <c r="G15" s="23">
-        <v>-1441320</v>
+        <v>-1440800</v>
       </c>
       <c r="H15" s="23">
-        <v>-1397290</v>
+        <v>-1392130</v>
       </c>
       <c r="I15" s="23">
-        <v>-5122600</v>
+        <v>-5142070</v>
       </c>
       <c r="J15" s="23">
-        <v>-7091040</v>
+        <v>-7628280</v>
       </c>
       <c r="K15" s="23">
-        <v>-34058500</v>
+        <v>-34886700</v>
       </c>
       <c r="L15" s="23">
-        <v>-94901600</v>
+        <v>-97862200</v>
       </c>
       <c r="M15" s="23">
-        <v>-115799000</v>
+        <v>-119004000</v>
       </c>
       <c r="N15" s="23">
-        <v>-127035000</v>
+        <v>-128562000</v>
       </c>
       <c r="O15" s="23">
-        <v>-105232000</v>
+        <v>-105884000</v>
       </c>
       <c r="P15" s="23">
-        <v>-101147000</v>
+        <v>-101747000</v>
       </c>
       <c r="Q15" s="23">
-        <v>-88883300</v>
+        <v>-89274100</v>
       </c>
       <c r="R15" s="23">
-        <v>-78189700</v>
+        <v>-78505800</v>
       </c>
       <c r="S15" s="23">
-        <v>-67933700</v>
+        <v>-68101000</v>
       </c>
       <c r="T15" s="23">
-        <v>-52353900</v>
+        <v>-52370500</v>
       </c>
       <c r="U15" s="23">
         <v>-29786100</v>
@@ -8434,82 +8434,82 @@
         <v>1501980</v>
       </c>
       <c r="F16" s="23">
-        <v>2699250</v>
+        <v>2724190</v>
       </c>
       <c r="G16" s="23">
-        <v>4550920</v>
+        <v>4625910</v>
       </c>
       <c r="H16" s="23">
-        <v>7347740</v>
+        <v>7473580</v>
       </c>
       <c r="I16" s="23">
-        <v>11301000</v>
+        <v>11426900</v>
       </c>
       <c r="J16" s="23">
-        <v>16537100</v>
+        <v>16637300</v>
       </c>
       <c r="K16" s="23">
-        <v>22982100</v>
+        <v>23004300</v>
       </c>
       <c r="L16" s="23">
-        <v>30310600</v>
+        <v>30280800</v>
       </c>
       <c r="M16" s="23">
-        <v>38470800</v>
+        <v>38285100</v>
       </c>
       <c r="N16" s="23">
-        <v>47802900</v>
+        <v>47434700</v>
       </c>
       <c r="O16" s="23">
-        <v>58189600</v>
+        <v>57664000</v>
       </c>
       <c r="P16" s="23">
-        <v>70870300</v>
+        <v>70239500</v>
       </c>
       <c r="Q16" s="23">
-        <v>86937800</v>
+        <v>86121700</v>
       </c>
       <c r="R16" s="23">
-        <v>103905000</v>
+        <v>103089000</v>
       </c>
       <c r="S16" s="23">
-        <v>122858000</v>
+        <v>121539000</v>
       </c>
       <c r="T16" s="23">
-        <v>141231000</v>
+        <v>140257000</v>
       </c>
       <c r="U16" s="23">
-        <v>155051000</v>
+        <v>154051000</v>
       </c>
       <c r="V16" s="23">
-        <v>174555000</v>
+        <v>174894000</v>
       </c>
       <c r="W16" s="23">
-        <v>188085000</v>
+        <v>185396000</v>
       </c>
       <c r="X16" s="23">
-        <v>198078000</v>
+        <v>192041000</v>
       </c>
       <c r="Y16" s="23">
-        <v>207700000</v>
+        <v>202579000</v>
       </c>
       <c r="Z16" s="23">
-        <v>219783000</v>
+        <v>215014000</v>
       </c>
       <c r="AA16" s="23">
-        <v>236111000</v>
+        <v>232017000</v>
       </c>
       <c r="AB16" s="23">
-        <v>253436000</v>
+        <v>249179000</v>
       </c>
       <c r="AC16" s="23">
-        <v>261976000</v>
+        <v>267572000</v>
       </c>
       <c r="AD16" s="23">
-        <v>276479000</v>
+        <v>281535000</v>
       </c>
       <c r="AE16" s="23">
-        <v>292318000</v>
+        <v>296997000</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
@@ -8526,85 +8526,85 @@
         <v>173043</v>
       </c>
       <c r="E17">
-        <v>346098</v>
+        <v>346100</v>
       </c>
       <c r="F17">
-        <v>519304</v>
+        <v>519306</v>
       </c>
       <c r="G17">
-        <v>692426</v>
+        <v>692429</v>
       </c>
       <c r="H17">
-        <v>952099</v>
+        <v>952112</v>
       </c>
       <c r="I17" s="23">
-        <v>1125200</v>
+        <v>1125180</v>
       </c>
       <c r="J17" s="23">
-        <v>1210920</v>
+        <v>1210790</v>
       </c>
       <c r="K17" s="23">
-        <v>1205140</v>
+        <v>1204980</v>
       </c>
       <c r="L17" s="23">
-        <v>1122320</v>
+        <v>1115480</v>
       </c>
       <c r="M17">
-        <v>988638</v>
+        <v>986184</v>
       </c>
       <c r="N17">
-        <v>863862</v>
+        <v>861364</v>
       </c>
       <c r="O17">
-        <v>853852</v>
+        <v>851748</v>
       </c>
       <c r="P17">
-        <v>864971</v>
+        <v>858886</v>
       </c>
       <c r="Q17">
-        <v>518648</v>
+        <v>540597</v>
       </c>
       <c r="R17">
-        <v>413754</v>
+        <v>406710</v>
       </c>
       <c r="S17">
-        <v>211695</v>
+        <v>216332</v>
       </c>
       <c r="T17" s="23">
-        <v>-205774</v>
+        <v>-203665</v>
       </c>
       <c r="U17">
-        <v>-257961</v>
+        <v>-114946</v>
       </c>
       <c r="V17">
-        <v>-736325</v>
+        <v>-756429</v>
       </c>
       <c r="W17">
-        <v>-805783</v>
+        <v>-819325</v>
       </c>
       <c r="X17">
-        <v>-796322</v>
+        <v>-748696</v>
       </c>
       <c r="Y17">
-        <v>-739265</v>
+        <v>-733067</v>
       </c>
       <c r="Z17">
-        <v>-557957</v>
+        <v>-537796</v>
       </c>
       <c r="AA17">
-        <v>-558048</v>
+        <v>-559844</v>
       </c>
       <c r="AB17">
-        <v>-586154</v>
+        <v>-565623</v>
       </c>
       <c r="AC17">
-        <v>-562050</v>
+        <v>-575296</v>
       </c>
       <c r="AD17">
-        <v>-530920</v>
+        <v>-544543</v>
       </c>
       <c r="AE17">
-        <v>-710447</v>
+        <v>-724351</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.35">
@@ -8743,58 +8743,58 @@
         <v>150154</v>
       </c>
       <c r="N19">
-        <v>-400410</v>
+        <v>150154</v>
       </c>
       <c r="O19" s="23">
-        <v>-1251280</v>
+        <v>-700718</v>
       </c>
       <c r="P19" s="23">
-        <v>-1251280</v>
+        <v>-700718</v>
       </c>
       <c r="Q19" s="23">
-        <v>-1251280</v>
+        <v>-700718</v>
       </c>
       <c r="R19" s="23">
-        <v>-1251280</v>
+        <v>-700718</v>
       </c>
       <c r="S19" s="23">
-        <v>-1583020</v>
+        <v>-1032460</v>
       </c>
       <c r="T19" s="23">
-        <v>-2217940</v>
+        <v>-1667370</v>
       </c>
       <c r="U19" s="23">
-        <v>-2985590</v>
+        <v>-2380810</v>
       </c>
       <c r="V19" s="23">
-        <v>-3898380</v>
+        <v>-3232240</v>
       </c>
       <c r="W19" s="23">
-        <v>-4753150</v>
+        <v>-4026790</v>
       </c>
       <c r="X19" s="23">
-        <v>-5462260</v>
+        <v>-4715770</v>
       </c>
       <c r="Y19" s="23">
-        <v>-6263920</v>
+        <v>-5531060</v>
       </c>
       <c r="Z19" s="23">
-        <v>-7038070</v>
+        <v>-6317000</v>
       </c>
       <c r="AA19" s="23">
-        <v>-6909440</v>
+        <v>-6909290</v>
       </c>
       <c r="AB19" s="23">
-        <v>-5929480</v>
+        <v>-5929250</v>
       </c>
       <c r="AC19" s="23">
-        <v>-5006550</v>
+        <v>-5006780</v>
       </c>
       <c r="AD19" s="23">
-        <v>-4093370</v>
+        <v>-4093560</v>
       </c>
       <c r="AE19" s="23">
-        <v>-2972460</v>
+        <v>-2972600</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>239202</v>
       </c>
       <c r="H24">
         <v>239202</v>
@@ -9230,43 +9230,43 @@
         <v>229142</v>
       </c>
       <c r="R24">
-        <v>219211</v>
+        <v>214566</v>
       </c>
       <c r="S24">
-        <v>189656</v>
+        <v>194338</v>
       </c>
       <c r="T24">
         <v>156971</v>
       </c>
       <c r="U24">
-        <v>178461</v>
+        <v>178460</v>
       </c>
       <c r="V24">
-        <v>165172</v>
+        <v>148010</v>
       </c>
       <c r="W24">
-        <v>143376</v>
+        <v>125030</v>
       </c>
       <c r="X24">
         <v>134125</v>
       </c>
       <c r="Y24">
-        <v>136835</v>
+        <v>141482</v>
       </c>
       <c r="Z24">
-        <v>150667</v>
+        <v>150670</v>
       </c>
       <c r="AA24">
-        <v>147602</v>
+        <v>147549</v>
       </c>
       <c r="AB24">
-        <v>103319</v>
+        <v>150108</v>
       </c>
       <c r="AC24">
         <v>122091</v>
       </c>
       <c r="AD24">
-        <v>128042</v>
+        <v>127976</v>
       </c>
       <c r="AE24">
         <v>126485</v>
@@ -9627,28 +9627,28 @@
         <v>-49256000</v>
       </c>
       <c r="D28" s="23">
-        <v>-46632300</v>
+        <v>-46211500</v>
       </c>
       <c r="E28" s="23">
-        <v>-47101100</v>
+        <v>-46158200</v>
       </c>
       <c r="F28" s="23">
-        <v>-28282500</v>
+        <v>-27634300</v>
       </c>
       <c r="G28" s="23">
-        <v>-30720400</v>
+        <v>-30043600</v>
       </c>
       <c r="H28" s="23">
-        <v>-40727100</v>
+        <v>-39641600</v>
       </c>
       <c r="I28" s="23">
-        <v>-77151000</v>
+        <v>-79088500</v>
       </c>
       <c r="J28" s="23">
-        <v>-154799000</v>
+        <v>-157189000</v>
       </c>
       <c r="K28" s="23">
-        <v>-129440000</v>
+        <v>-129978000</v>
       </c>
       <c r="L28" s="23">
         <v>-47206700</v>
@@ -9745,88 +9745,88 @@
         <v>2608440</v>
       </c>
       <c r="D29" s="23">
-        <v>2525980</v>
+        <v>2542160</v>
       </c>
       <c r="E29" s="23">
-        <v>2676610</v>
+        <v>2723950</v>
       </c>
       <c r="F29" s="23">
-        <v>1178740</v>
+        <v>1258720</v>
       </c>
       <c r="G29" s="23">
-        <v>1879900</v>
+        <v>1972820</v>
       </c>
       <c r="H29" s="23">
-        <v>2841940</v>
+        <v>2955850</v>
       </c>
       <c r="I29" s="23">
-        <v>3383350</v>
+        <v>3187720</v>
       </c>
       <c r="J29" s="23">
-        <v>3090710</v>
+        <v>2794040</v>
       </c>
       <c r="K29" s="23">
-        <v>1390200</v>
+        <v>1248320</v>
       </c>
       <c r="L29" s="23">
-        <v>68970</v>
+        <v>-19448.8</v>
       </c>
       <c r="M29" s="23">
-        <v>-732686</v>
+        <v>-843525</v>
       </c>
       <c r="N29" s="23">
-        <v>-704121</v>
+        <v>-817562</v>
       </c>
       <c r="O29" s="23">
-        <v>-343150</v>
+        <v>-442046</v>
       </c>
       <c r="P29" s="23">
-        <v>-749580</v>
+        <v>-753057</v>
       </c>
       <c r="Q29" s="23">
-        <v>-650986</v>
+        <v>-854405</v>
       </c>
       <c r="R29" s="23">
-        <v>-1140760</v>
+        <v>-1454110</v>
       </c>
       <c r="S29" s="23">
-        <v>-2358140</v>
+        <v>-2039440</v>
       </c>
       <c r="T29" s="23">
-        <v>-8086960</v>
+        <v>-7801970</v>
       </c>
       <c r="U29" s="23">
-        <v>-5742320</v>
+        <v>-5550540</v>
       </c>
       <c r="V29" s="23">
-        <v>-6145410</v>
+        <v>-5565980</v>
       </c>
       <c r="W29" s="23">
-        <v>-7365030</v>
+        <v>-5592320</v>
       </c>
       <c r="X29" s="23">
-        <v>-6933710</v>
+        <v>-3641850</v>
       </c>
       <c r="Y29" s="23">
-        <v>-6021600</v>
+        <v>-3413510</v>
       </c>
       <c r="Z29" s="23">
-        <v>-6576710</v>
+        <v>-4657520</v>
       </c>
       <c r="AA29" s="23">
-        <v>-10289000</v>
+        <v>-8500010</v>
       </c>
       <c r="AB29" s="23">
-        <v>-13238600</v>
+        <v>-11015700</v>
       </c>
       <c r="AC29" s="23">
-        <v>-11395400</v>
+        <v>-9509830</v>
       </c>
       <c r="AD29" s="23">
-        <v>-11251500</v>
+        <v>-8824890</v>
       </c>
       <c r="AE29" s="23">
-        <v>-12455500</v>
+        <v>-10354700</v>
       </c>
       <c r="AQ29" s="23"/>
       <c r="AR29" s="23"/>
@@ -9868,88 +9868,88 @@
         <v>49553900</v>
       </c>
       <c r="D30" s="23">
-        <v>38193600</v>
+        <v>39820200</v>
       </c>
       <c r="E30" s="23">
-        <v>37179600</v>
+        <v>40734500</v>
       </c>
       <c r="F30" s="23">
-        <v>26312200</v>
+        <v>32651800</v>
       </c>
       <c r="G30" s="23">
-        <v>43948600</v>
+        <v>52485200</v>
       </c>
       <c r="H30" s="23">
-        <v>52217100</v>
+        <v>62125500</v>
       </c>
       <c r="I30" s="23">
-        <v>87229500</v>
+        <v>73896000</v>
       </c>
       <c r="J30" s="23">
-        <v>132767000</v>
+        <v>121938000</v>
       </c>
       <c r="K30" s="23">
-        <v>89032900</v>
+        <v>88716600</v>
       </c>
       <c r="L30" s="23">
-        <v>23109600</v>
+        <v>21796800</v>
       </c>
       <c r="M30" s="23">
-        <v>-31976100</v>
+        <v>-36023200</v>
       </c>
       <c r="N30" s="23">
-        <v>-38632900</v>
+        <v>-38504600</v>
       </c>
       <c r="O30" s="23">
-        <v>-16908100</v>
+        <v>-12264400</v>
       </c>
       <c r="P30" s="23">
-        <v>6515730</v>
+        <v>12878600</v>
       </c>
       <c r="Q30" s="23">
-        <v>-15221600</v>
+        <v>-12591500</v>
       </c>
       <c r="R30" s="23">
-        <v>-37147900</v>
+        <v>-33456700</v>
       </c>
       <c r="S30" s="23">
-        <v>-60920700</v>
+        <v>-53962800</v>
       </c>
       <c r="T30" s="23">
-        <v>-58493100</v>
+        <v>-59494400</v>
       </c>
       <c r="U30" s="23">
-        <v>-25955500</v>
+        <v>-26980300</v>
       </c>
       <c r="V30" s="23">
-        <v>-18559200</v>
+        <v>-20172400</v>
       </c>
       <c r="W30" s="23">
-        <v>-17611800</v>
+        <v>-16261600</v>
       </c>
       <c r="X30" s="23">
-        <v>-10749400</v>
+        <v>-5295060</v>
       </c>
       <c r="Y30" s="23">
-        <v>-5715850</v>
+        <v>-2879310</v>
       </c>
       <c r="Z30" s="23">
-        <v>-2968710</v>
+        <v>-3431790</v>
       </c>
       <c r="AA30" s="23">
-        <v>-8880980</v>
+        <v>-10558400</v>
       </c>
       <c r="AB30" s="23">
-        <v>-15599900</v>
+        <v>-15473400</v>
       </c>
       <c r="AC30" s="23">
-        <v>-9433530</v>
+        <v>-7430090</v>
       </c>
       <c r="AD30" s="23">
-        <v>-3778160</v>
+        <v>-1125030</v>
       </c>
       <c r="AE30" s="23">
-        <v>4755790</v>
+        <v>6108610</v>
       </c>
       <c r="AR30" s="23"/>
       <c r="AS30" s="23"/>
@@ -10047,31 +10047,31 @@
         <v>0</v>
       </c>
       <c r="W31" s="23">
-        <v>-68606.8</v>
+        <v>0</v>
       </c>
       <c r="X31" s="23">
-        <v>-234242</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="23">
-        <v>-464561</v>
+        <v>-57605.9</v>
       </c>
       <c r="Z31" s="23">
-        <v>-909483</v>
+        <v>-564322</v>
       </c>
       <c r="AA31" s="23">
-        <v>-2010860</v>
+        <v>-1502190</v>
       </c>
       <c r="AB31" s="23">
-        <v>-3904800</v>
+        <v>-2526550</v>
       </c>
       <c r="AC31" s="23">
-        <v>-2662960</v>
+        <v>-1834660</v>
       </c>
       <c r="AD31" s="23">
-        <v>-2074700</v>
+        <v>-1407210</v>
       </c>
       <c r="AE31" s="23">
-        <v>-4420150</v>
+        <v>-3240870</v>
       </c>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.35">
@@ -10100,73 +10100,73 @@
         <v>4942.2299999999996</v>
       </c>
       <c r="I32" s="23">
-        <v>7835400</v>
+        <v>5231890</v>
       </c>
       <c r="J32" s="23">
-        <v>7836120</v>
+        <v>7440620</v>
       </c>
       <c r="K32" s="23">
-        <v>13113500</v>
+        <v>10329100</v>
       </c>
       <c r="L32" s="23">
-        <v>-15685700</v>
+        <v>429118</v>
       </c>
       <c r="M32" s="23">
-        <v>-44041100</v>
+        <v>-48157000</v>
       </c>
       <c r="N32" s="23">
-        <v>-31473400</v>
+        <v>-31476900</v>
       </c>
       <c r="O32" s="23">
-        <v>-18963700</v>
+        <v>-7416120</v>
       </c>
       <c r="P32" s="23">
-        <v>-48427000</v>
+        <v>-15182500</v>
       </c>
       <c r="Q32" s="23">
-        <v>-28539600</v>
+        <v>8477850</v>
       </c>
       <c r="R32" s="23">
-        <v>-56707000</v>
+        <v>-24056900</v>
       </c>
       <c r="S32" s="23">
-        <v>-38344600</v>
+        <v>-38270500</v>
       </c>
       <c r="T32" s="23">
-        <v>-51657100</v>
+        <v>-114124000</v>
       </c>
       <c r="U32" s="23">
-        <v>-129661000</v>
+        <v>-37143500</v>
       </c>
       <c r="V32" s="23">
-        <v>-47925800</v>
+        <v>-38411300</v>
       </c>
       <c r="W32" s="23">
-        <v>-136726000</v>
+        <v>-133909000</v>
       </c>
       <c r="X32" s="23">
-        <v>-92521400</v>
+        <v>-54253400</v>
       </c>
       <c r="Y32" s="23">
-        <v>-90266000</v>
+        <v>-109153000</v>
       </c>
       <c r="Z32" s="23">
-        <v>-21048500</v>
+        <v>24364400</v>
       </c>
       <c r="AA32" s="23">
-        <v>-118946000</v>
+        <v>-82859400</v>
       </c>
       <c r="AB32" s="23">
-        <v>-33846600</v>
+        <v>-31522800</v>
       </c>
       <c r="AC32" s="23">
-        <v>-106962000</v>
+        <v>-104855000</v>
       </c>
       <c r="AD32" s="23">
-        <v>-102454000</v>
+        <v>-65333400</v>
       </c>
       <c r="AE32" s="23">
-        <v>30846000</v>
+        <v>55966100</v>
       </c>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
@@ -10205,85 +10205,85 @@
         <v>2966190</v>
       </c>
       <c r="E33" s="23">
-        <v>9626140</v>
+        <v>9658740</v>
       </c>
       <c r="F33" s="23">
-        <v>16383300</v>
+        <v>16498300</v>
       </c>
       <c r="G33" s="23">
-        <v>24202600</v>
+        <v>24449900</v>
       </c>
       <c r="H33" s="23">
-        <v>34397100</v>
+        <v>34828400</v>
       </c>
       <c r="I33" s="23">
-        <v>47334800</v>
+        <v>47867200</v>
       </c>
       <c r="J33" s="23">
-        <v>62037300</v>
+        <v>62434300</v>
       </c>
       <c r="K33" s="23">
-        <v>78280400</v>
+        <v>78352100</v>
       </c>
       <c r="L33" s="23">
-        <v>98485700</v>
+        <v>98446300</v>
       </c>
       <c r="M33" s="23">
-        <v>121430000</v>
+        <v>121162000</v>
       </c>
       <c r="N33" s="23">
-        <v>143502000</v>
+        <v>143154000</v>
       </c>
       <c r="O33" s="23">
-        <v>167852000</v>
+        <v>167533000</v>
       </c>
       <c r="P33" s="23">
-        <v>194214000</v>
+        <v>193811000</v>
       </c>
       <c r="Q33" s="23">
-        <v>228811000</v>
+        <v>228226000</v>
       </c>
       <c r="R33" s="23">
-        <v>262540000</v>
+        <v>261907000</v>
       </c>
       <c r="S33" s="23">
-        <v>293308000</v>
+        <v>292284000</v>
       </c>
       <c r="T33" s="23">
-        <v>320567000</v>
+        <v>319310000</v>
       </c>
       <c r="U33" s="23">
-        <v>347232000</v>
+        <v>346729000</v>
       </c>
       <c r="V33" s="23">
-        <v>393522000</v>
+        <v>394995000</v>
       </c>
       <c r="W33" s="23">
-        <v>431791000</v>
+        <v>418606000</v>
       </c>
       <c r="X33" s="23">
-        <v>467290000</v>
+        <v>440363000</v>
       </c>
       <c r="Y33" s="23">
-        <v>491918000</v>
+        <v>472556000</v>
       </c>
       <c r="Z33" s="23">
-        <v>529851000</v>
+        <v>521476000</v>
       </c>
       <c r="AA33" s="23">
-        <v>573202000</v>
+        <v>567217000</v>
       </c>
       <c r="AB33" s="23">
-        <v>619641000</v>
+        <v>613896000</v>
       </c>
       <c r="AC33" s="23">
-        <v>650937000</v>
+        <v>647825000</v>
       </c>
       <c r="AD33" s="23">
-        <v>694235000</v>
+        <v>685291000</v>
       </c>
       <c r="AE33" s="23">
-        <v>738078000</v>
+        <v>728267000</v>
       </c>
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.35">
@@ -10300,85 +10300,85 @@
         <v>634665</v>
       </c>
       <c r="E34" s="23">
-        <v>11207500</v>
+        <v>11211100</v>
       </c>
       <c r="F34" s="23">
-        <v>22529400</v>
+        <v>22554400</v>
       </c>
       <c r="G34" s="23">
-        <v>33135100</v>
+        <v>33195800</v>
       </c>
       <c r="H34" s="23">
-        <v>45204300</v>
+        <v>45326100</v>
       </c>
       <c r="I34" s="23">
-        <v>58588600</v>
+        <v>58789700</v>
       </c>
       <c r="J34" s="23">
-        <v>69335000</v>
+        <v>69409900</v>
       </c>
       <c r="K34" s="23">
-        <v>80793600</v>
+        <v>80532800</v>
       </c>
       <c r="L34" s="23">
-        <v>87753800</v>
+        <v>87433700</v>
       </c>
       <c r="M34" s="23">
-        <v>87301900</v>
+        <v>86476700</v>
       </c>
       <c r="N34" s="23">
-        <v>83446400</v>
+        <v>82889800</v>
       </c>
       <c r="O34" s="23">
-        <v>83298500</v>
+        <v>83115700</v>
       </c>
       <c r="P34" s="23">
-        <v>87011900</v>
+        <v>87033300</v>
       </c>
       <c r="Q34" s="23">
-        <v>86974200</v>
+        <v>86423900</v>
       </c>
       <c r="R34" s="23">
-        <v>86363100</v>
+        <v>85734900</v>
       </c>
       <c r="S34" s="23">
-        <v>86419800</v>
+        <v>85842700</v>
       </c>
       <c r="T34" s="23">
-        <v>82083700</v>
+        <v>81235600</v>
       </c>
       <c r="U34" s="23">
-        <v>84242100</v>
+        <v>83186400</v>
       </c>
       <c r="V34" s="23">
-        <v>88063300</v>
+        <v>87390200</v>
       </c>
       <c r="W34" s="23">
-        <v>90187900</v>
+        <v>88972800</v>
       </c>
       <c r="X34" s="23">
-        <v>93294400</v>
+        <v>94463800</v>
       </c>
       <c r="Y34" s="23">
-        <v>96583700</v>
+        <v>98450300</v>
       </c>
       <c r="Z34" s="23">
-        <v>100293000</v>
+        <v>103317000</v>
       </c>
       <c r="AA34" s="23">
-        <v>96429900</v>
+        <v>100009000</v>
       </c>
       <c r="AB34" s="23">
-        <v>91126500</v>
+        <v>96382300</v>
       </c>
       <c r="AC34" s="23">
-        <v>99400400</v>
+        <v>104243000</v>
       </c>
       <c r="AD34" s="23">
-        <v>106121000</v>
+        <v>111141000</v>
       </c>
       <c r="AE34" s="23">
-        <v>109500000</v>
+        <v>113847000</v>
       </c>
       <c r="AY34" s="23"/>
       <c r="AZ34" s="23"/>
@@ -10548,43 +10548,43 @@
         <v>3128800</v>
       </c>
       <c r="S36" s="23">
-        <v>2000230</v>
+        <v>2474770</v>
       </c>
       <c r="T36" s="23">
-        <v>-3696120</v>
+        <v>-2944250</v>
       </c>
       <c r="U36" s="23">
-        <v>-5477900</v>
+        <v>-4717590</v>
       </c>
       <c r="V36" s="23">
-        <v>-8264020</v>
+        <v>-7154200</v>
       </c>
       <c r="W36" s="23">
-        <v>-13258200</v>
+        <v>-8872920</v>
       </c>
       <c r="X36" s="23">
-        <v>-12668600</v>
+        <v>-5137690</v>
       </c>
       <c r="Y36" s="23">
-        <v>-11621800</v>
+        <v>-5910630</v>
       </c>
       <c r="Z36" s="23">
-        <v>-12193700</v>
+        <v>-8778750</v>
       </c>
       <c r="AA36" s="23">
-        <v>-18786200</v>
+        <v>-15351300</v>
       </c>
       <c r="AB36" s="23">
-        <v>-24962000</v>
+        <v>-20665300</v>
       </c>
       <c r="AC36" s="23">
-        <v>-18805400</v>
+        <v>-15407600</v>
       </c>
       <c r="AD36" s="23">
-        <v>-15917700</v>
+        <v>-10574900</v>
       </c>
       <c r="AE36" s="23">
-        <v>-17148000</v>
+        <v>-13025000</v>
       </c>
       <c r="AT36" s="23"/>
       <c r="AU36" s="23"/>
@@ -10680,31 +10680,31 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>-643.70100000000002</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-2195.81</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>-4351.92</v>
+        <v>-540.55100000000004</v>
       </c>
       <c r="Z37">
-        <v>-8456.76</v>
+        <v>-5251.34</v>
       </c>
       <c r="AA37">
-        <v>-18658.7</v>
+        <v>-13954.7</v>
       </c>
       <c r="AB37">
-        <v>-36091.800000000003</v>
+        <v>-23418.6</v>
       </c>
       <c r="AC37">
-        <v>-24648.1</v>
+        <v>-17034.099999999999</v>
       </c>
       <c r="AD37">
-        <v>-19252.7</v>
+        <v>-13074</v>
       </c>
       <c r="AE37">
-        <v>-39650.1</v>
+        <v>-29146.799999999999</v>
       </c>
       <c r="AR37" s="23"/>
       <c r="AS37" s="23"/>
@@ -10757,76 +10757,76 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>19267.599999999999</v>
       </c>
       <c r="I38">
-        <v>38535.199999999997</v>
+        <v>19267.599999999999</v>
       </c>
       <c r="J38">
         <v>57802.8</v>
       </c>
       <c r="K38">
-        <v>520225</v>
+        <v>558760</v>
       </c>
       <c r="L38" s="23">
-        <v>982647</v>
+        <v>1021180</v>
       </c>
       <c r="M38" s="23">
-        <v>1329460</v>
+        <v>1368000</v>
       </c>
       <c r="N38" s="23">
-        <v>1329460</v>
+        <v>1368000</v>
       </c>
       <c r="O38" s="23">
-        <v>1040450</v>
+        <v>1117520</v>
       </c>
       <c r="P38" s="23">
-        <v>1040450</v>
+        <v>1117520</v>
       </c>
       <c r="Q38" s="23">
-        <v>1040450</v>
+        <v>1117520</v>
       </c>
       <c r="R38" s="23">
-        <v>1040450</v>
+        <v>1117520</v>
       </c>
       <c r="S38" s="23">
-        <v>1541410</v>
+        <v>1618480</v>
       </c>
       <c r="T38" s="23">
-        <v>1541410</v>
+        <v>1618480</v>
       </c>
       <c r="U38" s="23">
-        <v>1541410</v>
+        <v>1618480</v>
       </c>
       <c r="V38" s="23">
-        <v>1117520</v>
+        <v>1213860</v>
       </c>
       <c r="W38" s="23">
-        <v>1117280</v>
+        <v>1213860</v>
       </c>
       <c r="X38" s="23">
-        <v>1116700</v>
+        <v>1213860</v>
       </c>
       <c r="Y38" s="23">
-        <v>1115880</v>
+        <v>1213650</v>
       </c>
       <c r="Z38" s="23">
-        <v>1191460</v>
+        <v>1308220</v>
       </c>
       <c r="AA38" s="23">
-        <v>1438220</v>
+        <v>1516990</v>
       </c>
       <c r="AB38" s="23">
-        <v>1586560</v>
+        <v>1629560</v>
       </c>
       <c r="AC38" s="23">
-        <v>1456560</v>
+        <v>1458990</v>
       </c>
       <c r="AD38" s="23">
-        <v>1169850</v>
+        <v>1190900</v>
       </c>
       <c r="AE38" s="23">
-        <v>971304</v>
+        <v>935711</v>
       </c>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -10938,52 +10938,52 @@
         <v>-1082.82</v>
       </c>
       <c r="D40">
-        <v>-1848.87</v>
+        <v>-1807.1</v>
       </c>
       <c r="E40">
-        <v>-12009.3</v>
+        <v>-11271.1</v>
       </c>
       <c r="F40" s="23">
-        <v>-6506.67</v>
+        <v>-5125.7</v>
       </c>
       <c r="G40" s="23">
-        <v>-1809260</v>
+        <v>-1654930</v>
       </c>
       <c r="H40" s="23">
-        <v>-5275470</v>
+        <v>-4175840</v>
       </c>
       <c r="I40" s="23">
-        <v>-14582700</v>
+        <v>-15753100</v>
       </c>
       <c r="J40" s="23">
-        <v>-21532100</v>
+        <v>-22916500</v>
       </c>
       <c r="K40" s="23">
-        <v>-47194400</v>
+        <v>-48023200</v>
       </c>
       <c r="L40" s="23">
-        <v>-108393000</v>
+        <v>-109847000</v>
       </c>
       <c r="M40" s="23">
-        <v>-128405000</v>
+        <v>-130070000</v>
       </c>
       <c r="N40" s="23">
-        <v>-136649000</v>
+        <v>-137357000</v>
       </c>
       <c r="O40" s="23">
-        <v>-110266000</v>
+        <v>-111043000</v>
       </c>
       <c r="P40" s="23">
-        <v>-103381000</v>
+        <v>-103866000</v>
       </c>
       <c r="Q40" s="23">
-        <v>-89637400</v>
+        <v>-89934000</v>
       </c>
       <c r="R40" s="23">
-        <v>-78830500</v>
+        <v>-79051400</v>
       </c>
       <c r="S40" s="23">
-        <v>-68237100</v>
+        <v>-68296000</v>
       </c>
       <c r="T40" s="23">
         <v>-52374600</v>
@@ -11056,82 +11056,82 @@
         <v>7077170</v>
       </c>
       <c r="F41" s="23">
-        <v>14378000</v>
+        <v>14427900</v>
       </c>
       <c r="G41" s="23">
-        <v>24136800</v>
+        <v>24236800</v>
       </c>
       <c r="H41" s="23">
-        <v>35680100</v>
+        <v>35881700</v>
       </c>
       <c r="I41" s="23">
-        <v>49223300</v>
+        <v>49476000</v>
       </c>
       <c r="J41" s="23">
-        <v>61569100</v>
+        <v>61770400</v>
       </c>
       <c r="K41" s="23">
-        <v>75758400</v>
+        <v>75777800</v>
       </c>
       <c r="L41" s="23">
-        <v>91724800</v>
+        <v>91666200</v>
       </c>
       <c r="M41" s="23">
-        <v>112665000</v>
+        <v>112555000</v>
       </c>
       <c r="N41" s="23">
-        <v>133171000</v>
+        <v>132956000</v>
       </c>
       <c r="O41" s="23">
-        <v>154538000</v>
+        <v>154166000</v>
       </c>
       <c r="P41" s="23">
-        <v>176125000</v>
+        <v>175569000</v>
       </c>
       <c r="Q41" s="23">
-        <v>206184000</v>
+        <v>205575000</v>
       </c>
       <c r="R41" s="23">
-        <v>238731000</v>
+        <v>237910000</v>
       </c>
       <c r="S41" s="23">
-        <v>273647000</v>
+        <v>272296000</v>
       </c>
       <c r="T41" s="23">
-        <v>305282000</v>
+        <v>304170000</v>
       </c>
       <c r="U41" s="23">
-        <v>324678000</v>
+        <v>323992000</v>
       </c>
       <c r="V41" s="23">
-        <v>347278000</v>
+        <v>346458000</v>
       </c>
       <c r="W41" s="23">
-        <v>359967000</v>
+        <v>359219000</v>
       </c>
       <c r="X41" s="23">
-        <v>370228000</v>
+        <v>362974000</v>
       </c>
       <c r="Y41" s="23">
-        <v>375541000</v>
+        <v>373748000</v>
       </c>
       <c r="Z41" s="23">
-        <v>376301000</v>
+        <v>376356000</v>
       </c>
       <c r="AA41" s="23">
-        <v>387394000</v>
+        <v>387653000</v>
       </c>
       <c r="AB41" s="23">
-        <v>392768000</v>
+        <v>394059000</v>
       </c>
       <c r="AC41" s="23">
-        <v>393305000</v>
+        <v>393938000</v>
       </c>
       <c r="AD41" s="23">
-        <v>392229000</v>
+        <v>392698000</v>
       </c>
       <c r="AE41" s="23">
-        <v>387813000</v>
+        <v>388826000</v>
       </c>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.35">
@@ -11148,85 +11148,85 @@
         <v>173043</v>
       </c>
       <c r="E42">
-        <v>346080</v>
+        <v>346083</v>
       </c>
       <c r="F42">
-        <v>432720</v>
+        <v>432723</v>
       </c>
       <c r="G42">
-        <v>519149</v>
+        <v>519190</v>
       </c>
       <c r="H42">
-        <v>691618</v>
+        <v>691834</v>
       </c>
       <c r="I42" s="23">
-        <v>863448</v>
+        <v>860880</v>
       </c>
       <c r="J42" s="23">
-        <v>842116</v>
+        <v>832216</v>
       </c>
       <c r="K42">
-        <v>766941</v>
+        <v>765262</v>
       </c>
       <c r="L42">
-        <v>593029</v>
+        <v>592107</v>
       </c>
       <c r="M42">
-        <v>381854</v>
+        <v>379995</v>
       </c>
       <c r="N42">
-        <v>269743</v>
+        <v>259651</v>
       </c>
       <c r="O42">
-        <v>300839</v>
+        <v>294920</v>
       </c>
       <c r="P42">
-        <v>142873</v>
+        <v>147039</v>
       </c>
       <c r="Q42">
-        <v>-20120.900000000001</v>
+        <v>-31758.5</v>
       </c>
       <c r="R42">
-        <v>-205743</v>
+        <v>-260743</v>
       </c>
       <c r="S42" s="23">
-        <v>-493578</v>
+        <v>-482512</v>
       </c>
       <c r="T42" s="23">
-        <v>-1304820</v>
+        <v>-1296900</v>
       </c>
       <c r="U42" s="23">
-        <v>-1083530</v>
+        <v>-1097670</v>
       </c>
       <c r="V42" s="23">
-        <v>-1096590</v>
+        <v>-1063830</v>
       </c>
       <c r="W42" s="23">
-        <v>-1085380</v>
+        <v>-1070230</v>
       </c>
       <c r="X42" s="23">
-        <v>-1082820</v>
+        <v>-1029410</v>
       </c>
       <c r="Y42" s="23">
-        <v>-1016370</v>
+        <v>-959916</v>
       </c>
       <c r="Z42">
-        <v>-795104</v>
+        <v>-767812</v>
       </c>
       <c r="AA42">
-        <v>-799670</v>
+        <v>-801386</v>
       </c>
       <c r="AB42">
-        <v>-786707</v>
+        <v>-767828</v>
       </c>
       <c r="AC42">
-        <v>-732202</v>
+        <v>-721263</v>
       </c>
       <c r="AD42">
-        <v>-654991</v>
+        <v>-651757</v>
       </c>
       <c r="AE42">
-        <v>-832635</v>
+        <v>-820808</v>
       </c>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.35">
@@ -11365,58 +11365,58 @@
         <v>150154</v>
       </c>
       <c r="N44" s="23">
-        <v>-500513</v>
+        <v>-450462</v>
       </c>
       <c r="O44" s="23">
-        <v>-1451490</v>
+        <v>-1401440</v>
       </c>
       <c r="P44" s="23">
-        <v>-2102150</v>
+        <v>-1401440</v>
       </c>
       <c r="Q44" s="23">
-        <v>-2702770</v>
+        <v>-1401440</v>
       </c>
       <c r="R44" s="23">
-        <v>-3253330</v>
+        <v>-1401440</v>
       </c>
       <c r="S44" s="23">
-        <v>-3717560</v>
+        <v>-1850130</v>
       </c>
       <c r="T44" s="23">
-        <v>-4804280</v>
+        <v>-3003940</v>
       </c>
       <c r="U44" s="23">
-        <v>-5851120</v>
+        <v>-4093780</v>
       </c>
       <c r="V44" s="23">
-        <v>-6948320</v>
+        <v>-5229970</v>
       </c>
       <c r="W44" s="23">
-        <v>-7912190</v>
+        <v>-6140630</v>
       </c>
       <c r="X44" s="23">
-        <v>-8590880</v>
+        <v>-6776340</v>
       </c>
       <c r="Y44" s="23">
-        <v>-8725910</v>
+        <v>-7583130</v>
       </c>
       <c r="Z44" s="23">
-        <v>-7853370</v>
+        <v>-7852660</v>
       </c>
       <c r="AA44" s="23">
-        <v>-6915080</v>
+        <v>-6914370</v>
       </c>
       <c r="AB44" s="23">
-        <v>-5936060</v>
+        <v>-5935150</v>
       </c>
       <c r="AC44" s="23">
-        <v>-5012070</v>
+        <v>-5011360</v>
       </c>
       <c r="AD44" s="23">
-        <v>-4098320</v>
+        <v>-4097190</v>
       </c>
       <c r="AE44" s="23">
-        <v>-2976700</v>
+        <v>-2975830</v>
       </c>
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.35">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>119601</v>
       </c>
       <c r="H49">
         <v>119601</v>
@@ -11834,64 +11834,64 @@
         <v>119601</v>
       </c>
       <c r="L49">
-        <v>114569</v>
+        <v>114635</v>
       </c>
       <c r="M49">
-        <v>-130563</v>
+        <v>-130565</v>
       </c>
       <c r="N49">
         <v>-134252</v>
       </c>
       <c r="O49">
-        <v>-125532</v>
+        <v>-19419.400000000001</v>
       </c>
       <c r="P49">
-        <v>-120490</v>
+        <v>-14377.9</v>
       </c>
       <c r="Q49">
-        <v>-120384</v>
+        <v>-16705.400000000001</v>
       </c>
       <c r="R49">
-        <v>-120951</v>
+        <v>-27336.6</v>
       </c>
       <c r="S49">
-        <v>-124943</v>
+        <v>-40204.6</v>
       </c>
       <c r="T49">
-        <v>-131653</v>
+        <v>-55949</v>
       </c>
       <c r="U49">
-        <v>-109980</v>
+        <v>-39168.6</v>
       </c>
       <c r="V49">
-        <v>-114074</v>
+        <v>-33521.4</v>
       </c>
       <c r="W49">
-        <v>-125507</v>
+        <v>-56126.2</v>
       </c>
       <c r="X49">
-        <v>-130058</v>
+        <v>-45983.1</v>
       </c>
       <c r="Y49">
-        <v>-124619</v>
+        <v>-55223.6</v>
       </c>
       <c r="Z49">
-        <v>-105652</v>
+        <v>-65063.199999999997</v>
       </c>
       <c r="AA49">
-        <v>-102764</v>
+        <v>-69451.100000000006</v>
       </c>
       <c r="AB49">
-        <v>-102212</v>
+        <v>-72821.399999999994</v>
       </c>
       <c r="AC49">
-        <v>-97864</v>
+        <v>-67325.3</v>
       </c>
       <c r="AD49">
-        <v>-90017.2</v>
+        <v>-55545.5</v>
       </c>
       <c r="AE49">
-        <v>-111134</v>
+        <v>-43546.8</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
@@ -12097,35 +12097,35 @@
       </c>
       <c r="D53" s="23">
         <f t="shared" ref="D53:AE53" si="0">D28-D3</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E53" s="23">
         <f t="shared" si="0"/>
-        <v>-4818400</v>
+        <v>-4794000</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="0"/>
-        <v>-7707000</v>
+        <v>-7403000</v>
       </c>
       <c r="G53" s="23">
         <f t="shared" si="0"/>
-        <v>-12671500</v>
+        <v>-12531300</v>
       </c>
       <c r="H53" s="23">
         <f t="shared" si="0"/>
-        <v>-15915500</v>
+        <v>-16434300</v>
       </c>
       <c r="I53" s="23">
         <f t="shared" si="0"/>
-        <v>-18127400</v>
+        <v>-17801400</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
-        <v>-14623000</v>
+        <v>-14082000</v>
       </c>
       <c r="K53" s="23">
         <f t="shared" si="0"/>
-        <v>-1118000</v>
+        <v>-955000</v>
       </c>
       <c r="L53" s="23">
         <f t="shared" si="0"/>
@@ -12225,111 +12225,111 @@
       </c>
       <c r="E54" s="23">
         <f t="shared" si="1"/>
-        <v>-232160</v>
+        <v>-231180</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="1"/>
-        <v>-1413490</v>
+        <v>-1441670</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="1"/>
-        <v>-1456330</v>
+        <v>-1422560</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="1"/>
-        <v>-1773940</v>
+        <v>-1767360</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="1"/>
-        <v>-2161730</v>
+        <v>-2232120</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>-2124160</v>
+        <v>-2274590</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="1"/>
-        <v>-2745150</v>
+        <v>-2817640</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="1"/>
-        <v>-2408070</v>
+        <v>-2354678.7999999998</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="1"/>
-        <v>-2338676</v>
+        <v>-2286265</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="1"/>
-        <v>-2469961</v>
+        <v>-2459722</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="1"/>
-        <v>-2332110</v>
+        <v>-2354626</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="1"/>
-        <v>-3623680</v>
+        <v>-3486767</v>
       </c>
       <c r="Q54" s="23">
         <f t="shared" si="1"/>
-        <v>-2383176</v>
+        <v>-2632205</v>
       </c>
       <c r="R54" s="23">
         <f t="shared" si="1"/>
-        <v>-3272280</v>
+        <v>-3476270</v>
       </c>
       <c r="S54" s="23">
         <f t="shared" si="1"/>
-        <v>-4534360</v>
+        <v>-4237670</v>
       </c>
       <c r="T54" s="23">
         <f t="shared" si="1"/>
-        <v>-9077438</v>
+        <v>-8799168</v>
       </c>
       <c r="U54" s="23">
         <f t="shared" si="1"/>
-        <v>-7897510</v>
+        <v>-8867940</v>
       </c>
       <c r="V54" s="23">
         <f t="shared" si="1"/>
-        <v>-7545770</v>
+        <v>-6621080</v>
       </c>
       <c r="W54" s="23">
         <f t="shared" si="1"/>
-        <v>-8827190</v>
+        <v>-6898330</v>
       </c>
       <c r="X54" s="23">
         <f t="shared" si="1"/>
-        <v>-9346530</v>
+        <v>-6591960</v>
       </c>
       <c r="Y54" s="23">
         <f t="shared" si="1"/>
-        <v>-9833500</v>
+        <v>-7421380</v>
       </c>
       <c r="Z54" s="23">
         <f t="shared" si="1"/>
-        <v>-11053440</v>
+        <v>-9613170</v>
       </c>
       <c r="AA54" s="23">
         <f t="shared" si="1"/>
-        <v>-14144200</v>
+        <v>-12805830</v>
       </c>
       <c r="AB54" s="23">
         <f t="shared" si="1"/>
-        <v>-16203180</v>
+        <v>-14766070</v>
       </c>
       <c r="AC54" s="23">
         <f t="shared" si="1"/>
-        <v>-15414490</v>
+        <v>-13211120</v>
       </c>
       <c r="AD54" s="23">
         <f t="shared" si="1"/>
-        <v>-15136550</v>
+        <v>-12602160</v>
       </c>
       <c r="AE54" s="23">
         <f t="shared" si="1"/>
-        <v>-14242400</v>
+        <v>-12304500</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
@@ -12349,111 +12349,111 @@
       </c>
       <c r="E55" s="23">
         <f t="shared" si="1"/>
-        <v>-12560900</v>
+        <v>-12635100</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
-        <v>-27266900</v>
+        <v>-27654200</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="1"/>
-        <v>-39703400</v>
+        <v>-40022000</v>
       </c>
       <c r="H55" s="23">
         <f t="shared" si="1"/>
-        <v>-50405900</v>
+        <v>-51503500</v>
       </c>
       <c r="I55" s="23">
         <f t="shared" si="1"/>
-        <v>-62385500</v>
+        <v>-56617000</v>
       </c>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>-63720000</v>
+        <v>-61813000</v>
       </c>
       <c r="K55" s="23">
         <f t="shared" si="1"/>
-        <v>-76192100</v>
+        <v>-79524400</v>
       </c>
       <c r="L55" s="23">
         <f t="shared" si="1"/>
-        <v>-80202400</v>
+        <v>-78549200</v>
       </c>
       <c r="M55" s="23">
         <f t="shared" si="1"/>
-        <v>-84758700</v>
+        <v>-82197600</v>
       </c>
       <c r="N55" s="23">
         <f t="shared" si="1"/>
-        <v>-91761900</v>
+        <v>-90641700</v>
       </c>
       <c r="O55" s="23">
         <f t="shared" si="1"/>
-        <v>-102025900</v>
+        <v>-100472100</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="1"/>
-        <v>-103528270</v>
+        <v>-103170400</v>
       </c>
       <c r="Q55" s="23">
         <f t="shared" si="1"/>
-        <v>-86720900</v>
+        <v>-89812800</v>
       </c>
       <c r="R55" s="23">
         <f t="shared" si="1"/>
-        <v>-88680300</v>
+        <v>-88325900</v>
       </c>
       <c r="S55" s="23">
         <f t="shared" si="1"/>
-        <v>-98287200</v>
+        <v>-98697800</v>
       </c>
       <c r="T55" s="23">
         <f t="shared" si="1"/>
-        <v>-59792220</v>
+        <v>-67595940</v>
       </c>
       <c r="U55" s="23">
         <f t="shared" si="1"/>
-        <v>-29148910</v>
+        <v>-34489530</v>
       </c>
       <c r="V55" s="23">
         <f t="shared" si="1"/>
-        <v>-23297180</v>
+        <v>-19717642</v>
       </c>
       <c r="W55" s="23">
         <f t="shared" si="1"/>
-        <v>-21886620</v>
+        <v>-16796537</v>
       </c>
       <c r="X55" s="23">
         <f t="shared" si="1"/>
-        <v>-21844300</v>
+        <v>-16586760</v>
       </c>
       <c r="Y55" s="23">
         <f t="shared" si="1"/>
-        <v>-20744750</v>
+        <v>-17571610</v>
       </c>
       <c r="Z55" s="23">
         <f t="shared" si="1"/>
-        <v>-19948310</v>
+        <v>-19138690</v>
       </c>
       <c r="AA55" s="23">
         <f t="shared" si="1"/>
-        <v>-19205180</v>
+        <v>-20726400</v>
       </c>
       <c r="AB55" s="23">
         <f t="shared" si="1"/>
-        <v>-19133170</v>
+        <v>-18990660</v>
       </c>
       <c r="AC55" s="23">
         <f t="shared" si="1"/>
-        <v>-16905410</v>
+        <v>-9587970</v>
       </c>
       <c r="AD55" s="23">
         <f t="shared" si="1"/>
-        <v>-12549370</v>
+        <v>-4738310</v>
       </c>
       <c r="AE55" s="23">
         <f t="shared" si="1"/>
-        <v>-10267110</v>
+        <v>-4503090</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
@@ -12545,39 +12545,39 @@
       </c>
       <c r="W56" s="23">
         <f t="shared" si="1"/>
-        <v>-68606.8</v>
+        <v>0</v>
       </c>
       <c r="X56" s="23">
         <f t="shared" si="1"/>
-        <v>-234242</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="23">
         <f t="shared" si="1"/>
-        <v>-464561</v>
+        <v>-57605.9</v>
       </c>
       <c r="Z56" s="23">
         <f t="shared" si="1"/>
-        <v>-909482.99999988079</v>
+        <v>-564322</v>
       </c>
       <c r="AA56" s="23">
         <f t="shared" si="1"/>
-        <v>-2010859.9999998808</v>
+        <v>-1502190</v>
       </c>
       <c r="AB56" s="23">
         <f t="shared" si="1"/>
-        <v>-3904800</v>
+        <v>-2526549.9999998808</v>
       </c>
       <c r="AC56" s="23">
         <f t="shared" si="1"/>
-        <v>-2662959.9999998808</v>
+        <v>-1818991</v>
       </c>
       <c r="AD56" s="23">
         <f t="shared" si="1"/>
-        <v>-2068736.13</v>
+        <v>-1365609.3</v>
       </c>
       <c r="AE56" s="23">
         <f t="shared" si="1"/>
-        <v>-3830611</v>
+        <v>-2579654</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
@@ -12613,95 +12613,95 @@
       </c>
       <c r="I57" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2603510</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-395500</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="1"/>
-        <v>-48000</v>
+        <v>-2832400</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="1"/>
-        <v>-23990520</v>
+        <v>-5034902</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="1"/>
-        <v>-27010900</v>
+        <v>-24102400</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-23860840</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" si="1"/>
-        <v>-16421220</v>
+        <v>-10484010</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" si="1"/>
-        <v>-40604120</v>
+        <v>-23488270</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" si="1"/>
-        <v>-58616600</v>
+        <v>16629710</v>
       </c>
       <c r="R57" s="23">
         <f t="shared" si="1"/>
-        <v>-24807400</v>
+        <v>-26766640</v>
       </c>
       <c r="S57" s="23">
         <f t="shared" si="1"/>
-        <v>3251300</v>
+        <v>-4865900</v>
       </c>
       <c r="T57" s="23">
         <f t="shared" si="1"/>
-        <v>11636100</v>
+        <v>-93352800</v>
       </c>
       <c r="U57" s="23">
         <f t="shared" si="1"/>
-        <v>-131759420</v>
+        <v>-39319540</v>
       </c>
       <c r="V57" s="23">
         <f t="shared" si="1"/>
-        <v>-38124460</v>
+        <v>-26844200</v>
       </c>
       <c r="W57" s="23">
         <f t="shared" si="1"/>
-        <v>-31544000</v>
+        <v>-115296800</v>
       </c>
       <c r="X57" s="23">
         <f t="shared" si="1"/>
-        <v>-81163300</v>
+        <v>-43238600</v>
       </c>
       <c r="Y57" s="23">
         <f t="shared" si="1"/>
-        <v>1159900</v>
+        <v>-18005300</v>
       </c>
       <c r="Z57" s="23">
         <f t="shared" si="1"/>
-        <v>-37430500</v>
+        <v>-81974600</v>
       </c>
       <c r="AA57" s="23">
         <f t="shared" si="1"/>
-        <v>-43681000</v>
+        <v>-8044400</v>
       </c>
       <c r="AB57" s="23">
         <f t="shared" si="1"/>
-        <v>-44919000</v>
+        <v>-43316500</v>
       </c>
       <c r="AC57" s="23">
         <f t="shared" si="1"/>
-        <v>-112754820</v>
+        <v>-31520700</v>
       </c>
       <c r="AD57" s="23">
         <f t="shared" si="1"/>
-        <v>-110386950</v>
+        <v>4886500</v>
       </c>
       <c r="AE57" s="23">
         <f t="shared" si="1"/>
-        <v>23450760</v>
+        <v>41116800</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
@@ -12721,111 +12721,111 @@
       </c>
       <c r="E58" s="23">
         <f t="shared" si="1"/>
-        <v>2581830</v>
+        <v>2581820</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="1"/>
-        <v>5173000</v>
+        <v>5189600</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="1"/>
-        <v>6836500</v>
+        <v>6886000</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="1"/>
-        <v>8450700</v>
+        <v>8617300</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="1"/>
-        <v>10060800</v>
+        <v>10294800</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>10772200</v>
+        <v>10955500</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="1"/>
-        <v>10772200</v>
+        <v>10784300</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="1"/>
-        <v>13382300</v>
+        <v>13420200</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="1"/>
-        <v>17054000</v>
+        <v>17189000</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="1"/>
-        <v>17618000</v>
+        <v>18010000</v>
       </c>
       <c r="O58" s="23">
         <f t="shared" si="1"/>
-        <v>18379000</v>
+        <v>19045000</v>
       </c>
       <c r="P58" s="23">
         <f t="shared" si="1"/>
-        <v>15163000</v>
+        <v>15940000</v>
       </c>
       <c r="Q58" s="23">
         <f t="shared" si="1"/>
-        <v>14448000</v>
+        <v>15246000</v>
       </c>
       <c r="R58" s="23">
         <f t="shared" si="1"/>
-        <v>11572000</v>
+        <v>12361000</v>
       </c>
       <c r="S58" s="23">
         <f t="shared" si="1"/>
-        <v>2737000</v>
+        <v>3298000</v>
       </c>
       <c r="T58" s="23">
         <f t="shared" si="1"/>
-        <v>3233000</v>
+        <v>2846000</v>
       </c>
       <c r="U58" s="23">
         <f t="shared" si="1"/>
-        <v>2865000</v>
+        <v>3278000</v>
       </c>
       <c r="V58" s="23">
         <f t="shared" si="1"/>
-        <v>6745000</v>
+        <v>9392000</v>
       </c>
       <c r="W58" s="23">
         <f t="shared" si="1"/>
-        <v>20275000</v>
+        <v>11551000</v>
       </c>
       <c r="X58" s="23">
         <f t="shared" si="1"/>
-        <v>32210000</v>
+        <v>14206000</v>
       </c>
       <c r="Y58" s="23">
         <f t="shared" si="1"/>
-        <v>37798000</v>
+        <v>25679000</v>
       </c>
       <c r="Z58" s="23">
         <f t="shared" si="1"/>
-        <v>50487000</v>
+        <v>48835000</v>
       </c>
       <c r="AA58" s="23">
         <f t="shared" si="1"/>
-        <v>65565000</v>
+        <v>63851000</v>
       </c>
       <c r="AB58" s="23">
         <f t="shared" si="1"/>
-        <v>87845000</v>
+        <v>84769000</v>
       </c>
       <c r="AC58" s="23">
         <f t="shared" si="1"/>
-        <v>102955000</v>
+        <v>90728000</v>
       </c>
       <c r="AD58" s="23">
         <f t="shared" si="1"/>
-        <v>126725000</v>
+        <v>108714000</v>
       </c>
       <c r="AE58" s="23">
         <f t="shared" si="1"/>
-        <v>152596000</v>
+        <v>132478000</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
@@ -12845,111 +12845,111 @@
       </c>
       <c r="E59" s="23">
         <f t="shared" si="1"/>
-        <v>9492550</v>
+        <v>9492600</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
-        <v>19664350</v>
+        <v>19664370</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="1"/>
-        <v>28534640</v>
+        <v>28541740</v>
       </c>
       <c r="H59" s="23">
         <f t="shared" si="1"/>
-        <v>38226630</v>
+        <v>38284060</v>
       </c>
       <c r="I59" s="23">
         <f t="shared" si="1"/>
-        <v>48609000</v>
+        <v>48724100</v>
       </c>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>55863400</v>
+        <v>55888300</v>
       </c>
       <c r="K59" s="23">
         <f t="shared" si="1"/>
-        <v>63271400</v>
+        <v>63022000</v>
       </c>
       <c r="L59" s="23">
         <f t="shared" si="1"/>
-        <v>65558700</v>
+        <v>65293700</v>
       </c>
       <c r="M59" s="23">
         <f t="shared" si="1"/>
-        <v>60266400</v>
+        <v>59612800</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="1"/>
-        <v>52155400</v>
+        <v>51812500</v>
       </c>
       <c r="O59" s="23">
         <f t="shared" si="1"/>
-        <v>48388400</v>
+        <v>48410100</v>
       </c>
       <c r="P59" s="23">
         <f t="shared" si="1"/>
-        <v>44390400</v>
+        <v>44643200</v>
       </c>
       <c r="Q59" s="23">
         <f t="shared" si="1"/>
-        <v>35750100</v>
+        <v>35422400</v>
       </c>
       <c r="R59" s="23">
         <f t="shared" si="1"/>
-        <v>26145000</v>
+        <v>25903100</v>
       </c>
       <c r="S59" s="23">
         <f t="shared" si="1"/>
-        <v>15732700</v>
+        <v>16320000</v>
       </c>
       <c r="T59" s="23">
         <f t="shared" si="1"/>
-        <v>7961100</v>
+        <v>7285800</v>
       </c>
       <c r="U59" s="23">
         <f t="shared" si="1"/>
-        <v>4377400</v>
+        <v>3071200</v>
       </c>
       <c r="V59" s="23">
         <f t="shared" si="1"/>
-        <v>-3018200</v>
+        <v>-1915600</v>
       </c>
       <c r="W59" s="23">
         <f t="shared" si="1"/>
-        <v>-9000600</v>
+        <v>-6109800</v>
       </c>
       <c r="X59" s="23">
         <f t="shared" si="1"/>
-        <v>-13488600</v>
+        <v>-7417200</v>
       </c>
       <c r="Y59" s="23">
         <f t="shared" si="1"/>
-        <v>-16698300</v>
+        <v>-9747700</v>
       </c>
       <c r="Z59" s="23">
         <f t="shared" si="1"/>
-        <v>-19663000</v>
+        <v>-12814000</v>
       </c>
       <c r="AA59" s="23">
         <f t="shared" si="1"/>
-        <v>-26886100</v>
+        <v>-20122000</v>
       </c>
       <c r="AB59" s="23">
         <f t="shared" si="1"/>
-        <v>-33787500</v>
+        <v>-25389700</v>
       </c>
       <c r="AC59" s="23">
         <f t="shared" si="1"/>
-        <v>-30435600</v>
+        <v>-21394000</v>
       </c>
       <c r="AD59" s="23">
         <f t="shared" si="1"/>
-        <v>-28664000</v>
+        <v>-19330000</v>
       </c>
       <c r="AE59" s="23">
         <f t="shared" si="1"/>
-        <v>-29983000</v>
+        <v>-20662000</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
@@ -13149,55 +13149,55 @@
       </c>
       <c r="S61" s="23">
         <f t="shared" si="1"/>
-        <v>-4409310</v>
+        <v>-3934770</v>
       </c>
       <c r="T61" s="23">
         <f t="shared" si="1"/>
-        <v>-11425460</v>
+        <v>-10743120</v>
       </c>
       <c r="U61" s="23">
         <f t="shared" si="1"/>
-        <v>-14246720</v>
+        <v>-13696110</v>
       </c>
       <c r="V61" s="23">
         <f t="shared" si="1"/>
-        <v>-17441370</v>
+        <v>-15998330</v>
       </c>
       <c r="W61" s="23">
         <f t="shared" si="1"/>
-        <v>-22308210</v>
+        <v>-17827710</v>
       </c>
       <c r="X61" s="23">
         <f t="shared" si="1"/>
-        <v>-23306400</v>
+        <v>-16360890</v>
       </c>
       <c r="Y61" s="23">
         <f t="shared" si="1"/>
-        <v>-24350400</v>
+        <v>-19115130</v>
       </c>
       <c r="Z61" s="23">
         <f t="shared" si="1"/>
-        <v>-26421800</v>
+        <v>-23543250</v>
       </c>
       <c r="AA61" s="23">
         <f t="shared" si="1"/>
-        <v>-31861000</v>
+        <v>-29133900</v>
       </c>
       <c r="AB61" s="23">
         <f t="shared" si="1"/>
-        <v>-35963400</v>
+        <v>-32787300</v>
       </c>
       <c r="AC61" s="23">
         <f t="shared" si="1"/>
-        <v>-31145800</v>
+        <v>-26653300</v>
       </c>
       <c r="AD61" s="23">
         <f t="shared" si="1"/>
-        <v>-28515100</v>
+        <v>-22278700</v>
       </c>
       <c r="AE61" s="23">
         <f t="shared" si="1"/>
-        <v>-24635720</v>
+        <v>-19844730</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
@@ -13289,39 +13289,39 @@
       </c>
       <c r="W62" s="23">
         <f t="shared" si="1"/>
-        <v>-643.70100000000002</v>
+        <v>0</v>
       </c>
       <c r="X62" s="23">
         <f t="shared" si="1"/>
-        <v>-2195.81</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="23">
         <f t="shared" si="1"/>
-        <v>-4351.92</v>
+        <v>-540.55100000000004</v>
       </c>
       <c r="Z62" s="23">
         <f t="shared" ref="Z62:AE62" si="2">Z37-Z12</f>
-        <v>-8456.76</v>
+        <v>-5251.34</v>
       </c>
       <c r="AA62" s="23">
         <f t="shared" si="2"/>
-        <v>-18658.7</v>
+        <v>-13954.7</v>
       </c>
       <c r="AB62" s="23">
         <f t="shared" si="2"/>
-        <v>-36091.800000000003</v>
+        <v>-23418.6</v>
       </c>
       <c r="AC62" s="23">
         <f t="shared" si="2"/>
-        <v>-24648.1</v>
+        <v>-16887.971999999998</v>
       </c>
       <c r="AD62" s="23">
         <f t="shared" si="2"/>
-        <v>-19197.0929</v>
+        <v>-12685.986000000001</v>
       </c>
       <c r="AE62" s="23">
         <f t="shared" si="2"/>
-        <v>-34215</v>
+        <v>-23070.400000000001</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
@@ -13357,11 +13357,11 @@
       </c>
       <c r="I63" s="23">
         <f t="shared" si="3"/>
-        <v>-57802.8</v>
+        <v>-19267.599999999999</v>
       </c>
       <c r="J63" s="23">
         <f t="shared" si="3"/>
-        <v>-38535.199999999997</v>
+        <v>-19267.599999999991</v>
       </c>
       <c r="K63" s="23">
         <f t="shared" si="3"/>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="L63" s="23">
         <f t="shared" si="3"/>
-        <v>-77073</v>
+        <v>-77070</v>
       </c>
       <c r="M63" s="23">
         <f t="shared" si="3"/>
@@ -13381,71 +13381,71 @@
       </c>
       <c r="O63" s="23">
         <f t="shared" si="3"/>
-        <v>-192680</v>
+        <v>-154140</v>
       </c>
       <c r="P63" s="23">
         <f t="shared" si="3"/>
-        <v>-192680</v>
+        <v>-154140</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="3"/>
-        <v>-192680</v>
+        <v>-154140</v>
       </c>
       <c r="R63" s="23">
         <f t="shared" si="3"/>
-        <v>-192680</v>
+        <v>-154140</v>
       </c>
       <c r="S63" s="23">
         <f t="shared" si="3"/>
-        <v>-192670</v>
+        <v>-154140</v>
       </c>
       <c r="T63" s="23">
         <f t="shared" si="3"/>
-        <v>-192670</v>
+        <v>-154140</v>
       </c>
       <c r="U63" s="23">
         <f t="shared" si="3"/>
-        <v>-192670</v>
+        <v>-154140</v>
       </c>
       <c r="V63" s="23">
         <f t="shared" si="3"/>
-        <v>-616560</v>
+        <v>-558760</v>
       </c>
       <c r="W63" s="23">
         <f t="shared" si="3"/>
-        <v>-616800</v>
+        <v>-558760</v>
       </c>
       <c r="X63" s="23">
         <f t="shared" si="3"/>
-        <v>-617380</v>
+        <v>-558760</v>
       </c>
       <c r="Y63" s="23">
         <f t="shared" si="3"/>
-        <v>-618200</v>
+        <v>-558970</v>
       </c>
       <c r="Z63" s="23">
         <f t="shared" si="3"/>
-        <v>-677500</v>
+        <v>-599270</v>
       </c>
       <c r="AA63" s="23">
         <f t="shared" si="3"/>
-        <v>-719750</v>
+        <v>-679520</v>
       </c>
       <c r="AB63" s="23">
         <f t="shared" si="3"/>
-        <v>-898960</v>
+        <v>-894490</v>
       </c>
       <c r="AC63" s="23">
         <f t="shared" si="3"/>
-        <v>-1183100</v>
+        <v>-1219150</v>
       </c>
       <c r="AD63" s="23">
         <f t="shared" si="3"/>
-        <v>-1469790</v>
+        <v>-1487150</v>
       </c>
       <c r="AE63" s="23">
         <f t="shared" si="3"/>
-        <v>-1626236</v>
+        <v>-1680829</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
@@ -13589,67 +13589,67 @@
       </c>
       <c r="E65" s="23">
         <f t="shared" si="3"/>
-        <v>-5179.0599999999995</v>
+        <v>-4833.9500000000007</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="3"/>
-        <v>-6351.9989999999998</v>
+        <v>-5049.0264999999999</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="3"/>
-        <v>-367940</v>
+        <v>-214130</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="3"/>
-        <v>-3878180</v>
+        <v>-2783710</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="3"/>
-        <v>-9460100</v>
+        <v>-10611030</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="3"/>
-        <v>-14441060</v>
+        <v>-15288220</v>
       </c>
       <c r="K65" s="23">
         <f t="shared" si="3"/>
-        <v>-13135900</v>
+        <v>-13136500</v>
       </c>
       <c r="L65" s="23">
         <f t="shared" si="3"/>
-        <v>-13491400</v>
+        <v>-11984800</v>
       </c>
       <c r="M65" s="23">
         <f t="shared" si="3"/>
-        <v>-12606000</v>
+        <v>-11066000</v>
       </c>
       <c r="N65" s="23">
         <f t="shared" si="3"/>
-        <v>-9614000</v>
+        <v>-8795000</v>
       </c>
       <c r="O65" s="23">
         <f t="shared" si="3"/>
-        <v>-5034000</v>
+        <v>-5159000</v>
       </c>
       <c r="P65" s="23">
         <f t="shared" si="3"/>
-        <v>-2234000</v>
+        <v>-2119000</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="3"/>
-        <v>-754100</v>
+        <v>-659900</v>
       </c>
       <c r="R65" s="23">
         <f t="shared" si="3"/>
-        <v>-640800</v>
+        <v>-545600</v>
       </c>
       <c r="S65" s="23">
         <f t="shared" si="3"/>
-        <v>-303400</v>
+        <v>-195000</v>
       </c>
       <c r="T65" s="23">
         <f t="shared" si="3"/>
-        <v>-20700</v>
+        <v>-4100</v>
       </c>
       <c r="U65" s="23">
         <f t="shared" si="3"/>
@@ -13717,107 +13717,107 @@
       </c>
       <c r="F66" s="23">
         <f t="shared" si="3"/>
-        <v>11678750</v>
+        <v>11703710</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" si="3"/>
-        <v>19585880</v>
+        <v>19610890</v>
       </c>
       <c r="H66" s="23">
         <f t="shared" si="3"/>
-        <v>28332360</v>
+        <v>28408120</v>
       </c>
       <c r="I66" s="23">
         <f t="shared" si="3"/>
-        <v>37922300</v>
+        <v>38049100</v>
       </c>
       <c r="J66" s="23">
         <f t="shared" si="3"/>
-        <v>45032000</v>
+        <v>45133100</v>
       </c>
       <c r="K66" s="23">
         <f t="shared" si="3"/>
-        <v>52776300</v>
+        <v>52773500</v>
       </c>
       <c r="L66" s="23">
         <f t="shared" si="3"/>
-        <v>61414200</v>
+        <v>61385400</v>
       </c>
       <c r="M66" s="23">
         <f t="shared" si="3"/>
-        <v>74194200</v>
+        <v>74269900</v>
       </c>
       <c r="N66" s="23">
         <f t="shared" si="3"/>
-        <v>85368100</v>
+        <v>85521300</v>
       </c>
       <c r="O66" s="23">
         <f t="shared" si="3"/>
-        <v>96348400</v>
+        <v>96502000</v>
       </c>
       <c r="P66" s="23">
         <f t="shared" si="3"/>
-        <v>105254700</v>
+        <v>105329500</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="3"/>
-        <v>119246200</v>
+        <v>119453300</v>
       </c>
       <c r="R66" s="23">
         <f t="shared" si="3"/>
-        <v>134826000</v>
+        <v>134821000</v>
       </c>
       <c r="S66" s="23">
         <f t="shared" si="3"/>
-        <v>150789000</v>
+        <v>150757000</v>
       </c>
       <c r="T66" s="23">
         <f t="shared" si="3"/>
-        <v>164051000</v>
+        <v>163913000</v>
       </c>
       <c r="U66" s="23">
         <f t="shared" si="3"/>
-        <v>169627000</v>
+        <v>169941000</v>
       </c>
       <c r="V66" s="23">
         <f t="shared" si="3"/>
-        <v>172723000</v>
+        <v>171564000</v>
       </c>
       <c r="W66" s="23">
         <f t="shared" si="3"/>
-        <v>171882000</v>
+        <v>173823000</v>
       </c>
       <c r="X66" s="23">
         <f t="shared" si="3"/>
-        <v>172150000</v>
+        <v>170933000</v>
       </c>
       <c r="Y66" s="23">
         <f t="shared" si="3"/>
-        <v>167841000</v>
+        <v>171169000</v>
       </c>
       <c r="Z66" s="23">
         <f t="shared" si="3"/>
-        <v>156518000</v>
+        <v>161342000</v>
       </c>
       <c r="AA66" s="23">
         <f t="shared" si="3"/>
-        <v>151283000</v>
+        <v>155636000</v>
       </c>
       <c r="AB66" s="23">
         <f t="shared" si="3"/>
-        <v>139332000</v>
+        <v>144880000</v>
       </c>
       <c r="AC66" s="23">
         <f t="shared" si="3"/>
-        <v>131329000</v>
+        <v>126366000</v>
       </c>
       <c r="AD66" s="23">
         <f t="shared" si="3"/>
-        <v>115750000</v>
+        <v>111163000</v>
       </c>
       <c r="AE66" s="23">
         <f t="shared" si="3"/>
-        <v>95495000</v>
+        <v>91829000</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
@@ -13837,111 +13837,111 @@
       </c>
       <c r="E67" s="23">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="3"/>
-        <v>-86584</v>
+        <v>-86583</v>
       </c>
       <c r="G67" s="23">
         <f t="shared" si="3"/>
-        <v>-173277</v>
+        <v>-173239</v>
       </c>
       <c r="H67" s="23">
         <f t="shared" si="3"/>
-        <v>-260481</v>
+        <v>-260278</v>
       </c>
       <c r="I67" s="23">
         <f t="shared" si="3"/>
-        <v>-261752</v>
+        <v>-264300</v>
       </c>
       <c r="J67" s="23">
         <f t="shared" si="3"/>
-        <v>-368804</v>
+        <v>-378574</v>
       </c>
       <c r="K67" s="23">
         <f t="shared" si="3"/>
-        <v>-438199</v>
+        <v>-439718</v>
       </c>
       <c r="L67" s="23">
         <f t="shared" si="3"/>
-        <v>-529291</v>
+        <v>-523373</v>
       </c>
       <c r="M67" s="23">
         <f t="shared" si="3"/>
-        <v>-606784</v>
+        <v>-606189</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="3"/>
-        <v>-594119</v>
+        <v>-601713</v>
       </c>
       <c r="O67" s="23">
         <f t="shared" si="3"/>
-        <v>-553013</v>
+        <v>-556828</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" si="3"/>
-        <v>-722098</v>
+        <v>-711847</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="3"/>
-        <v>-538768.9</v>
+        <v>-572355.5</v>
       </c>
       <c r="R67" s="23">
         <f t="shared" si="3"/>
-        <v>-619497</v>
+        <v>-667453</v>
       </c>
       <c r="S67" s="23">
         <f t="shared" si="3"/>
-        <v>-705273</v>
+        <v>-698844</v>
       </c>
       <c r="T67" s="23">
         <f t="shared" si="3"/>
-        <v>-1099046</v>
+        <v>-1093235</v>
       </c>
       <c r="U67" s="23">
         <f t="shared" si="3"/>
-        <v>-825569</v>
+        <v>-982724</v>
       </c>
       <c r="V67" s="23">
         <f t="shared" si="3"/>
-        <v>-360265</v>
+        <v>-307401</v>
       </c>
       <c r="W67" s="23">
         <f t="shared" si="3"/>
-        <v>-279597</v>
+        <v>-250905</v>
       </c>
       <c r="X67" s="23">
         <f t="shared" si="3"/>
-        <v>-286498</v>
+        <v>-280714</v>
       </c>
       <c r="Y67" s="23">
         <f t="shared" si="3"/>
-        <v>-277105</v>
+        <v>-226849</v>
       </c>
       <c r="Z67" s="23">
         <f t="shared" si="3"/>
-        <v>-237147</v>
+        <v>-230016</v>
       </c>
       <c r="AA67" s="23">
         <f t="shared" si="3"/>
-        <v>-241622</v>
+        <v>-241542</v>
       </c>
       <c r="AB67" s="23">
         <f t="shared" si="3"/>
-        <v>-200553</v>
+        <v>-202205</v>
       </c>
       <c r="AC67" s="23">
         <f t="shared" si="3"/>
-        <v>-170152</v>
+        <v>-145967</v>
       </c>
       <c r="AD67" s="23">
         <f t="shared" si="3"/>
-        <v>-124071</v>
+        <v>-107214</v>
       </c>
       <c r="AE67" s="23">
         <f t="shared" si="3"/>
-        <v>-122188</v>
+        <v>-96457</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
@@ -14121,75 +14121,75 @@
       </c>
       <c r="N69" s="23">
         <f t="shared" si="3"/>
-        <v>-100103</v>
+        <v>-600616</v>
       </c>
       <c r="O69" s="23">
         <f t="shared" si="3"/>
-        <v>-200210</v>
+        <v>-700722</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" si="3"/>
-        <v>-850870</v>
+        <v>-700722</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="3"/>
-        <v>-1451490</v>
+        <v>-700722</v>
       </c>
       <c r="R69" s="23">
         <f t="shared" si="3"/>
-        <v>-2002050</v>
+        <v>-700722</v>
       </c>
       <c r="S69" s="23">
         <f t="shared" si="3"/>
-        <v>-2134540</v>
+        <v>-817670</v>
       </c>
       <c r="T69" s="23">
         <f t="shared" si="3"/>
-        <v>-2586340</v>
+        <v>-1336570</v>
       </c>
       <c r="U69" s="23">
         <f t="shared" si="3"/>
-        <v>-2865530</v>
+        <v>-1712970</v>
       </c>
       <c r="V69" s="23">
         <f t="shared" si="3"/>
-        <v>-3049940</v>
+        <v>-1997730</v>
       </c>
       <c r="W69" s="23">
         <f t="shared" si="3"/>
-        <v>-3159040</v>
+        <v>-2113840</v>
       </c>
       <c r="X69" s="23">
         <f t="shared" si="3"/>
-        <v>-3128620</v>
+        <v>-2060570</v>
       </c>
       <c r="Y69" s="23">
         <f t="shared" si="3"/>
-        <v>-2461990</v>
+        <v>-2052070</v>
       </c>
       <c r="Z69" s="23">
         <f t="shared" si="3"/>
-        <v>-815300</v>
+        <v>-1535660</v>
       </c>
       <c r="AA69" s="23">
         <f t="shared" si="3"/>
-        <v>-5640</v>
+        <v>-5080</v>
       </c>
       <c r="AB69" s="23">
         <f t="shared" si="3"/>
-        <v>-6580</v>
+        <v>-5900</v>
       </c>
       <c r="AC69" s="23">
         <f t="shared" si="3"/>
-        <v>-5520</v>
+        <v>-4580</v>
       </c>
       <c r="AD69" s="23">
         <f t="shared" si="3"/>
-        <v>-4950</v>
+        <v>-3630</v>
       </c>
       <c r="AE69" s="23">
         <f t="shared" si="3"/>
-        <v>-4240</v>
+        <v>-3230</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="G74" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-119601</v>
       </c>
       <c r="H74" s="23">
         <f t="shared" si="5"/>
@@ -14733,11 +14733,11 @@
       </c>
       <c r="L74" s="23">
         <f t="shared" si="5"/>
-        <v>-124633</v>
+        <v>-124567</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="5"/>
-        <v>-130563</v>
+        <v>-130565</v>
       </c>
       <c r="N74" s="23">
         <f t="shared" si="5"/>
@@ -14745,71 +14745,71 @@
       </c>
       <c r="O74" s="23">
         <f t="shared" si="5"/>
-        <v>-357176</v>
+        <v>-251063.4</v>
       </c>
       <c r="P74" s="23">
         <f t="shared" si="5"/>
-        <v>-357176</v>
+        <v>-251063.9</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="5"/>
-        <v>-349526</v>
+        <v>-245847.4</v>
       </c>
       <c r="R74" s="23">
         <f t="shared" si="5"/>
-        <v>-340162</v>
+        <v>-241902.6</v>
       </c>
       <c r="S74" s="23">
         <f t="shared" si="5"/>
-        <v>-314599</v>
+        <v>-234542.6</v>
       </c>
       <c r="T74" s="23">
         <f t="shared" si="5"/>
-        <v>-288624</v>
+        <v>-212920</v>
       </c>
       <c r="U74" s="23">
         <f t="shared" si="5"/>
-        <v>-288441</v>
+        <v>-217628.6</v>
       </c>
       <c r="V74" s="23">
         <f t="shared" si="5"/>
-        <v>-279246</v>
+        <v>-181531.4</v>
       </c>
       <c r="W74" s="23">
         <f t="shared" si="5"/>
-        <v>-268883</v>
+        <v>-181156.2</v>
       </c>
       <c r="X74" s="23">
         <f t="shared" si="5"/>
-        <v>-264183</v>
+        <v>-180108.1</v>
       </c>
       <c r="Y74" s="23">
         <f t="shared" si="5"/>
-        <v>-261454</v>
+        <v>-196705.6</v>
       </c>
       <c r="Z74" s="23">
         <f t="shared" si="5"/>
-        <v>-256319</v>
+        <v>-215733.2</v>
       </c>
       <c r="AA74" s="23">
         <f t="shared" si="5"/>
-        <v>-250366</v>
+        <v>-217000.1</v>
       </c>
       <c r="AB74" s="23">
         <f t="shared" si="5"/>
-        <v>-205531</v>
+        <v>-222929.4</v>
       </c>
       <c r="AC74" s="23">
         <f t="shared" si="5"/>
-        <v>-219955</v>
+        <v>-189416.3</v>
       </c>
       <c r="AD74" s="23">
         <f t="shared" si="5"/>
-        <v>-218059.2</v>
+        <v>-183521.5</v>
       </c>
       <c r="AE74" s="23">
         <f t="shared" si="5"/>
-        <v>-237619</v>
+        <v>-170031.8</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
@@ -15074,111 +15074,111 @@
       </c>
       <c r="E77" s="23">
         <f t="shared" si="6"/>
-        <v>17649570</v>
+        <v>17649610</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="6"/>
-        <v>36516100</v>
+        <v>36557680</v>
       </c>
       <c r="G77" s="23">
         <f t="shared" si="6"/>
-        <v>54957020</v>
+        <v>55038630</v>
       </c>
       <c r="H77" s="23">
         <f t="shared" si="6"/>
-        <v>75009690</v>
+        <v>75309480</v>
       </c>
       <c r="I77" s="23">
         <f t="shared" si="6"/>
-        <v>96592100</v>
+        <v>97068000</v>
       </c>
       <c r="J77" s="23">
         <f t="shared" si="6"/>
-        <v>111667600</v>
+        <v>111976900</v>
       </c>
       <c r="K77" s="23">
         <f t="shared" si="6"/>
-        <v>126819900</v>
+        <v>126579800</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="6"/>
-        <v>140355200</v>
+        <v>140099300</v>
       </c>
       <c r="M77" s="23">
         <f t="shared" si="6"/>
-        <v>151514600</v>
+        <v>151071700</v>
       </c>
       <c r="N77" s="23">
         <f t="shared" si="6"/>
-        <v>155141500</v>
+        <v>155343800</v>
       </c>
       <c r="O77" s="23">
         <f t="shared" si="6"/>
-        <v>163115800</v>
+        <v>163957100</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" si="6"/>
-        <v>164808100</v>
+        <v>165912700</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="6"/>
-        <v>169444300</v>
+        <v>170121700</v>
       </c>
       <c r="R77" s="23">
         <f t="shared" si="6"/>
-        <v>172543000</v>
+        <v>173085100</v>
       </c>
       <c r="S77" s="23">
         <f t="shared" si="6"/>
-        <v>169258700</v>
+        <v>170375000</v>
       </c>
       <c r="T77" s="23">
         <f t="shared" si="6"/>
-        <v>175245100</v>
+        <v>174044800</v>
       </c>
       <c r="U77" s="23">
         <f t="shared" si="6"/>
-        <v>176869400</v>
+        <v>176290200</v>
       </c>
       <c r="V77" s="23">
         <f t="shared" si="6"/>
-        <v>176449800</v>
+        <v>179040400</v>
       </c>
       <c r="W77" s="23">
         <f t="shared" si="6"/>
-        <v>183155756.29899999</v>
+        <v>179264200</v>
       </c>
       <c r="X77" s="23">
         <f t="shared" si="6"/>
-        <v>190869204.19</v>
+        <v>177721800</v>
       </c>
       <c r="Y77" s="23">
         <f t="shared" si="6"/>
-        <v>188936348.08000001</v>
+        <v>187099759.449</v>
       </c>
       <c r="Z77" s="23">
         <f t="shared" si="6"/>
-        <v>187333543.24000001</v>
+        <v>197357748.66</v>
       </c>
       <c r="AA77" s="23">
         <f t="shared" si="6"/>
-        <v>189943241.30000001</v>
+        <v>199351045.30000001</v>
       </c>
       <c r="AB77" s="23">
         <f t="shared" si="6"/>
-        <v>193353408.19999999</v>
+        <v>204235881.40000001</v>
       </c>
       <c r="AC77" s="23">
         <f t="shared" si="6"/>
-        <v>203823751.90000001</v>
+        <v>195683112.028</v>
       </c>
       <c r="AD77" s="23">
         <f t="shared" si="6"/>
-        <v>213791802.90709999</v>
+        <v>200534314.014</v>
       </c>
       <c r="AE77" s="23">
         <f t="shared" si="6"/>
-        <v>218073785</v>
+        <v>203621929.59999999</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
@@ -15195,111 +15195,111 @@
       </c>
       <c r="E78" s="23">
         <f>'Hydrogen Calculations'!D13</f>
-        <v>19034100</v>
+        <v>14757700</v>
       </c>
       <c r="F78" s="23">
         <f>'Hydrogen Calculations'!E13</f>
-        <v>38501300</v>
+        <v>29909400</v>
       </c>
       <c r="G78" s="23">
         <f>'Hydrogen Calculations'!F13</f>
-        <v>58381800</v>
+        <v>51620600</v>
       </c>
       <c r="H78" s="23">
         <f>'Hydrogen Calculations'!G13</f>
-        <v>76718800</v>
+        <v>71941400</v>
       </c>
       <c r="I78" s="23">
         <f>'Hydrogen Calculations'!H13</f>
-        <v>96345900</v>
+        <v>93471700</v>
       </c>
       <c r="J78" s="23">
         <f>'Hydrogen Calculations'!I13</f>
-        <v>113515000</v>
+        <v>112416000</v>
       </c>
       <c r="K78" s="23">
         <f>'Hydrogen Calculations'!J13</f>
-        <v>130124000</v>
+        <v>130345000</v>
       </c>
       <c r="L78" s="23">
         <f>'Hydrogen Calculations'!K13</f>
-        <v>140412000</v>
+        <v>139764000</v>
       </c>
       <c r="M78" s="23">
         <f>'Hydrogen Calculations'!L13</f>
-        <v>148334000</v>
+        <v>147362000</v>
       </c>
       <c r="N78" s="23">
         <f>'Hydrogen Calculations'!M13</f>
-        <v>155113000</v>
+        <v>154622000</v>
       </c>
       <c r="O78" s="23">
         <f>'Hydrogen Calculations'!N13</f>
-        <v>161547000</v>
+        <v>161710000</v>
       </c>
       <c r="P78" s="23">
         <f>'Hydrogen Calculations'!O13</f>
-        <v>167706000</v>
+        <v>168263000</v>
       </c>
       <c r="Q78" s="23">
         <f>'Hydrogen Calculations'!P13</f>
-        <v>168299000</v>
+        <v>169011000</v>
       </c>
       <c r="R78" s="23">
         <f>'Hydrogen Calculations'!Q13</f>
-        <v>172137000</v>
+        <v>172458000</v>
       </c>
       <c r="S78" s="23">
         <f>'Hydrogen Calculations'!R13</f>
-        <v>175042000</v>
+        <v>174410000</v>
       </c>
       <c r="T78" s="23">
         <f>'Hydrogen Calculations'!S13</f>
-        <v>174988000</v>
+        <v>173547000</v>
       </c>
       <c r="U78" s="23">
         <f>'Hydrogen Calculations'!T13</f>
-        <v>174791000</v>
+        <v>173383000</v>
       </c>
       <c r="V78" s="23">
         <f>'Hydrogen Calculations'!U13</f>
-        <v>175495000</v>
+        <v>174658000</v>
       </c>
       <c r="W78" s="23">
         <f>'Hydrogen Calculations'!V13</f>
-        <v>178519000</v>
+        <v>178441000</v>
       </c>
       <c r="X78" s="23">
         <f>'Hydrogen Calculations'!W13</f>
-        <v>183944000</v>
+        <v>184482000</v>
       </c>
       <c r="Y78" s="23">
         <f>'Hydrogen Calculations'!X13</f>
-        <v>187628000</v>
+        <v>188330000</v>
       </c>
       <c r="Z78" s="23">
         <f>'Hydrogen Calculations'!Y13</f>
-        <v>190174000</v>
+        <v>190846000</v>
       </c>
       <c r="AA78" s="23">
         <f>'Hydrogen Calculations'!Z13</f>
-        <v>193246000</v>
+        <v>194011000</v>
       </c>
       <c r="AB78" s="23">
         <f>'Hydrogen Calculations'!AA13</f>
-        <v>196589000</v>
+        <v>197585000</v>
       </c>
       <c r="AC78" s="23">
         <f>'Hydrogen Calculations'!AB13</f>
-        <v>199877000</v>
+        <v>201042000</v>
       </c>
       <c r="AD78" s="23">
         <f>'Hydrogen Calculations'!AC13</f>
-        <v>203373000</v>
+        <v>204704000</v>
       </c>
       <c r="AE78" s="23">
         <f>'Hydrogen Calculations'!AD13</f>
-        <v>207148000</v>
+        <v>209278000</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.35">
@@ -20961,15 +20961,15 @@
       </c>
       <c r="X7" s="18">
         <f>'Hydrogen Calculations'!V34</f>
-        <v>25823.20580145036</v>
+        <v>10468.867216804201</v>
       </c>
       <c r="Y7" s="18">
         <f>'Hydrogen Calculations'!W34</f>
-        <v>28008.220891788045</v>
+        <v>14004.110445894023</v>
       </c>
       <c r="Z7" s="18">
         <f>'Hydrogen Calculations'!X34</f>
-        <v>26483.552972916885</v>
+        <v>18458.233890214797</v>
       </c>
       <c r="AA7" s="18">
         <f>'Hydrogen Calculations'!Y34</f>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="AF7" s="18">
         <f>'Hydrogen Calculations'!AD34</f>
-        <v>0</v>
+        <v>7242.063492063492</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -21090,15 +21090,15 @@
       </c>
       <c r="X8" s="18">
         <f>'Hydrogen Calculations'!V36</f>
-        <v>3091.8146203217475</v>
+        <v>1253.4383595898976</v>
       </c>
       <c r="Y8" s="18">
         <f>'Hydrogen Calculations'!W36</f>
-        <v>3449.2002502010546</v>
+        <v>1724.6001251005273</v>
       </c>
       <c r="Z8" s="18">
         <f>'Hydrogen Calculations'!X36</f>
-        <v>3458.5451904119541</v>
+        <v>2410.5011933174223</v>
       </c>
       <c r="AA8" s="18">
         <f>'Hydrogen Calculations'!Y36</f>
@@ -21122,7 +21122,7 @@
       </c>
       <c r="AF8" s="18">
         <f>'Hydrogen Calculations'!AD36</f>
-        <v>0</v>
+        <v>661.37566137566137</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -21993,15 +21993,15 @@
       </c>
       <c r="X15" s="18">
         <f>BPMCCS!X15+'Hydrogen Calculations'!V35</f>
-        <v>3617.6544136034008</v>
+        <v>1466.6166541635407</v>
       </c>
       <c r="Y15" s="18">
         <f>BPMCCS!Y15+'Hydrogen Calculations'!W35</f>
-        <v>3881.690644267715</v>
+        <v>1940.8453221338575</v>
       </c>
       <c r="Z15" s="18">
         <f>BPMCCS!Z15+'Hydrogen Calculations'!X35</f>
-        <v>3057.901836671163</v>
+        <v>2131.2649164677805</v>
       </c>
       <c r="AA15" s="18">
         <f>BPMCCS!AA15+'Hydrogen Calculations'!Y35</f>
@@ -23332,39 +23332,39 @@
       </c>
       <c r="D29" s="7">
         <f>'Hydrogen Results'!E$78/'Hydrogen Results'!E$77</f>
-        <v>1.0784455372000565</v>
+        <v>0.83614878742363141</v>
       </c>
       <c r="E29" s="7">
         <f>'Hydrogen Results'!F$78/'Hydrogen Results'!F$77</f>
-        <v>1.0543650608909494</v>
+        <v>0.81814272678134936</v>
       </c>
       <c r="F29" s="7">
         <f>'Hydrogen Results'!G$78/'Hydrogen Results'!G$77</f>
-        <v>1.0623174255081516</v>
+        <v>0.93789761845452913</v>
       </c>
       <c r="G29" s="7">
         <f>'Hydrogen Results'!H$78/'Hydrogen Results'!H$77</f>
-        <v>1.0227851894868516</v>
+        <v>0.95527681242786433</v>
       </c>
       <c r="H29" s="7">
         <f>'Hydrogen Results'!I$78/'Hydrogen Results'!I$77</f>
-        <v>0.99745113730833057</v>
+        <v>0.96295071496270657</v>
       </c>
       <c r="I29" s="7">
         <f>'Hydrogen Results'!J$78/'Hydrogen Results'!J$77</f>
-        <v>1.0165437423209598</v>
+        <v>1.0039213444915871</v>
       </c>
       <c r="J29" s="7">
         <f>'Hydrogen Results'!K$78/'Hydrogen Results'!K$77</f>
-        <v>1.0260534821427867</v>
+        <v>1.0297456624200703</v>
       </c>
       <c r="K29" s="7">
         <f>'Hydrogen Results'!L$78/'Hydrogen Results'!L$77</f>
-        <v>1.0004046875356238</v>
+        <v>0.99760669753524822</v>
       </c>
       <c r="L29" s="7">
         <f>'Hydrogen Results'!M$78/'Hydrogen Results'!M$77</f>
-        <v>0.97900796358898745</v>
+        <v>0.97544411031318246</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
@@ -24233,15 +24233,15 @@
       </c>
       <c r="X7" s="25">
         <f>Calculations!X7</f>
-        <v>25823.20580145036</v>
+        <v>10468.867216804201</v>
       </c>
       <c r="Y7" s="25">
         <f>Calculations!Y7</f>
-        <v>28008.220891788045</v>
+        <v>14004.110445894023</v>
       </c>
       <c r="Z7" s="25">
         <f>Calculations!Z7</f>
-        <v>26483.552972916885</v>
+        <v>18458.233890214797</v>
       </c>
       <c r="AA7" s="25">
         <f>Calculations!AA7</f>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="AF7" s="25">
         <f>Calculations!AF7</f>
-        <v>0</v>
+        <v>7242.063492063492</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
@@ -24362,15 +24362,15 @@
       </c>
       <c r="X8" s="25">
         <f>Calculations!X8</f>
-        <v>3091.8146203217475</v>
+        <v>1253.4383595898976</v>
       </c>
       <c r="Y8" s="25">
         <f>Calculations!Y8</f>
-        <v>3449.2002502010546</v>
+        <v>1724.6001251005273</v>
       </c>
       <c r="Z8" s="25">
         <f>Calculations!Z8</f>
-        <v>3458.5451904119541</v>
+        <v>2410.5011933174223</v>
       </c>
       <c r="AA8" s="25">
         <f>Calculations!AA8</f>
@@ -24394,7 +24394,7 @@
       </c>
       <c r="AF8" s="25">
         <f>Calculations!AF8</f>
-        <v>0</v>
+        <v>661.37566137566137</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
@@ -25265,15 +25265,15 @@
       </c>
       <c r="X15" s="25">
         <f>Calculations!X15</f>
-        <v>3617.6544136034008</v>
+        <v>1466.6166541635407</v>
       </c>
       <c r="Y15" s="25">
         <f>Calculations!Y15</f>
-        <v>3881.690644267715</v>
+        <v>1940.8453221338575</v>
       </c>
       <c r="Z15" s="25">
         <f>Calculations!Z15</f>
-        <v>3057.901836671163</v>
+        <v>2131.2649164677805</v>
       </c>
       <c r="AA15" s="25">
         <f>Calculations!AA15</f>
